--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Desktop\infirmary-integrated\II_Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>LoadSimulation</t>
   </si>
@@ -174,6 +174,30 @@
   </si>
   <si>
     <t>CardiacMonitor</t>
+  </si>
+  <si>
+    <t>Devices</t>
+  </si>
+  <si>
+    <t>Ventilator</t>
+  </si>
+  <si>
+    <t>IABP</t>
+  </si>
+  <si>
+    <t>Defibrillator</t>
+  </si>
+  <si>
+    <t>12LeadECG</t>
+  </si>
+  <si>
+    <t>IVPump</t>
+  </si>
+  <si>
+    <t>LabResults</t>
+  </si>
+  <si>
+    <t>Cardiotocograph</t>
   </si>
 </sst>
 </file>
@@ -500,11 +524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A31" sqref="A31"/>
+      <selection pane="topRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,61 +705,101 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>34</v>
       </c>
     </row>

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -26,21 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
-    <t>LoadSimulation</t>
-  </si>
-  <si>
-    <t>SaveSimulation</t>
-  </si>
-  <si>
-    <t>ExitProgram</t>
-  </si>
-  <si>
-    <t>Help</t>
-  </si>
-  <si>
-    <t>AboutProgram</t>
-  </si>
-  <si>
     <t>HeartRate</t>
   </si>
   <si>
@@ -98,42 +83,6 @@
     <t>ResetParameters</t>
   </si>
   <si>
-    <t>DeviceOptions</t>
-  </si>
-  <si>
-    <t>PauseDevice</t>
-  </si>
-  <si>
-    <t>NumericRowAmounts</t>
-  </si>
-  <si>
-    <t>TracingRowAmounts</t>
-  </si>
-  <si>
-    <t>FontSize</t>
-  </si>
-  <si>
-    <t>ColorScheme</t>
-  </si>
-  <si>
-    <t>ToggleFullscreen</t>
-  </si>
-  <si>
-    <t>CloseDevice</t>
-  </si>
-  <si>
-    <t>PatientOptions</t>
-  </si>
-  <si>
-    <t>NewPatient</t>
-  </si>
-  <si>
-    <t>EditPatient</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
     <t>Key</t>
   </si>
   <si>
@@ -198,6 +147,57 @@
   </si>
   <si>
     <t>Cardiotocograph</t>
+  </si>
+  <si>
+    <t>MenuDeviceOptions</t>
+  </si>
+  <si>
+    <t>MenuNumericRowAmounts</t>
+  </si>
+  <si>
+    <t>MenuPauseDevice</t>
+  </si>
+  <si>
+    <t>MenuTracingRowAmounts</t>
+  </si>
+  <si>
+    <t>MenuFontSize</t>
+  </si>
+  <si>
+    <t>MenuColorScheme</t>
+  </si>
+  <si>
+    <t>MenuToggleFullscreen</t>
+  </si>
+  <si>
+    <t>MenuCloseDevice</t>
+  </si>
+  <si>
+    <t>MenuPatientOptions</t>
+  </si>
+  <si>
+    <t>MenuNewPatient</t>
+  </si>
+  <si>
+    <t>MenuEditPatient</t>
+  </si>
+  <si>
+    <t>MenuFile</t>
+  </si>
+  <si>
+    <t>MenuLoadSimulation</t>
+  </si>
+  <si>
+    <t>MenuSaveSimulation</t>
+  </si>
+  <si>
+    <t>MenuExitProgram</t>
+  </si>
+  <si>
+    <t>MenuHelp</t>
+  </si>
+  <si>
+    <t>MenuAboutProgram</t>
   </si>
 </sst>
 </file>
@@ -524,283 +524,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A37" sqref="A37"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>24</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>34</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="763">
   <si>
     <t>Temperature</t>
   </si>
@@ -182,9 +182,6 @@
     <t>CM:MenuCloseDevice</t>
   </si>
   <si>
-    <t>ABOUT:InfirmaryIntegrated</t>
-  </si>
-  <si>
     <t>ABOUT:Version</t>
   </si>
   <si>
@@ -1214,9 +1211,6 @@
     <t>Infirmary Integrated: Cardiac Monitor</t>
   </si>
   <si>
-    <t>PROG:Title</t>
-  </si>
-  <si>
     <t>CM:MenuExitProgram</t>
   </si>
   <si>
@@ -1242,6 +1236,1083 @@
   </si>
   <si>
     <t>Add _Tracing</t>
+  </si>
+  <si>
+    <t>II:InfirmaryIntegrated</t>
+  </si>
+  <si>
+    <t>Ventricular Tachycardia (Polymorphic)</t>
+  </si>
+  <si>
+    <t>Atrial Fibrillation</t>
+  </si>
+  <si>
+    <t>Atrial Flutter</t>
+  </si>
+  <si>
+    <t>AV Block, 1st Degree</t>
+  </si>
+  <si>
+    <t>AV Block, 3rd Degree</t>
+  </si>
+  <si>
+    <t>AV Block, Mobitz II</t>
+  </si>
+  <si>
+    <t>AV Block, Wenckebach</t>
+  </si>
+  <si>
+    <t>Bundle Branch Block</t>
+  </si>
+  <si>
+    <t>Idioventricular</t>
+  </si>
+  <si>
+    <t>Junctional</t>
+  </si>
+  <si>
+    <t>Pulseless Electrical Activity</t>
+  </si>
+  <si>
+    <t>Sinus Rhythm</t>
+  </si>
+  <si>
+    <t>Sinus Rhythm with Bigeminy</t>
+  </si>
+  <si>
+    <t>Sinus Rhythm with Trigeminy</t>
+  </si>
+  <si>
+    <t>Sinus Rhythm with PACs</t>
+  </si>
+  <si>
+    <t>Sinus Rhythm with PJCs</t>
+  </si>
+  <si>
+    <t>Sinus Rhythm with PVCs (Multifocal)</t>
+  </si>
+  <si>
+    <t>Sinus Rhythm with PVCs (Unifocal)</t>
+  </si>
+  <si>
+    <t>Supraventricular Tachycardia</t>
+  </si>
+  <si>
+    <t>Ventricular Fibrillation (Coarse)</t>
+  </si>
+  <si>
+    <t>Ventricular Fibrillation (Fine)</t>
+  </si>
+  <si>
+    <t>Ventricular Standstill</t>
+  </si>
+  <si>
+    <t>RHYTHM:Ventricular_Tachycardia_Polymorphic</t>
+  </si>
+  <si>
+    <t>RHYTHM:Asystole</t>
+  </si>
+  <si>
+    <t>RHYTHM:Atrial_Fibrillation</t>
+  </si>
+  <si>
+    <t>RHYTHM:Atrial_Flutter</t>
+  </si>
+  <si>
+    <t>RHYTHM:AV_Block__1st_Degree</t>
+  </si>
+  <si>
+    <t>RHYTHM:AV_Block__3rd_Degree</t>
+  </si>
+  <si>
+    <t>RHYTHM:AV_Block__Mobitz_II</t>
+  </si>
+  <si>
+    <t>RHYTHM:AV_Block__Wenckebach</t>
+  </si>
+  <si>
+    <t>RHYTHM:Bundle_Branch_Block</t>
+  </si>
+  <si>
+    <t>RHYTHM:Idioventricular</t>
+  </si>
+  <si>
+    <t>RHYTHM:Junctional</t>
+  </si>
+  <si>
+    <t>RHYTHM:Pulseless_Electrical_Activity</t>
+  </si>
+  <si>
+    <t>RHYTHM:Sinus_Rhythm</t>
+  </si>
+  <si>
+    <t>RHYTHM:Sinus_Rhythm_with_Bigeminy</t>
+  </si>
+  <si>
+    <t>RHYTHM:Sinus_Rhythm_with_Trigeminy</t>
+  </si>
+  <si>
+    <t>RHYTHM:Sinus_Rhythm_with_PACs</t>
+  </si>
+  <si>
+    <t>RHYTHM:Sinus_Rhythm_with_PJCs</t>
+  </si>
+  <si>
+    <t>RHYTHM:Sinus_Rhythm_with_PVCs_Multifocal</t>
+  </si>
+  <si>
+    <t>RHYTHM:Sinus_Rhythm_with_PVCs_Unifocal</t>
+  </si>
+  <si>
+    <t>RHYTHM:Supraventricular_Tachycardia</t>
+  </si>
+  <si>
+    <t>RHYTHM:Ventricular_Fibrillation_Coarse</t>
+  </si>
+  <si>
+    <t>RHYTHM:Ventricular_Fibrillation_Fine</t>
+  </si>
+  <si>
+    <t>RHYTHM:Ventricular_Standstill</t>
+  </si>
+  <si>
+    <t>RHYTHM:Ventricular_Tachycardia_Monomorphic_Pulsed</t>
+  </si>
+  <si>
+    <t>RHYTHM:Ventricular_Tachycardia_Monomorphic_Pulseless</t>
+  </si>
+  <si>
+    <t>Asystole</t>
+  </si>
+  <si>
+    <t>RHYTHM:Regular</t>
+  </si>
+  <si>
+    <t>RHYTHM:Apnea</t>
+  </si>
+  <si>
+    <t>Apnea</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Asistolia</t>
+  </si>
+  <si>
+    <t>Fibrilación auricular</t>
+  </si>
+  <si>
+    <t>Aleteo auricular</t>
+  </si>
+  <si>
+    <t>Bloque AV, 1er grado</t>
+  </si>
+  <si>
+    <t>Bloque AV, 3er Grado</t>
+  </si>
+  <si>
+    <t>Bloque AV, Mobitz II</t>
+  </si>
+  <si>
+    <t>Actividad eléctrica sin pulso</t>
+  </si>
+  <si>
+    <t>Ritmo sinusal</t>
+  </si>
+  <si>
+    <t>Ritmo sinusal con Bigeminy</t>
+  </si>
+  <si>
+    <t>Ritmo sinusal con Trigeminy</t>
+  </si>
+  <si>
+    <t>Ritmo sinusal con PAC</t>
+  </si>
+  <si>
+    <t>Ritmo sinusal con PJCs</t>
+  </si>
+  <si>
+    <t>Ritmo sinusal con PVC (multifocal)</t>
+  </si>
+  <si>
+    <t>Ritmo sinusal con PVC (Unifocal)</t>
+  </si>
+  <si>
+    <t>Taquicardia supraventricular</t>
+  </si>
+  <si>
+    <t>Fibrilación ventricular (gruesa)</t>
+  </si>
+  <si>
+    <t>Fibrilación ventricular (Fina)</t>
+  </si>
+  <si>
+    <t>Ventricular parado</t>
+  </si>
+  <si>
+    <t>Taquicardia ventricular (monomórfica, sin pulso)</t>
+  </si>
+  <si>
+    <t>Taquicardia ventricular (polimórfica)</t>
+  </si>
+  <si>
+    <t>Electrocardiograph</t>
+  </si>
+  <si>
+    <t>End-tidal Capnography</t>
+  </si>
+  <si>
+    <t>Non-invasive Blood Pressure</t>
+  </si>
+  <si>
+    <t>NUMERIC:ECG</t>
+  </si>
+  <si>
+    <t>NUMERIC:T</t>
+  </si>
+  <si>
+    <t>NUMERIC:RR</t>
+  </si>
+  <si>
+    <t>NUMERIC:ETCO2</t>
+  </si>
+  <si>
+    <t>NUMERIC:SPO2</t>
+  </si>
+  <si>
+    <t>NUMERIC:NIBP</t>
+  </si>
+  <si>
+    <t>NUMERIC:ABP</t>
+  </si>
+  <si>
+    <t>NUMERIC:CVP</t>
+  </si>
+  <si>
+    <t>NUMERIC:PAP</t>
+  </si>
+  <si>
+    <t>Electrocardiograph (ECG) Lead I</t>
+  </si>
+  <si>
+    <t>Electrocardiograph (ECG) Lead II</t>
+  </si>
+  <si>
+    <t>Electrocardiograph (ECG) Lead III</t>
+  </si>
+  <si>
+    <t>Electrocardiograph (ECG) Lead aVR</t>
+  </si>
+  <si>
+    <t>Electrocardiograph (ECG) Lead aVL</t>
+  </si>
+  <si>
+    <t>Electrocardiograph (ECG) Lead aVF</t>
+  </si>
+  <si>
+    <t>Electrocardiograph (ECG) Lead V1</t>
+  </si>
+  <si>
+    <t>Electrocardiograph (ECG) Lead V2</t>
+  </si>
+  <si>
+    <t>Electrocardiograph (ECG) Lead V3</t>
+  </si>
+  <si>
+    <t>Electrocardiograph (ECG) Lead V4</t>
+  </si>
+  <si>
+    <t>Electrocardiograph (ECG) Lead V5</t>
+  </si>
+  <si>
+    <t>Electrocardiograph (ECG) Lead V6</t>
+  </si>
+  <si>
+    <t>LEAD:SPO2</t>
+  </si>
+  <si>
+    <t>LEAD:CVP</t>
+  </si>
+  <si>
+    <t>LEAD:ABP</t>
+  </si>
+  <si>
+    <t>LEAD:RR</t>
+  </si>
+  <si>
+    <t>LEAD:ETCO2</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_I</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_II</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_III</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_AVR</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_AVL</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_AVF</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_V1</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_V2</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_V3</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_V4</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_V5</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_V6</t>
+  </si>
+  <si>
+    <t>LEAD:PA</t>
+  </si>
+  <si>
+    <t>Asystolie</t>
+  </si>
+  <si>
+    <t>Vorhofflimmern</t>
+  </si>
+  <si>
+    <t>Vorhofflattern</t>
+  </si>
+  <si>
+    <t>AV-Block, 1. Grad</t>
+  </si>
+  <si>
+    <t>AV-Block, 3. Grad</t>
+  </si>
+  <si>
+    <t>AV-Block, Mobitz II</t>
+  </si>
+  <si>
+    <t>AV-Block, Wenckebach</t>
+  </si>
+  <si>
+    <t>Bündel Zweigblock</t>
+  </si>
+  <si>
+    <t>Idioventrikulär</t>
+  </si>
+  <si>
+    <t>Junktional</t>
+  </si>
+  <si>
+    <t>Pulslose elektrische Aktivität</t>
+  </si>
+  <si>
+    <t>Sinusrhythmus</t>
+  </si>
+  <si>
+    <t>Sinusrhythmus mit Bigeminie</t>
+  </si>
+  <si>
+    <t>Sinusrhythmus mit Trigeminie</t>
+  </si>
+  <si>
+    <t>Sinusrhythmus mit PACs</t>
+  </si>
+  <si>
+    <t>Sinusrhythmus mit PJCs</t>
+  </si>
+  <si>
+    <t>Sinusrhythmus mit PVCs (Multifokal)</t>
+  </si>
+  <si>
+    <t>Sinusrhythmus mit PVCs (Unifokal)</t>
+  </si>
+  <si>
+    <t>Supraventrikuläre Tachykardie</t>
+  </si>
+  <si>
+    <t>Ventrikuläre Fibrillation (grob)</t>
+  </si>
+  <si>
+    <t>Kammerflimmern (fein)</t>
+  </si>
+  <si>
+    <t>Ventrikulärer Stillstand</t>
+  </si>
+  <si>
+    <t>Ventrikuläre Tachykardie (polymorph)</t>
+  </si>
+  <si>
+    <t>Apnoe</t>
+  </si>
+  <si>
+    <t>Regulär</t>
+  </si>
+  <si>
+    <t>Ventricular Tachycardia (Monomorphic, Pulseless)</t>
+  </si>
+  <si>
+    <t>Ventricular Tachycardia (Monomorphic, Pulsed)</t>
+  </si>
+  <si>
+    <t>Ventrikuläre Tachykardie (monomorph, gepulst)</t>
+  </si>
+  <si>
+    <t>Ventrikuläre Tachykardie (monomorph, pulslos)</t>
+  </si>
+  <si>
+    <t>Taquicardia ventricular (monomórfica, pulsada)</t>
+  </si>
+  <si>
+    <t>Fibrillation auriculaire</t>
+  </si>
+  <si>
+    <t>Flutter atrial</t>
+  </si>
+  <si>
+    <t>Bloc AV, 1er degré</t>
+  </si>
+  <si>
+    <t>Bloc AV, 3e degré</t>
+  </si>
+  <si>
+    <t>Bloc AV, Mobitz II</t>
+  </si>
+  <si>
+    <t>Bloc AV, Wenckebach</t>
+  </si>
+  <si>
+    <t>Idioventriculaire</t>
+  </si>
+  <si>
+    <t>Jonctionnel</t>
+  </si>
+  <si>
+    <t>Activité électrique sans pouls</t>
+  </si>
+  <si>
+    <t>Un rythme sinusal</t>
+  </si>
+  <si>
+    <t>Rythme sinusal avec Bigeminy</t>
+  </si>
+  <si>
+    <t>Rythme sinusal avec Trigeminy</t>
+  </si>
+  <si>
+    <t>Rythme sinusal avec PACs</t>
+  </si>
+  <si>
+    <t>Rythme sinusal avec PJC</t>
+  </si>
+  <si>
+    <t>Rythme sinusal avec PVC (multifocal)</t>
+  </si>
+  <si>
+    <t>Rythme sinusal avec PVC (Unifocal)</t>
+  </si>
+  <si>
+    <t>Tachycardie supraventriculaire</t>
+  </si>
+  <si>
+    <t>Fibrillation ventriculaire (grossière)</t>
+  </si>
+  <si>
+    <t>Fibrillation ventriculaire (Fine)</t>
+  </si>
+  <si>
+    <t>Arrêt ventriculaire</t>
+  </si>
+  <si>
+    <t>Tachycardie ventriculaire (monomorphique, pulsée)</t>
+  </si>
+  <si>
+    <t>Tachycardie ventriculaire (polymorphe)</t>
+  </si>
+  <si>
+    <t>Apnée</t>
+  </si>
+  <si>
+    <t>Ordinaire</t>
+  </si>
+  <si>
+    <t>Tachycardie ventriculaire (monomorphic, pulseless)</t>
+  </si>
+  <si>
+    <t>asistolia</t>
+  </si>
+  <si>
+    <t>Fibrillazione atriale</t>
+  </si>
+  <si>
+    <t>Flutter atriale</t>
+  </si>
+  <si>
+    <t>Blocco AV, 1o grado</t>
+  </si>
+  <si>
+    <t>Blocco AV, 3 ° grado</t>
+  </si>
+  <si>
+    <t>Blocco AV, Mobitz II</t>
+  </si>
+  <si>
+    <t>Blocco AV, Wenckebach</t>
+  </si>
+  <si>
+    <t>idioventricolare</t>
+  </si>
+  <si>
+    <t>giunzionale</t>
+  </si>
+  <si>
+    <t>Attività elettrica senza pulsazioni</t>
+  </si>
+  <si>
+    <t>Ritmo sinusale</t>
+  </si>
+  <si>
+    <t>Ritmo sinusale con Bigeminy</t>
+  </si>
+  <si>
+    <t>Ritmo sinusale con Trigeminy</t>
+  </si>
+  <si>
+    <t>Ritmo sinusale con PAC</t>
+  </si>
+  <si>
+    <t>Ritmo sinusale con PJC</t>
+  </si>
+  <si>
+    <t>Ritmo sinusale con PVC (Multifocale)</t>
+  </si>
+  <si>
+    <t>Ritmo sinusale con PVC (Unifocal)</t>
+  </si>
+  <si>
+    <t>Tachicardia sopraventricolare</t>
+  </si>
+  <si>
+    <t>Fibrillazione ventricolare (grossolana)</t>
+  </si>
+  <si>
+    <t>Fibrillazione ventricolare (fine)</t>
+  </si>
+  <si>
+    <t>Tachicardia ventricolare (monomorfica, pulsata)</t>
+  </si>
+  <si>
+    <t>Tachicardia ventricolare (monomorfica, senza polso)</t>
+  </si>
+  <si>
+    <t>Tachicardia ventricolare (polimorfica)</t>
+  </si>
+  <si>
+    <t>Regolare</t>
+  </si>
+  <si>
+    <t>Fibrilação atrial</t>
+  </si>
+  <si>
+    <t>Bloco AV, 1º Grau</t>
+  </si>
+  <si>
+    <t>Bloco AV, 3º Grau</t>
+  </si>
+  <si>
+    <t>Bloco AV, Mobitz II</t>
+  </si>
+  <si>
+    <t>Bloco AV, Wenckebach</t>
+  </si>
+  <si>
+    <t>Juncional</t>
+  </si>
+  <si>
+    <t>Atividade elétrica sem pulsos</t>
+  </si>
+  <si>
+    <t>Ritmo Sinusal com Bigeminy</t>
+  </si>
+  <si>
+    <t>Ritmo Sinusal com Trigeminy</t>
+  </si>
+  <si>
+    <t>Ritmo Sinusal com PACs</t>
+  </si>
+  <si>
+    <t>Ritmo Sinusal com PJCs</t>
+  </si>
+  <si>
+    <t>Ritmo Sinusal com PVC (Multifocal)</t>
+  </si>
+  <si>
+    <t>Ritmo sinusal com PVC (Unifocal)</t>
+  </si>
+  <si>
+    <t>Fibrilação ventricular (grosseira)</t>
+  </si>
+  <si>
+    <t>Fibrilação ventricular (multa)</t>
+  </si>
+  <si>
+    <t>Stress Ventricular</t>
+  </si>
+  <si>
+    <t>Taquicardia Ventricular (Monomórfico, Sem Pulsos)</t>
+  </si>
+  <si>
+    <t>Taquicardia Ventricular (Polimórfica)</t>
+  </si>
+  <si>
+    <t>Apnéia</t>
+  </si>
+  <si>
+    <t>асистолия</t>
+  </si>
+  <si>
+    <t>Фибрилляция предсердий</t>
+  </si>
+  <si>
+    <t>Предсердный флаттер</t>
+  </si>
+  <si>
+    <t>AV-блок, 1-я степень</t>
+  </si>
+  <si>
+    <t>Блок AV, 3-я степень</t>
+  </si>
+  <si>
+    <t>Межжелудочковая блокада</t>
+  </si>
+  <si>
+    <t>идиовентрикулярный</t>
+  </si>
+  <si>
+    <t>Электрическая активность</t>
+  </si>
+  <si>
+    <t>Синусовый ритм</t>
+  </si>
+  <si>
+    <t>Синус Ритм с Бигеминой</t>
+  </si>
+  <si>
+    <t>Синусовый ритм с тригеминой</t>
+  </si>
+  <si>
+    <t>Синусовый ритм с PAC</t>
+  </si>
+  <si>
+    <t>Синусовый ритм с PJC</t>
+  </si>
+  <si>
+    <t>Синусовый ритм с ПВХ (мультифокальный)</t>
+  </si>
+  <si>
+    <t>Синус Rhythm с ПВХ (Unifocal)</t>
+  </si>
+  <si>
+    <t>Суправентрикулярная тахикардия</t>
+  </si>
+  <si>
+    <t>Фибрилляция желудочков (грубая)</t>
+  </si>
+  <si>
+    <t>Фибрилляция желудочков (тонкая)</t>
+  </si>
+  <si>
+    <t>Концентрация желудочков</t>
+  </si>
+  <si>
+    <t>Желудочковая тахикардия (мономорфная, импульсная)</t>
+  </si>
+  <si>
+    <t>Желудочковая тахикардия (мономорфная, безболезненная)</t>
+  </si>
+  <si>
+    <t>Желудочковая тахикардия (полиморфная)</t>
+  </si>
+  <si>
+    <t>Апноэ</t>
+  </si>
+  <si>
+    <t>регулярное</t>
+  </si>
+  <si>
+    <t>Infermeria integrata: monitor cardiaco</t>
+  </si>
+  <si>
+    <t>Infirmerie intégrée: moniteur cardiaque</t>
+  </si>
+  <si>
+    <t>Enfermería integrada: monitor cardíaco</t>
+  </si>
+  <si>
+    <t>Krankenstation integriert: Herzmonitor</t>
+  </si>
+  <si>
+    <t>Infirmary Integrated: Monitor cardíaco</t>
+  </si>
+  <si>
+    <t>Инвалидный комплекс: Сердечный монитор</t>
+  </si>
+  <si>
+    <t>Высота волны T</t>
+  </si>
+  <si>
+    <t>Конец приливной капнографии</t>
+  </si>
+  <si>
+    <t>добавить номер</t>
+  </si>
+  <si>
+    <t>Adicionar número</t>
+  </si>
+  <si>
+    <t>Aggiungi numero</t>
+  </si>
+  <si>
+    <t>ajouter un numéro</t>
+  </si>
+  <si>
+    <t>Añade un número</t>
+  </si>
+  <si>
+    <t>Nummer hinzufügen</t>
+  </si>
+  <si>
+    <t>füge Wellenformen hinzu</t>
+  </si>
+  <si>
+    <t>agregar formas de onda</t>
+  </si>
+  <si>
+    <t>ajouter des formes d'onde</t>
+  </si>
+  <si>
+    <t>Capnografía mareal final</t>
+  </si>
+  <si>
+    <t>Aggiungi forme d'onda</t>
+  </si>
+  <si>
+    <t>Adicionar formas de onda</t>
+  </si>
+  <si>
+    <t>Добавить осциллограммы</t>
+  </si>
+  <si>
+    <t>Увеличить размер шрифта</t>
+  </si>
+  <si>
+    <t>Уменьшить размер шрифта</t>
+  </si>
+  <si>
+    <t>Diminuir o tamanho da fonte</t>
+  </si>
+  <si>
+    <t>Diminuisci la dimensione del carattere</t>
+  </si>
+  <si>
+    <t>Disminuir tamaño de letra</t>
+  </si>
+  <si>
+    <t>Diminuer la taille de la police</t>
+  </si>
+  <si>
+    <t>Augmenter la taille des caractères</t>
+  </si>
+  <si>
+    <t>Aumenta el tamaño de la fuente</t>
+  </si>
+  <si>
+    <t>Aumenta la dimensione del carattere</t>
+  </si>
+  <si>
+    <t>Aumentar o tamanho da fonte</t>
+  </si>
+  <si>
+    <t>Schriftgröße vergrößern</t>
+  </si>
+  <si>
+    <t>Schriftgröße verkleinern</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph</t>
+  </si>
+  <si>
+    <t>Endtidale Kapnographie</t>
+  </si>
+  <si>
+    <t>Nichtinvasiver Blutdruck</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Blei I</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Ableitung II</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Ableitung III</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Ableitung aVR</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Ableitung aVL</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Blei aVF</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Ableitung V1</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Blei V2</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Ableitung V3</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Ableitung V4</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Ableitung V5</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Ableitung V6</t>
+  </si>
+  <si>
+    <t>Electrocardiografía</t>
+  </si>
+  <si>
+    <t>Capnografía de marea final</t>
+  </si>
+  <si>
+    <t>Presión arterial no invasiva</t>
+  </si>
+  <si>
+    <t>Capnografía del final de la marea</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Plomo I</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Plomo II</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Plomo III</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Plomo aVL</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Plomo aVF</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Plomo V1</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Plomo V2</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Plomo V3</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Plomo V4</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Plomo V5</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Plomo V6</t>
+  </si>
+  <si>
+    <t>Eletrocardiograma</t>
+  </si>
+  <si>
+    <t>Captografia final da maré</t>
+  </si>
+  <si>
+    <t>Pressão sanguínea não-invasiva</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo Ver I</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo Ver aVR</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo Ver aVF</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo Ver III</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo Ver II</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo Ver aVL</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo Ver V1</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo Ver V2</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo Ver V3</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo Ver V4</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo Ver V5</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo Ver V6</t>
+  </si>
+  <si>
+    <t>Électrocardiographe</t>
+  </si>
+  <si>
+    <t>Fin Capnographie marémotrice</t>
+  </si>
+  <si>
+    <t>Pression artérielle non invasive</t>
+  </si>
+  <si>
+    <t>Électrocardiographe Voir aVR</t>
+  </si>
+  <si>
+    <t>Électrocardiographe Voir aVL</t>
+  </si>
+  <si>
+    <t>Électrocardiographe Voir aVF</t>
+  </si>
+  <si>
+    <t>Électrocardiographe Voir V1</t>
+  </si>
+  <si>
+    <t>Électrocardiographe Voir V2</t>
+  </si>
+  <si>
+    <t>Électrocardiographe Voir V3</t>
+  </si>
+  <si>
+    <t>Électrocardiographe Voir V4</t>
+  </si>
+  <si>
+    <t>Électrocardiographe Voir V5</t>
+  </si>
+  <si>
+    <t>Électrocardiographe Voir V6</t>
+  </si>
+  <si>
+    <t>Électrocardiographe Voir III</t>
+  </si>
+  <si>
+    <t>Électrocardiographe Voir II</t>
+  </si>
+  <si>
+    <t>Électrocardiographe Voir I</t>
+  </si>
+  <si>
+    <t>Fine capnografia di marea</t>
+  </si>
+  <si>
+    <t>Pressione sanguigna non invasiva</t>
+  </si>
+  <si>
+    <t>Elettrocardiografo Visualizza I</t>
+  </si>
+  <si>
+    <t>Elettrocardiografo Visualizza aVR</t>
+  </si>
+  <si>
+    <t>Elettrocardiografo Visualizza aVL</t>
+  </si>
+  <si>
+    <t>Elettrocardiografo Visualizza aVF</t>
+  </si>
+  <si>
+    <t>Elettrocardiografo Visualizza V1</t>
+  </si>
+  <si>
+    <t>Elettrocardiografo Visualizza V2</t>
+  </si>
+  <si>
+    <t>Elettrocardiografo Visualizza V3</t>
+  </si>
+  <si>
+    <t>Elettrocardiografo Visualizza V4</t>
+  </si>
+  <si>
+    <t>Elettrocardiografo Visualizza V5</t>
+  </si>
+  <si>
+    <t>Elettrocardiografo Visualizza V6</t>
+  </si>
+  <si>
+    <t>Elettrocardiografo</t>
+  </si>
+  <si>
+    <t>Elettrocardiografo Visualizza  II</t>
+  </si>
+  <si>
+    <t>Elettrocardiografo Visualizza  III</t>
+  </si>
+  <si>
+    <t>Электрокардиограф</t>
+  </si>
+  <si>
+    <t>Неинвазивное кровяное давление</t>
+  </si>
+  <si>
+    <t>Электрокардиограф View I</t>
+  </si>
+  <si>
+    <t>Электрокардиограф View II</t>
+  </si>
+  <si>
+    <t>Электрокардиограф View III</t>
+  </si>
+  <si>
+    <t>Электрокардиограф Посмотреть aVR</t>
+  </si>
+  <si>
+    <t>Электрокардиограф Посмотреть aVL</t>
+  </si>
+  <si>
+    <t>Электрокардиограф Посмотреть aVF</t>
+  </si>
+  <si>
+    <t>Электрокардиограф Посмотреть V3</t>
+  </si>
+  <si>
+    <t>Электрокардиограф Посмотреть V1</t>
+  </si>
+  <si>
+    <t>Электрокардиограф Посмотреть V2</t>
+  </si>
+  <si>
+    <t>Электрокардиограф Посмотреть V4</t>
+  </si>
+  <si>
+    <t>Электрокардиограф Посмотреть V5</t>
+  </si>
+  <si>
+    <t>Электрокардиограф Посмотреть V6</t>
   </si>
 </sst>
 </file>
@@ -1265,18 +2336,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1291,7 +2356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1300,9 +2365,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1591,11 +2653,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B53" sqref="B53"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="80.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1634,1429 +2696,2916 @@
     <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="D37" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="G37" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H37" s="5" t="s">
         <v>372</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>126</v>
+        <v>379</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>169</v>
+        <v>380</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>218</v>
+        <v>381</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>306</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>395</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>356</v>
+        <v>10</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>357</v>
+        <v>9</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>266</v>
+        <v>111</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>405</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>267</v>
+        <v>113</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>400</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>192</v>
+        <v>116</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>397</v>
+        <v>21</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>380</v>
+        <v>118</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>381</v>
+        <v>160</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>382</v>
+        <v>212</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>281</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>135</v>
+        <v>658</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>201</v>
+        <v>68</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>243</v>
+        <v>68</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>283</v>
+        <v>648</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>99</v>
+        <v>343</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>318</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>320</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="899">
   <si>
     <t>Temperature</t>
   </si>
@@ -1490,9 +1490,6 @@
     <t>NUMERIC:CVP</t>
   </si>
   <si>
-    <t>NUMERIC:PAP</t>
-  </si>
-  <si>
     <t>Electrocardiograph (ECG) Lead I</t>
   </si>
   <si>
@@ -2057,42 +2054,6 @@
     <t>Nichtinvasiver Blutdruck</t>
   </si>
   <si>
-    <t>Elektrokardiograph (EKG) Blei I</t>
-  </si>
-  <si>
-    <t>Elektrokardiograph (EKG) Ableitung II</t>
-  </si>
-  <si>
-    <t>Elektrokardiograph (EKG) Ableitung III</t>
-  </si>
-  <si>
-    <t>Elektrokardiograph (EKG) Ableitung aVR</t>
-  </si>
-  <si>
-    <t>Elektrokardiograph (EKG) Ableitung aVL</t>
-  </si>
-  <si>
-    <t>Elektrokardiograph (EKG) Blei aVF</t>
-  </si>
-  <si>
-    <t>Elektrokardiograph (EKG) Ableitung V1</t>
-  </si>
-  <si>
-    <t>Elektrokardiograph (EKG) Blei V2</t>
-  </si>
-  <si>
-    <t>Elektrokardiograph (EKG) Ableitung V3</t>
-  </si>
-  <si>
-    <t>Elektrokardiograph (EKG) Ableitung V4</t>
-  </si>
-  <si>
-    <t>Elektrokardiograph (EKG) Ableitung V5</t>
-  </si>
-  <si>
-    <t>Elektrokardiograph (EKG) Ableitung V6</t>
-  </si>
-  <si>
     <t>Electrocardiografía</t>
   </si>
   <si>
@@ -2105,39 +2066,6 @@
     <t>Capnografía del final de la marea</t>
   </si>
   <si>
-    <t>Electrocardiógrafo (ECG) Plomo I</t>
-  </si>
-  <si>
-    <t>Electrocardiógrafo (ECG) Plomo II</t>
-  </si>
-  <si>
-    <t>Electrocardiógrafo (ECG) Plomo III</t>
-  </si>
-  <si>
-    <t>Electrocardiógrafo (ECG) Plomo aVL</t>
-  </si>
-  <si>
-    <t>Electrocardiógrafo (ECG) Plomo aVF</t>
-  </si>
-  <si>
-    <t>Electrocardiógrafo (ECG) Plomo V1</t>
-  </si>
-  <si>
-    <t>Electrocardiógrafo (ECG) Plomo V2</t>
-  </si>
-  <si>
-    <t>Electrocardiógrafo (ECG) Plomo V3</t>
-  </si>
-  <si>
-    <t>Electrocardiógrafo (ECG) Plomo V4</t>
-  </si>
-  <si>
-    <t>Electrocardiógrafo (ECG) Plomo V5</t>
-  </si>
-  <si>
-    <t>Electrocardiógrafo (ECG) Plomo V6</t>
-  </si>
-  <si>
     <t>Eletrocardiograma</t>
   </si>
   <si>
@@ -2279,15 +2207,6 @@
     <t>Неинвазивное кровяное давление</t>
   </si>
   <si>
-    <t>Электрокардиограф View I</t>
-  </si>
-  <si>
-    <t>Электрокардиограф View II</t>
-  </si>
-  <si>
-    <t>Электрокардиограф View III</t>
-  </si>
-  <si>
     <t>Электрокардиограф Посмотреть aVR</t>
   </si>
   <si>
@@ -2313,6 +2232,495 @@
   </si>
   <si>
     <t>Электрокардиограф Посмотреть V6</t>
+  </si>
+  <si>
+    <t>CM:MenuRemoveTracing</t>
+  </si>
+  <si>
+    <t>CM:MenuRemoveNumeric</t>
+  </si>
+  <si>
+    <t>CM:MenuSelectInputSource</t>
+  </si>
+  <si>
+    <t>TRACING:ECG</t>
+  </si>
+  <si>
+    <t>Remove Tracing</t>
+  </si>
+  <si>
+    <t>Remove Numeric</t>
+  </si>
+  <si>
+    <t>Select Input:</t>
+  </si>
+  <si>
+    <t>NUMERIC:PA</t>
+  </si>
+  <si>
+    <t>ECG:WindowTitle</t>
+  </si>
+  <si>
+    <t>ECG:MenuDeviceOptions</t>
+  </si>
+  <si>
+    <t>ECG:MenuPauseDevice</t>
+  </si>
+  <si>
+    <t>ECG:MenuToggleFullscreen</t>
+  </si>
+  <si>
+    <t>ECG:MenuCloseDevice</t>
+  </si>
+  <si>
+    <t>ECG:MenuExitProgram</t>
+  </si>
+  <si>
+    <t>Infirmary Integrated: Electrocardiogram</t>
+  </si>
+  <si>
+    <t>Krankenstation integriert: Elektrokardiograph</t>
+  </si>
+  <si>
+    <t>Enfermería integrada: Electrocardiografía</t>
+  </si>
+  <si>
+    <t>Infirmerie intégrée: Électrocardiographe</t>
+  </si>
+  <si>
+    <t>Infermeria integrata: Elettrocardiografo</t>
+  </si>
+  <si>
+    <t>Infirmary Integrated: Eletrocardiograma</t>
+  </si>
+  <si>
+    <t>Инвалидный комплекс: Электрокардиограф</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_I__SHORT</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_II__SHORT</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_III__SHORT</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_AVR__SHORT</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_AVL__SHORT</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_AVF__SHORT</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_V1__SHORT</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_V2__SHORT</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_V3__SHORT</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_V4__SHORT</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_V5__SHORT</t>
+  </si>
+  <si>
+    <t>LEAD:ECG_V6__SHORT</t>
+  </si>
+  <si>
+    <t>Lead I</t>
+  </si>
+  <si>
+    <t>Lead II</t>
+  </si>
+  <si>
+    <t>Lead III</t>
+  </si>
+  <si>
+    <t>Lead aVR</t>
+  </si>
+  <si>
+    <t>Lead aVL</t>
+  </si>
+  <si>
+    <t>Lead aVF</t>
+  </si>
+  <si>
+    <t>Lead V1</t>
+  </si>
+  <si>
+    <t>Lead V2</t>
+  </si>
+  <si>
+    <t>Lead V3</t>
+  </si>
+  <si>
+    <t>Lead V4</t>
+  </si>
+  <si>
+    <t>Lead V5</t>
+  </si>
+  <si>
+    <t>Lead V6</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Aussicht I</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Aussicht aVF</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Aussicht V2</t>
+  </si>
+  <si>
+    <t>Aussicht I</t>
+  </si>
+  <si>
+    <t>Aussicht aVF</t>
+  </si>
+  <si>
+    <t>Aussicht V2</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Aussicht II</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Aussicht III</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Aussicht aVR</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Aussicht aVL</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Aussicht V1</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Aussicht V3</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Aussicht V4</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Aussicht V5</t>
+  </si>
+  <si>
+    <t>Elektrokardiograph (EKG) Aussicht V6</t>
+  </si>
+  <si>
+    <t>Aussicht II</t>
+  </si>
+  <si>
+    <t>Aussicht III</t>
+  </si>
+  <si>
+    <t>Aussicht aVR</t>
+  </si>
+  <si>
+    <t>Aussicht aVL</t>
+  </si>
+  <si>
+    <t>Aussicht V1</t>
+  </si>
+  <si>
+    <t>Aussicht V3</t>
+  </si>
+  <si>
+    <t>Aussicht V4</t>
+  </si>
+  <si>
+    <t>Aussicht V5</t>
+  </si>
+  <si>
+    <t>Aussicht V6</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Vista I</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Vista II</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Vista III</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Vista aVL</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Vista aVF</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Vista V1</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Vista V2</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Vista V3</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Vista V4</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Vista V5</t>
+  </si>
+  <si>
+    <t>Electrocardiógrafo (ECG) Vista V6</t>
+  </si>
+  <si>
+    <t>Electrocardiograph (ECG) Vista aVR</t>
+  </si>
+  <si>
+    <t>Vista I</t>
+  </si>
+  <si>
+    <t>Vista II</t>
+  </si>
+  <si>
+    <t>Vista III</t>
+  </si>
+  <si>
+    <t>Vista aVL</t>
+  </si>
+  <si>
+    <t>Vista aVF</t>
+  </si>
+  <si>
+    <t>Vista V1</t>
+  </si>
+  <si>
+    <t>Vista V2</t>
+  </si>
+  <si>
+    <t>Vista V3</t>
+  </si>
+  <si>
+    <t>Vista V4</t>
+  </si>
+  <si>
+    <t>Vista V5</t>
+  </si>
+  <si>
+    <t>Vista V6</t>
+  </si>
+  <si>
+    <t>Vista aVR</t>
+  </si>
+  <si>
+    <t>Voir I</t>
+  </si>
+  <si>
+    <t>Voir II</t>
+  </si>
+  <si>
+    <t>Voir III</t>
+  </si>
+  <si>
+    <t>Voir aVR</t>
+  </si>
+  <si>
+    <t>Voir aVL</t>
+  </si>
+  <si>
+    <t>Voir aVF</t>
+  </si>
+  <si>
+    <t>Voir V1</t>
+  </si>
+  <si>
+    <t>Voir V2</t>
+  </si>
+  <si>
+    <t>Voir V3</t>
+  </si>
+  <si>
+    <t>Voir V4</t>
+  </si>
+  <si>
+    <t>Voir V5</t>
+  </si>
+  <si>
+    <t>Voir V6</t>
+  </si>
+  <si>
+    <t>Visualizza I</t>
+  </si>
+  <si>
+    <t>Visualizza  II</t>
+  </si>
+  <si>
+    <t>Visualizza  III</t>
+  </si>
+  <si>
+    <t>Visualizza aVR</t>
+  </si>
+  <si>
+    <t>Visualizza aVL</t>
+  </si>
+  <si>
+    <t>Visualizza aVF</t>
+  </si>
+  <si>
+    <t>Visualizza V1</t>
+  </si>
+  <si>
+    <t>Visualizza V2</t>
+  </si>
+  <si>
+    <t>Visualizza V3</t>
+  </si>
+  <si>
+    <t>Visualizza V4</t>
+  </si>
+  <si>
+    <t>Visualizza V5</t>
+  </si>
+  <si>
+    <t>Visualizza V6</t>
+  </si>
+  <si>
+    <t>Ver I</t>
+  </si>
+  <si>
+    <t>Ver II</t>
+  </si>
+  <si>
+    <t>Ver III</t>
+  </si>
+  <si>
+    <t>Ver aVR</t>
+  </si>
+  <si>
+    <t>Ver aVL</t>
+  </si>
+  <si>
+    <t>Ver aVF</t>
+  </si>
+  <si>
+    <t>Ver V1</t>
+  </si>
+  <si>
+    <t>Ver V2</t>
+  </si>
+  <si>
+    <t>Ver V3</t>
+  </si>
+  <si>
+    <t>Ver V4</t>
+  </si>
+  <si>
+    <t>Ver V5</t>
+  </si>
+  <si>
+    <t>Ver V6</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>aVR</t>
+  </si>
+  <si>
+    <t>aVL</t>
+  </si>
+  <si>
+    <t>aVF</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>V3</t>
+  </si>
+  <si>
+    <t>V4</t>
+  </si>
+  <si>
+    <t>V5</t>
+  </si>
+  <si>
+    <t>V6</t>
+  </si>
+  <si>
+    <t>Электрокардиограф Посмотреть I</t>
+  </si>
+  <si>
+    <t>Электрокардиограф Посмотреть II</t>
+  </si>
+  <si>
+    <t>Электрокардиограф Посмотреть III</t>
+  </si>
+  <si>
+    <t>Eliminar forma de onda</t>
+  </si>
+  <si>
+    <t>Supprimer la forme d'onde</t>
+  </si>
+  <si>
+    <t>Rimuovi la forma d'onda</t>
+  </si>
+  <si>
+    <t>Remover a forma de onda</t>
+  </si>
+  <si>
+    <t>Saída Infirmary Integrated</t>
+  </si>
+  <si>
+    <t>Удалить форму волны</t>
+  </si>
+  <si>
+    <t>Entfernen Sie die Wellenform</t>
+  </si>
+  <si>
+    <t>Entfernen Sie die Nummern</t>
+  </si>
+  <si>
+    <t>Удалить номера</t>
+  </si>
+  <si>
+    <t>Remova números</t>
+  </si>
+  <si>
+    <t>Rimuovi numeri</t>
+  </si>
+  <si>
+    <t>Supprimer les numéros</t>
+  </si>
+  <si>
+    <t>Eliminar números</t>
+  </si>
+  <si>
+    <t>Seleccionar fuente de entrada</t>
+  </si>
+  <si>
+    <t>Sélectionnez la source d'entrée</t>
+  </si>
+  <si>
+    <t>Seleziona la sorgente di input</t>
+  </si>
+  <si>
+    <t>Selecione a fonte de entrada</t>
+  </si>
+  <si>
+    <t>Выбор источника входного сигнала</t>
+  </si>
+  <si>
+    <t>Wählen Sie die Eingangsquelle</t>
   </si>
 </sst>
 </file>
@@ -2653,11 +3061,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="80.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,7 +3215,7 @@
         <v>452</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>457</v>
@@ -2816,13 +3224,13 @@
         <v>452</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>457</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2833,22 +3241,22 @@
         <v>406</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>458</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2859,22 +3267,22 @@
         <v>407</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>459</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2885,22 +3293,22 @@
         <v>408</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>460</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2911,22 +3319,22 @@
         <v>409</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>461</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2937,19 +3345,19 @@
         <v>410</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>462</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>410</v>
@@ -2963,19 +3371,19 @@
         <v>411</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>411</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>411</v>
@@ -2989,7 +3397,7 @@
         <v>412</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>412</v>
@@ -3004,7 +3412,7 @@
         <v>412</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3015,22 +3423,22 @@
         <v>413</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>413</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>413</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3041,19 +3449,19 @@
         <v>414</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>414</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>414</v>
@@ -3067,22 +3475,22 @@
         <v>415</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>463</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3093,22 +3501,22 @@
         <v>416</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>464</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>464</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3119,22 +3527,22 @@
         <v>417</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>465</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3145,22 +3553,22 @@
         <v>418</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>466</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3171,22 +3579,22 @@
         <v>419</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>467</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3197,22 +3605,22 @@
         <v>420</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>468</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3223,22 +3631,22 @@
         <v>421</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>469</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3249,22 +3657,22 @@
         <v>422</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>470</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3275,22 +3683,22 @@
         <v>423</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>471</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>471</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3301,22 +3709,22 @@
         <v>424</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>472</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3327,22 +3735,22 @@
         <v>425</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>473</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3353,22 +3761,22 @@
         <v>426</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>474</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>426</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3376,25 +3784,25 @@
         <v>450</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>546</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3402,25 +3810,25 @@
         <v>451</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>475</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3431,22 +3839,22 @@
         <v>405</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>476</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3457,22 +3865,22 @@
         <v>455</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>455</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>455</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -3483,22 +3891,22 @@
         <v>456</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>456</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>456</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4110,7 +4518,7 @@
         <v>341</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>162</v>
@@ -4122,7 +4530,7 @@
         <v>68</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -4460,7 +4868,7 @@
         <v>263</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4471,22 +4879,22 @@
         <v>394</v>
       </c>
       <c r="C77" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="G77" s="5" t="s">
+      <c r="H77" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="H77" s="5" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -4549,22 +4957,22 @@
         <v>403</v>
       </c>
       <c r="C80" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="E80" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>657</v>
-      </c>
       <c r="F80" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="H80" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="81" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4575,22 +4983,22 @@
         <v>402</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="82" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4627,22 +5035,22 @@
         <v>398</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D83" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>667</v>
-      </c>
       <c r="F83" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -4653,22 +5061,22 @@
         <v>399</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D84" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="F84" s="5" t="s">
+      <c r="G84" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="G84" s="5" t="s">
-        <v>671</v>
-      </c>
       <c r="H84" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4769,842 +5177,1416 @@
         <v>381</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>240</v>
+        <v>884</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>280</v>
       </c>
     </row>
+    <row r="89" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>885</v>
+      </c>
+    </row>
     <row r="90" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>480</v>
+        <v>737</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>477</v>
+        <v>741</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>674</v>
+        <v>887</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>689</v>
+        <v>892</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>719</v>
+        <v>891</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>746</v>
+        <v>890</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>704</v>
+        <v>889</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>749</v>
+        <v>888</v>
       </c>
     </row>
     <row r="91" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>481</v>
+        <v>738</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>0</v>
+        <v>742</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>340</v>
+        <v>898</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>119</v>
+        <v>893</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>161</v>
+        <v>894</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>119</v>
+        <v>895</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>119</v>
+        <v>896</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
+        <v>897</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="93" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>483</v>
+        <v>744</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>478</v>
+        <v>750</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>675</v>
+        <v>751</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>690</v>
+        <v>752</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>734</v>
+        <v>754</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>705</v>
+        <v>755</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
     <row r="100" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>67</v>
+        <v>477</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>339</v>
+        <v>673</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>118</v>
+        <v>676</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>160</v>
+        <v>695</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>212</v>
+        <v>722</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>250</v>
+        <v>680</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>295</v>
+        <v>725</v>
       </c>
     </row>
     <row r="101" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="103" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>518</v>
+        <v>483</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>71</v>
+        <v>478</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>344</v>
+        <v>674</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>122</v>
+        <v>677</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>165</v>
+        <v>696</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>215</v>
+        <v>710</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>253</v>
+        <v>681</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>299</v>
+        <v>647</v>
       </c>
     </row>
     <row r="104" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>675</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>648</v>
+        <v>726</v>
       </c>
     </row>
     <row r="106" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>489</v>
+        <v>69</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>677</v>
+        <v>342</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>693</v>
+        <v>120</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>733</v>
+        <v>163</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>736</v>
+        <v>213</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>707</v>
+        <v>251</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>751</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>490</v>
+        <v>70</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>678</v>
+        <v>343</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>694</v>
+        <v>121</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>732</v>
+        <v>164</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>747</v>
+        <v>214</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>711</v>
+        <v>252</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>752</v>
+        <v>298</v>
       </c>
     </row>
     <row r="108" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>508</v>
+        <v>743</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>491</v>
+        <v>71</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>679</v>
+        <v>344</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>695</v>
+        <v>122</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>731</v>
+        <v>165</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>748</v>
+        <v>215</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>710</v>
+        <v>253</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="G109" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>754</v>
-      </c>
-    </row>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>510</v>
+        <v>739</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>738</v>
+        <v>722</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>756</v>
-      </c>
-    </row>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="112" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>495</v>
+        <v>67</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>683</v>
+        <v>339</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>698</v>
+        <v>118</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>725</v>
+        <v>160</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>740</v>
+        <v>212</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>713</v>
+        <v>250</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>758</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>496</v>
+        <v>70</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>684</v>
+        <v>343</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>699</v>
+        <v>121</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>726</v>
+        <v>164</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>741</v>
+        <v>214</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>714</v>
+        <v>252</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>759</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>497</v>
+        <v>69</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>685</v>
+        <v>342</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>700</v>
+        <v>120</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>727</v>
+        <v>163</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>742</v>
+        <v>213</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>715</v>
+        <v>251</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>757</v>
+        <v>297</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>498</v>
+        <v>71</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>686</v>
+        <v>344</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>701</v>
+        <v>122</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>728</v>
+        <v>165</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>743</v>
+        <v>215</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>716</v>
+        <v>253</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>760</v>
+        <v>299</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>499</v>
+        <v>66</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>687</v>
+        <v>338</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>702</v>
+        <v>117</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>729</v>
+        <v>159</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>744</v>
+        <v>211</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>717</v>
+        <v>249</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>761</v>
+        <v>294</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="C117" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="H122" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="E126" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="F126" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="H126" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="F117" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="H117" s="5" t="s">
+    </row>
+    <row r="127" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
+      <c r="B135" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="H138" s="5" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B143" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D143" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E143" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F119" s="3" t="s">
+      <c r="F143" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G143" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="H119" s="3" t="s">
+      <c r="H143" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B144" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C144" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E144" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F120" s="3" t="s">
+      <c r="F144" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G144" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="H120" s="3" t="s">
+      <c r="H144" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B145" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C145" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D145" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E145" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F145" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G145" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="H121" s="3" t="s">
+      <c r="H145" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B147" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C147" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D147" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E147" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="F147" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="G147" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="H147" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B148" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E148" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="G148" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="H124" s="3" t="s">
+      <c r="H148" s="3" t="s">
         <v>319</v>
       </c>
     </row>

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1167">
   <si>
     <t>Temperature</t>
   </si>
@@ -140,24 +140,6 @@
     <t>PE:LabResults</t>
   </si>
   <si>
-    <t>CM:MenuDeviceOptions</t>
-  </si>
-  <si>
-    <t>CM:MenuPauseDevice</t>
-  </si>
-  <si>
-    <t>CM:MenuFontSize</t>
-  </si>
-  <si>
-    <t>CM:MenuColorScheme</t>
-  </si>
-  <si>
-    <t>CM:MenuToggleFullscreen</t>
-  </si>
-  <si>
-    <t>CM:MenuCloseDevice</t>
-  </si>
-  <si>
     <t>ABOUT:Version</t>
   </si>
   <si>
@@ -1169,27 +1151,12 @@
     <t>Infirmary Integrated: Cardiac Monitor</t>
   </si>
   <si>
-    <t>CM:MenuExitProgram</t>
-  </si>
-  <si>
-    <t>CM:MenuFontSizeDecrease</t>
-  </si>
-  <si>
-    <t>CM:MenuFontSizeIncrease</t>
-  </si>
-  <si>
     <t>_Decrease Size</t>
   </si>
   <si>
     <t>_Increase Size</t>
   </si>
   <si>
-    <t>CM:MenuAddTracing</t>
-  </si>
-  <si>
-    <t>CM:MenuAddNumeric</t>
-  </si>
-  <si>
     <t>Add _Numeric</t>
   </si>
   <si>
@@ -2192,15 +2159,6 @@
     <t>Электрокардиограф Посмотреть V6</t>
   </si>
   <si>
-    <t>CM:MenuRemoveTracing</t>
-  </si>
-  <si>
-    <t>CM:MenuRemoveNumeric</t>
-  </si>
-  <si>
-    <t>CM:MenuSelectInputSource</t>
-  </si>
-  <si>
     <t>TRACING:ECG</t>
   </si>
   <si>
@@ -2219,21 +2177,6 @@
     <t>ECG:WindowTitle</t>
   </si>
   <si>
-    <t>ECG:MenuDeviceOptions</t>
-  </si>
-  <si>
-    <t>ECG:MenuPauseDevice</t>
-  </si>
-  <si>
-    <t>ECG:MenuToggleFullscreen</t>
-  </si>
-  <si>
-    <t>ECG:MenuCloseDevice</t>
-  </si>
-  <si>
-    <t>ECG:MenuExitProgram</t>
-  </si>
-  <si>
     <t>Infirmary Integrated: Electrocardiogram</t>
   </si>
   <si>
@@ -3498,6 +3441,90 @@
   </si>
   <si>
     <t>Uterine Contraction Frequency (in seconds)</t>
+  </si>
+  <si>
+    <t>MENU:MenuDeviceOptions</t>
+  </si>
+  <si>
+    <t>MENU:MenuPauseDevice</t>
+  </si>
+  <si>
+    <t>MENU:MenuAddTracing</t>
+  </si>
+  <si>
+    <t>MENU:MenuAddNumeric</t>
+  </si>
+  <si>
+    <t>MENU:MenuFontSize</t>
+  </si>
+  <si>
+    <t>MENU:MenuFontSizeDecrease</t>
+  </si>
+  <si>
+    <t>MENU:MenuFontSizeIncrease</t>
+  </si>
+  <si>
+    <t>MENU:MenuColorScheme</t>
+  </si>
+  <si>
+    <t>MENU:MenuToggleFullscreen</t>
+  </si>
+  <si>
+    <t>MENU:MenuCloseDevice</t>
+  </si>
+  <si>
+    <t>MENU:MenuExitProgram</t>
+  </si>
+  <si>
+    <t>MENU:MenuRemoveTracing</t>
+  </si>
+  <si>
+    <t>MENU:MenuRemoveNumeric</t>
+  </si>
+  <si>
+    <t>MENU:MenuSelectInputSource</t>
+  </si>
+  <si>
+    <t>IABP:WindowTitle</t>
+  </si>
+  <si>
+    <t>Infirmary Integrated: Intra-aortic Balloon Pump</t>
+  </si>
+  <si>
+    <t>IABPTRIGGER:ECG</t>
+  </si>
+  <si>
+    <t>IABPTRIGGER:Pressure</t>
+  </si>
+  <si>
+    <t>ECG</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>IABPMODE:Auto</t>
+  </si>
+  <si>
+    <t>IABPMODE:SemiAuto</t>
+  </si>
+  <si>
+    <t>IABPMODE:Manual</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Semi-Auto</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>LEAD:IABP</t>
+  </si>
+  <si>
+    <t>Intra-aortic Balloon Pump</t>
   </si>
 </sst>
 </file>
@@ -3847,11 +3874,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B85" sqref="B85"/>
+      <selection pane="topRight" activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3865,1090 +3892,1090 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>999</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1000</v>
+        <v>981</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>1001</v>
+        <v>982</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1002</v>
+        <v>983</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>1105</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>1003</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1004</v>
+        <v>985</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>1005</v>
+        <v>986</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>1006</v>
+        <v>987</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>1007</v>
+        <v>988</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>1008</v>
+        <v>989</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>1009</v>
+        <v>990</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>906</v>
+        <v>887</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>907</v>
+        <v>888</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>1010</v>
+        <v>991</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>908</v>
+        <v>889</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>1011</v>
+        <v>992</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>909</v>
+        <v>890</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1067</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>910</v>
+        <v>891</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>1068</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1109</v>
+        <v>1090</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1069</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>911</v>
+        <v>892</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>1070</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>1071</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1111</v>
+        <v>1092</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>1072</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1110</v>
+        <v>1091</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>1073</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>913</v>
+        <v>894</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>1012</v>
+        <v>993</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>914</v>
+        <v>895</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>1106</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>915</v>
+        <v>896</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>1063</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>916</v>
+        <v>897</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>1074</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>917</v>
+        <v>898</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>1065</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>918</v>
+        <v>899</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>1066</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>919</v>
+        <v>900</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>1064</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>1075</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>1013</v>
+        <v>994</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>1148</v>
+        <v>1129</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>1152</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>1149</v>
+        <v>1130</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>1153</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>1150</v>
+        <v>1131</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>1154</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>1151</v>
+        <v>1132</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>1155</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="H42" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="I42" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>922</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>358</v>
-      </c>
       <c r="J42" s="5" t="s">
-        <v>1014</v>
+        <v>995</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -4956,31 +4983,31 @@
         <v>5</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1015</v>
+        <v>996</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -4988,31 +5015,31 @@
         <v>6</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>1016</v>
+        <v>997</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -5020,31 +5047,31 @@
         <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>925</v>
+        <v>906</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>1017</v>
+        <v>998</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -5052,95 +5079,95 @@
         <v>8</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>926</v>
+        <v>907</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>1018</v>
+        <v>999</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>369</v>
-      </c>
       <c r="F47" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>927</v>
+        <v>908</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>1019</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>928</v>
+        <v>909</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>1020</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -5148,31 +5175,31 @@
         <v>9</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>929</v>
+        <v>910</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1021</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -5180,31 +5207,31 @@
         <v>10</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>930</v>
+        <v>911</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>1022</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -5215,28 +5242,28 @@
         <v>2</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>931</v>
+        <v>912</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1023</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5244,31 +5271,31 @@
         <v>31</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>932</v>
+        <v>913</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1079</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -5276,31 +5303,31 @@
         <v>32</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>933</v>
+        <v>914</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>1024</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -5314,22 +5341,22 @@
         <v>4</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>4</v>
@@ -5346,25 +5373,25 @@
         <v>3</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>935</v>
+        <v>916</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1025</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -5372,63 +5399,63 @@
         <v>35</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>936</v>
+        <v>917</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1026</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>1119</v>
+        <v>1100</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1118</v>
+        <v>1099</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1121</v>
+        <v>1102</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1122</v>
+        <v>1103</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>1123</v>
+        <v>1104</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1124</v>
+        <v>1105</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>1120</v>
+        <v>1101</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>1125</v>
+        <v>1106</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>1126</v>
+        <v>1107</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1127</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -5436,31 +5463,31 @@
         <v>36</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>937</v>
+        <v>918</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1027</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -5468,31 +5495,31 @@
         <v>37</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>938</v>
+        <v>919</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1028</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -5500,31 +5527,31 @@
         <v>11</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>939</v>
+        <v>920</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -5532,31 +5559,31 @@
         <v>12</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>940</v>
+        <v>921</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1030</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -5564,31 +5591,31 @@
         <v>13</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>941</v>
+        <v>922</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>1031</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -5596,31 +5623,31 @@
         <v>14</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>942</v>
+        <v>923</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1077</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -5631,28 +5658,28 @@
         <v>0</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>943</v>
+        <v>924</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1033</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -5660,31 +5687,31 @@
         <v>16</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>1112</v>
+        <v>1093</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1076</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -5692,31 +5719,31 @@
         <v>17</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>944</v>
+        <v>925</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1034</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -5724,31 +5751,31 @@
         <v>18</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>945</v>
+        <v>926</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1035</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -5756,31 +5783,31 @@
         <v>19</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>946</v>
+        <v>927</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1036</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -5788,31 +5815,31 @@
         <v>20</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>947</v>
+        <v>928</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1037</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -5820,31 +5847,31 @@
         <v>21</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>948</v>
+        <v>929</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1038</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -5852,31 +5879,31 @@
         <v>22</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>949</v>
+        <v>930</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1039</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -5884,31 +5911,31 @@
         <v>23</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>950</v>
+        <v>931</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1078</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -5916,31 +5943,31 @@
         <v>24</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>951</v>
+        <v>932</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1040</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -5948,31 +5975,31 @@
         <v>25</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>952</v>
+        <v>933</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1041</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -5980,31 +6007,31 @@
         <v>26</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>953</v>
+        <v>934</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1042</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -6012,31 +6039,31 @@
         <v>27</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1043</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -6044,31 +6071,31 @@
         <v>28</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>955</v>
+        <v>936</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -6076,2236 +6103,2133 @@
         <v>29</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>956</v>
+        <v>937</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>1108</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>1133</v>
+        <v>1114</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>1134</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="82" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>1128</v>
+        <v>1109</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>1135</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>1129</v>
+        <v>1110</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>1136</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1130</v>
+        <v>1111</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1138</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1131</v>
+        <v>1112</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1157</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1139</v>
+        <v>1120</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1156</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>1132</v>
+        <v>1113</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>1137</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>957</v>
+        <v>938</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>960</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="I92" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="I93" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>962</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="I94" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="J94" s="5" t="s">
-        <v>1048</v>
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>382</v>
+        <v>1141</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>658</v>
+        <v>629</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>1049</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>383</v>
+        <v>1142</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>657</v>
+        <v>628</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>655</v>
+        <v>625</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="I96" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="J96" s="5" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>965</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>1053</v>
+      <c r="D98" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>1031</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>381</v>
+        <v>1146</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>365</v>
+        <v>119</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>366</v>
+        <v>163</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>367</v>
+        <v>211</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>926</v>
+        <v>946</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>870</v>
+        <v>250</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>866</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>867</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>968</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="I101" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="J101" s="5" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>969</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="I102" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="J102" s="5" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>884</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>970</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="I103" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="J103" s="5" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="I104" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>1035</v>
+      </c>
+    </row>
     <row r="105" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>730</v>
+        <v>1151</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>736</v>
+        <v>713</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>737</v>
+        <v>854</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>738</v>
+        <v>859</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>739</v>
+        <v>858</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>740</v>
+        <v>857</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>741</v>
+        <v>856</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>742</v>
+        <v>855</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>958</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>1018</v>
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="I106" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>463</v>
+        <v>53</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>659</v>
+        <v>319</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>662</v>
+        <v>104</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>681</v>
+        <v>145</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>708</v>
+        <v>197</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>972</v>
+        <v>923</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>666</v>
+        <v>233</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>711</v>
+        <v>277</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>463</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>326</v>
+        <v>650</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>111</v>
+        <v>653</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>152</v>
+        <v>672</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>111</v>
+        <v>686</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>943</v>
+        <v>955</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>111</v>
+        <v>657</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>284</v>
+        <v>701</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>1031</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>464</v>
+        <v>56</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>660</v>
+        <v>323</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>663</v>
+        <v>107</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>682</v>
+        <v>149</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>696</v>
+        <v>199</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>973</v>
+        <v>926</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>667</v>
+        <v>235</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>633</v>
+        <v>280</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>1057</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>470</v>
+        <v>715</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>942</v>
+        <v>927</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>661</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>974</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="I117" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="J117" s="5" t="s">
-        <v>1058</v>
-      </c>
-    </row>
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>472</v>
+        <v>711</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>61</v>
+        <v>452</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>328</v>
+        <v>648</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>112</v>
+        <v>651</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>154</v>
+        <v>670</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>204</v>
+        <v>697</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>944</v>
+        <v>953</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>240</v>
+        <v>655</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>285</v>
+        <v>700</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="J119" s="5" t="s">
-        <v>1035</v>
-      </c>
-    </row>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="120" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>729</v>
+        <v>475</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="J120" s="5" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>277</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>1016</v>
+      </c>
+    </row>
     <row r="122" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>725</v>
+        <v>477</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>463</v>
+        <v>55</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>659</v>
+        <v>322</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>662</v>
+        <v>106</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>681</v>
+        <v>148</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>708</v>
+        <v>198</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>972</v>
+        <v>925</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>666</v>
+        <v>234</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>711</v>
+        <v>279</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>1017</v>
+      </c>
+    </row>
     <row r="124" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>942</v>
+        <v>922</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="J124" s="3" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G125" s="5" t="s">
-        <v>945</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="I125" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="J125" s="5" t="s">
-        <v>1035</v>
+        <v>276</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="126" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>61</v>
+        <v>453</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>328</v>
+        <v>649</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>112</v>
+        <v>654</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>154</v>
+        <v>671</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>204</v>
+        <v>685</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>944</v>
+        <v>956</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>240</v>
+        <v>656</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="J126" s="5" t="s">
-        <v>1034</v>
+        <v>622</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="127" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>63</v>
+        <v>463</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>330</v>
+        <v>748</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>114</v>
+        <v>772</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>156</v>
+        <v>684</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>206</v>
+        <v>687</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>946</v>
+        <v>957</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>242</v>
+        <v>658</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>287</v>
+        <v>844</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>1036</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="128" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>58</v>
+        <v>464</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>324</v>
+        <v>754</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>109</v>
+        <v>773</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>150</v>
+        <v>683</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>202</v>
+        <v>698</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>941</v>
+        <v>958</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>238</v>
+        <v>662</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>282</v>
+        <v>845</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>1031</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>660</v>
+        <v>755</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>665</v>
+        <v>774</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>682</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="J129" s="3" t="s">
-        <v>1076</v>
+        <v>846</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>863</v>
+        <v>702</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>1102</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="131" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>773</v>
+        <v>757</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>792</v>
+        <v>775</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>977</v>
+        <v>1094</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>864</v>
+        <v>703</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>1103</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="132" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>774</v>
+        <v>749</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>793</v>
+        <v>776</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>978</v>
+        <v>1095</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>865</v>
+        <v>704</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>1104</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>802</v>
+        <v>777</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>979</v>
+        <v>961</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="134" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="135" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>1114</v>
+        <v>963</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>1095</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="136" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>980</v>
+        <v>964</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>1099</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="137" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>981</v>
+        <v>965</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>1100</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="138" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>982</v>
+        <v>966</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="139" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>500</v>
+        <v>724</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>483</v>
+        <v>736</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>690</v>
+        <v>796</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>705</v>
+        <v>808</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>983</v>
+        <v>967</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>678</v>
+        <v>820</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>719</v>
+        <v>832</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>1097</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="140" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>501</v>
+        <v>725</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>484</v>
+        <v>737</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>691</v>
+        <v>797</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>706</v>
+        <v>809</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>984</v>
+        <v>968</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>679</v>
+        <v>821</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>720</v>
+        <v>833</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>1101</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="141" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>502</v>
+        <v>726</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>485</v>
+        <v>738</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>692</v>
+        <v>798</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>707</v>
+        <v>810</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>985</v>
+        <v>969</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>680</v>
+        <v>822</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>721</v>
+        <v>834</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>1098</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>743</v>
+        <v>727</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>986</v>
+        <v>1097</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>839</v>
+        <v>823</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>851</v>
+        <v>835</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>1081</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="143" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>744</v>
+        <v>728</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>987</v>
+        <v>1096</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>840</v>
+        <v>824</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>1082</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>757</v>
+        <v>741</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>783</v>
+        <v>752</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>805</v>
+        <v>788</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>988</v>
+        <v>1098</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>841</v>
+        <v>825</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>1083</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="145" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>746</v>
+        <v>730</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>784</v>
+        <v>767</v>
       </c>
       <c r="D145" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="F145" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="E145" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>830</v>
-      </c>
       <c r="G145" s="5" t="s">
-        <v>1116</v>
+        <v>970</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="146" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>747</v>
+        <v>731</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>759</v>
+        <v>743</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>785</v>
+        <v>753</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>1115</v>
+        <v>971</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>843</v>
+        <v>827</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>855</v>
+        <v>839</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>1085</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="147" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>1117</v>
+        <v>972</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>844</v>
+        <v>828</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>1086</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="148" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>786</v>
+        <v>769</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>989</v>
+        <v>973</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>845</v>
+        <v>829</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>1087</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="149" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>990</v>
+        <v>974</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>846</v>
+        <v>830</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>858</v>
+        <v>842</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>1088</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="150" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>991</v>
+        <v>975</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>859</v>
+        <v>843</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>788</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="H151" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="I151" s="5" t="s">
-        <v>860</v>
-      </c>
-      <c r="J151" s="5" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>812</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="H152" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="I152" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="J152" s="5" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>790</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="H153" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="I153" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="J153" s="5" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>1127</v>
+      </c>
+    </row>
     <row r="155" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>1140</v>
+        <v>1124</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>1145</v>
-      </c>
-    </row>
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="157" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>1142</v>
+        <v>1155</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>1146</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="158" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>1143</v>
+        <v>1156</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="H160" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="J160" s="3" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="I161" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="J161" s="3" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="H162" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="J162" s="3" t="s">
-        <v>1060</v>
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>349</v>
+        <v>84</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>997</v>
+        <v>976</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="I164" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>1061</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>998</v>
+        <v>977</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="I165" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>1062</v>
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>1043</v>
       </c>
     </row>
   </sheetData>

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1177">
   <si>
     <t>Temperature</t>
   </si>
@@ -3515,9 +3515,6 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>Semi-Auto</t>
-  </si>
-  <si>
     <t>Manual</t>
   </si>
   <si>
@@ -3525,6 +3522,39 @@
   </si>
   <si>
     <t>Intra-aortic Balloon Pump</t>
+  </si>
+  <si>
+    <t>IABPBUTTON:Start</t>
+  </si>
+  <si>
+    <t>IABPBUTTON:Pause</t>
+  </si>
+  <si>
+    <t>IABPBUTTON:ZeroPressure</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Zero\nPressure</t>
+  </si>
+  <si>
+    <t>Semi Auto</t>
+  </si>
+  <si>
+    <t>Zero Transducer</t>
+  </si>
+  <si>
+    <t>MENU:MenuZeroTransducer</t>
+  </si>
+  <si>
+    <t>NUMERIC:ZeroTransducer</t>
+  </si>
+  <si>
+    <t>Zero\nTransducer</t>
   </si>
 </sst>
 </file>
@@ -3874,11 +3904,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B125" sqref="B125"/>
+      <selection pane="topRight" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6707,1528 +6737,1572 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="I108" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="J108" s="5" t="s">
-        <v>452</v>
+    <row r="107" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>320</v>
+        <v>648</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>105</v>
+        <v>651</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>146</v>
+        <v>670</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>105</v>
+        <v>697</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>924</v>
+        <v>953</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>105</v>
+        <v>655</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>278</v>
+        <v>700</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>1014</v>
+        <v>452</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>453</v>
+        <v>52</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>649</v>
+        <v>318</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>652</v>
+        <v>103</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>671</v>
+        <v>144</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>685</v>
+        <v>196</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>954</v>
+        <v>922</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>656</v>
+        <v>232</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>622</v>
+        <v>276</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>1038</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>53</v>
+        <v>453</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>319</v>
+        <v>649</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>104</v>
+        <v>652</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>145</v>
+        <v>671</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>197</v>
+        <v>685</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>923</v>
+        <v>954</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>233</v>
+        <v>656</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>277</v>
+        <v>622</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>1013</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>454</v>
+        <v>53</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>650</v>
+        <v>319</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>653</v>
+        <v>104</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>672</v>
+        <v>145</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>686</v>
+        <v>197</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>955</v>
+        <v>923</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>657</v>
+        <v>233</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>701</v>
+        <v>277</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>1039</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>55</v>
+        <v>454</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>322</v>
+        <v>650</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>106</v>
+        <v>653</v>
       </c>
       <c r="E114" s="5" t="s">
-        <v>148</v>
+        <v>672</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>198</v>
+        <v>686</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>925</v>
+        <v>955</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>234</v>
+        <v>657</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>279</v>
+        <v>701</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>1015</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B117" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C117" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D117" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F117" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="G117" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="H117" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I116" s="5" t="s">
+      <c r="I117" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="J116" s="5" t="s">
+      <c r="J117" s="5" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>953</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="I118" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="J118" s="5" t="s">
-        <v>452</v>
+    <row r="118" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="119" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="120" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>475</v>
+        <v>711</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>53</v>
+        <v>452</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>319</v>
+        <v>648</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>104</v>
+        <v>651</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>145</v>
+        <v>670</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>197</v>
+        <v>697</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>923</v>
+        <v>953</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>233</v>
+        <v>655</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E121" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>926</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="I121" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="J121" s="5" t="s">
-        <v>1016</v>
-      </c>
-    </row>
+        <v>700</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="J122" s="5" t="s">
-        <v>1015</v>
+        <v>277</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="123" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="124" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>1166</v>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I125" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="126" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>453</v>
+        <v>52</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>649</v>
+        <v>318</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>654</v>
+        <v>103</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>671</v>
+        <v>144</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>685</v>
+        <v>196</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>956</v>
+        <v>922</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>656</v>
+        <v>232</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="J126" s="3" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="I127" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="J127" s="5" t="s">
-        <v>1083</v>
+        <v>276</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="128" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>754</v>
+        <v>649</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>773</v>
+        <v>654</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="J128" s="5" t="s">
-        <v>1084</v>
+        <v>622</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>702</v>
+        <v>845</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>1074</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="131" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>1094</v>
+        <v>959</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>703</v>
+        <v>846</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>1075</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="132" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>1095</v>
+        <v>960</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>961</v>
+        <v>1094</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="134" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>962</v>
+        <v>1095</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="135" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="136" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="137" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="138" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="139" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>724</v>
+        <v>490</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>736</v>
+        <v>473</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>796</v>
+        <v>680</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>808</v>
+        <v>695</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>820</v>
+        <v>668</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>832</v>
+        <v>709</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>1062</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="140" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>725</v>
+        <v>491</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>737</v>
+        <v>474</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>797</v>
+        <v>681</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>809</v>
+        <v>696</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>821</v>
+        <v>669</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>833</v>
+        <v>710</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>1063</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="141" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="142" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>1097</v>
+        <v>968</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="143" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>1096</v>
+        <v>969</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="145" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>970</v>
+        <v>1096</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="146" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>971</v>
+        <v>1098</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="147" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="148" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="149" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="150" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="I150" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="J150" s="5" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="J151" s="5" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B152" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C152" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D152" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="E150" s="5" t="s">
+      <c r="E152" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="F152" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="G150" s="5" t="s">
+      <c r="G152" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="H150" s="5" t="s">
+      <c r="H152" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="I150" s="5" t="s">
+      <c r="I152" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="J150" s="5" t="s">
+      <c r="J152" s="5" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="151" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="6" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>1126</v>
-      </c>
-    </row>
+    <row r="153" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="154" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="155" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>1127</v>
+      </c>
+    </row>
     <row r="157" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>1155</v>
+        <v>1124</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>1158</v>
-      </c>
-    </row>
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="159" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="160" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="161" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
         <v>1161</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
+      <c r="B163" s="6" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B172" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C172" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D172" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E172" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F163" s="3" t="s">
+      <c r="F172" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G163" s="3" t="s">
+      <c r="G172" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="H163" s="3" t="s">
+      <c r="H172" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I163" s="3" t="s">
+      <c r="I172" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="J163" s="3" t="s">
+      <c r="J172" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B173" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C173" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D173" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E173" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F164" s="3" t="s">
+      <c r="F173" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G164" s="3" t="s">
+      <c r="G173" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="H164" s="3" t="s">
+      <c r="H173" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="I164" s="3" t="s">
+      <c r="I173" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="J164" s="3" t="s">
+      <c r="J173" s="3" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B165" s="3" t="s">
+      <c r="B174" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C174" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D174" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E174" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F165" s="3" t="s">
+      <c r="F174" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G165" s="3" t="s">
+      <c r="G174" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="H165" s="3" t="s">
+      <c r="H174" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="I165" s="3" t="s">
+      <c r="I174" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="J165" s="3" t="s">
+      <c r="J174" s="3" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B176" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C176" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E176" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="F176" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G167" s="3" t="s">
+      <c r="G176" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="H167" s="3" t="s">
+      <c r="H176" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I167" s="3" t="s">
+      <c r="I176" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="J167" s="3" t="s">
+      <c r="J176" s="3" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B177" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C177" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D177" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="E177" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F168" s="3" t="s">
+      <c r="F177" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G168" s="3" t="s">
+      <c r="G177" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="H168" s="3" t="s">
+      <c r="H177" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="I168" s="3" t="s">
+      <c r="I177" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="J168" s="3" t="s">
+      <c r="J177" s="3" t="s">
         <v>1043</v>
       </c>
     </row>

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="1177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1602" uniqueCount="1361">
   <si>
     <t>Temperature</t>
   </si>
@@ -3539,9 +3539,6 @@
     <t>Pause</t>
   </si>
   <si>
-    <t>Zero\nPressure</t>
-  </si>
-  <si>
     <t>Semi Auto</t>
   </si>
   <si>
@@ -3554,14 +3551,569 @@
     <t>NUMERIC:ZeroTransducer</t>
   </si>
   <si>
-    <t>Zero\nTransducer</t>
+    <t>IABP:AugmentationAlarm</t>
+  </si>
+  <si>
+    <t>Augmentation Alarm</t>
+  </si>
+  <si>
+    <t>BOOLEAN:Off</t>
+  </si>
+  <si>
+    <t>BOOLEAN:On</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>IABP:AugmentationPressure</t>
+  </si>
+  <si>
+    <t>Augmentation Pressure</t>
+  </si>
+  <si>
+    <t>IABP:HeliumTank</t>
+  </si>
+  <si>
+    <t>Helium Tank</t>
+  </si>
+  <si>
+    <t>IABP:Paused</t>
+  </si>
+  <si>
+    <t>IABP:Running</t>
+  </si>
+  <si>
+    <t>Paused</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Primed</t>
+  </si>
+  <si>
+    <t>Needs Priming</t>
+  </si>
+  <si>
+    <t>IABP:Primed</t>
+  </si>
+  <si>
+    <t>IABP:NeedsPriming</t>
+  </si>
+  <si>
+    <t>IABPBUTTON:ToggleTrigger</t>
+  </si>
+  <si>
+    <t>Zero Pressure</t>
+  </si>
+  <si>
+    <t>Toggle Trigger</t>
+  </si>
+  <si>
+    <t>IABPBUTTON:PrimeBalloon</t>
+  </si>
+  <si>
+    <t>Prime Balloon</t>
+  </si>
+  <si>
+    <t>IABPBUTTON:ToggleFrequency</t>
+  </si>
+  <si>
+    <t>Toggle Frequency</t>
+  </si>
+  <si>
+    <t>Null Druckwandler</t>
+  </si>
+  <si>
+    <t>Transductor de presión cero</t>
+  </si>
+  <si>
+    <t>Transducteur de pression nulle</t>
+  </si>
+  <si>
+    <t>Trasduttore di pressione zero</t>
+  </si>
+  <si>
+    <t>제로 압력 변환기</t>
+  </si>
+  <si>
+    <t>Transdutor de pressão zero</t>
+  </si>
+  <si>
+    <t>Датчик нулевого давления</t>
+  </si>
+  <si>
+    <t>Weka kwa sifuri transducer ya shinikizo</t>
+  </si>
+  <si>
+    <t>Kazi</t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>Aktiv</t>
+  </si>
+  <si>
+    <t>Inaktiv</t>
+  </si>
+  <si>
+    <t>Haikufanya kazi</t>
+  </si>
+  <si>
+    <t>активный</t>
+  </si>
+  <si>
+    <t>Неактивный</t>
+  </si>
+  <si>
+    <t>Ativo</t>
+  </si>
+  <si>
+    <t>Inativo</t>
+  </si>
+  <si>
+    <t>Inactivo</t>
+  </si>
+  <si>
+    <t>Inactif</t>
+  </si>
+  <si>
+    <t>Inattivo</t>
+  </si>
+  <si>
+    <t>비활성</t>
+  </si>
+  <si>
+    <t>유효한</t>
+  </si>
+  <si>
+    <t>Attivo</t>
+  </si>
+  <si>
+    <t>Actif</t>
+  </si>
+  <si>
+    <t>Automatique</t>
+  </si>
+  <si>
+    <t>오토매틱</t>
+  </si>
+  <si>
+    <t>반자동</t>
+  </si>
+  <si>
+    <t>Semi-automatique</t>
+  </si>
+  <si>
+    <t>Manuellement</t>
+  </si>
+  <si>
+    <t>수동으로</t>
+  </si>
+  <si>
+    <t>Manualmente</t>
+  </si>
+  <si>
+    <t>Automatico</t>
+  </si>
+  <si>
+    <t>Semiautomatico</t>
+  </si>
+  <si>
+    <t>Semiautomático</t>
+  </si>
+  <si>
+    <t>Halbautomatisch</t>
+  </si>
+  <si>
+    <t>Automatisch</t>
+  </si>
+  <si>
+    <t>Automático</t>
+  </si>
+  <si>
+    <t>A Mano</t>
+  </si>
+  <si>
+    <t>Manuell</t>
+  </si>
+  <si>
+    <t>Вручную</t>
+  </si>
+  <si>
+    <t>Inaendeshwa kwa manufaa</t>
+  </si>
+  <si>
+    <t>Semi-Automático</t>
+  </si>
+  <si>
+    <t>Полуавтоматический</t>
+  </si>
+  <si>
+    <t>автоматическая</t>
+  </si>
+  <si>
+    <t>Moja kwa moja</t>
+  </si>
+  <si>
+    <t>Sehemu moja kwa moja</t>
+  </si>
+  <si>
+    <t>Anza</t>
+  </si>
+  <si>
+    <t>Começar</t>
+  </si>
+  <si>
+    <t>Начало</t>
+  </si>
+  <si>
+    <t>делать паузу</t>
+  </si>
+  <si>
+    <t>Pausar</t>
+  </si>
+  <si>
+    <t>Pumzika</t>
+  </si>
+  <si>
+    <t>끊다</t>
+  </si>
+  <si>
+    <t>스타트</t>
+  </si>
+  <si>
+    <t>Inizio</t>
+  </si>
+  <si>
+    <t>Début</t>
+  </si>
+  <si>
+    <t>Pauser</t>
+  </si>
+  <si>
+    <t>Sostare</t>
+  </si>
+  <si>
+    <t>Pausieren</t>
+  </si>
+  <si>
+    <t>Anfang</t>
+  </si>
+  <si>
+    <t>Comienzo</t>
+  </si>
+  <si>
+    <t>Pausa</t>
+  </si>
+  <si>
+    <t>Ausente</t>
+  </si>
+  <si>
+    <t>Abwesend</t>
+  </si>
+  <si>
+    <t>Léger</t>
+  </si>
+  <si>
+    <t>Leicht</t>
+  </si>
+  <si>
+    <t>Templado</t>
+  </si>
+  <si>
+    <t>Moderado</t>
+  </si>
+  <si>
+    <t>Mäßig</t>
+  </si>
+  <si>
+    <t>Modéré</t>
+  </si>
+  <si>
+    <t>Sévère</t>
+  </si>
+  <si>
+    <t>Grave</t>
+  </si>
+  <si>
+    <t>Schwer</t>
+  </si>
+  <si>
+    <t>심한</t>
+  </si>
+  <si>
+    <t>Moderato</t>
+  </si>
+  <si>
+    <t>절제있는</t>
+  </si>
+  <si>
+    <t>Leggero</t>
+  </si>
+  <si>
+    <t>경량</t>
+  </si>
+  <si>
+    <t>Leve</t>
+  </si>
+  <si>
+    <t>없는</t>
+  </si>
+  <si>
+    <t>Assente</t>
+  </si>
+  <si>
+    <t>Нет на месте</t>
+  </si>
+  <si>
+    <t>Haipo</t>
+  </si>
+  <si>
+    <t>Wazi</t>
+  </si>
+  <si>
+    <t>Серьезный</t>
+  </si>
+  <si>
+    <t>умеренный</t>
+  </si>
+  <si>
+    <t>Wastani</t>
+  </si>
+  <si>
+    <t>Nyepesi</t>
+  </si>
+  <si>
+    <t>легкий</t>
+  </si>
+  <si>
+    <t>Globo listo</t>
+  </si>
+  <si>
+    <t>Globo vacío</t>
+  </si>
+  <si>
+    <t>Ballon vide</t>
+  </si>
+  <si>
+    <t>Ballon prêt</t>
+  </si>
+  <si>
+    <t>Ballon bereit</t>
+  </si>
+  <si>
+    <t>Ballon leer</t>
+  </si>
+  <si>
+    <t>Palloncino vuoto</t>
+  </si>
+  <si>
+    <t>빈 풍선</t>
+  </si>
+  <si>
+    <t>Balão vazio</t>
+  </si>
+  <si>
+    <t>Balão pronto</t>
+  </si>
+  <si>
+    <t>풍선 준비</t>
+  </si>
+  <si>
+    <t>Palloncino pronto</t>
+  </si>
+  <si>
+    <t>Воздушный шар готов</t>
+  </si>
+  <si>
+    <t>Balloon tayari</t>
+  </si>
+  <si>
+    <t>Balloon tupu</t>
+  </si>
+  <si>
+    <t>Воздушный шар пуст</t>
+  </si>
+  <si>
+    <t>Гелиевый резервуар</t>
+  </si>
+  <si>
+    <t>Heli ya tani</t>
+  </si>
+  <si>
+    <t>Serbatoio di elio</t>
+  </si>
+  <si>
+    <t>헬륨 탱크</t>
+  </si>
+  <si>
+    <t>Tanque de hélio</t>
+  </si>
+  <si>
+    <t>Tanque de helio</t>
+  </si>
+  <si>
+    <t>Réservoir d'hélium</t>
+  </si>
+  <si>
+    <t>Heliumtank</t>
+  </si>
+  <si>
+    <t>Infirmary Integrated: Bomba de balão intra-aórtico</t>
+  </si>
+  <si>
+    <t>Инвалидный комплекс: Внутриаортальный воздушный насос</t>
+  </si>
+  <si>
+    <t>Infirmary Integrated: Pump-Aortic Balloon Pump</t>
+  </si>
+  <si>
+    <t>의무실 통합 : 대동맥 풍선 펌프</t>
+  </si>
+  <si>
+    <t>Infirmerie intégrée: Pompe à ballon intra-aortique</t>
+  </si>
+  <si>
+    <t>Enfermería integrada: Bomba de globo intraaórtica</t>
+  </si>
+  <si>
+    <t>Krankenstation integriert: Intraaortale Ballonpumpe</t>
+  </si>
+  <si>
+    <t>Préparer un ballon</t>
+  </si>
+  <si>
+    <t>Preparar el globo</t>
+  </si>
+  <si>
+    <t>Bereiten Sie Ballon vor</t>
+  </si>
+  <si>
+    <t>Preparare il pallone</t>
+  </si>
+  <si>
+    <t>Prepare balão</t>
+  </si>
+  <si>
+    <t>Подготовьте воздушный шар</t>
+  </si>
+  <si>
+    <t>Tayari puto</t>
+  </si>
+  <si>
+    <t>Chagua mzunguko</t>
+  </si>
+  <si>
+    <t>Выберите частоту</t>
+  </si>
+  <si>
+    <t>Selecione a frequência</t>
+  </si>
+  <si>
+    <t>빈도 선택</t>
+  </si>
+  <si>
+    <t>Seleziona la frequenza</t>
+  </si>
+  <si>
+    <t>Sélectionnez la fréquence</t>
+  </si>
+  <si>
+    <t>Seleccione la frecuencia</t>
+  </si>
+  <si>
+    <t>Wählen Sie die Häufigkeit aus</t>
+  </si>
+  <si>
+    <t>Wählen Sie den Auslöser</t>
+  </si>
+  <si>
+    <t>Seleccionar disparador</t>
+  </si>
+  <si>
+    <t>Sélectionner le déclencheur</t>
+  </si>
+  <si>
+    <t>Seleziona il innescando</t>
+  </si>
+  <si>
+    <t>트리거 선택</t>
+  </si>
+  <si>
+    <t>Selecione o gatilho</t>
+  </si>
+  <si>
+    <t>Выберите триггер</t>
+  </si>
+  <si>
+    <t>Chagua chanzo</t>
+  </si>
+  <si>
+    <t>Alarma de aumento</t>
+  </si>
+  <si>
+    <t>Alarme d'augmentation</t>
+  </si>
+  <si>
+    <t>Infermeria integrata: Pompa a palloncino intra-aortica</t>
+  </si>
+  <si>
+    <t>Allarme di aumento</t>
+  </si>
+  <si>
+    <t>증강 알람</t>
+  </si>
+  <si>
+    <t>Alarme de aumento</t>
+  </si>
+  <si>
+    <t>Сигнал о дополнении</t>
+  </si>
+  <si>
+    <t>Alama ya kuongeza</t>
+  </si>
+  <si>
+    <t>Vergrößerungsalarm</t>
+  </si>
+  <si>
+    <t>Vergrößerungsdruck</t>
+  </si>
+  <si>
+    <t>Presión de aumento</t>
+  </si>
+  <si>
+    <t>Pression d'augmentation</t>
+  </si>
+  <si>
+    <t>Pressione di aumento</t>
+  </si>
+  <si>
+    <t>증가 압력</t>
+  </si>
+  <si>
+    <t>Pressão de aumento</t>
+  </si>
+  <si>
+    <t>Давление увеличения</t>
+  </si>
+  <si>
+    <t>Shinikizo la kuongeza</t>
+  </si>
+  <si>
+    <t>Pression artérielle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3576,6 +4128,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3604,7 +4162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3624,6 +4182,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3904,11 +4463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J177"/>
+  <dimension ref="A1:J185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4081,4228 +4640,4991 @@
     </row>
     <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>403</v>
+        <v>1178</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>427</v>
+        <v>1179</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>493</v>
+        <v>1210</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>432</v>
+        <v>1209</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>427</v>
+        <v>1223</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>548</v>
+        <v>1222</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>879</v>
+        <v>1221</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>432</v>
+        <v>1215</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>591</v>
+        <v>1213</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>1086</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>404</v>
+        <v>1177</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>381</v>
+        <v>1180</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>494</v>
+        <v>1211</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>433</v>
+        <v>1217</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>523</v>
+        <v>1218</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>549</v>
+        <v>1219</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>880</v>
+        <v>1220</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>572</v>
+        <v>1216</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>592</v>
+        <v>1214</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>881</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>985</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>525</v>
+        <v>427</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>573</v>
+        <v>432</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>986</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>575</v>
+        <v>524</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>385</v>
+        <v>593</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>386</v>
+        <v>594</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>387</v>
+        <v>526</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>387</v>
+        <v>552</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>387</v>
+        <v>574</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>388</v>
+        <v>575</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>597</v>
+        <v>385</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>388</v>
+        <v>988</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>531</v>
+        <v>387</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>557</v>
+        <v>387</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>578</v>
+        <v>387</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>1048</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>600</v>
+        <v>389</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>1049</v>
+        <v>991</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1090</v>
+        <v>889</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1050</v>
+        <v>992</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>581</v>
+        <v>439</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1091</v>
+        <v>892</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>446</v>
+        <v>582</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>993</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>895</v>
+        <v>1092</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>1087</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>896</v>
+        <v>1091</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>401</v>
+        <v>565</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>587</v>
+        <v>446</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>1055</v>
+        <v>993</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>519</v>
+        <v>399</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>522</v>
+        <v>447</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>1046</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>518</v>
+        <v>400</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>570</v>
+        <v>401</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>430</v>
+        <v>519</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>430</v>
+        <v>522</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>430</v>
+        <v>568</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>590</v>
+        <v>522</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B38" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J38" s="5" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>1135</v>
-      </c>
-    </row>
+    <row r="39" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>1132</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="45" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H45" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="I42" s="5" t="s">
+      <c r="I45" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J45" s="5" t="s">
         <v>995</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>906</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>358</v>
+        <v>305</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>359</v>
+        <v>170</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>360</v>
+        <v>129</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>361</v>
+        <v>181</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>908</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="J47" s="5" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="J48" s="5" t="s">
-        <v>1001</v>
+        <v>996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>998</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>132</v>
+        <v>360</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>184</v>
+        <v>361</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>1001</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>94</v>
+        <v>226</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>914</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>4</v>
+        <v>310</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>4</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>3</v>
+        <v>311</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>1006</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>1100</v>
+        <v>33</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1099</v>
+        <v>4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>1102</v>
+        <v>4</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>1103</v>
+        <v>96</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>1104</v>
+        <v>137</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>1105</v>
+        <v>189</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>1101</v>
+        <v>915</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>1106</v>
+        <v>96</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>1107</v>
+        <v>269</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>1108</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>314</v>
+        <v>3</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="I64" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>1058</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>105</v>
+        <v>231</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>632</v>
+        <v>103</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>1093</v>
+        <v>922</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>54</v>
+        <v>232</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>622</v>
+        <v>276</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>1057</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>1015</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>199</v>
+        <v>105</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>108</v>
+        <v>632</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>927</v>
+        <v>1093</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>236</v>
+        <v>54</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>281</v>
+        <v>622</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>1017</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>1059</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>1023</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>1088</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E83" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F83" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>937</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H83" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="I83" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J83" s="3" t="s">
         <v>1089</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>1138</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>1137</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
         <v>1113</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B90" s="6" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="89" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="92" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B92" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="E89" s="5" t="s">
+      <c r="E92" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F92" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="G92" s="5" t="s">
         <v>938</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H92" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="I89" s="5" t="s">
+      <c r="I92" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="J89" s="5" t="s">
+      <c r="J92" s="5" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+    <row r="93" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="E90" s="5" t="s">
+      <c r="E93" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F93" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="G90" s="5" t="s">
+      <c r="G93" s="5" t="s">
         <v>952</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H93" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="I90" s="5" t="s">
+      <c r="I93" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="J90" s="5" t="s">
+      <c r="J93" s="5" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+    <row r="94" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>1153</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>939</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>940</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>1026</v>
+      <c r="C94" s="5" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>1315</v>
       </c>
     </row>
     <row r="95" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>1141</v>
+        <v>1175</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>378</v>
+        <v>1176</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>629</v>
+        <v>1351</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>630</v>
+        <v>1343</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>631</v>
+        <v>1344</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>633</v>
+        <v>1346</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>941</v>
+        <v>1347</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>634</v>
+        <v>1348</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>635</v>
+        <v>1349</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>1027</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="96" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>1142</v>
+        <v>1181</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>377</v>
+        <v>1182</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>628</v>
+        <v>1352</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>627</v>
+        <v>1353</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>626</v>
+        <v>1354</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>625</v>
+        <v>1355</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>942</v>
+        <v>1356</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>624</v>
+        <v>1357</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>623</v>
+        <v>1358</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>1028</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="97" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>1143</v>
+        <v>1183</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>77</v>
+        <v>1184</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>337</v>
+        <v>1312</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>118</v>
+        <v>1310</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>162</v>
+        <v>1311</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>210</v>
+        <v>1307</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>943</v>
+        <v>1308</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>249</v>
+        <v>1309</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>293</v>
+        <v>1305</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>1029</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="98" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>1144</v>
+        <v>1185</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>375</v>
+        <v>1187</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>647</v>
+        <v>1211</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>640</v>
+        <v>1217</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>641</v>
+        <v>1218</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>639</v>
+        <v>1219</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>944</v>
+        <v>1220</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>638</v>
+        <v>1216</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>637</v>
+        <v>1214</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>1030</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>1145</v>
+        <v>1186</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>376</v>
+        <v>1188</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>646</v>
+        <v>1210</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>643</v>
+        <v>1209</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>642</v>
+        <v>1223</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>644</v>
+        <v>1222</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>945</v>
+        <v>1221</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>645</v>
+        <v>1215</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>636</v>
+        <v>1213</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>946</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>947</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>999</v>
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I101" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>1015</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>1150</v>
+        <v>1159</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>712</v>
+        <v>1162</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>853</v>
+        <v>1235</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>847</v>
+        <v>1236</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>848</v>
+        <v>1224</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>849</v>
+        <v>1231</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>949</v>
+        <v>1225</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>850</v>
+        <v>1236</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>852</v>
+        <v>1243</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>1035</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>1151</v>
+        <v>1160</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>713</v>
+        <v>1171</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>854</v>
+        <v>1234</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>859</v>
+        <v>1233</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>858</v>
+        <v>1227</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>857</v>
+        <v>1232</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>950</v>
+        <v>1226</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>856</v>
+        <v>1241</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>855</v>
+        <v>1242</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>1036</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>714</v>
+        <v>1163</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>865</v>
+        <v>1238</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>860</v>
+        <v>1237</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>861</v>
+        <v>1228</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>862</v>
+        <v>1230</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>951</v>
+        <v>1229</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>863</v>
+        <v>1230</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>864</v>
+        <v>1239</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>1173</v>
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>1247</v>
+      </c>
+      <c r="I107" s="5" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>455</v>
+        <v>1168</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>452</v>
+        <v>1194</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>648</v>
+        <v>1200</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>651</v>
+        <v>1201</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>670</v>
+        <v>1202</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>697</v>
+        <v>1203</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>953</v>
+        <v>1204</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>655</v>
+        <v>1205</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>700</v>
+        <v>1206</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>452</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>456</v>
+        <v>1193</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>0</v>
+        <v>1195</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>320</v>
+        <v>1335</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>105</v>
+        <v>1336</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>146</v>
+        <v>1337</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>105</v>
+        <v>1338</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>924</v>
+        <v>1339</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>105</v>
+        <v>1340</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>278</v>
+        <v>1341</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>1014</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>457</v>
+        <v>1198</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>52</v>
+        <v>1199</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>318</v>
+        <v>1334</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>103</v>
+        <v>1333</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>144</v>
+        <v>1332</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>196</v>
+        <v>1331</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>922</v>
+        <v>1330</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>232</v>
+        <v>1329</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>276</v>
+        <v>1328</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>1012</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
-        <v>458</v>
+        <v>1196</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>453</v>
+        <v>1197</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>649</v>
+        <v>1322</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>652</v>
+        <v>1321</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>671</v>
+        <v>1320</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>685</v>
+        <v>1323</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>954</v>
+        <v>1299</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>656</v>
+        <v>1324</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>622</v>
+        <v>1325</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>459</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J113" s="5" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="E114" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>955</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="J114" s="5" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E115" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="J115" s="5" t="s">
-        <v>1015</v>
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>462</v>
+        <v>1141</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>56</v>
+        <v>378</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>323</v>
+        <v>629</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>107</v>
+        <v>630</v>
       </c>
       <c r="E116" s="5" t="s">
-        <v>149</v>
+        <v>631</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>199</v>
+        <v>633</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>926</v>
+        <v>941</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>235</v>
+        <v>634</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>280</v>
+        <v>635</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>715</v>
+        <v>1142</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>57</v>
+        <v>377</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>324</v>
+        <v>628</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>108</v>
+        <v>627</v>
       </c>
       <c r="E117" s="5" t="s">
-        <v>150</v>
+        <v>626</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>200</v>
+        <v>625</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>927</v>
+        <v>942</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>236</v>
+        <v>624</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>281</v>
+        <v>623</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="6" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>1030</v>
+      </c>
+    </row>
     <row r="120" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>711</v>
+        <v>1145</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>452</v>
+        <v>376</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="E120" s="5" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>697</v>
+        <v>644</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>700</v>
+        <v>636</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="I122" s="5" t="s">
-        <v>277</v>
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>295</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>926</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="I123" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="J123" s="5" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I124" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="J124" s="5" t="s">
-        <v>1015</v>
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>999</v>
       </c>
     </row>
     <row r="125" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>492</v>
+        <v>1150</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>57</v>
+        <v>712</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>324</v>
+        <v>853</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>108</v>
+        <v>847</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>150</v>
+        <v>848</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>200</v>
+        <v>849</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>927</v>
+        <v>949</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>236</v>
+        <v>850</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>281</v>
+        <v>852</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>1017</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="126" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>478</v>
+        <v>1151</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>52</v>
+        <v>713</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>318</v>
+        <v>854</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>103</v>
+        <v>859</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>144</v>
+        <v>858</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>196</v>
+        <v>857</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>922</v>
+        <v>950</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>232</v>
+        <v>856</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>276</v>
+        <v>855</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>1165</v>
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="I127" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="128" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>479</v>
+        <v>1173</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>453</v>
+        <v>1172</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>649</v>
+        <v>1200</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>654</v>
+        <v>1201</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>671</v>
+        <v>1202</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>685</v>
+        <v>1203</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>956</v>
+        <v>1204</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>656</v>
+        <v>1205</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="J128" s="3" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="J129" s="5" t="s">
-        <v>1083</v>
+        <v>1206</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="130" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>754</v>
+        <v>648</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>773</v>
+        <v>651</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>845</v>
+        <v>700</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>1084</v>
+        <v>452</v>
       </c>
     </row>
     <row r="131" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>755</v>
+        <v>320</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>774</v>
+        <v>105</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>682</v>
+        <v>146</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>699</v>
+        <v>105</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>959</v>
+        <v>924</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>661</v>
+        <v>105</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>846</v>
+        <v>278</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>1085</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="132" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>466</v>
+        <v>52</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>756</v>
+        <v>318</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>783</v>
+        <v>103</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>673</v>
+        <v>144</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>688</v>
+        <v>196</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>960</v>
+        <v>922</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>659</v>
+        <v>232</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>702</v>
+        <v>276</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>1074</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>757</v>
+        <v>649</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>775</v>
+        <v>652</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>1094</v>
+        <v>954</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>703</v>
+        <v>622</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>1075</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="134" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>468</v>
+        <v>53</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>749</v>
+        <v>319</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>776</v>
+        <v>104</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>675</v>
+        <v>145</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>690</v>
+        <v>197</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>1095</v>
+        <v>923</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>660</v>
+        <v>233</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>704</v>
+        <v>277</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>1076</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="135" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>758</v>
+        <v>650</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>777</v>
+        <v>653</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>1080</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="136" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>470</v>
+        <v>55</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>750</v>
+        <v>322</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>778</v>
+        <v>106</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>677</v>
+        <v>148</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>692</v>
+        <v>198</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>962</v>
+        <v>925</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>665</v>
+        <v>234</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>707</v>
+        <v>279</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>1081</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="137" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>471</v>
+        <v>56</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>759</v>
+        <v>323</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>779</v>
+        <v>107</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>678</v>
+        <v>149</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>693</v>
+        <v>199</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>963</v>
+        <v>926</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>666</v>
+        <v>235</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>705</v>
+        <v>280</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>1077</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="138" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>489</v>
+        <v>715</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>472</v>
+        <v>57</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>760</v>
+        <v>324</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>780</v>
+        <v>108</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>679</v>
+        <v>150</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>694</v>
+        <v>200</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>964</v>
+        <v>927</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>667</v>
+        <v>236</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>708</v>
+        <v>281</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>1078</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="139" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>490</v>
+        <v>1174</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>473</v>
+        <v>1172</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>761</v>
+        <v>1200</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>781</v>
+        <v>1201</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>680</v>
+        <v>1202</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>695</v>
+        <v>1203</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>965</v>
+        <v>1204</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>668</v>
+        <v>1205</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>709</v>
+        <v>1206</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="C140" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="I140" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="J140" s="5" t="s">
-        <v>1079</v>
-      </c>
-    </row>
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="141" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>736</v>
+        <v>452</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>751</v>
+        <v>648</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>784</v>
+        <v>651</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>796</v>
+        <v>670</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>808</v>
+        <v>697</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>967</v>
+        <v>953</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>820</v>
+        <v>655</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>832</v>
+        <v>700</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>785</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>809</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>968</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="I142" s="5" t="s">
-        <v>833</v>
-      </c>
-      <c r="J142" s="5" t="s">
-        <v>1063</v>
-      </c>
-    </row>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>726</v>
+        <v>475</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>738</v>
+        <v>53</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>764</v>
+        <v>319</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>786</v>
+        <v>104</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>798</v>
+        <v>145</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>810</v>
+        <v>197</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>969</v>
+        <v>923</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>822</v>
+        <v>233</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>834</v>
-      </c>
-      <c r="J143" s="5" t="s">
-        <v>1064</v>
+        <v>277</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>727</v>
+        <v>476</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>739</v>
+        <v>56</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>765</v>
+        <v>323</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>795</v>
+        <v>107</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>799</v>
+        <v>149</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>811</v>
+        <v>199</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>1097</v>
+        <v>926</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>823</v>
+        <v>235</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>835</v>
+        <v>280</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>1065</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="145" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>728</v>
+        <v>477</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>740</v>
+        <v>55</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>766</v>
+        <v>322</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>787</v>
+        <v>106</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>800</v>
+        <v>148</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>812</v>
+        <v>198</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>1096</v>
+        <v>925</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>824</v>
+        <v>234</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>836</v>
+        <v>279</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>1066</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="146" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>729</v>
+        <v>492</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>741</v>
+        <v>57</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>752</v>
+        <v>324</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>788</v>
+        <v>108</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>801</v>
+        <v>150</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>813</v>
+        <v>200</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>1098</v>
+        <v>927</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>825</v>
+        <v>236</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>837</v>
+        <v>281</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>1067</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="147" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>730</v>
+        <v>478</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>742</v>
+        <v>52</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>767</v>
+        <v>318</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>789</v>
+        <v>103</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>802</v>
+        <v>144</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>814</v>
+        <v>196</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>970</v>
+        <v>922</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>826</v>
+        <v>232</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>838</v>
+        <v>276</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>1068</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="148" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>731</v>
+        <v>1164</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>743</v>
+        <v>1165</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>753</v>
+        <v>313</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>790</v>
+        <v>98</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>803</v>
+        <v>139</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>815</v>
+        <v>191</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>971</v>
+        <v>917</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>827</v>
+        <v>228</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>839</v>
+        <v>271</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>1069</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="149" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>732</v>
+        <v>479</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>744</v>
+        <v>453</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>768</v>
+        <v>649</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>791</v>
+        <v>654</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>804</v>
+        <v>671</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>816</v>
+        <v>685</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>828</v>
+        <v>656</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>840</v>
-      </c>
-      <c r="J149" s="5" t="s">
-        <v>1070</v>
+        <v>622</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="150" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>733</v>
+        <v>480</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>745</v>
+        <v>463</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>805</v>
+        <v>684</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>817</v>
+        <v>687</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>829</v>
+        <v>658</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="151" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>734</v>
+        <v>481</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>746</v>
+        <v>464</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>806</v>
+        <v>683</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>818</v>
+        <v>698</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>830</v>
+        <v>662</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>1072</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="152" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="J152" s="5" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="E153" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="I153" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="J153" s="5" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="E154" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="I154" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="J154" s="5" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="I155" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="J155" s="5" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="I156" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="J156" s="5" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="G157" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="H157" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="I157" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="J157" s="5" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>963</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="J158" s="5" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="I159" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="J159" s="5" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>965</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="I160" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="J160" s="5" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="I161" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="J161" s="5" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="I162" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="J162" s="5" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="I163" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="J163" s="5" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="I164" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="J164" s="5" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="I165" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="J165" s="5" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="I166" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="J166" s="5" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="I167" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="J167" s="5" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="G168" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="H168" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="I168" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="J168" s="5" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="G169" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="H169" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="I169" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="J169" s="5" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="G170" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="H170" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="I170" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="J170" s="5" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="G171" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="I171" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="J171" s="5" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>974</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="I172" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="J172" s="5" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B173" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C173" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D173" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="E152" s="5" t="s">
+      <c r="E173" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="F152" s="5" t="s">
+      <c r="F173" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="G152" s="5" t="s">
+      <c r="G173" s="5" t="s">
         <v>975</v>
       </c>
-      <c r="H152" s="5" t="s">
+      <c r="H173" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="I152" s="5" t="s">
+      <c r="I173" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="J152" s="5" t="s">
+      <c r="J173" s="5" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="153" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="s">
+    <row r="174" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
         <v>1121</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B175" s="5" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
+      <c r="C175" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>1281</v>
+      </c>
+      <c r="J175" s="5" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
         <v>1122</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B176" s="5" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="6" t="s">
+      <c r="C176" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G176" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H176" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J176" s="5" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
         <v>1123</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B177" s="5" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
+      <c r="C177" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G177" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H177" s="5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="I177" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J177" s="5" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B178" s="5" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B160" s="6" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
+      <c r="C178" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G178" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H178" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="I178" s="5" t="s">
+        <v>1284</v>
+      </c>
+      <c r="J178" s="5" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B180" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C180" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D180" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E180" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F180" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="G172" s="3" t="s">
+      <c r="G180" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="H172" s="3" t="s">
+      <c r="H180" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="I172" s="3" t="s">
+      <c r="I180" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="J172" s="3" t="s">
+      <c r="J180" s="3" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B181" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C181" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D181" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="E181" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F173" s="3" t="s">
+      <c r="F181" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="G173" s="3" t="s">
+      <c r="G181" s="3" t="s">
         <v>976</v>
       </c>
-      <c r="H173" s="3" t="s">
+      <c r="H181" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="I173" s="3" t="s">
+      <c r="I181" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="J173" s="3" t="s">
+      <c r="J181" s="3" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A174" s="3" t="s">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B182" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C182" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D182" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E182" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="F182" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G174" s="3" t="s">
+      <c r="G182" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="H174" s="3" t="s">
+      <c r="H182" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="I174" s="3" t="s">
+      <c r="I182" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="J174" s="3" t="s">
+      <c r="J182" s="3" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B184" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C184" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E184" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="F184" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="G176" s="3" t="s">
+      <c r="G184" s="3" t="s">
         <v>978</v>
       </c>
-      <c r="H176" s="3" t="s">
+      <c r="H184" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="I176" s="3" t="s">
+      <c r="I184" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="J176" s="3" t="s">
+      <c r="J184" s="3" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B185" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C185" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D185" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E185" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F177" s="3" t="s">
+      <c r="F185" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G177" s="3" t="s">
+      <c r="G185" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="H177" s="3" t="s">
+      <c r="H185" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="I177" s="3" t="s">
+      <c r="I185" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="J177" s="3" t="s">
+      <c r="J185" s="3" t="s">
         <v>1043</v>
       </c>
     </row>

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II_Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E44740A-8D60-4FC6-BBA5-EA0C197EEB16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710DEE14-9A27-4EEC-890A-BD4E2C8AC3AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="1340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="1338">
   <si>
     <t>Temperature</t>
   </si>
@@ -3570,12 +3570,6 @@
     <t>Augmentation Pressure</t>
   </si>
   <si>
-    <t>IABP:HeliumTank</t>
-  </si>
-  <si>
-    <t>Helium Tank</t>
-  </si>
-  <si>
     <t>IABP:Paused</t>
   </si>
   <si>
@@ -3897,30 +3891,6 @@
     <t>Воздушный шар пуст</t>
   </si>
   <si>
-    <t>Гелиевый резервуар</t>
-  </si>
-  <si>
-    <t>Heli ya tani</t>
-  </si>
-  <si>
-    <t>Serbatoio di elio</t>
-  </si>
-  <si>
-    <t>헬륨 탱크</t>
-  </si>
-  <si>
-    <t>Tanque de hélio</t>
-  </si>
-  <si>
-    <t>Tanque de helio</t>
-  </si>
-  <si>
-    <t>Réservoir d'hélium</t>
-  </si>
-  <si>
-    <t>Heliumtank</t>
-  </si>
-  <si>
     <t>Infirmary Integrated: Bomba de balão intra-aórtico</t>
   </si>
   <si>
@@ -4045,6 +4015,30 @@
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>IABP:Augmentation</t>
+  </si>
+  <si>
+    <t>IABP:Alarm</t>
+  </si>
+  <si>
+    <t>IABP:Pressure</t>
+  </si>
+  <si>
+    <t>Augmentation</t>
+  </si>
+  <si>
+    <t>Alarm</t>
+  </si>
+  <si>
+    <t>NUMERIC:IABP_AP</t>
+  </si>
+  <si>
+    <t>Helium</t>
+  </si>
+  <si>
+    <t>IABP:Helium</t>
   </si>
 </sst>
 </file>
@@ -4392,11 +4386,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J186"/>
+  <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B103" sqref="B1:B1048576"/>
+      <selection pane="topRight" activeCell="B94" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4573,28 +4567,28 @@
         <v>1177</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -4605,28 +4599,28 @@
         <v>1178</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>1212</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -6837,2651 +6831,2683 @@
         <v>1154</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>1302</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>1314</v>
-      </c>
       <c r="G94" s="2" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>1315</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>1318</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>1319</v>
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1321</v>
+        <v>1310</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1322</v>
+        <v>1302</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>1323</v>
+        <v>1303</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>1324</v>
+        <v>1305</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>1325</v>
+        <v>1306</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>1326</v>
+        <v>1307</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>1327</v>
+        <v>1308</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>1328</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1297</v>
+        <v>1311</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1295</v>
+        <v>1312</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>1296</v>
+        <v>1313</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>1292</v>
+        <v>1314</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>1293</v>
+        <v>1315</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>1294</v>
+        <v>1316</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>1290</v>
+        <v>1317</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>1212</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>1277</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>1284</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>1286</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>1287</v>
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1336</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>1331</v>
+        <v>1181</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1330</v>
+        <v>1183</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1279</v>
+        <v>1201</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1275</v>
+        <v>1207</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>1276</v>
+        <v>1208</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>1280</v>
+        <v>1209</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>1281</v>
+        <v>1210</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>1282</v>
+        <v>1206</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>1289</v>
+        <v>1204</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>1288</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>1155</v>
+        <v>1182</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1157</v>
+        <v>1184</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>648</v>
+        <v>1200</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>651</v>
+        <v>1199</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>670</v>
+        <v>1213</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>697</v>
+        <v>1212</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>953</v>
+        <v>1211</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>655</v>
+        <v>1205</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>700</v>
+        <v>1203</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>452</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>1156</v>
+        <v>1186</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1158</v>
+        <v>1185</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>322</v>
+        <v>1276</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>106</v>
+        <v>1272</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>1329</v>
+        <v>1275</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>198</v>
+        <v>1283</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>925</v>
+        <v>1282</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>234</v>
+        <v>1281</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>279</v>
+        <v>1284</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>1015</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>1159</v>
+        <v>1321</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1161</v>
+        <v>1320</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1224</v>
+        <v>1277</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1225</v>
+        <v>1273</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>1216</v>
+        <v>1274</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>1220</v>
+        <v>1278</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>1217</v>
+        <v>1279</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>1225</v>
+        <v>1280</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>1228</v>
+        <v>1287</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>1229</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1223</v>
+        <v>648</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1222</v>
+        <v>651</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>1219</v>
+        <v>670</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>1221</v>
+        <v>697</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>1218</v>
+        <v>953</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>1226</v>
+        <v>655</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>1227</v>
+        <v>700</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>1230</v>
+        <v>452</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1167</v>
+        <v>1158</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1244</v>
+        <v>322</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1245</v>
+        <v>106</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>1240</v>
+        <v>1319</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>1239</v>
+        <v>198</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>1238</v>
+        <v>925</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>1232</v>
+        <v>234</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>1233</v>
+        <v>279</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>1231</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1168</v>
+        <v>1161</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1243</v>
+        <v>1222</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1246</v>
+        <v>1223</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>1241</v>
+        <v>1214</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>1237</v>
+        <v>1218</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>1215</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>1236</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1189</v>
+        <v>1169</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1192</v>
+        <v>1221</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1193</v>
+        <v>1220</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>1194</v>
+        <v>1217</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>1195</v>
+        <v>1219</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>1196</v>
+        <v>1216</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>1197</v>
+        <v>1224</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>1198</v>
+        <v>1225</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>1339</v>
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="C111" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>1306</v>
-      </c>
       <c r="E111" s="2" t="s">
-        <v>1305</v>
+        <v>1192</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>1308</v>
+        <v>1193</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1284</v>
+        <v>1194</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>1309</v>
+        <v>1195</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>1310</v>
+        <v>1196</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>1311</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>1334</v>
+        <v>1327</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>1027</v>
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>377</v>
+        <v>75</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>628</v>
+        <v>335</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>627</v>
+        <v>174</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>626</v>
+        <v>160</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>625</v>
+        <v>208</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>624</v>
+        <v>247</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>623</v>
+        <v>291</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>339</v>
+        <v>647</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>176</v>
+        <v>640</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>164</v>
+        <v>641</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>212</v>
+        <v>639</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>251</v>
+        <v>638</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>295</v>
+        <v>637</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>340</v>
+        <v>646</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>177</v>
+        <v>643</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>165</v>
+        <v>642</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>213</v>
+        <v>644</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>252</v>
+        <v>645</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>296</v>
+        <v>636</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>359</v>
+        <v>119</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>360</v>
+        <v>163</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>361</v>
+        <v>211</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>907</v>
+        <v>946</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>851</v>
+        <v>250</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>999</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>712</v>
+        <v>79</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>853</v>
+        <v>339</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>847</v>
+        <v>176</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>848</v>
+        <v>164</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>849</v>
+        <v>212</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>850</v>
+        <v>251</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>852</v>
+        <v>295</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>713</v>
+        <v>80</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>854</v>
+        <v>340</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>859</v>
+        <v>177</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>858</v>
+        <v>165</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>857</v>
+        <v>213</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>856</v>
+        <v>252</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>855</v>
+        <v>296</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>714</v>
+        <v>47</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>865</v>
+        <v>358</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>860</v>
+        <v>359</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>861</v>
+        <v>360</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>862</v>
+        <v>361</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>951</v>
+        <v>907</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>864</v>
+        <v>263</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>1037</v>
+        <v>999</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>1171</v>
+        <v>1150</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1170</v>
+        <v>712</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1192</v>
+        <v>853</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1193</v>
+        <v>847</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>1194</v>
+        <v>848</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>1195</v>
+        <v>849</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>1196</v>
+        <v>949</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>1197</v>
+        <v>850</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>1198</v>
+        <v>852</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>1199</v>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>455</v>
+        <v>1152</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>452</v>
+        <v>714</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>648</v>
+        <v>865</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>651</v>
+        <v>860</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>670</v>
+        <v>861</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>697</v>
+        <v>862</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>655</v>
+        <v>863</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>700</v>
+        <v>864</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>452</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>456</v>
+        <v>1171</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>320</v>
+        <v>1190</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>105</v>
+        <v>1191</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>146</v>
+        <v>1192</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>105</v>
+        <v>1193</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>924</v>
+        <v>1194</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>105</v>
+        <v>1195</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>278</v>
+        <v>1196</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>1012</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>622</v>
+        <v>700</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>1038</v>
+        <v>452</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>233</v>
+        <v>105</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>454</v>
+        <v>52</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>650</v>
+        <v>318</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>653</v>
+        <v>103</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>672</v>
+        <v>144</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>686</v>
+        <v>196</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>955</v>
+        <v>922</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>657</v>
+        <v>232</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>701</v>
+        <v>276</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>1039</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>55</v>
+        <v>453</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>322</v>
+        <v>649</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>106</v>
+        <v>652</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>148</v>
+        <v>671</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>198</v>
+        <v>685</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>925</v>
+        <v>954</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>234</v>
+        <v>656</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>279</v>
+        <v>622</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>1015</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>715</v>
+        <v>460</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>57</v>
+        <v>454</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>324</v>
+        <v>650</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>108</v>
+        <v>653</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>150</v>
+        <v>672</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>200</v>
+        <v>686</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>927</v>
+        <v>955</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>236</v>
+        <v>657</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>281</v>
+        <v>701</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>1017</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>1172</v>
+        <v>461</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1170</v>
+        <v>55</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1192</v>
+        <v>322</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1193</v>
+        <v>106</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>1194</v>
+        <v>148</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>1195</v>
+        <v>198</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>1196</v>
+        <v>925</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>1197</v>
+        <v>234</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>1198</v>
+        <v>279</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>1199</v>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>452</v>
+        <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>648</v>
+        <v>324</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>651</v>
+        <v>108</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>670</v>
+        <v>150</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>697</v>
+        <v>200</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>953</v>
+        <v>927</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>655</v>
+        <v>236</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>700</v>
+        <v>281</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>452</v>
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>1318</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>475</v>
+        <v>1172</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>53</v>
+        <v>1170</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>319</v>
+        <v>1190</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>104</v>
+        <v>1191</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>145</v>
+        <v>1192</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>197</v>
+        <v>1193</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>923</v>
+        <v>1194</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>233</v>
+        <v>1195</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>277</v>
+        <v>1196</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G145" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I145" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J145" s="2" t="s">
-        <v>1016</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>477</v>
+        <v>711</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>55</v>
+        <v>452</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>322</v>
+        <v>648</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>106</v>
+        <v>651</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>148</v>
+        <v>670</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>198</v>
+        <v>697</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>925</v>
+        <v>953</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>234</v>
+        <v>655</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>279</v>
+        <v>700</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="H147" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I147" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>1017</v>
+        <v>452</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>1012</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>1162</v>
+        <v>476</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1163</v>
+        <v>56</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>1007</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>453</v>
+        <v>55</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>649</v>
+        <v>322</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>654</v>
+        <v>106</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>671</v>
+        <v>148</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>685</v>
+        <v>198</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>956</v>
+        <v>925</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>656</v>
+        <v>234</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>622</v>
+        <v>279</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>1057</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>463</v>
+        <v>57</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>748</v>
+        <v>324</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>772</v>
+        <v>108</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>684</v>
+        <v>150</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>687</v>
+        <v>200</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>957</v>
+        <v>927</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>658</v>
+        <v>236</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>844</v>
+        <v>281</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>1083</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>464</v>
+        <v>52</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>754</v>
+        <v>318</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>773</v>
+        <v>103</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>683</v>
+        <v>144</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>698</v>
+        <v>196</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>958</v>
+        <v>922</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>662</v>
+        <v>232</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>845</v>
+        <v>276</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>1084</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>482</v>
+        <v>1162</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>465</v>
+        <v>1163</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>755</v>
+        <v>313</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>774</v>
+        <v>98</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>682</v>
+        <v>139</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>699</v>
+        <v>191</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>959</v>
+        <v>917</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>661</v>
+        <v>228</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>846</v>
+        <v>271</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>1085</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>756</v>
+        <v>649</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>783</v>
+        <v>654</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>702</v>
+        <v>622</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>1094</v>
+        <v>957</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>703</v>
+        <v>844</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>1095</v>
+        <v>958</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>704</v>
+        <v>845</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>706</v>
+        <v>846</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>1081</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>963</v>
+        <v>1094</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>964</v>
+        <v>1095</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>724</v>
+        <v>488</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>736</v>
+        <v>471</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>796</v>
+        <v>678</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>808</v>
+        <v>693</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>820</v>
+        <v>666</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>832</v>
+        <v>705</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>1062</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>725</v>
+        <v>489</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>737</v>
+        <v>472</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>797</v>
+        <v>679</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>809</v>
+        <v>694</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>821</v>
+        <v>667</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>833</v>
+        <v>708</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>1063</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>726</v>
+        <v>490</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>738</v>
+        <v>473</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>798</v>
+        <v>680</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>810</v>
+        <v>695</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>822</v>
+        <v>668</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>834</v>
+        <v>709</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>1064</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>727</v>
+        <v>491</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>739</v>
+        <v>474</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>799</v>
+        <v>681</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>811</v>
+        <v>696</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>1097</v>
+        <v>966</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>823</v>
+        <v>669</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>835</v>
+        <v>710</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>1065</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>1096</v>
+        <v>967</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>752</v>
+        <v>763</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>1098</v>
+        <v>968</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>971</v>
+        <v>1097</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>972</v>
+        <v>1096</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>973</v>
+        <v>1098</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>771</v>
+        <v>753</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>1073</v>
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>1121</v>
+        <v>733</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1125</v>
+        <v>745</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>1248</v>
+        <v>769</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>1247</v>
+        <v>792</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>1125</v>
+        <v>805</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>1265</v>
+        <v>817</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>1264</v>
+        <v>973</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>1247</v>
+        <v>829</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>1266</v>
+        <v>841</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>1267</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>1122</v>
+        <v>734</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1126</v>
+        <v>746</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>1250</v>
+        <v>770</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>1251</v>
+        <v>793</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>1249</v>
+        <v>806</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>1261</v>
+        <v>818</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>1262</v>
+        <v>974</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>1263</v>
+        <v>830</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>1273</v>
+        <v>842</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>1272</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>1123</v>
+        <v>735</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1127</v>
+        <v>747</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>1253</v>
+        <v>771</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1252</v>
+        <v>794</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>1254</v>
+        <v>807</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>1259</v>
+        <v>819</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>1260</v>
+        <v>975</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>1252</v>
+        <v>831</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>1270</v>
+        <v>843</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="G179" s="2" t="s">
-        <v>1258</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="I179" s="2" t="s">
-        <v>1269</v>
-      </c>
-      <c r="J179" s="2" t="s">
-        <v>1268</v>
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>40</v>
+        <v>1122</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>82</v>
+        <v>1126</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>309</v>
+        <v>1248</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>120</v>
+        <v>1249</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>133</v>
+        <v>1247</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>185</v>
+        <v>1259</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>911</v>
+        <v>1260</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>226</v>
+        <v>1261</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>265</v>
+        <v>1271</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>1003</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>38</v>
+        <v>1123</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>84</v>
+        <v>1127</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>84</v>
+        <v>1251</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>122</v>
+        <v>1250</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>84</v>
+        <v>1252</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>215</v>
+        <v>1257</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>976</v>
+        <v>1258</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>253</v>
+        <v>1250</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>298</v>
+        <v>1268</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>1040</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>39</v>
+        <v>1124</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>85</v>
+        <v>1128</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>342</v>
+        <v>1255</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>123</v>
+        <v>1254</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>167</v>
+        <v>1253</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>216</v>
+        <v>1254</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>977</v>
+        <v>1256</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>254</v>
+        <v>1254</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>299</v>
+        <v>1267</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>1041</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>978</v>
+        <v>911</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>1042</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B190" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C190" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D190" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="E190" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F186" s="2" t="s">
+      <c r="F190" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G186" s="2" t="s">
+      <c r="G190" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="H186" s="2" t="s">
+      <c r="H190" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="I186" s="2" t="s">
+      <c r="I190" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J190" s="2" t="s">
         <v>1043</v>
       </c>
     </row>

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II_Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710DEE14-9A27-4EEC-890A-BD4E2C8AC3AB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE70273-9654-4CC0-941C-E69EA0FAA313}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="1338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="1384">
   <si>
     <t>Temperature</t>
   </si>
@@ -4039,6 +4039,144 @@
   </si>
   <si>
     <t>IABP:Helium</t>
+  </si>
+  <si>
+    <t>DEFIB:On</t>
+  </si>
+  <si>
+    <t>DEFIB:WindowTitle</t>
+  </si>
+  <si>
+    <t>Infirmary Integrated: Defibrillator</t>
+  </si>
+  <si>
+    <t>DEFIB:Charge</t>
+  </si>
+  <si>
+    <t>DEFIB:Shock</t>
+  </si>
+  <si>
+    <t>DEFIB:Analyze</t>
+  </si>
+  <si>
+    <t>DEFIB:Sync</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Shock</t>
+  </si>
+  <si>
+    <t>Analyze</t>
+  </si>
+  <si>
+    <t>Sync</t>
+  </si>
+  <si>
+    <t>AED Mode</t>
+  </si>
+  <si>
+    <t>DEFIB:AutomaticMode</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>DEFIB:EnergyAmount</t>
+  </si>
+  <si>
+    <t>Energy Amount</t>
+  </si>
+  <si>
+    <t>DEFIB:Increase</t>
+  </si>
+  <si>
+    <t>DEFIB:Decrease</t>
+  </si>
+  <si>
+    <t>DEFIB:Pacer</t>
+  </si>
+  <si>
+    <t>DEFIB:Rate</t>
+  </si>
+  <si>
+    <t>DEFIB:Pause</t>
+  </si>
+  <si>
+    <t>Pacer</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Defibrillator Settings</t>
+  </si>
+  <si>
+    <t>NUMERIC:DEFIB</t>
+  </si>
+  <si>
+    <t>DEFIB:Defibrillation</t>
+  </si>
+  <si>
+    <t>DEFIB:Synchronized</t>
+  </si>
+  <si>
+    <t>Defibrillation</t>
+  </si>
+  <si>
+    <t>Synchronized</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>DEFIB:Pacing</t>
+  </si>
+  <si>
+    <t>Pacing</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>DEFIB:ShockAdvised</t>
+  </si>
+  <si>
+    <t>DEFIB:NoShockAdvised</t>
+  </si>
+  <si>
+    <t>DEFIB:StandClear</t>
+  </si>
+  <si>
+    <t>DEFIB:Analyzing</t>
+  </si>
+  <si>
+    <t>Stand Clear</t>
+  </si>
+  <si>
+    <t>Shock Advised</t>
+  </si>
+  <si>
+    <t>Analyzing</t>
+  </si>
+  <si>
+    <t>No Shock Advised</t>
+  </si>
+  <si>
+    <t>DEFIB:ContinueCPR</t>
+  </si>
+  <si>
+    <t>Continue CPR</t>
+  </si>
+  <si>
+    <t>DEFIB:Joules</t>
+  </si>
+  <si>
+    <t>DEFIB:Milliamps</t>
   </si>
 </sst>
 </file>
@@ -4082,12 +4220,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -4096,16 +4249,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4386,11 +4539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:J216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B94" sqref="B1:B1048576"/>
+      <selection pane="topRight" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6857,2657 +7010,2849 @@
     </row>
     <row r="95" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>1330</v>
+        <v>1339</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>1308</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>1315</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>1331</v>
+        <v>1355</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>1332</v>
+        <v>1356</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>1337</v>
+        <v>1353</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>1210</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>1282</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I103" s="2" t="s">
-        <v>1284</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>1279</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>1287</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="I105" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="J105" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I106" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="J106" s="2" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>1226</v>
-      </c>
-      <c r="J107" s="2" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>1216</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B110" s="2" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>1235</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="J110" s="2" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>1327</v>
+        <v>1382</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>1328</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>1326</v>
+        <v>1383</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>1295</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>1282</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>1299</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>1300</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>1301</v>
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>1376</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>1324</v>
+        <v>1375</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1322</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>1325</v>
+        <v>1372</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I118" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="I119" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="I120" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="J120" s="2" t="s">
-        <v>1027</v>
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>1333</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>1142</v>
+        <v>1173</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>377</v>
+        <v>1174</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>628</v>
+        <v>1310</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>627</v>
+        <v>1302</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>626</v>
+        <v>1303</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>625</v>
+        <v>1305</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>942</v>
+        <v>1306</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>624</v>
+        <v>1307</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>623</v>
+        <v>1308</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>1028</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>1143</v>
+        <v>1179</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>77</v>
+        <v>1180</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>337</v>
+        <v>1311</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>118</v>
+        <v>1312</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>162</v>
+        <v>1313</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>210</v>
+        <v>1314</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>943</v>
+        <v>1315</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>249</v>
+        <v>1316</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>293</v>
+        <v>1317</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="I123" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="J123" s="2" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="F124" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="I124" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G125" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="I125" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>1032</v>
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>1336</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>1147</v>
+        <v>1181</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>79</v>
+        <v>1183</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>339</v>
+        <v>1201</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>176</v>
+        <v>1207</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>164</v>
+        <v>1208</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>212</v>
+        <v>1209</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>947</v>
+        <v>1210</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>251</v>
+        <v>1206</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>295</v>
+        <v>1204</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>1033</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>1148</v>
+        <v>1182</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>80</v>
+        <v>1184</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>340</v>
+        <v>1200</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>177</v>
+        <v>1199</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>165</v>
+        <v>1213</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>213</v>
+        <v>1212</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>948</v>
+        <v>1211</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>252</v>
+        <v>1205</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>296</v>
+        <v>1203</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>1034</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>1149</v>
+        <v>1186</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>47</v>
+        <v>1185</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>358</v>
+        <v>1276</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>359</v>
+        <v>1272</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>360</v>
+        <v>1275</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>361</v>
+        <v>1283</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>907</v>
+        <v>1282</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>851</v>
+        <v>1281</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>263</v>
+        <v>1284</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>999</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>1150</v>
+        <v>1321</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>712</v>
+        <v>1320</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>853</v>
+        <v>1277</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>847</v>
+        <v>1273</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>848</v>
+        <v>1274</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>849</v>
+        <v>1278</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>949</v>
+        <v>1279</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>850</v>
+        <v>1280</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>852</v>
+        <v>1287</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>1035</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>713</v>
+        <v>1157</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>854</v>
+        <v>648</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>859</v>
+        <v>651</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>858</v>
+        <v>670</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>857</v>
+        <v>697</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>856</v>
+        <v>655</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>855</v>
+        <v>700</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>1036</v>
+        <v>452</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>714</v>
+        <v>1158</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>865</v>
+        <v>322</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>860</v>
+        <v>106</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>861</v>
+        <v>1319</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>862</v>
+        <v>198</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>951</v>
+        <v>925</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>863</v>
+        <v>234</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>864</v>
+        <v>279</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>1037</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1170</v>
+        <v>1161</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1190</v>
+        <v>1222</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1191</v>
+        <v>1223</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>1192</v>
+        <v>1214</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>1193</v>
+        <v>1218</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>1194</v>
+        <v>1215</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>1195</v>
+        <v>1223</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>1196</v>
+        <v>1226</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>1197</v>
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>455</v>
+        <v>1164</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>452</v>
+        <v>1167</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>648</v>
+        <v>1242</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>651</v>
+        <v>1243</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>670</v>
+        <v>1238</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>697</v>
+        <v>1237</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>953</v>
+        <v>1236</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>655</v>
+        <v>1230</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>700</v>
+        <v>1231</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>452</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>456</v>
+        <v>1165</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>0</v>
+        <v>1168</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>320</v>
+        <v>1241</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>105</v>
+        <v>1244</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>146</v>
+        <v>1239</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>924</v>
+        <v>1240</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>1235</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>105</v>
+        <v>1233</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>278</v>
+        <v>1232</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>1014</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>457</v>
+        <v>1166</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>52</v>
+        <v>1187</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>318</v>
+        <v>1190</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>103</v>
+        <v>1191</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>144</v>
+        <v>1192</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>196</v>
+        <v>1193</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>922</v>
+        <v>1194</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>232</v>
+        <v>1195</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>276</v>
+        <v>1196</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="I137" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="J137" s="2" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I138" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>1013</v>
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>460</v>
+        <v>1188</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>454</v>
+        <v>1189</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>650</v>
+        <v>1297</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>653</v>
+        <v>1296</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>672</v>
+        <v>1295</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>686</v>
+        <v>1298</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>955</v>
+        <v>1282</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>657</v>
+        <v>1299</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>701</v>
+        <v>1300</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G140" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I140" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="J140" s="2" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G141" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I141" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J141" s="2" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G142" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="I142" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="J142" s="2" t="s">
-        <v>1017</v>
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>1323</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>1335</v>
+        <v>1139</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1180</v>
+        <v>75</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1311</v>
+        <v>335</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1312</v>
+        <v>174</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>1313</v>
+        <v>160</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>1314</v>
+        <v>208</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>1315</v>
+        <v>939</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>1316</v>
+        <v>247</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>1317</v>
+        <v>291</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>1318</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>1172</v>
+        <v>1140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1170</v>
+        <v>76</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1190</v>
+        <v>336</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1191</v>
+        <v>175</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>1192</v>
+        <v>161</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>1193</v>
+        <v>209</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>1194</v>
+        <v>940</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>1195</v>
+        <v>248</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>1196</v>
+        <v>292</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>1197</v>
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>1027</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>711</v>
+        <v>1142</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>452</v>
+        <v>377</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>670</v>
+        <v>626</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>697</v>
+        <v>625</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>700</v>
+        <v>623</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>452</v>
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>1029</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>475</v>
+        <v>1144</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>53</v>
+        <v>375</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>319</v>
+        <v>647</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>104</v>
+        <v>640</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>145</v>
+        <v>641</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>197</v>
+        <v>639</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>923</v>
+        <v>944</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>233</v>
+        <v>638</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>277</v>
+        <v>637</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>1058</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>476</v>
+        <v>1145</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>56</v>
+        <v>376</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>323</v>
+        <v>646</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>107</v>
+        <v>643</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>149</v>
+        <v>642</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>199</v>
+        <v>644</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>926</v>
+        <v>945</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>235</v>
+        <v>645</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>280</v>
+        <v>636</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>477</v>
+        <v>1146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>925</v>
+        <v>946</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>1015</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>492</v>
+        <v>1147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>927</v>
+        <v>947</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>1017</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>478</v>
+        <v>1148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>922</v>
+        <v>948</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>1012</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1163</v>
+        <v>47</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>98</v>
+        <v>359</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>139</v>
+        <v>360</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>191</v>
+        <v>361</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>228</v>
+        <v>851</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>479</v>
+        <v>1150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>453</v>
+        <v>712</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>649</v>
+        <v>853</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>654</v>
+        <v>847</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>671</v>
+        <v>848</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>685</v>
+        <v>849</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>656</v>
+        <v>850</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>622</v>
+        <v>852</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>1057</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>480</v>
+        <v>1151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>463</v>
+        <v>713</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>772</v>
+        <v>859</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>684</v>
+        <v>858</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>687</v>
+        <v>857</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>658</v>
+        <v>856</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>844</v>
+        <v>855</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>1083</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>481</v>
+        <v>1152</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>464</v>
+        <v>714</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>754</v>
+        <v>865</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>773</v>
+        <v>860</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>683</v>
+        <v>861</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>698</v>
+        <v>862</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>662</v>
+        <v>863</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>845</v>
+        <v>864</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>1084</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>482</v>
+        <v>1171</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>465</v>
+        <v>1170</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>755</v>
+        <v>1190</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>774</v>
+        <v>1191</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>682</v>
+        <v>1192</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>699</v>
+        <v>1193</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>959</v>
+        <v>1194</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>661</v>
+        <v>1195</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>846</v>
+        <v>1196</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>1074</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>757</v>
+        <v>648</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>775</v>
+        <v>651</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>1094</v>
+        <v>953</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>1075</v>
+        <v>452</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>468</v>
+        <v>0</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>749</v>
+        <v>320</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>776</v>
+        <v>105</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>675</v>
+        <v>146</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>690</v>
+        <v>105</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>1095</v>
+        <v>924</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>660</v>
+        <v>105</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>704</v>
+        <v>278</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>1076</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>469</v>
+        <v>52</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>758</v>
+        <v>318</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>777</v>
+        <v>103</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>676</v>
+        <v>144</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>691</v>
+        <v>196</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>961</v>
+        <v>922</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>664</v>
+        <v>232</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>706</v>
+        <v>276</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>1080</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>750</v>
+        <v>649</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>778</v>
+        <v>652</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>707</v>
+        <v>622</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>1081</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>471</v>
+        <v>53</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>759</v>
+        <v>319</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>779</v>
+        <v>104</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>678</v>
+        <v>145</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>693</v>
+        <v>197</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>963</v>
+        <v>923</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>666</v>
+        <v>233</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>705</v>
+        <v>277</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>1077</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>760</v>
+        <v>650</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>780</v>
+        <v>653</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>1078</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>473</v>
+        <v>55</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>761</v>
+        <v>322</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>781</v>
+        <v>106</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>680</v>
+        <v>148</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>695</v>
+        <v>198</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>965</v>
+        <v>925</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>668</v>
+        <v>234</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>709</v>
+        <v>279</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>1082</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>474</v>
+        <v>56</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>762</v>
+        <v>323</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>782</v>
+        <v>107</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>681</v>
+        <v>149</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>696</v>
+        <v>199</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>966</v>
+        <v>926</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>669</v>
+        <v>235</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>710</v>
+        <v>280</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>1079</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>736</v>
+        <v>57</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>751</v>
+        <v>324</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>784</v>
+        <v>108</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>796</v>
+        <v>150</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>808</v>
+        <v>200</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>967</v>
+        <v>927</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>820</v>
+        <v>236</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>832</v>
+        <v>281</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>1062</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>725</v>
+        <v>1335</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>737</v>
+        <v>1180</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>763</v>
+        <v>1311</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>785</v>
+        <v>1312</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>797</v>
+        <v>1313</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>809</v>
+        <v>1314</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>968</v>
+        <v>1315</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>821</v>
+        <v>1316</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>833</v>
+        <v>1317</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="I169" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="J169" s="2" t="s">
-        <v>1064</v>
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>1362</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>727</v>
+        <v>1172</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>739</v>
+        <v>1170</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>765</v>
+        <v>1190</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>795</v>
+        <v>1191</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>799</v>
+        <v>1192</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>811</v>
+        <v>1193</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>1097</v>
+        <v>1194</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>823</v>
+        <v>1195</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>835</v>
+        <v>1196</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="I171" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="J171" s="2" t="s">
-        <v>1066</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>741</v>
+        <v>452</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>752</v>
+        <v>648</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>788</v>
+        <v>651</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>801</v>
+        <v>670</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>813</v>
+        <v>697</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>1098</v>
+        <v>953</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>825</v>
+        <v>655</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>837</v>
+        <v>700</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="G173" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="I173" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="J173" s="2" t="s">
-        <v>1068</v>
+        <v>452</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>731</v>
+        <v>475</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>743</v>
+        <v>53</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>753</v>
+        <v>319</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>790</v>
+        <v>104</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>803</v>
+        <v>145</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>815</v>
+        <v>197</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>971</v>
+        <v>923</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>827</v>
+        <v>233</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>839</v>
+        <v>277</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>732</v>
+        <v>476</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>744</v>
+        <v>56</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>768</v>
+        <v>323</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>791</v>
+        <v>107</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>804</v>
+        <v>149</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>816</v>
+        <v>199</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>972</v>
+        <v>926</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>828</v>
+        <v>235</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>840</v>
+        <v>280</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>1070</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>733</v>
+        <v>477</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>745</v>
+        <v>55</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>769</v>
+        <v>322</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>792</v>
+        <v>106</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>805</v>
+        <v>148</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>817</v>
+        <v>198</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>973</v>
+        <v>925</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>829</v>
+        <v>234</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>841</v>
+        <v>279</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>1071</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>734</v>
+        <v>492</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>746</v>
+        <v>57</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>770</v>
+        <v>324</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>793</v>
+        <v>108</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>806</v>
+        <v>150</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>818</v>
+        <v>200</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>974</v>
+        <v>927</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>830</v>
+        <v>236</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>842</v>
+        <v>281</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>1072</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>735</v>
+        <v>478</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>747</v>
+        <v>52</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>771</v>
+        <v>318</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>794</v>
+        <v>103</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>807</v>
+        <v>144</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>819</v>
+        <v>196</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>975</v>
+        <v>922</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>831</v>
+        <v>232</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>843</v>
+        <v>276</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>1073</v>
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>1121</v>
+        <v>479</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1125</v>
+        <v>453</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>1246</v>
+        <v>649</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>1245</v>
+        <v>654</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>1125</v>
+        <v>671</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>1263</v>
+        <v>685</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>1262</v>
+        <v>956</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>1245</v>
+        <v>656</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>1264</v>
+        <v>622</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>1265</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>1122</v>
+        <v>480</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1126</v>
+        <v>463</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>1248</v>
+        <v>748</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>1249</v>
+        <v>772</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>1247</v>
+        <v>684</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>1259</v>
+        <v>687</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>1260</v>
+        <v>957</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>1261</v>
+        <v>658</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>1271</v>
+        <v>844</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>1270</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>1123</v>
+        <v>481</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1127</v>
+        <v>464</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>1251</v>
+        <v>754</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>1250</v>
+        <v>773</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>1252</v>
+        <v>683</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>1257</v>
+        <v>698</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>1258</v>
+        <v>958</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>1250</v>
+        <v>662</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>1268</v>
+        <v>845</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>1269</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>1124</v>
+        <v>482</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1128</v>
+        <v>465</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>1255</v>
+        <v>755</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>1254</v>
+        <v>774</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>1253</v>
+        <v>682</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>1254</v>
+        <v>699</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>1256</v>
+        <v>959</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>1254</v>
+        <v>661</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>1267</v>
+        <v>846</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>1266</v>
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>40</v>
+        <v>484</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>309</v>
+        <v>757</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>120</v>
+        <v>775</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>133</v>
+        <v>674</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>185</v>
+        <v>689</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>911</v>
+        <v>1094</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>226</v>
+        <v>663</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>265</v>
+        <v>703</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>1003</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>38</v>
+        <v>485</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>84</v>
+        <v>468</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>84</v>
+        <v>749</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>122</v>
+        <v>776</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>84</v>
+        <v>675</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>215</v>
+        <v>690</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>976</v>
+        <v>1095</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>253</v>
+        <v>660</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>298</v>
+        <v>704</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>1040</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>39</v>
+        <v>486</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>85</v>
+        <v>469</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>342</v>
+        <v>758</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>123</v>
+        <v>777</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>167</v>
+        <v>676</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>216</v>
+        <v>691</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>254</v>
+        <v>664</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>299</v>
+        <v>706</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>1041</v>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>41</v>
+        <v>488</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>86</v>
+        <v>471</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>343</v>
+        <v>759</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>124</v>
+        <v>779</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>168</v>
+        <v>678</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>217</v>
+        <v>693</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>978</v>
+        <v>963</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>255</v>
+        <v>666</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>300</v>
+        <v>705</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>1042</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J212" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="J213" s="2" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J215" s="2" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B216" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C216" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D216" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="E216" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F190" s="2" t="s">
+      <c r="F216" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="G190" s="2" t="s">
+      <c r="G216" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="H190" s="2" t="s">
+      <c r="H216" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="I190" s="2" t="s">
+      <c r="I216" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="J190" s="2" t="s">
+      <c r="J216" s="2" t="s">
         <v>1043</v>
       </c>
     </row>

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II_Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE70273-9654-4CC0-941C-E69EA0FAA313}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5775BC60-B142-4779-B53A-F55042FBB3F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4041,9 +4041,6 @@
     <t>IABP:Helium</t>
   </si>
   <si>
-    <t>DEFIB:On</t>
-  </si>
-  <si>
     <t>DEFIB:WindowTitle</t>
   </si>
   <si>
@@ -4177,6 +4174,9 @@
   </si>
   <si>
     <t>DEFIB:Milliamps</t>
+  </si>
+  <si>
+    <t>DEFIB:Defibrillator</t>
   </si>
 </sst>
 </file>
@@ -4543,7 +4543,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B111" sqref="B111"/>
+      <selection pane="topRight" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7010,103 +7010,103 @@
     </row>
     <row r="95" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>1339</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="97" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>1338</v>
+        <v>1383</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>1177</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="99" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>1353</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>1354</v>
       </c>
     </row>
     <row r="101" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="102" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="103" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="105" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="107" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>1168</v>
@@ -7114,82 +7114,82 @@
     </row>
     <row r="109" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>1369</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>1370</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>1380</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="120" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8506,10 +8506,10 @@
     </row>
     <row r="169" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II_Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5775BC60-B142-4779-B53A-F55042FBB3F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3BAD5F-8757-4E08-BA76-DE193A0B8140}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="1384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="1575">
   <si>
     <t>Temperature</t>
   </si>
@@ -1884,9 +1884,6 @@
     <t>Krankenstation integriert: Herzmonitor</t>
   </si>
   <si>
-    <t>Infirmary Integrated: Monitor cardíaco</t>
-  </si>
-  <si>
     <t>Инвалидный комплекс: Сердечный монитор</t>
   </si>
   <si>
@@ -2193,9 +2190,6 @@
     <t>Infermeria integrata: Elettrocardiografo</t>
   </si>
   <si>
-    <t>Infirmary Integrated: Eletrocardiograma</t>
-  </si>
-  <si>
     <t>Инвалидный комплекс: Электрокардиограф</t>
   </si>
   <si>
@@ -3891,9 +3885,6 @@
     <t>Воздушный шар пуст</t>
   </si>
   <si>
-    <t>Infirmary Integrated: Bomba de balão intra-aórtico</t>
-  </si>
-  <si>
     <t>Инвалидный комплекс: Внутриаортальный воздушный насос</t>
   </si>
   <si>
@@ -4177,6 +4168,588 @@
   </si>
   <si>
     <t>DEFIB:Defibrillator</t>
+  </si>
+  <si>
+    <t>Erhöhen</t>
+  </si>
+  <si>
+    <t>Verkleinern</t>
+  </si>
+  <si>
+    <t>Krankenstation integriert: Defibrillator</t>
+  </si>
+  <si>
+    <t>Energiebetrag</t>
+  </si>
+  <si>
+    <t>Aufladen</t>
+  </si>
+  <si>
+    <t>Schocken</t>
+  </si>
+  <si>
+    <t>Analysieren</t>
+  </si>
+  <si>
+    <t>Synchronisieren</t>
+  </si>
+  <si>
+    <t>Schrittmacher</t>
+  </si>
+  <si>
+    <t>Herzschlag</t>
+  </si>
+  <si>
+    <t>Synchronisiert</t>
+  </si>
+  <si>
+    <t>Milliampere</t>
+  </si>
+  <si>
+    <t>Joule</t>
+  </si>
+  <si>
+    <t>Vergrößerung</t>
+  </si>
+  <si>
+    <t>Druck</t>
+  </si>
+  <si>
+    <t>Abstand halten</t>
+  </si>
+  <si>
+    <t>Schock empfohlen</t>
+  </si>
+  <si>
+    <t>Kein Schock empfohlen</t>
+  </si>
+  <si>
+    <t>Kardiopulmonale Wiederbelebung fortsetzen</t>
+  </si>
+  <si>
+    <t>Auslöser</t>
+  </si>
+  <si>
+    <t>Frequenz</t>
+  </si>
+  <si>
+    <t>Defibrillator-Einstellungen</t>
+  </si>
+  <si>
+    <t>Enfermería integrada: Desfibrilador</t>
+  </si>
+  <si>
+    <t>Mas</t>
+  </si>
+  <si>
+    <t>Menos</t>
+  </si>
+  <si>
+    <t>Cantidad de energía</t>
+  </si>
+  <si>
+    <t>Cargar</t>
+  </si>
+  <si>
+    <t>Chocar</t>
+  </si>
+  <si>
+    <t>Modo automatico</t>
+  </si>
+  <si>
+    <t>Analizar</t>
+  </si>
+  <si>
+    <t>Sincronizar</t>
+  </si>
+  <si>
+    <t>Marcapasos</t>
+  </si>
+  <si>
+    <t>Ritmo</t>
+  </si>
+  <si>
+    <t>Desfibrilación</t>
+  </si>
+  <si>
+    <t>Sincronizado</t>
+  </si>
+  <si>
+    <t>Permanecer tranquilo</t>
+  </si>
+  <si>
+    <t>Analizando</t>
+  </si>
+  <si>
+    <t>Aconsejado a chocar</t>
+  </si>
+  <si>
+    <t>No se aconsejado a chocar</t>
+  </si>
+  <si>
+    <t>Continuar la resucitación cardiopulmonar</t>
+  </si>
+  <si>
+    <t>Aumento</t>
+  </si>
+  <si>
+    <t>Alarma</t>
+  </si>
+  <si>
+    <t>Presión</t>
+  </si>
+  <si>
+    <t>Helio</t>
+  </si>
+  <si>
+    <t>Provocar</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>Configuración del desfibrilador</t>
+  </si>
+  <si>
+    <t>Réglages du défibrillateur</t>
+  </si>
+  <si>
+    <t>Impostazioni del defibrillatore</t>
+  </si>
+  <si>
+    <t>제세 동기 설정</t>
+  </si>
+  <si>
+    <t>Configurações do desfibrilador</t>
+  </si>
+  <si>
+    <t>настройки дефибриллятора</t>
+  </si>
+  <si>
+    <t>Mipangilio ya defibrillator</t>
+  </si>
+  <si>
+    <t>L'augmentation</t>
+  </si>
+  <si>
+    <t>Alarme</t>
+  </si>
+  <si>
+    <t>Pression</t>
+  </si>
+  <si>
+    <t>Hélium</t>
+  </si>
+  <si>
+    <t>Gâchette</t>
+  </si>
+  <si>
+    <t>Fréquence</t>
+  </si>
+  <si>
+    <t>Plus</t>
+  </si>
+  <si>
+    <t>Moins</t>
+  </si>
+  <si>
+    <t>Infirmerie intégrée: Défibrillateur</t>
+  </si>
+  <si>
+    <t>Quantité d'énergie</t>
+  </si>
+  <si>
+    <t>Charger</t>
+  </si>
+  <si>
+    <t>Choquer</t>
+  </si>
+  <si>
+    <t>Mode automatique</t>
+  </si>
+  <si>
+    <t>Analyser</t>
+  </si>
+  <si>
+    <t>Synchroniser</t>
+  </si>
+  <si>
+    <t>Stimulateur cardiaque</t>
+  </si>
+  <si>
+    <t>Défibrillation</t>
+  </si>
+  <si>
+    <t>Synchronisé</t>
+  </si>
+  <si>
+    <t>Tenir à l'écart</t>
+  </si>
+  <si>
+    <t>En cours d'analyse</t>
+  </si>
+  <si>
+    <t>Est conseillé de choquer</t>
+  </si>
+  <si>
+    <t>N'est pas conseillé de choquer</t>
+  </si>
+  <si>
+    <t>Poursuivre la réanimation cardiopulmonaire</t>
+  </si>
+  <si>
+    <t>Allarme</t>
+  </si>
+  <si>
+    <t>Pressione</t>
+  </si>
+  <si>
+    <t>Elio</t>
+  </si>
+  <si>
+    <t>Altro</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Grilletto</t>
+  </si>
+  <si>
+    <t>Frequenza</t>
+  </si>
+  <si>
+    <t>Infermeria integrata: Defibrillatore</t>
+  </si>
+  <si>
+    <t>Quantità di energia</t>
+  </si>
+  <si>
+    <t>Caricare</t>
+  </si>
+  <si>
+    <t>Scioccare</t>
+  </si>
+  <si>
+    <t>Modalità automatica</t>
+  </si>
+  <si>
+    <t>Analizzare</t>
+  </si>
+  <si>
+    <t>Sincronizzare</t>
+  </si>
+  <si>
+    <t>Stimolatore cardiaco</t>
+  </si>
+  <si>
+    <t>Defibrillazione</t>
+  </si>
+  <si>
+    <t>Sincronizzato</t>
+  </si>
+  <si>
+    <t>Stai chiaro</t>
+  </si>
+  <si>
+    <t>Analizzando</t>
+  </si>
+  <si>
+    <t>Si consiglia di scioccare</t>
+  </si>
+  <si>
+    <t>Non sei avvisato di scioccare</t>
+  </si>
+  <si>
+    <t>Continua la rianimazione cardiopolmonare</t>
+  </si>
+  <si>
+    <t>의무실 통합 : 제세 동기</t>
+  </si>
+  <si>
+    <t>감소</t>
+  </si>
+  <si>
+    <t>증가</t>
+  </si>
+  <si>
+    <t>에너지 양</t>
+  </si>
+  <si>
+    <t>요금</t>
+  </si>
+  <si>
+    <t>충격</t>
+  </si>
+  <si>
+    <t>자동 모드</t>
+  </si>
+  <si>
+    <t>분석</t>
+  </si>
+  <si>
+    <t>동조</t>
+  </si>
+  <si>
+    <t>맥박 조정 장치</t>
+  </si>
+  <si>
+    <t>율</t>
+  </si>
+  <si>
+    <t>중지</t>
+  </si>
+  <si>
+    <t>동기화</t>
+  </si>
+  <si>
+    <t>페이싱</t>
+  </si>
+  <si>
+    <t>줄</t>
+  </si>
+  <si>
+    <t>밀리 암페어</t>
+  </si>
+  <si>
+    <t>클리어 스탠드</t>
+  </si>
+  <si>
+    <t>분석하는</t>
+  </si>
+  <si>
+    <t>충격이 좋습니다</t>
+  </si>
+  <si>
+    <t>어떤 충격 자문 없다</t>
+  </si>
+  <si>
+    <t>심폐 소생술을 계속</t>
+  </si>
+  <si>
+    <t>경보</t>
+  </si>
+  <si>
+    <t>압력</t>
+  </si>
+  <si>
+    <t>헬륨</t>
+  </si>
+  <si>
+    <t>방아쇠</t>
+  </si>
+  <si>
+    <t>회수</t>
+  </si>
+  <si>
+    <t>Enfermaria Integrado: Monitor cardíaco</t>
+  </si>
+  <si>
+    <t>Enfermaria Integrado: Eletrocardiograma</t>
+  </si>
+  <si>
+    <t>Enfermaria Integrado: Bomba de balão intra-aórtico</t>
+  </si>
+  <si>
+    <t>Enfermaria Integrado: Desfibrilador</t>
+  </si>
+  <si>
+    <t>Mais</t>
+  </si>
+  <si>
+    <t>Quantidade de energia</t>
+  </si>
+  <si>
+    <t>Carregar</t>
+  </si>
+  <si>
+    <t>Choque</t>
+  </si>
+  <si>
+    <t>Modo automático</t>
+  </si>
+  <si>
+    <t>Analisar</t>
+  </si>
+  <si>
+    <t>Desfibrilação</t>
+  </si>
+  <si>
+    <t>Espera</t>
+  </si>
+  <si>
+    <t>Analisando</t>
+  </si>
+  <si>
+    <t>Choque não recomendado</t>
+  </si>
+  <si>
+    <t>Continue a ressuscitação cardiopulmonar</t>
+  </si>
+  <si>
+    <t>Sincronizada</t>
+  </si>
+  <si>
+    <t>Miliamperes</t>
+  </si>
+  <si>
+    <t>Joules</t>
+  </si>
+  <si>
+    <t>Choque recomendado</t>
+  </si>
+  <si>
+    <t>Marca-passo</t>
+  </si>
+  <si>
+    <t>Pressão</t>
+  </si>
+  <si>
+    <t>Hélio</t>
+  </si>
+  <si>
+    <t>Desencadear</t>
+  </si>
+  <si>
+    <t>Freqüência</t>
+  </si>
+  <si>
+    <t>Инвалидный комплекс: дефибриллятор</t>
+  </si>
+  <si>
+    <t>частота</t>
+  </si>
+  <si>
+    <t>триггер</t>
+  </si>
+  <si>
+    <t>Увеличение</t>
+  </si>
+  <si>
+    <t>Уменьшить</t>
+  </si>
+  <si>
+    <t>Ударная рекомендуется</t>
+  </si>
+  <si>
+    <t>Нет шока не рекомендуется</t>
+  </si>
+  <si>
+    <t>Продолжить СЛР</t>
+  </si>
+  <si>
+    <t>джоулей</t>
+  </si>
+  <si>
+    <t>миллиампер</t>
+  </si>
+  <si>
+    <t>стойте</t>
+  </si>
+  <si>
+    <t>Анализ</t>
+  </si>
+  <si>
+    <t>Энергия Сумма</t>
+  </si>
+  <si>
+    <t>Обвинять</t>
+  </si>
+  <si>
+    <t>шок</t>
+  </si>
+  <si>
+    <t>Автоматический режим</t>
+  </si>
+  <si>
+    <t>анализировать</t>
+  </si>
+  <si>
+    <t>Синхронизация</t>
+  </si>
+  <si>
+    <t>электрокардиостимулятор</t>
+  </si>
+  <si>
+    <t>Темп</t>
+  </si>
+  <si>
+    <t>Пауза</t>
+  </si>
+  <si>
+    <t>синхронизированный</t>
+  </si>
+  <si>
+    <t>увеличение</t>
+  </si>
+  <si>
+    <t>Тревога</t>
+  </si>
+  <si>
+    <t>давление</t>
+  </si>
+  <si>
+    <t>гелий</t>
+  </si>
+  <si>
+    <t>Nishati Kiasi</t>
+  </si>
+  <si>
+    <t>Chambua</t>
+  </si>
+  <si>
+    <t>Zaidi</t>
+  </si>
+  <si>
+    <t>Chini</t>
+  </si>
+  <si>
+    <t>Malipo</t>
+  </si>
+  <si>
+    <t>Mshtuko</t>
+  </si>
+  <si>
+    <t>Mode moja kwa moja</t>
+  </si>
+  <si>
+    <t>Hakuna Mshtuko Wanashauriwa</t>
+  </si>
+  <si>
+    <t>Mshtuko Wanashauriwa</t>
+  </si>
+  <si>
+    <t>Kuendelea Cardiopulmonary kufufuliwa</t>
+  </si>
+  <si>
+    <t>Kuchambua</t>
+  </si>
+  <si>
+    <t>Pacemaker</t>
+  </si>
+  <si>
+    <t>Kiwango</t>
+  </si>
+  <si>
+    <t>Inalinganishwa</t>
+  </si>
+  <si>
+    <t>Onanisha</t>
+  </si>
+  <si>
+    <t>Simama nyuma</t>
+  </si>
+  <si>
+    <t>Kuongeza</t>
+  </si>
+  <si>
+    <t>Shinikizo</t>
+  </si>
+  <si>
+    <t>Kengele</t>
+  </si>
+  <si>
+    <t>Heliamu</t>
   </si>
 </sst>
 </file>
@@ -4247,7 +4820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4258,7 +4831,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4541,15 +5120,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="60.7109375" style="2"/>
+    <col min="2" max="2" width="60.7109375" style="2"/>
+    <col min="3" max="9" width="60.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="60.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4557,31 +5138,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4604,7 +5185,7 @@
         <v>178</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>90</v>
@@ -4613,7 +5194,7 @@
         <v>257</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4636,7 +5217,7 @@
         <v>179</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>219</v>
@@ -4645,7 +5226,7 @@
         <v>258</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -4668,7 +5249,7 @@
         <v>180</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>220</v>
@@ -4677,7 +5258,7 @@
         <v>259</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4700,7 +5281,7 @@
         <v>214</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>83</v>
@@ -4709,71 +5290,71 @@
         <v>297</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>1207</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>1210</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4796,7 +5377,7 @@
         <v>548</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>432</v>
@@ -4805,7 +5386,7 @@
         <v>591</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4828,7 +5409,7 @@
         <v>549</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>572</v>
@@ -4837,7 +5418,7 @@
         <v>592</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4860,7 +5441,7 @@
         <v>550</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>524</v>
@@ -4869,7 +5450,7 @@
         <v>593</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -4892,7 +5473,7 @@
         <v>551</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>573</v>
@@ -4901,7 +5482,7 @@
         <v>594</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4924,7 +5505,7 @@
         <v>552</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>574</v>
@@ -4933,7 +5514,7 @@
         <v>595</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4956,7 +5537,7 @@
         <v>553</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>575</v>
@@ -4965,7 +5546,7 @@
         <v>385</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4988,7 +5569,7 @@
         <v>554</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>576</v>
@@ -4997,7 +5578,7 @@
         <v>386</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5020,7 +5601,7 @@
         <v>387</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>387</v>
@@ -5029,7 +5610,7 @@
         <v>596</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -5052,7 +5633,7 @@
         <v>555</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>388</v>
@@ -5084,7 +5665,7 @@
         <v>556</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>577</v>
@@ -5093,7 +5674,7 @@
         <v>389</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -5116,7 +5697,7 @@
         <v>557</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>578</v>
@@ -5125,7 +5706,7 @@
         <v>598</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5148,7 +5729,7 @@
         <v>558</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>439</v>
@@ -5157,7 +5738,7 @@
         <v>599</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -5180,7 +5761,7 @@
         <v>559</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>579</v>
@@ -5189,7 +5770,7 @@
         <v>600</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5212,7 +5793,7 @@
         <v>560</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>580</v>
@@ -5221,7 +5802,7 @@
         <v>601</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5244,7 +5825,7 @@
         <v>561</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>581</v>
@@ -5253,7 +5834,7 @@
         <v>602</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5276,7 +5857,7 @@
         <v>562</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>582</v>
@@ -5285,7 +5866,7 @@
         <v>603</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -5308,7 +5889,7 @@
         <v>563</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>583</v>
@@ -5317,7 +5898,7 @@
         <v>604</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -5340,7 +5921,7 @@
         <v>564</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>584</v>
@@ -5349,7 +5930,7 @@
         <v>605</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -5372,7 +5953,7 @@
         <v>565</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>446</v>
@@ -5381,7 +5962,7 @@
         <v>606</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -5404,7 +5985,7 @@
         <v>566</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>585</v>
@@ -5413,7 +5994,7 @@
         <v>607</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -5436,7 +6017,7 @@
         <v>567</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>586</v>
@@ -5445,7 +6026,7 @@
         <v>608</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -5468,7 +6049,7 @@
         <v>401</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>587</v>
@@ -5477,7 +6058,7 @@
         <v>609</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -5500,7 +6081,7 @@
         <v>568</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>522</v>
@@ -5509,7 +6090,7 @@
         <v>610</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -5532,7 +6113,7 @@
         <v>569</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>588</v>
@@ -5541,7 +6122,7 @@
         <v>611</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -5564,7 +6145,7 @@
         <v>570</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>589</v>
@@ -5573,7 +6154,7 @@
         <v>612</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -5596,7 +6177,7 @@
         <v>430</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>590</v>
@@ -5605,7 +6186,7 @@
         <v>613</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -5628,7 +6209,7 @@
         <v>571</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>431</v>
@@ -5637,39 +6218,39 @@
         <v>614</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>1133</v>
+        <v>1127</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>1134</v>
+        <v>1128</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>1135</v>
+        <v>1129</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>1136</v>
+        <v>1130</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -5692,7 +6273,7 @@
         <v>354</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>351</v>
@@ -5701,7 +6282,7 @@
         <v>352</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -5724,7 +6305,7 @@
         <v>181</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>221</v>
@@ -5733,7 +6314,7 @@
         <v>260</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -5756,7 +6337,7 @@
         <v>182</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>222</v>
@@ -5765,7 +6346,7 @@
         <v>261</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -5788,7 +6369,7 @@
         <v>183</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>223</v>
@@ -5797,7 +6378,7 @@
         <v>262</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -5820,7 +6401,7 @@
         <v>361</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>224</v>
@@ -5829,7 +6410,7 @@
         <v>263</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -5852,7 +6433,7 @@
         <v>364</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>365</v>
@@ -5861,7 +6442,7 @@
         <v>366</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -5884,7 +6465,7 @@
         <v>369</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>368</v>
@@ -5893,7 +6474,7 @@
         <v>367</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -5916,7 +6497,7 @@
         <v>184</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>225</v>
@@ -5925,7 +6506,7 @@
         <v>264</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5948,7 +6529,7 @@
         <v>185</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>226</v>
@@ -5957,7 +6538,7 @@
         <v>265</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -5980,7 +6561,7 @@
         <v>186</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>93</v>
@@ -5989,7 +6570,7 @@
         <v>266</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -6012,7 +6593,7 @@
         <v>187</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>94</v>
@@ -6021,7 +6602,7 @@
         <v>267</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -6044,7 +6625,7 @@
         <v>188</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>227</v>
@@ -6053,7 +6634,7 @@
         <v>268</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -6076,7 +6657,7 @@
         <v>189</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>96</v>
@@ -6108,7 +6689,7 @@
         <v>190</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>97</v>
@@ -6117,7 +6698,7 @@
         <v>270</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -6140,7 +6721,7 @@
         <v>191</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>228</v>
@@ -6149,39 +6730,39 @@
         <v>271</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>1106</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -6204,7 +6785,7 @@
         <v>192</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>99</v>
@@ -6213,7 +6794,7 @@
         <v>272</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -6236,7 +6817,7 @@
         <v>193</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>229</v>
@@ -6245,7 +6826,7 @@
         <v>273</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -6268,7 +6849,7 @@
         <v>194</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>230</v>
@@ -6277,7 +6858,7 @@
         <v>274</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -6300,7 +6881,7 @@
         <v>195</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>231</v>
@@ -6309,7 +6890,7 @@
         <v>275</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -6332,7 +6913,7 @@
         <v>196</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>232</v>
@@ -6341,7 +6922,7 @@
         <v>276</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -6364,7 +6945,7 @@
         <v>197</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>233</v>
@@ -6373,7 +6954,7 @@
         <v>277</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -6396,7 +6977,7 @@
         <v>105</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>105</v>
@@ -6405,7 +6986,7 @@
         <v>278</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -6419,7 +7000,7 @@
         <v>321</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>147</v>
@@ -6428,16 +7009,16 @@
         <v>54</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>54</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -6460,7 +7041,7 @@
         <v>198</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>234</v>
@@ -6469,7 +7050,7 @@
         <v>279</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -6492,7 +7073,7 @@
         <v>199</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>235</v>
@@ -6501,7 +7082,7 @@
         <v>280</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -6524,7 +7105,7 @@
         <v>200</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>236</v>
@@ -6533,7 +7114,7 @@
         <v>281</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -6556,7 +7137,7 @@
         <v>109</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>237</v>
@@ -6565,7 +7146,7 @@
         <v>282</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -6588,7 +7169,7 @@
         <v>201</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>238</v>
@@ -6597,7 +7178,7 @@
         <v>283</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -6620,7 +7201,7 @@
         <v>101</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>239</v>
@@ -6629,7 +7210,7 @@
         <v>284</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -6652,7 +7233,7 @@
         <v>202</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>240</v>
@@ -6661,7 +7242,7 @@
         <v>285</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -6684,7 +7265,7 @@
         <v>203</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>241</v>
@@ -6693,7 +7274,7 @@
         <v>286</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -6716,7 +7297,7 @@
         <v>204</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>242</v>
@@ -6725,7 +7306,7 @@
         <v>287</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -6748,7 +7329,7 @@
         <v>205</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>243</v>
@@ -6757,7 +7338,7 @@
         <v>288</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -6780,7 +7361,7 @@
         <v>206</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>244</v>
@@ -6789,7 +7370,7 @@
         <v>289</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -6812,7 +7393,7 @@
         <v>207</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>245</v>
@@ -6821,7 +7402,7 @@
         <v>290</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -6844,72 +7425,72 @@
         <v>67</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>246</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>1115</v>
+        <v>1112</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>1116</v>
+        <v>1107</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>1117</v>
+        <v>1108</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="87" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>1119</v>
+        <v>1109</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>1138</v>
+        <v>1110</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="89" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>1137</v>
+        <v>1118</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="90" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>1118</v>
+        <v>1111</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -6932,781 +7513,1518 @@
         <v>615</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H92" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="I92" s="2" t="s">
-        <v>620</v>
-      </c>
       <c r="J92" s="2" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="I93" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>723</v>
-      </c>
       <c r="J93" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>1479</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>1508</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>1541</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>1466</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>1467</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>1512</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>1469</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>1545</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>1547</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>1489</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>1548</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>1491</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>1520</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>1550</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>1524</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>1547</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>1522</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>1537</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>1521</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>1516</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>1517</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>1523</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>1518</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>1421</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>1551</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>1313</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>1314</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>1552</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>1553</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>1526</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>1554</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="I126" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>1279</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>1277</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>1278</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>1285</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
         <v>1153</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B130" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
         <v>1154</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="B131" s="4" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>1462</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>1294</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D139" s="4" t="s">
         <v>1293</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E139" s="4" t="s">
         <v>1292</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>1291</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>1288</v>
-      </c>
-      <c r="I94" s="2" t="s">
-        <v>1289</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>1383</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>1341</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="F139" s="4" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>1280</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>1381</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="D140" s="4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>1481</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C141" s="4" t="s">
         <v>1382</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
-        <v>1371</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I121" s="2" t="s">
-        <v>1308</v>
-      </c>
-      <c r="J121" s="2" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>1312</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>1315</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="I122" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="J122" s="2" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>1331</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>1209</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>1210</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>1206</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>1204</v>
-      </c>
-      <c r="J126" s="2" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I127" s="2" t="s">
-        <v>1203</v>
-      </c>
-      <c r="J127" s="2" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>1275</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>1282</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>1281</v>
-      </c>
-      <c r="I128" s="2" t="s">
-        <v>1284</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>1274</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>1278</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>1279</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="I129" s="2" t="s">
-        <v>1287</v>
-      </c>
-      <c r="J129" s="2" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="J130" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="J131" s="2" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>1223</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>1226</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>1216</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>1224</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>1242</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="J134" s="2" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>1235</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="I135" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>1190</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>1191</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>1193</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J136" s="2" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>1295</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>1298</v>
-      </c>
-      <c r="G139" s="2" t="s">
-        <v>1282</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>1299</v>
-      </c>
-      <c r="I139" s="2" t="s">
-        <v>1300</v>
-      </c>
-      <c r="J139" s="2" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>1323</v>
-      </c>
+      <c r="D141" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>1480</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>1405</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I142" s="4"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>75</v>
@@ -7724,7 +9042,7 @@
         <v>208</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>247</v>
@@ -7733,12 +9051,12 @@
         <v>291</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>76</v>
@@ -7756,7 +9074,7 @@
         <v>209</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>248</v>
@@ -7765,76 +9083,76 @@
         <v>292</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>378</v>
       </c>
       <c r="C145" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D145" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="E145" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>631</v>
-      </c>
       <c r="F145" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="H145" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="G145" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="H145" s="2" t="s">
+      <c r="I145" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="I145" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="J145" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>377</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>77</v>
@@ -7852,7 +9170,7 @@
         <v>210</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>249</v>
@@ -7861,76 +9179,76 @@
         <v>293</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>375</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>641</v>
-      </c>
       <c r="F148" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="F149" s="2" t="s">
+      <c r="G149" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="H149" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="G149" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>645</v>
-      </c>
       <c r="I149" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>78</v>
@@ -7948,7 +9266,7 @@
         <v>211</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>250</v>
@@ -7957,12 +9275,12 @@
         <v>294</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>79</v>
@@ -7980,7 +9298,7 @@
         <v>212</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>251</v>
@@ -7989,12 +9307,12 @@
         <v>295</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>80</v>
@@ -8012,7 +9330,7 @@
         <v>213</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>252</v>
@@ -8021,12 +9339,12 @@
         <v>296</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>47</v>
@@ -8044,144 +9362,144 @@
         <v>361</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>263</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="G154" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="H154" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="F154" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="G154" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="H154" s="2" t="s">
+      <c r="I154" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="I154" s="2" t="s">
-        <v>852</v>
-      </c>
       <c r="J154" s="2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C155" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>856</v>
-      </c>
       <c r="I155" s="2" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="G156" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="H156" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="I156" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="G156" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="I156" s="2" t="s">
-        <v>864</v>
-      </c>
       <c r="J156" s="2" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C157" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="F157" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="G157" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="F157" s="2" t="s">
+      <c r="H157" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="I157" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="H157" s="2" t="s">
+      <c r="J157" s="2" t="s">
         <v>1195</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J157" s="2" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -8192,25 +9510,25 @@
         <v>452</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J159" s="2" t="s">
         <v>452</v>
@@ -8236,7 +9554,7 @@
         <v>105</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>105</v>
@@ -8245,7 +9563,7 @@
         <v>278</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -8268,7 +9586,7 @@
         <v>196</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>232</v>
@@ -8277,7 +9595,7 @@
         <v>276</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -8288,28 +9606,28 @@
         <v>453</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -8332,7 +9650,7 @@
         <v>197</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>233</v>
@@ -8341,7 +9659,7 @@
         <v>277</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -8352,28 +9670,28 @@
         <v>454</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -8396,7 +9714,7 @@
         <v>198</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>234</v>
@@ -8405,7 +9723,7 @@
         <v>279</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -8428,7 +9746,7 @@
         <v>199</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>235</v>
@@ -8437,12 +9755,12 @@
         <v>280</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>57</v>
@@ -8460,7 +9778,7 @@
         <v>200</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>236</v>
@@ -8469,108 +9787,132 @@
         <v>281</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C168" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F168" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="G168" s="2" t="s">
         <v>1312</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="H168" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="F168" s="2" t="s">
+      <c r="I168" s="2" t="s">
         <v>1314</v>
       </c>
-      <c r="G168" s="2" t="s">
+      <c r="J168" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="H168" s="2" t="s">
-        <v>1316</v>
-      </c>
-      <c r="I168" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="J168" s="2" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>1361</v>
+    </row>
+    <row r="169" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="F170" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="G170" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="F170" s="2" t="s">
+      <c r="H170" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="G170" s="2" t="s">
+      <c r="I170" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="H170" s="2" t="s">
+      <c r="J170" s="2" t="s">
         <v>1195</v>
-      </c>
-      <c r="I170" s="2" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J170" s="2" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>452</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>452</v>
@@ -8596,7 +9938,7 @@
         <v>197</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>233</v>
@@ -8605,7 +9947,7 @@
         <v>277</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -8628,7 +9970,7 @@
         <v>199</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>235</v>
@@ -8637,7 +9979,7 @@
         <v>280</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -8660,7 +10002,7 @@
         <v>198</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>234</v>
@@ -8669,7 +10011,7 @@
         <v>279</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -8692,7 +10034,7 @@
         <v>200</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>236</v>
@@ -8701,7 +10043,7 @@
         <v>281</v>
       </c>
       <c r="J177" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -8724,7 +10066,7 @@
         <v>196</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>232</v>
@@ -8733,15 +10075,15 @@
         <v>276</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>313</v>
@@ -8756,7 +10098,7 @@
         <v>191</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>228</v>
@@ -8765,7 +10107,7 @@
         <v>271</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -8776,28 +10118,28 @@
         <v>453</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J180" s="2" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -8808,28 +10150,28 @@
         <v>463</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -8840,28 +10182,28 @@
         <v>464</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -8872,28 +10214,28 @@
         <v>465</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -8904,28 +10246,28 @@
         <v>466</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J184" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -8936,28 +10278,28 @@
         <v>467</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -8968,28 +10310,28 @@
         <v>468</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -9000,28 +10342,28 @@
         <v>469</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -9032,28 +10374,28 @@
         <v>470</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J188" s="2" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -9064,28 +10406,28 @@
         <v>471</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -9096,28 +10438,28 @@
         <v>472</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J190" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -9128,28 +10470,28 @@
         <v>473</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J191" s="2" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -9160,540 +10502,540 @@
         <v>474</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="J193" s="2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="J200" s="2" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J202" s="2" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J204" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F206" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="J206" s="2" t="s">
         <v>1263</v>
-      </c>
-      <c r="G206" s="2" t="s">
-        <v>1262</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>1245</v>
-      </c>
-      <c r="I206" s="2" t="s">
-        <v>1264</v>
-      </c>
-      <c r="J206" s="2" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="F207" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H207" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="G207" s="2" t="s">
-        <v>1260</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>1261</v>
-      </c>
       <c r="I207" s="2" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D208" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="E208" s="2" t="s">
-        <v>1252</v>
-      </c>
       <c r="F208" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D209" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>1254</v>
       </c>
-      <c r="E209" s="2" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>1254</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>1256</v>
-      </c>
       <c r="H209" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -9716,7 +11058,7 @@
         <v>185</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H211" s="2" t="s">
         <v>226</v>
@@ -9725,7 +11067,7 @@
         <v>265</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -9748,7 +11090,7 @@
         <v>215</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H212" s="2" t="s">
         <v>253</v>
@@ -9757,7 +11099,7 @@
         <v>298</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -9780,7 +11122,7 @@
         <v>216</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>254</v>
@@ -9789,7 +11131,7 @@
         <v>299</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -9812,7 +11154,7 @@
         <v>217</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H215" s="2" t="s">
         <v>255</v>
@@ -9821,7 +11163,7 @@
         <v>300</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -9844,7 +11186,7 @@
         <v>218</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>256</v>
@@ -9853,7 +11195,7 @@
         <v>301</v>
       </c>
       <c r="J216" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
   </sheetData>

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II_Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44F1024-98AF-4CFC-903F-F83676DDBAB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8B3C71-BB04-4F46-BD19-CC4CDC2E1C71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="2557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="2593">
   <si>
     <t>Temperature</t>
   </si>
@@ -7696,6 +7696,114 @@
   </si>
   <si>
     <t>MENU:DecreaseAmplitude</t>
+  </si>
+  <si>
+    <t>PE:IntracranialPressure</t>
+  </si>
+  <si>
+    <t>NUMERIC:ICP</t>
+  </si>
+  <si>
+    <t>LEAD:ICP</t>
+  </si>
+  <si>
+    <t>Intracranial Pressure</t>
+  </si>
+  <si>
+    <t>الضغط داخل الجمجمة</t>
+  </si>
+  <si>
+    <t>Presión intracraneal</t>
+  </si>
+  <si>
+    <t>Pression intracrânienne</t>
+  </si>
+  <si>
+    <t>فشار داخل جمجمه</t>
+  </si>
+  <si>
+    <t>የውስጥ ማተሚያ ግፊት</t>
+  </si>
+  <si>
+    <t>颅内压</t>
+  </si>
+  <si>
+    <t>Hirndruck</t>
+  </si>
+  <si>
+    <t>לחץ תוך גולגולתי</t>
+  </si>
+  <si>
+    <t>इंट्राक्रेनियल दबाव</t>
+  </si>
+  <si>
+    <t>Pressione intracranica</t>
+  </si>
+  <si>
+    <t>두개 내압</t>
+  </si>
+  <si>
+    <t>Pressão intracraniana</t>
+  </si>
+  <si>
+    <t>Внутричерепное давление</t>
+  </si>
+  <si>
+    <t>Shinikizo la kuingiza</t>
+  </si>
+  <si>
+    <t>PE:IntraabdominalPressure</t>
+  </si>
+  <si>
+    <t>Intra-abdominal Pressure</t>
+  </si>
+  <si>
+    <t>LEAD:IAP</t>
+  </si>
+  <si>
+    <t>NUMERIC:IAP</t>
+  </si>
+  <si>
+    <t>Shinikizo la tumbo la tumbo</t>
+  </si>
+  <si>
+    <t>Внутрибрюшное давление</t>
+  </si>
+  <si>
+    <t>የሆድ-ሆድ ጫና</t>
+  </si>
+  <si>
+    <t>الضغط داخل البطن</t>
+  </si>
+  <si>
+    <t>腹内压力</t>
+  </si>
+  <si>
+    <t>Druck im Unterleib</t>
+  </si>
+  <si>
+    <t>فشار داخل شکمی</t>
+  </si>
+  <si>
+    <t>Presión intraabdominal</t>
+  </si>
+  <si>
+    <t>Pression intra-abdominale</t>
+  </si>
+  <si>
+    <t>לחץ בתוך הבטן</t>
+  </si>
+  <si>
+    <t>पेट का दबाव</t>
+  </si>
+  <si>
+    <t>Pressione addominale</t>
+  </si>
+  <si>
+    <t>복강 내 압력</t>
+  </si>
+  <si>
+    <t>Pressão abdominal</t>
   </si>
 </sst>
 </file>
@@ -8067,16 +8175,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P217"/>
+  <dimension ref="A1:P223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" style="2" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2"/>
     <col min="3" max="4" width="60.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="60.7109375" style="4"/>
@@ -11377,6245 +11485,6545 @@
     </row>
     <row r="78" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>20</v>
+        <v>2557</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>58</v>
+        <v>2560</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1634</v>
+        <v>2565</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1899</v>
+        <v>2561</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>2238</v>
+        <v>2566</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>325</v>
+        <v>2567</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>1914</v>
+        <v>2564</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>109</v>
+        <v>2562</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>151</v>
+        <v>2563</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>1939</v>
+        <v>2568</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>2255</v>
+        <v>2569</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>109</v>
+        <v>2570</v>
       </c>
       <c r="M78" s="4" t="s">
-        <v>924</v>
+        <v>2571</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>237</v>
+        <v>2572</v>
       </c>
       <c r="O78" s="4" t="s">
-        <v>282</v>
+        <v>2573</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>1014</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="79" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>21</v>
+        <v>2575</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>59</v>
+        <v>2576</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1635</v>
+        <v>2581</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>1900</v>
+        <v>2582</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>2247</v>
+        <v>2583</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>326</v>
+        <v>2584</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>1915</v>
+        <v>2585</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>110</v>
+        <v>2586</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>152</v>
+        <v>2587</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>1940</v>
+        <v>2588</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>2256</v>
+        <v>2589</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>201</v>
+        <v>2590</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>925</v>
+        <v>2591</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>238</v>
+        <v>2592</v>
       </c>
       <c r="O79" s="4" t="s">
-        <v>283</v>
+        <v>2580</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>1015</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="80" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O80" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="81" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>2240</v>
+        <v>2247</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O81" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>1055</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="82" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>1943</v>
+        <v>1941</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O82" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M83" s="4" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>1018</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="84" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O84" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="85" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O85" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="86" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>1926</v>
+        <v>1905</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>1922</v>
+        <v>1945</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O86" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>1084</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>2244</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>1921</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>1946</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>2262</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="M87" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="O87" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>2245</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>1924</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>1922</v>
+      </c>
+      <c r="K88" s="4" t="s">
+        <v>2263</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="O88" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>1643</v>
       </c>
-      <c r="D87" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>1927</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>2246</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F89" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G89" s="4" t="s">
         <v>1925</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H89" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I89" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="J87" s="4" t="s">
+      <c r="J89" s="4" t="s">
         <v>1923</v>
       </c>
-      <c r="K87" s="4" t="s">
+      <c r="K89" s="4" t="s">
         <v>2264</v>
       </c>
-      <c r="L87" s="4" t="s">
+      <c r="L89" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M87" s="4" t="s">
+      <c r="M89" s="4" t="s">
         <v>933</v>
       </c>
-      <c r="N87" s="4" t="s">
+      <c r="N89" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="O87" s="4" t="s">
+      <c r="O89" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="P87" s="4" t="s">
+      <c r="P89" s="4" t="s">
         <v>1085</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="91" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>1134</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>1133</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>1109</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B96" s="4" t="s">
         <v>1114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
-        <v>1377</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>1618</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>2215</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>1878</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>1886</v>
-      </c>
-      <c r="K96" s="4" t="s">
-        <v>2290</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="M96" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="N96" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="O96" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="P96" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>1980</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>2306</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G97" s="4" t="s">
-        <v>1982</v>
-      </c>
-      <c r="H97" s="4" t="s">
-        <v>1400</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>1436</v>
-      </c>
-      <c r="J97" s="4" t="s">
-        <v>1984</v>
-      </c>
-      <c r="K97" s="4" t="s">
-        <v>2308</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>1456</v>
-      </c>
-      <c r="M97" s="4" t="s">
-        <v>1477</v>
-      </c>
-      <c r="N97" s="4" t="s">
-        <v>1505</v>
-      </c>
-      <c r="O97" s="4" t="s">
-        <v>1528</v>
-      </c>
-      <c r="P97" s="4" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="98" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>1349</v>
+        <v>1377</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>1345</v>
+        <v>4</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1649</v>
+        <v>1618</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>1981</v>
+        <v>1869</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>2307</v>
+        <v>2215</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>1379</v>
+        <v>4</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>1983</v>
+        <v>1878</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>1401</v>
+        <v>96</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>1437</v>
+        <v>137</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>1985</v>
+        <v>1886</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>2309</v>
+        <v>2290</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>1457</v>
+        <v>189</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>1476</v>
+        <v>911</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>1401</v>
+        <v>96</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>1529</v>
+        <v>269</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>1554</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>1986</v>
+        <v>1980</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>2310</v>
+        <v>2306</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>2001</v>
+        <v>1982</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>2017</v>
+        <v>1984</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>2326</v>
+        <v>2308</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
       <c r="P99" s="4" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="100" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>1334</v>
+        <v>1349</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>1338</v>
+        <v>1345</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>1987</v>
+        <v>1981</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>2311</v>
+        <v>2307</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>2002</v>
+        <v>1983</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>2018</v>
+        <v>1985</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>2327</v>
+        <v>2309</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>1507</v>
+        <v>1401</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
       <c r="P100" s="4" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="101" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>1339</v>
+        <v>1347</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="P101" s="4" t="s">
-        <v>1556</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="102" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>1218</v>
+        <v>1381</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="103" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>2315</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>1384</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>2006</v>
+        <v>2313</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>2004</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>1407</v>
+        <v>1509</v>
       </c>
       <c r="O104" s="4" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="P104" s="4" t="s">
-        <v>1565</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="105" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>1353</v>
+        <v>1340</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>1520</v>
+        <v>1510</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="P105" s="4" t="s">
-        <v>1562</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="106" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>1354</v>
+        <v>1341</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>1435</v>
+        <v>1444</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>1409</v>
+        <v>1466</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="P106" s="4" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="107" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>1164</v>
+        <v>1353</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1237</v>
+        <v>1385</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>1240</v>
+        <v>1408</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>1235</v>
+        <v>1445</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>1240</v>
+        <v>1467</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>1240</v>
+        <v>1520</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="P107" s="4" t="s">
-        <v>1230</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="108" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>2319</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>1359</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>2010</v>
+        <v>2317</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>2008</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>1446</v>
+        <v>1435</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>1468</v>
+        <v>1409</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>911</v>
+        <v>1485</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>1511</v>
+        <v>1409</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>269</v>
+        <v>1544</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>4</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="109" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>1360</v>
+        <v>1164</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>2315</v>
+        <v>2318</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>1387</v>
+        <v>1237</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>1411</v>
+        <v>1240</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>1447</v>
+        <v>1235</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>1469</v>
+        <v>1240</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>1516</v>
+        <v>1240</v>
       </c>
       <c r="O109" s="4" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="P109" s="4" t="s">
-        <v>1564</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="110" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>2316</v>
+        <v>2319</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>1385</v>
+        <v>1359</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>1488</v>
+        <v>911</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
       <c r="O110" s="4" t="s">
-        <v>1543</v>
+        <v>269</v>
       </c>
       <c r="P110" s="4" t="s">
-        <v>1562</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>1375</v>
+        <v>1358</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1996</v>
+        <v>1991</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>2320</v>
+        <v>2315</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>1389</v>
+        <v>1411</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>1389</v>
+        <v>1447</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>1389</v>
+        <v>1469</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="O111" s="4" t="s">
-        <v>1533</v>
+        <v>1546</v>
       </c>
       <c r="P111" s="4" t="s">
-        <v>1389</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="112" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>1376</v>
+        <v>1362</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>2035</v>
+        <v>1992</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>2321</v>
+        <v>2316</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>1385</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>2034</v>
+        <v>2007</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>1408</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>1445</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>2036</v>
+        <v>2023</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>2338</v>
+        <v>2332</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>1388</v>
+        <v>1467</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>1534</v>
+        <v>1543</v>
       </c>
       <c r="P112" s="4" t="s">
-        <v>1388</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>1367</v>
+        <v>1375</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>1369</v>
+        <v>1361</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>1412</v>
+        <v>1389</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>1448</v>
+        <v>1389</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>1470</v>
+        <v>1389</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>1512</v>
+        <v>1518</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="P113" s="4" t="s">
-        <v>1566</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>1368</v>
+        <v>1376</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1990</v>
+        <v>2035</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>2314</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>1383</v>
+        <v>2321</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>2005</v>
-      </c>
-      <c r="H114" s="4" t="s">
-        <v>1413</v>
-      </c>
-      <c r="I114" s="4" t="s">
-        <v>1449</v>
+        <v>2034</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>2030</v>
+        <v>2036</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>1471</v>
+        <v>1388</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="P114" s="4" t="s">
-        <v>1561</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="115" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>1530</v>
+        <v>1535</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>1559</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="116" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>2324</v>
+        <v>2314</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>1394</v>
+        <v>1383</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>1531</v>
+        <v>1536</v>
       </c>
       <c r="P116" s="4" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="117" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="P117" s="4" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>2324</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>2342</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N118" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="O118" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="P118" s="4" t="s">
+        <v>1558</v>
+      </c>
+    </row>
     <row r="119" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>1324</v>
+        <v>1373</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>1327</v>
+        <v>1374</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>1719</v>
+        <v>1666</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>2344</v>
+        <v>2325</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>2051</v>
+        <v>2016</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>1430</v>
+        <v>1452</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>2067</v>
+        <v>2033</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>2354</v>
+        <v>2343</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>1417</v>
+        <v>1474</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>1477</v>
+        <v>1495</v>
       </c>
       <c r="N119" s="4" t="s">
-        <v>1417</v>
+        <v>1515</v>
       </c>
       <c r="O119" s="4" t="s">
-        <v>1547</v>
+        <v>1532</v>
       </c>
       <c r="P119" s="4" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>2037</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>2345</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>2052</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>1296</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>1297</v>
-      </c>
-      <c r="J120" s="4" t="s">
-        <v>2068</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>2355</v>
-      </c>
-      <c r="L120" s="4" t="s">
-        <v>1299</v>
-      </c>
-      <c r="M120" s="4" t="s">
-        <v>1300</v>
-      </c>
-      <c r="N120" s="4" t="s">
-        <v>1301</v>
-      </c>
-      <c r="O120" s="4" t="s">
-        <v>1302</v>
-      </c>
-      <c r="P120" s="4" t="s">
-        <v>1303</v>
-      </c>
-    </row>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="121" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>1175</v>
+        <v>1324</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>1176</v>
+        <v>1327</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>2038</v>
+        <v>1980</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>1305</v>
+        <v>1390</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>1306</v>
+        <v>1417</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>1307</v>
+        <v>1430</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>1308</v>
+        <v>1417</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>1309</v>
+        <v>1477</v>
       </c>
       <c r="N121" s="4" t="s">
-        <v>1310</v>
+        <v>1417</v>
       </c>
       <c r="O121" s="4" t="s">
-        <v>1311</v>
+        <v>1547</v>
       </c>
       <c r="P121" s="4" t="s">
-        <v>1312</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="122" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>1325</v>
+        <v>1169</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>1328</v>
+        <v>1170</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>1328</v>
+        <v>1304</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>1418</v>
+        <v>1296</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>1431</v>
+        <v>1297</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>1453</v>
+        <v>1299</v>
       </c>
       <c r="M122" s="4" t="s">
-        <v>1496</v>
+        <v>1300</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>1431</v>
+        <v>1301</v>
       </c>
       <c r="O122" s="4" t="s">
-        <v>1548</v>
+        <v>1302</v>
       </c>
       <c r="P122" s="4" t="s">
-        <v>1569</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="123" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>1326</v>
+        <v>1175</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>1154</v>
+        <v>1176</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>1391</v>
+        <v>1305</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>1419</v>
+        <v>1306</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>1432</v>
+        <v>1307</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>1454</v>
+        <v>1308</v>
       </c>
       <c r="M123" s="4" t="s">
-        <v>1497</v>
+        <v>1309</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>1521</v>
+        <v>1310</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>1549</v>
+        <v>1311</v>
       </c>
       <c r="P123" s="4" t="s">
-        <v>1568</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="124" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="N124" s="4" t="s">
-        <v>1522</v>
+        <v>1431</v>
       </c>
       <c r="O124" s="4" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="P124" s="4" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>1177</v>
+        <v>1326</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>1179</v>
+        <v>1154</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>2009</v>
+        <v>2040</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>1197</v>
+        <v>1391</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>1203</v>
+        <v>1419</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>1204</v>
+        <v>1432</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>1205</v>
+        <v>1454</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>1206</v>
+        <v>1497</v>
       </c>
       <c r="N125" s="4" t="s">
-        <v>1202</v>
+        <v>1521</v>
       </c>
       <c r="O125" s="4" t="s">
-        <v>1200</v>
+        <v>1549</v>
       </c>
       <c r="P125" s="4" t="s">
-        <v>1198</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="126" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>1178</v>
+        <v>1331</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>1180</v>
+        <v>1330</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>1196</v>
+        <v>1330</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>1195</v>
+        <v>1420</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>1209</v>
+        <v>1433</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>1208</v>
+        <v>1455</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>1207</v>
+        <v>1498</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>1201</v>
+        <v>1522</v>
       </c>
       <c r="O126" s="4" t="s">
-        <v>1199</v>
+        <v>1550</v>
       </c>
       <c r="P126" s="4" t="s">
-        <v>1194</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="127" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>2043</v>
+        <v>2009</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>1272</v>
+        <v>1197</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>1268</v>
+        <v>1203</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>1271</v>
+        <v>1204</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>1279</v>
+        <v>1205</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>1278</v>
+        <v>1206</v>
       </c>
       <c r="N127" s="4" t="s">
-        <v>1277</v>
+        <v>1202</v>
       </c>
       <c r="O127" s="4" t="s">
-        <v>1280</v>
+        <v>1200</v>
       </c>
       <c r="P127" s="4" t="s">
-        <v>1281</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="128" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>1315</v>
+        <v>1178</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>1314</v>
+        <v>1180</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>1273</v>
+        <v>1196</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>1269</v>
+        <v>1195</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>1270</v>
+        <v>1209</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>1274</v>
+        <v>1208</v>
       </c>
       <c r="M128" s="4" t="s">
-        <v>1275</v>
+        <v>1207</v>
       </c>
       <c r="N128" s="4" t="s">
-        <v>1276</v>
+        <v>1201</v>
       </c>
       <c r="O128" s="4" t="s">
-        <v>1283</v>
+        <v>1199</v>
       </c>
       <c r="P128" s="4" t="s">
-        <v>1282</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="129" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>1151</v>
+        <v>1182</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>1153</v>
+        <v>1181</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1681</v>
+        <v>1727</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>1868</v>
+        <v>2043</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>2214</v>
+        <v>2352</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>646</v>
+        <v>1272</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>1877</v>
+        <v>2059</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>649</v>
+        <v>1268</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>668</v>
+        <v>1271</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>2077</v>
-      </c>
-      <c r="K129" s="5" t="s">
-        <v>2223</v>
+        <v>2075</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>2362</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>695</v>
+        <v>1279</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>949</v>
+        <v>1278</v>
       </c>
       <c r="N129" s="4" t="s">
-        <v>653</v>
+        <v>1277</v>
       </c>
       <c r="O129" s="4" t="s">
-        <v>698</v>
+        <v>1280</v>
       </c>
       <c r="P129" s="4" t="s">
-        <v>452</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="130" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>1152</v>
+        <v>1315</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1154</v>
+        <v>1314</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>1723</v>
+        <v>1728</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>2040</v>
+        <v>2044</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>2348</v>
+        <v>2353</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>322</v>
+        <v>1273</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>2055</v>
+        <v>2060</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>106</v>
+        <v>1269</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>1313</v>
+        <v>1270</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>2071</v>
+        <v>2076</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>2358</v>
+        <v>2363</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>198</v>
+        <v>1274</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>921</v>
+        <v>1275</v>
       </c>
       <c r="N130" s="4" t="s">
-        <v>234</v>
+        <v>1276</v>
       </c>
       <c r="O130" s="4" t="s">
-        <v>279</v>
+        <v>1283</v>
       </c>
       <c r="P130" s="4" t="s">
-        <v>1011</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="131" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>1729</v>
+        <v>1681</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>2045</v>
+        <v>1868</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>2369</v>
+        <v>2214</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>1218</v>
+        <v>646</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>2061</v>
+        <v>1877</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>1219</v>
+        <v>649</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>1210</v>
+        <v>668</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>2078</v>
-      </c>
-      <c r="K131" s="4" t="s">
-        <v>2370</v>
+        <v>2077</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>2223</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>1214</v>
+        <v>695</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>1211</v>
+        <v>949</v>
       </c>
       <c r="N131" s="4" t="s">
-        <v>1219</v>
+        <v>653</v>
       </c>
       <c r="O131" s="4" t="s">
-        <v>1222</v>
+        <v>698</v>
       </c>
       <c r="P131" s="4" t="s">
-        <v>1223</v>
+        <v>452</v>
       </c>
     </row>
     <row r="132" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>2364</v>
+        <v>2348</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>1217</v>
+        <v>322</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>2062</v>
+        <v>2055</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>1216</v>
+        <v>106</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>1213</v>
+        <v>1313</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>2079</v>
+        <v>2071</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>2371</v>
+        <v>2358</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>1215</v>
+        <v>198</v>
       </c>
       <c r="M132" s="4" t="s">
-        <v>1212</v>
+        <v>921</v>
       </c>
       <c r="N132" s="4" t="s">
-        <v>1220</v>
+        <v>234</v>
       </c>
       <c r="O132" s="4" t="s">
-        <v>1221</v>
+        <v>279</v>
       </c>
       <c r="P132" s="4" t="s">
-        <v>1224</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="133" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>2365</v>
+        <v>2369</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>1238</v>
+        <v>1218</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>1239</v>
+        <v>1219</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>1234</v>
+        <v>1210</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>1233</v>
+        <v>1214</v>
       </c>
       <c r="M133" s="4" t="s">
-        <v>1232</v>
+        <v>1211</v>
       </c>
       <c r="N133" s="4" t="s">
-        <v>1226</v>
+        <v>1219</v>
       </c>
       <c r="O133" s="4" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="P133" s="4" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="134" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>1658</v>
+        <v>1730</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>1994</v>
+        <v>2046</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>2318</v>
+        <v>2364</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>1237</v>
+        <v>1217</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>2009</v>
+        <v>2062</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>1240</v>
+        <v>1216</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>1235</v>
+        <v>1213</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>2025</v>
+        <v>2079</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>2334</v>
+        <v>2371</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>1236</v>
-      </c>
-      <c r="M134" s="6" t="s">
-        <v>1231</v>
+        <v>1215</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>1212</v>
       </c>
       <c r="N134" s="4" t="s">
-        <v>1229</v>
+        <v>1220</v>
       </c>
       <c r="O134" s="4" t="s">
-        <v>1228</v>
+        <v>1221</v>
       </c>
       <c r="P134" s="4" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="135" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1183</v>
+        <v>1163</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>1186</v>
+        <v>1238</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>1187</v>
+        <v>1239</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>1188</v>
+        <v>1234</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>1189</v>
+        <v>1233</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>1190</v>
+        <v>1232</v>
       </c>
       <c r="N135" s="4" t="s">
-        <v>1191</v>
+        <v>1226</v>
       </c>
       <c r="O135" s="4" t="s">
-        <v>1192</v>
+        <v>1227</v>
       </c>
       <c r="P135" s="4" t="s">
-        <v>1193</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="136" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>1321</v>
+        <v>1161</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1322</v>
+        <v>1164</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>1733</v>
+        <v>1658</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>2049</v>
+        <v>1994</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>2367</v>
+        <v>2318</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>1396</v>
+        <v>1237</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>2065</v>
+        <v>2009</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>1421</v>
+        <v>1240</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>1434</v>
+        <v>1235</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>2082</v>
+        <v>2025</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>2374</v>
+        <v>2334</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>1458</v>
-      </c>
-      <c r="M136" s="4" t="s">
-        <v>1499</v>
+        <v>1236</v>
+      </c>
+      <c r="M136" s="6" t="s">
+        <v>1231</v>
       </c>
       <c r="N136" s="4" t="s">
-        <v>1523</v>
+        <v>1229</v>
       </c>
       <c r="O136" s="4" t="s">
-        <v>1527</v>
+        <v>1228</v>
+      </c>
+      <c r="P136" s="4" t="s">
+        <v>1230</v>
       </c>
     </row>
     <row r="137" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>1320</v>
+        <v>1162</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1323</v>
+        <v>1183</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>1993</v>
+        <v>2048</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>2317</v>
+        <v>2366</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>1397</v>
+        <v>1186</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>2008</v>
+        <v>2064</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>1422</v>
+        <v>1187</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>1435</v>
+        <v>1188</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>2024</v>
+        <v>2081</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>2333</v>
+        <v>2373</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>1459</v>
+        <v>1189</v>
       </c>
       <c r="M137" s="4" t="s">
-        <v>1500</v>
+        <v>1190</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>1524</v>
+        <v>1191</v>
       </c>
       <c r="O137" s="4" t="s">
-        <v>1526</v>
+        <v>1192</v>
+      </c>
+      <c r="P137" s="4" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="138" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>1184</v>
+        <v>1321</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1185</v>
+        <v>1322</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>1291</v>
+        <v>1396</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>1290</v>
+        <v>1421</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>1289</v>
+        <v>1434</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>1292</v>
+        <v>1458</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>1278</v>
+        <v>1499</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>1293</v>
+        <v>1523</v>
       </c>
       <c r="O138" s="4" t="s">
-        <v>1294</v>
-      </c>
-      <c r="P138" s="4" t="s">
-        <v>1295</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="139" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1316</v>
+        <v>1323</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1648</v>
+        <v>1734</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>1980</v>
+        <v>1993</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>2306</v>
+        <v>2317</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>1378</v>
+        <v>1397</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>1982</v>
+        <v>2008</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>1400</v>
+        <v>1422</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>1984</v>
+        <v>2024</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>2308</v>
+        <v>2333</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>1477</v>
+        <v>1500</v>
       </c>
       <c r="N139" s="4" t="s">
-        <v>1505</v>
+        <v>1524</v>
       </c>
       <c r="O139" s="4" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="140" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>1319</v>
+        <v>1184</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1317</v>
+        <v>1185</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>1649</v>
+        <v>1735</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>1981</v>
+        <v>2050</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>2307</v>
+        <v>2368</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>1379</v>
+        <v>1291</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>1983</v>
+        <v>2066</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>1401</v>
+        <v>1290</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>1437</v>
+        <v>1289</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>1985</v>
+        <v>2083</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>2309</v>
+        <v>2375</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>1457</v>
+        <v>1292</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>1476</v>
+        <v>1278</v>
       </c>
       <c r="N140" s="4" t="s">
-        <v>1401</v>
+        <v>1293</v>
       </c>
       <c r="O140" s="4" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1294</v>
+      </c>
+      <c r="P140" s="4" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I141" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>1984</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>2308</v>
+      </c>
+      <c r="L141" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="M141" s="4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="N141" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O141" s="4" t="s">
+        <v>1528</v>
+      </c>
+    </row>
     <row r="142" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>1135</v>
+        <v>1319</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>75</v>
+        <v>1317</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>1667</v>
+        <v>1649</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>2084</v>
+        <v>1981</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>2376</v>
+        <v>2307</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>335</v>
+        <v>1379</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>2098</v>
+        <v>1983</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>174</v>
+        <v>1401</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>160</v>
+        <v>1437</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>2112</v>
+        <v>1985</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>2390</v>
+        <v>2309</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>208</v>
+        <v>1457</v>
       </c>
       <c r="M142" s="4" t="s">
-        <v>935</v>
+        <v>1476</v>
       </c>
       <c r="N142" s="4" t="s">
-        <v>247</v>
+        <v>1401</v>
       </c>
       <c r="O142" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="P142" s="4" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>1668</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>2085</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>2377</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>2099</v>
-      </c>
-      <c r="H143" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J143" s="4" t="s">
-        <v>2113</v>
-      </c>
-      <c r="K143" s="4" t="s">
-        <v>2391</v>
-      </c>
-      <c r="L143" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="M143" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="N143" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="O143" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="P143" s="4" t="s">
-        <v>1022</v>
-      </c>
-    </row>
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="144" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>378</v>
+        <v>75</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>627</v>
+        <v>335</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>628</v>
+        <v>174</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>629</v>
+        <v>160</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>631</v>
+        <v>208</v>
       </c>
       <c r="M144" s="4" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="N144" s="4" t="s">
-        <v>632</v>
+        <v>247</v>
       </c>
       <c r="O144" s="4" t="s">
-        <v>633</v>
+        <v>291</v>
       </c>
       <c r="P144" s="4" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="145" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>710</v>
+        <v>76</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1677</v>
+        <v>1668</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>2094</v>
+        <v>2085</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>2386</v>
+        <v>2377</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>849</v>
+        <v>336</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>843</v>
+        <v>175</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>844</v>
+        <v>161</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>2122</v>
+        <v>2113</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>2400</v>
+        <v>2391</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>845</v>
+        <v>209</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="N145" s="4" t="s">
-        <v>846</v>
+        <v>248</v>
       </c>
       <c r="O145" s="4" t="s">
-        <v>848</v>
+        <v>292</v>
       </c>
       <c r="P145" s="4" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="146" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="N146" s="4" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="O146" s="4" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="P146" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="147" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="N147" s="4" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="O147" s="4" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="P147" s="4" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>2555</v>
+        <v>1138</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>2531</v>
+        <v>377</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>2534</v>
+        <v>2087</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>2536</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>2538</v>
+        <v>2379</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>626</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>2539</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>2541</v>
-      </c>
-      <c r="I148" s="2" t="s">
-        <v>2542</v>
+        <v>2101</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="I148" s="4" t="s">
+        <v>624</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>2544</v>
-      </c>
-      <c r="L148" s="2" t="s">
-        <v>2546</v>
-      </c>
-      <c r="M148" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="N148" s="2" t="s">
-        <v>2549</v>
-      </c>
-      <c r="O148" s="2" t="s">
-        <v>2551</v>
-      </c>
-      <c r="P148" s="2" t="s">
-        <v>2553</v>
+        <v>2393</v>
+      </c>
+      <c r="L148" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="M148" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="N148" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="O148" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="P148" s="4" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="149" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>2556</v>
+        <v>1147</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>2532</v>
+        <v>711</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>2533</v>
+        <v>1678</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>2535</v>
+        <v>2095</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>2537</v>
+        <v>2387</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>1379</v>
+        <v>850</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>2103</v>
+        <v>2109</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>2540</v>
+        <v>855</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>2543</v>
+        <v>854</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>2117</v>
-      </c>
-      <c r="K149" s="5" t="s">
-        <v>2545</v>
+        <v>2123</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>2401</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>2547</v>
+        <v>853</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>2548</v>
+        <v>946</v>
       </c>
       <c r="N149" s="4" t="s">
-        <v>2550</v>
+        <v>852</v>
       </c>
       <c r="O149" s="4" t="s">
-        <v>2552</v>
+        <v>851</v>
       </c>
       <c r="P149" s="4" t="s">
-        <v>2554</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>1139</v>
+        <v>2555</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>77</v>
+        <v>2531</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>2088</v>
+        <v>2534</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>2380</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>337</v>
+        <v>2536</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>2538</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>2102</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I150" s="4" t="s">
-        <v>162</v>
+        <v>2539</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>2541</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>2542</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>2394</v>
-      </c>
-      <c r="L150" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="M150" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="N150" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="O150" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="P150" s="4" t="s">
-        <v>1025</v>
+        <v>2544</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>2546</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>2549</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>2551</v>
+      </c>
+      <c r="P150" s="2" t="s">
+        <v>2553</v>
       </c>
     </row>
     <row r="151" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>1141</v>
+        <v>2556</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>376</v>
+        <v>2532</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>1673</v>
+        <v>2533</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>2090</v>
+        <v>2535</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>2382</v>
+        <v>2537</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>644</v>
+        <v>1379</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>641</v>
+        <v>2540</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>640</v>
+        <v>2543</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>2118</v>
-      </c>
-      <c r="K151" s="4" t="s">
-        <v>2396</v>
+        <v>2117</v>
+      </c>
+      <c r="K151" s="5" t="s">
+        <v>2545</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>642</v>
+        <v>2547</v>
       </c>
       <c r="M151" s="4" t="s">
-        <v>941</v>
+        <v>2548</v>
       </c>
       <c r="N151" s="4" t="s">
-        <v>643</v>
+        <v>2550</v>
       </c>
       <c r="O151" s="4" t="s">
-        <v>634</v>
+        <v>2552</v>
       </c>
       <c r="P151" s="4" t="s">
-        <v>1027</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="152" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>645</v>
+        <v>337</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>638</v>
+        <v>118</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>639</v>
+        <v>162</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>637</v>
+        <v>210</v>
       </c>
       <c r="M152" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N152" s="4" t="s">
-        <v>636</v>
+        <v>249</v>
       </c>
       <c r="O152" s="4" t="s">
-        <v>635</v>
+        <v>293</v>
       </c>
       <c r="P152" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="153" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>78</v>
+        <v>376</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>338</v>
+        <v>644</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>119</v>
+        <v>641</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>163</v>
+        <v>640</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>211</v>
+        <v>642</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="N153" s="4" t="s">
-        <v>250</v>
+        <v>643</v>
       </c>
       <c r="O153" s="4" t="s">
-        <v>294</v>
+        <v>634</v>
       </c>
       <c r="P153" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="154" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>339</v>
+        <v>645</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>176</v>
+        <v>638</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>164</v>
+        <v>639</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>212</v>
+        <v>637</v>
       </c>
       <c r="M154" s="4" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="N154" s="4" t="s">
-        <v>251</v>
+        <v>636</v>
       </c>
       <c r="O154" s="4" t="s">
-        <v>295</v>
+        <v>635</v>
       </c>
       <c r="P154" s="4" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="155" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M155" s="4" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="N155" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O155" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P155" s="4" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="156" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>1611</v>
+        <v>1675</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>1838</v>
+        <v>2092</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>2295</v>
+        <v>2384</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>1847</v>
+        <v>2106</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>359</v>
+        <v>176</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>360</v>
+        <v>164</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>1856</v>
+        <v>2120</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>2302</v>
+        <v>2398</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>361</v>
+        <v>212</v>
       </c>
       <c r="M156" s="4" t="s">
-        <v>903</v>
+        <v>943</v>
       </c>
       <c r="N156" s="4" t="s">
-        <v>847</v>
+        <v>251</v>
       </c>
       <c r="O156" s="4" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="P156" s="4" t="s">
-        <v>995</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="157" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>712</v>
+        <v>80</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>2388</v>
+        <v>2385</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>861</v>
+        <v>340</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>856</v>
+        <v>177</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>857</v>
+        <v>165</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>2402</v>
+        <v>2399</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>858</v>
+        <v>213</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="N157" s="4" t="s">
-        <v>859</v>
+        <v>252</v>
       </c>
       <c r="O157" s="4" t="s">
-        <v>860</v>
+        <v>296</v>
       </c>
       <c r="P157" s="4" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="158" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>1167</v>
+        <v>1145</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>1166</v>
+        <v>47</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>1680</v>
+        <v>1611</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>2097</v>
+        <v>1838</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>2389</v>
+        <v>2295</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>1186</v>
+        <v>358</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>2111</v>
+        <v>1847</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>1187</v>
+        <v>359</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>1188</v>
+        <v>360</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>2125</v>
+        <v>1856</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>2403</v>
+        <v>2302</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>1189</v>
+        <v>361</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>1190</v>
+        <v>903</v>
       </c>
       <c r="N158" s="4" t="s">
-        <v>1191</v>
+        <v>847</v>
       </c>
       <c r="O158" s="4" t="s">
-        <v>1192</v>
+        <v>263</v>
       </c>
       <c r="P158" s="4" t="s">
-        <v>1193</v>
+        <v>995</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>2402</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="M159" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="N159" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="O159" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="P159" s="4" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="160" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>455</v>
+        <v>1167</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>452</v>
+        <v>1166</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>1868</v>
+        <v>2097</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>2214</v>
+        <v>2389</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>646</v>
+        <v>1186</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>1877</v>
+        <v>2111</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>649</v>
+        <v>1187</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>668</v>
+        <v>1188</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>2077</v>
-      </c>
-      <c r="K160" s="5" t="s">
-        <v>2223</v>
+        <v>2125</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>2403</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>695</v>
+        <v>1189</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>949</v>
+        <v>1190</v>
       </c>
       <c r="N160" s="4" t="s">
-        <v>653</v>
+        <v>1191</v>
       </c>
       <c r="O160" s="4" t="s">
-        <v>698</v>
+        <v>1192</v>
       </c>
       <c r="P160" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>1629</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>1894</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>2233</v>
-      </c>
-      <c r="F161" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>1910</v>
-      </c>
-      <c r="H161" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I161" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J161" s="4" t="s">
-        <v>1934</v>
-      </c>
-      <c r="K161" s="4" t="s">
-        <v>2250</v>
-      </c>
-      <c r="L161" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="M161" s="4" t="s">
-        <v>920</v>
-      </c>
-      <c r="N161" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O161" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="P161" s="4" t="s">
-        <v>1010</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="162" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>52</v>
+        <v>452</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>1627</v>
+        <v>1681</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>1893</v>
+        <v>1868</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>2231</v>
+        <v>2214</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>318</v>
+        <v>646</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>1909</v>
+        <v>1877</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>103</v>
+        <v>649</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>144</v>
+        <v>668</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>1932</v>
-      </c>
-      <c r="K162" s="4" t="s">
-        <v>2248</v>
+        <v>2077</v>
+      </c>
+      <c r="K162" s="5" t="s">
+        <v>2223</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>196</v>
+        <v>695</v>
       </c>
       <c r="M162" s="4" t="s">
-        <v>918</v>
+        <v>949</v>
       </c>
       <c r="N162" s="4" t="s">
-        <v>232</v>
+        <v>653</v>
       </c>
       <c r="O162" s="4" t="s">
-        <v>276</v>
+        <v>698</v>
       </c>
       <c r="P162" s="4" t="s">
-        <v>1008</v>
+        <v>452</v>
       </c>
     </row>
     <row r="163" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>453</v>
+        <v>0</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>1682</v>
+        <v>1629</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>2126</v>
+        <v>1894</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>647</v>
+        <v>320</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>2130</v>
+        <v>1910</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>650</v>
+        <v>105</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>669</v>
+        <v>146</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>2133</v>
+        <v>1934</v>
       </c>
       <c r="K163" s="4" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>683</v>
+        <v>105</v>
       </c>
       <c r="M163" s="4" t="s">
-        <v>950</v>
+        <v>920</v>
       </c>
       <c r="N163" s="4" t="s">
-        <v>654</v>
+        <v>105</v>
       </c>
       <c r="O163" s="4" t="s">
-        <v>620</v>
+        <v>278</v>
       </c>
       <c r="P163" s="4" t="s">
-        <v>1034</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="164" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>1928</v>
+        <v>1893</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>1929</v>
+        <v>1909</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>2249</v>
+        <v>2248</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M164" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="N164" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O164" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="P164" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="165" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>2404</v>
+        <v>2234</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>2407</v>
+        <v>2251</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M165" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="N165" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O165" s="4" t="s">
-        <v>699</v>
+        <v>620</v>
       </c>
       <c r="P165" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="166" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>1896</v>
+        <v>1928</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1908</v>
+        <v>1929</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M166" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="N166" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O166" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P166" s="4" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="167" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>56</v>
+        <v>454</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>1632</v>
+        <v>1683</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>1897</v>
+        <v>2127</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>2236</v>
+        <v>2404</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>323</v>
+        <v>648</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>1912</v>
+        <v>2131</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>107</v>
+        <v>651</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>149</v>
+        <v>670</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>1937</v>
+        <v>2134</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>2253</v>
+        <v>2407</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>199</v>
+        <v>684</v>
       </c>
       <c r="M167" s="4" t="s">
-        <v>922</v>
+        <v>951</v>
       </c>
       <c r="N167" s="4" t="s">
-        <v>235</v>
+        <v>655</v>
       </c>
       <c r="O167" s="4" t="s">
-        <v>280</v>
+        <v>699</v>
       </c>
       <c r="P167" s="4" t="s">
-        <v>1012</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="168" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>713</v>
+        <v>461</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M168" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="N168" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O168" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P168" s="4" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="169" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>1329</v>
+        <v>462</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>1176</v>
+        <v>56</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>1684</v>
+        <v>1632</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>2038</v>
+        <v>1897</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>2405</v>
+        <v>2236</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>1305</v>
+        <v>323</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>2053</v>
+        <v>1912</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>1306</v>
+        <v>107</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>1307</v>
+        <v>149</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>2069</v>
+        <v>1937</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>2408</v>
+        <v>2253</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>1308</v>
+        <v>199</v>
       </c>
       <c r="M169" s="4" t="s">
-        <v>1309</v>
+        <v>922</v>
       </c>
       <c r="N169" s="4" t="s">
-        <v>1310</v>
+        <v>235</v>
       </c>
       <c r="O169" s="4" t="s">
-        <v>1311</v>
+        <v>280</v>
       </c>
       <c r="P169" s="4" t="s">
-        <v>1312</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="170" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>1356</v>
+        <v>713</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>1355</v>
+        <v>57</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>1685</v>
+        <v>1633</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>2128</v>
+        <v>1898</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>2406</v>
+        <v>2237</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>1398</v>
+        <v>324</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>2132</v>
+        <v>1913</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>1423</v>
+        <v>108</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>1424</v>
+        <v>150</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>2135</v>
+        <v>1938</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>2409</v>
+        <v>2254</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>1425</v>
+        <v>200</v>
       </c>
       <c r="M170" s="4" t="s">
-        <v>1426</v>
+        <v>923</v>
       </c>
       <c r="N170" s="4" t="s">
-        <v>1427</v>
+        <v>236</v>
       </c>
       <c r="O170" s="4" t="s">
-        <v>1428</v>
+        <v>281</v>
       </c>
       <c r="P170" s="4" t="s">
-        <v>1429</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="171" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>1168</v>
+        <v>2558</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>1166</v>
+        <v>2560</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>1680</v>
+        <v>2565</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>2129</v>
+        <v>2561</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>2389</v>
+        <v>2566</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>1186</v>
+        <v>2567</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>2111</v>
+        <v>2564</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>1187</v>
+        <v>2562</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>1188</v>
+        <v>2563</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>2136</v>
+        <v>2568</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>2403</v>
+        <v>2569</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>1189</v>
+        <v>2570</v>
       </c>
       <c r="M171" s="4" t="s">
-        <v>1190</v>
+        <v>2571</v>
       </c>
       <c r="N171" s="4" t="s">
-        <v>1191</v>
+        <v>2572</v>
       </c>
       <c r="O171" s="4" t="s">
-        <v>1192</v>
+        <v>2573</v>
       </c>
       <c r="P171" s="4" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>2578</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>2576</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>2583</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>2584</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>2585</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>2586</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>2587</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>2588</v>
+      </c>
+      <c r="K172" s="4" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L172" s="4" t="s">
+        <v>2590</v>
+      </c>
+      <c r="M172" s="4" t="s">
+        <v>2591</v>
+      </c>
+      <c r="N172" s="4" t="s">
+        <v>2592</v>
+      </c>
+      <c r="O172" s="4" t="s">
+        <v>2580</v>
+      </c>
+      <c r="P172" s="4" t="s">
+        <v>2579</v>
+      </c>
+    </row>
     <row r="173" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>709</v>
+        <v>1329</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>452</v>
+        <v>1176</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>1868</v>
+        <v>2038</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>2214</v>
+        <v>2405</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>646</v>
+        <v>1305</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>1877</v>
+        <v>2053</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>649</v>
+        <v>1306</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>668</v>
+        <v>1307</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>2077</v>
-      </c>
-      <c r="K173" s="5" t="s">
-        <v>2223</v>
+        <v>2069</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>2408</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>695</v>
+        <v>1308</v>
       </c>
       <c r="M173" s="4" t="s">
-        <v>949</v>
+        <v>1309</v>
       </c>
       <c r="N173" s="4" t="s">
-        <v>653</v>
+        <v>1310</v>
       </c>
       <c r="O173" s="4" t="s">
-        <v>698</v>
+        <v>1311</v>
       </c>
       <c r="P173" s="4" t="s">
-        <v>452</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="174" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K174" s="5"/>
+      <c r="A174" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>2406</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>2132</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="J174" s="4" t="s">
+        <v>2135</v>
+      </c>
+      <c r="K174" s="4" t="s">
+        <v>2409</v>
+      </c>
+      <c r="L174" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M174" s="4" t="s">
+        <v>1426</v>
+      </c>
+      <c r="N174" s="4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="O174" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="P174" s="4" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="175" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>475</v>
+        <v>1168</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>53</v>
+        <v>1166</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>1628</v>
+        <v>1680</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>1928</v>
+        <v>2129</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>2232</v>
+        <v>2389</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>319</v>
+        <v>1186</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>1929</v>
+        <v>2111</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>104</v>
+        <v>1187</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>145</v>
+        <v>1188</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>1933</v>
+        <v>2136</v>
       </c>
       <c r="K175" s="4" t="s">
-        <v>2249</v>
+        <v>2403</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>197</v>
+        <v>1189</v>
       </c>
       <c r="M175" s="4" t="s">
-        <v>919</v>
+        <v>1190</v>
       </c>
       <c r="N175" s="4" t="s">
-        <v>233</v>
+        <v>1191</v>
       </c>
       <c r="O175" s="4" t="s">
-        <v>277</v>
+        <v>1192</v>
       </c>
       <c r="P175" s="4" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>1632</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>1897</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>2236</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="G176" s="4" t="s">
-        <v>1912</v>
-      </c>
-      <c r="H176" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I176" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J176" s="4" t="s">
-        <v>1937</v>
-      </c>
-      <c r="K176" s="4" t="s">
-        <v>2253</v>
-      </c>
-      <c r="L176" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="M176" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="N176" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="O176" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="P176" s="4" t="s">
-        <v>1012</v>
-      </c>
-    </row>
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="177" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>477</v>
+        <v>709</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>55</v>
+        <v>452</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>1631</v>
+        <v>1681</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>1896</v>
+        <v>1868</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>2235</v>
+        <v>2214</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>322</v>
+        <v>646</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>1908</v>
+        <v>1877</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>106</v>
+        <v>649</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>148</v>
+        <v>668</v>
       </c>
       <c r="J177" s="4" t="s">
-        <v>1936</v>
-      </c>
-      <c r="K177" s="4" t="s">
-        <v>2252</v>
+        <v>2077</v>
+      </c>
+      <c r="K177" s="5" t="s">
+        <v>2223</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>198</v>
+        <v>695</v>
       </c>
       <c r="M177" s="4" t="s">
-        <v>921</v>
+        <v>949</v>
       </c>
       <c r="N177" s="4" t="s">
-        <v>234</v>
+        <v>653</v>
       </c>
       <c r="O177" s="4" t="s">
-        <v>279</v>
+        <v>698</v>
       </c>
       <c r="P177" s="4" t="s">
-        <v>1011</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>1898</v>
-      </c>
-      <c r="E178" s="4" t="s">
-        <v>2237</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>1913</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="I178" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J178" s="4" t="s">
-        <v>1938</v>
-      </c>
-      <c r="K178" s="4" t="s">
-        <v>2254</v>
-      </c>
-      <c r="L178" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="M178" s="4" t="s">
-        <v>923</v>
-      </c>
-      <c r="N178" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O178" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="P178" s="4" t="s">
-        <v>1013</v>
-      </c>
+      <c r="K178" s="5"/>
     </row>
     <row r="179" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1893</v>
+        <v>1928</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>1909</v>
+        <v>1929</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M179" s="4" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="N179" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O179" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P179" s="4" t="s">
-        <v>1008</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="180" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>1158</v>
+        <v>476</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>1159</v>
+        <v>56</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1686</v>
+        <v>1632</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>1871</v>
+        <v>1897</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>2217</v>
+        <v>2236</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>1880</v>
+        <v>1912</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>1864</v>
+        <v>1937</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>2410</v>
+        <v>2253</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="N180" s="4" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="O180" s="4" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="P180" s="4" t="s">
-        <v>1003</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="181" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>453</v>
+        <v>55</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1682</v>
+        <v>1631</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>2126</v>
+        <v>1896</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>647</v>
+        <v>322</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>2130</v>
+        <v>1908</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>652</v>
+        <v>106</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>669</v>
+        <v>148</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>2133</v>
+        <v>1936</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>683</v>
+        <v>198</v>
       </c>
       <c r="M181" s="4" t="s">
-        <v>952</v>
+        <v>921</v>
       </c>
       <c r="N181" s="4" t="s">
-        <v>654</v>
+        <v>234</v>
       </c>
       <c r="O181" s="4" t="s">
-        <v>620</v>
+        <v>279</v>
       </c>
       <c r="P181" s="4" t="s">
-        <v>1053</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="182" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>463</v>
+        <v>57</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>1707</v>
+        <v>1633</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>2173</v>
+        <v>1898</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>2495</v>
+        <v>2237</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>744</v>
+        <v>324</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>2185</v>
+        <v>1913</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>768</v>
+        <v>108</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>682</v>
+        <v>150</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>2197</v>
+        <v>1938</v>
       </c>
       <c r="K182" s="4" t="s">
-        <v>2507</v>
+        <v>2254</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>685</v>
+        <v>200</v>
       </c>
       <c r="M182" s="4" t="s">
-        <v>953</v>
+        <v>923</v>
       </c>
       <c r="N182" s="4" t="s">
-        <v>656</v>
+        <v>236</v>
       </c>
       <c r="O182" s="4" t="s">
-        <v>840</v>
+        <v>281</v>
       </c>
       <c r="P182" s="4" t="s">
-        <v>1079</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="183" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>481</v>
+        <v>2559</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>464</v>
+        <v>2560</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>1708</v>
+        <v>2565</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>2174</v>
+        <v>2561</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>2496</v>
+        <v>2566</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>750</v>
+        <v>2567</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>2186</v>
+        <v>2564</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>769</v>
+        <v>2562</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>681</v>
+        <v>2563</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>2198</v>
+        <v>2568</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>2508</v>
+        <v>2569</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>696</v>
+        <v>2570</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>954</v>
+        <v>2571</v>
       </c>
       <c r="N183" s="4" t="s">
-        <v>660</v>
+        <v>2572</v>
       </c>
       <c r="O183" s="4" t="s">
-        <v>841</v>
+        <v>2573</v>
       </c>
       <c r="P183" s="4" t="s">
-        <v>1080</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="184" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>482</v>
+        <v>2577</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>465</v>
+        <v>2576</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>1709</v>
+        <v>2581</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>2175</v>
+        <v>2582</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>2497</v>
+        <v>2583</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>751</v>
+        <v>2584</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>2187</v>
+        <v>2585</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>770</v>
+        <v>2586</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>680</v>
+        <v>2587</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>2199</v>
+        <v>2588</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>2509</v>
+        <v>2589</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>697</v>
+        <v>2590</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>955</v>
+        <v>2591</v>
       </c>
       <c r="N184" s="4" t="s">
-        <v>659</v>
+        <v>2592</v>
       </c>
       <c r="O184" s="4" t="s">
-        <v>842</v>
+        <v>2580</v>
       </c>
       <c r="P184" s="4" t="s">
-        <v>1081</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="185" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>483</v>
+        <v>1158</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>466</v>
+        <v>1159</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>1710</v>
+        <v>1686</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>2176</v>
+        <v>1871</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>2498</v>
+        <v>2217</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>752</v>
+        <v>313</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>2188</v>
+        <v>1880</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>779</v>
+        <v>98</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>671</v>
+        <v>139</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>2200</v>
+        <v>1864</v>
       </c>
       <c r="K185" s="4" t="s">
-        <v>2510</v>
+        <v>2410</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>686</v>
+        <v>191</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>956</v>
+        <v>913</v>
       </c>
       <c r="N185" s="4" t="s">
-        <v>657</v>
+        <v>228</v>
       </c>
       <c r="O185" s="4" t="s">
-        <v>700</v>
+        <v>271</v>
       </c>
       <c r="P185" s="4" t="s">
-        <v>1070</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="186" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>467</v>
+        <v>52</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>1711</v>
+        <v>1627</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>2177</v>
+        <v>1893</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>2499</v>
+        <v>2231</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>753</v>
+        <v>318</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>2189</v>
+        <v>1909</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>771</v>
+        <v>103</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>672</v>
+        <v>144</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>2201</v>
+        <v>1932</v>
       </c>
       <c r="K186" s="4" t="s">
-        <v>2511</v>
+        <v>2248</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>687</v>
+        <v>196</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>1090</v>
+        <v>918</v>
       </c>
       <c r="N186" s="4" t="s">
-        <v>661</v>
+        <v>232</v>
       </c>
       <c r="O186" s="4" t="s">
-        <v>701</v>
+        <v>276</v>
       </c>
       <c r="P186" s="4" t="s">
-        <v>1071</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="187" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>1712</v>
+        <v>1682</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>2178</v>
+        <v>2126</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>2500</v>
+        <v>2234</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>745</v>
+        <v>647</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>2190</v>
+        <v>2130</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>772</v>
+        <v>652</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>2202</v>
+        <v>2133</v>
       </c>
       <c r="K187" s="4" t="s">
-        <v>2512</v>
+        <v>2251</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>1091</v>
+        <v>952</v>
       </c>
       <c r="N187" s="4" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="O187" s="4" t="s">
-        <v>702</v>
+        <v>620</v>
       </c>
       <c r="P187" s="4" t="s">
-        <v>1072</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="188" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>2179</v>
+        <v>2173</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>2501</v>
+        <v>2495</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="K188" s="4" t="s">
-        <v>2513</v>
+        <v>2507</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="N188" s="4" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="O188" s="4" t="s">
-        <v>704</v>
+        <v>840</v>
       </c>
       <c r="P188" s="4" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="189" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>2180</v>
+        <v>2174</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>2502</v>
+        <v>2496</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="N189" s="4" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="O189" s="4" t="s">
-        <v>705</v>
+        <v>841</v>
       </c>
       <c r="P189" s="4" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="190" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>2181</v>
+        <v>2175</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>2503</v>
+        <v>2497</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>2515</v>
+        <v>2509</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="N190" s="4" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="O190" s="4" t="s">
-        <v>703</v>
+        <v>842</v>
       </c>
       <c r="P190" s="4" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>2182</v>
+        <v>2176</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>2504</v>
+        <v>2498</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>2516</v>
+        <v>2510</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="M191" s="4" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="N191" s="4" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="O191" s="4" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="P191" s="4" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="192" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>2183</v>
+        <v>2177</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>2505</v>
+        <v>2499</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>2517</v>
+        <v>2511</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>961</v>
+        <v>1090</v>
       </c>
       <c r="N192" s="4" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="O192" s="4" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="P192" s="4" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="193" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>2184</v>
+        <v>2178</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>2506</v>
+        <v>2500</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>2208</v>
+        <v>2202</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>2518</v>
+        <v>2512</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>962</v>
+        <v>1091</v>
       </c>
       <c r="N193" s="4" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="O193" s="4" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="P193" s="4" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>720</v>
+        <v>486</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>732</v>
+        <v>469</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>1695</v>
+        <v>1713</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>2137</v>
+        <v>2179</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>2483</v>
+        <v>2501</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>2138</v>
+        <v>2191</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>792</v>
+        <v>674</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>2139</v>
+        <v>2203</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>2519</v>
+        <v>2513</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>804</v>
+        <v>689</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="N194" s="4" t="s">
-        <v>816</v>
+        <v>662</v>
       </c>
       <c r="O194" s="4" t="s">
-        <v>828</v>
+        <v>704</v>
       </c>
       <c r="P194" s="4" t="s">
-        <v>1058</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="195" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>721</v>
+        <v>487</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>733</v>
+        <v>470</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>1696</v>
+        <v>1714</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>2140</v>
+        <v>2180</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>2484</v>
+        <v>2502</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>2151</v>
+        <v>2192</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>793</v>
+        <v>675</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>2162</v>
+        <v>2204</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>2520</v>
+        <v>2514</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>805</v>
+        <v>690</v>
       </c>
       <c r="M195" s="4" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="N195" s="4" t="s">
-        <v>817</v>
+        <v>663</v>
       </c>
       <c r="O195" s="4" t="s">
-        <v>829</v>
+        <v>705</v>
       </c>
       <c r="P195" s="4" t="s">
-        <v>1059</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>722</v>
+        <v>488</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>734</v>
+        <v>471</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>1697</v>
+        <v>1715</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>2141</v>
+        <v>2181</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>2485</v>
+        <v>2503</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>2152</v>
+        <v>2193</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>794</v>
+        <v>676</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>2163</v>
+        <v>2205</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>2521</v>
+        <v>2515</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>806</v>
+        <v>691</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="N196" s="4" t="s">
-        <v>818</v>
+        <v>664</v>
       </c>
       <c r="O196" s="4" t="s">
-        <v>830</v>
+        <v>703</v>
       </c>
       <c r="P196" s="4" t="s">
-        <v>1060</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>723</v>
+        <v>489</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>735</v>
+        <v>472</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1698</v>
+        <v>1716</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>2142</v>
+        <v>2182</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>2486</v>
+        <v>2504</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>2153</v>
+        <v>2194</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>795</v>
+        <v>677</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>2164</v>
+        <v>2206</v>
       </c>
       <c r="K197" s="4" t="s">
-        <v>2522</v>
+        <v>2516</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>807</v>
+        <v>692</v>
       </c>
       <c r="M197" s="4" t="s">
-        <v>1093</v>
+        <v>960</v>
       </c>
       <c r="N197" s="4" t="s">
-        <v>819</v>
+        <v>665</v>
       </c>
       <c r="O197" s="4" t="s">
-        <v>831</v>
+        <v>706</v>
       </c>
       <c r="P197" s="4" t="s">
-        <v>1061</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="198" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>724</v>
+        <v>490</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>736</v>
+        <v>473</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>1699</v>
+        <v>1717</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>2143</v>
+        <v>2183</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>2487</v>
+        <v>2505</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>2154</v>
+        <v>2195</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>796</v>
+        <v>678</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>2165</v>
+        <v>2207</v>
       </c>
       <c r="K198" s="4" t="s">
-        <v>2523</v>
+        <v>2517</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>808</v>
+        <v>693</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>1092</v>
+        <v>961</v>
       </c>
       <c r="N198" s="4" t="s">
-        <v>820</v>
+        <v>666</v>
       </c>
       <c r="O198" s="4" t="s">
-        <v>832</v>
+        <v>707</v>
       </c>
       <c r="P198" s="4" t="s">
-        <v>1062</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="199" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>725</v>
+        <v>491</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>737</v>
+        <v>474</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>1700</v>
+        <v>1718</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>2144</v>
+        <v>2184</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>2488</v>
+        <v>2506</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>2155</v>
+        <v>2196</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>797</v>
+        <v>679</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>2166</v>
+        <v>2208</v>
       </c>
       <c r="K199" s="4" t="s">
-        <v>2524</v>
+        <v>2518</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>809</v>
+        <v>694</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>1094</v>
+        <v>962</v>
       </c>
       <c r="N199" s="4" t="s">
-        <v>821</v>
+        <v>667</v>
       </c>
       <c r="O199" s="4" t="s">
-        <v>833</v>
+        <v>708</v>
       </c>
       <c r="P199" s="4" t="s">
-        <v>1063</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="200" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>2145</v>
+        <v>2137</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>2489</v>
+        <v>2483</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>2156</v>
+        <v>2138</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="J200" s="4" t="s">
-        <v>2167</v>
+        <v>2139</v>
       </c>
       <c r="K200" s="4" t="s">
-        <v>2525</v>
+        <v>2519</v>
       </c>
       <c r="L200" s="4" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="M200" s="4" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="N200" s="4" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="O200" s="4" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="P200" s="4" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="201" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>2146</v>
+        <v>2140</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>2490</v>
+        <v>2484</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="J201" s="4" t="s">
-        <v>2168</v>
+        <v>2162</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>2526</v>
+        <v>2520</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="N201" s="4" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="O201" s="4" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="P201" s="4" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>2147</v>
+        <v>2141</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>2491</v>
+        <v>2485</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>2158</v>
+        <v>2152</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="J202" s="4" t="s">
-        <v>2169</v>
+        <v>2163</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>2527</v>
+        <v>2521</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="N202" s="4" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="O202" s="4" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="P202" s="4" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>2148</v>
+        <v>2142</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>2492</v>
+        <v>2486</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>2159</v>
+        <v>2153</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>2170</v>
+        <v>2164</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>2528</v>
+        <v>2522</v>
       </c>
       <c r="L203" s="4" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>969</v>
+        <v>1093</v>
       </c>
       <c r="N203" s="4" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="O203" s="4" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="P203" s="4" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>2149</v>
+        <v>2143</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>2493</v>
+        <v>2487</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>2160</v>
+        <v>2154</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="J204" s="4" t="s">
-        <v>2171</v>
+        <v>2165</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>2529</v>
+        <v>2523</v>
       </c>
       <c r="L204" s="4" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>970</v>
+        <v>1092</v>
       </c>
       <c r="N204" s="4" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="O204" s="4" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="P204" s="4" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="205" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>2150</v>
+        <v>2144</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>2494</v>
+        <v>2488</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>2161</v>
+        <v>2155</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="J205" s="4" t="s">
-        <v>2172</v>
+        <v>2166</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>2530</v>
+        <v>2524</v>
       </c>
       <c r="L205" s="4" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>971</v>
+        <v>1094</v>
       </c>
       <c r="N205" s="4" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="O205" s="4" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="P205" s="4" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>2145</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>2489</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="G206" s="4" t="s">
+        <v>2156</v>
+      </c>
+      <c r="H206" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="I206" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="J206" s="4" t="s">
+        <v>2167</v>
+      </c>
+      <c r="K206" s="4" t="s">
+        <v>2525</v>
+      </c>
+      <c r="L206" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="M206" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="N206" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="O206" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="P206" s="4" t="s">
+        <v>1064</v>
+      </c>
+    </row>
     <row r="207" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>1117</v>
+        <v>727</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>1121</v>
+        <v>739</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>1687</v>
+        <v>1702</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>1968</v>
+        <v>2146</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>2411</v>
+        <v>2490</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>1242</v>
+        <v>749</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>1972</v>
+        <v>2157</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>1241</v>
+        <v>786</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>1121</v>
+        <v>799</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>1976</v>
+        <v>2168</v>
       </c>
       <c r="K207" s="4" t="s">
-        <v>2415</v>
+        <v>2526</v>
       </c>
       <c r="L207" s="4" t="s">
-        <v>1259</v>
+        <v>811</v>
       </c>
       <c r="M207" s="4" t="s">
-        <v>1258</v>
+        <v>967</v>
       </c>
       <c r="N207" s="4" t="s">
-        <v>1241</v>
+        <v>823</v>
       </c>
       <c r="O207" s="4" t="s">
-        <v>1260</v>
+        <v>835</v>
       </c>
       <c r="P207" s="4" t="s">
-        <v>1261</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="208" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>1118</v>
+        <v>728</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>1122</v>
+        <v>740</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>1688</v>
+        <v>1703</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>1969</v>
+        <v>2147</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>2412</v>
+        <v>2491</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>1244</v>
+        <v>764</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>1973</v>
+        <v>2158</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>1245</v>
+        <v>787</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>1243</v>
+        <v>800</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>1977</v>
+        <v>2169</v>
       </c>
       <c r="K208" s="4" t="s">
-        <v>2416</v>
+        <v>2527</v>
       </c>
       <c r="L208" s="4" t="s">
-        <v>1255</v>
+        <v>812</v>
       </c>
       <c r="M208" s="4" t="s">
-        <v>1256</v>
+        <v>968</v>
       </c>
       <c r="N208" s="4" t="s">
-        <v>1257</v>
+        <v>824</v>
       </c>
       <c r="O208" s="4" t="s">
-        <v>1267</v>
+        <v>836</v>
       </c>
       <c r="P208" s="4" t="s">
-        <v>1266</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="209" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>1119</v>
+        <v>729</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>1123</v>
+        <v>741</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>1689</v>
+        <v>1704</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>1970</v>
+        <v>2148</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>2413</v>
+        <v>2492</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>1247</v>
+        <v>765</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>1974</v>
+        <v>2159</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>1246</v>
+        <v>788</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>1248</v>
+        <v>801</v>
       </c>
       <c r="J209" s="4" t="s">
-        <v>1978</v>
+        <v>2170</v>
       </c>
       <c r="K209" s="4" t="s">
-        <v>2417</v>
+        <v>2528</v>
       </c>
       <c r="L209" s="4" t="s">
-        <v>1253</v>
+        <v>813</v>
       </c>
       <c r="M209" s="4" t="s">
-        <v>1254</v>
+        <v>969</v>
       </c>
       <c r="N209" s="4" t="s">
-        <v>1246</v>
+        <v>825</v>
       </c>
       <c r="O209" s="4" t="s">
-        <v>1264</v>
+        <v>837</v>
       </c>
       <c r="P209" s="4" t="s">
-        <v>1265</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="210" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>1120</v>
+        <v>730</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>1124</v>
+        <v>742</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>1690</v>
+        <v>1705</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>1971</v>
+        <v>2149</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>2414</v>
+        <v>2493</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>1251</v>
+        <v>766</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>1975</v>
+        <v>2160</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>1250</v>
+        <v>789</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>1249</v>
+        <v>802</v>
       </c>
       <c r="J210" s="4" t="s">
-        <v>1979</v>
+        <v>2171</v>
       </c>
       <c r="K210" s="4" t="s">
-        <v>2418</v>
+        <v>2529</v>
       </c>
       <c r="L210" s="4" t="s">
-        <v>1250</v>
+        <v>814</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>1252</v>
+        <v>970</v>
       </c>
       <c r="N210" s="4" t="s">
-        <v>1250</v>
+        <v>826</v>
       </c>
       <c r="O210" s="4" t="s">
-        <v>1263</v>
+        <v>838</v>
       </c>
       <c r="P210" s="4" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>2419</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G212" s="4" t="s">
-        <v>1851</v>
-      </c>
-      <c r="H212" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I212" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J212" s="4" t="s">
-        <v>1958</v>
-      </c>
-      <c r="K212" s="4" t="s">
-        <v>2421</v>
-      </c>
-      <c r="L212" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M212" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="N212" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="O212" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="P212" s="4" t="s">
-        <v>999</v>
-      </c>
-    </row>
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>2494</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>2161</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="I211" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>2172</v>
+      </c>
+      <c r="K211" s="4" t="s">
+        <v>2530</v>
+      </c>
+      <c r="L211" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="M211" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="N211" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="O211" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="P211" s="4" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="213" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>38</v>
+        <v>1117</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>84</v>
+        <v>1121</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>1956</v>
+        <v>1968</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>2420</v>
+        <v>2411</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>84</v>
+        <v>1242</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>1957</v>
+        <v>1972</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>122</v>
+        <v>1241</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>84</v>
+        <v>1121</v>
       </c>
       <c r="J213" s="4" t="s">
-        <v>1959</v>
+        <v>1976</v>
       </c>
       <c r="K213" s="4" t="s">
-        <v>2422</v>
+        <v>2415</v>
       </c>
       <c r="L213" s="4" t="s">
-        <v>215</v>
+        <v>1259</v>
       </c>
       <c r="M213" s="4" t="s">
-        <v>972</v>
+        <v>1258</v>
       </c>
       <c r="N213" s="4" t="s">
-        <v>253</v>
+        <v>1241</v>
       </c>
       <c r="O213" s="4" t="s">
-        <v>298</v>
+        <v>1260</v>
       </c>
       <c r="P213" s="4" t="s">
-        <v>1036</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="214" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>39</v>
+        <v>1118</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>85</v>
+        <v>1122</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>2424</v>
+        <v>2412</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>342</v>
+        <v>1244</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>1962</v>
+        <v>1973</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>123</v>
+        <v>1245</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>167</v>
+        <v>1243</v>
       </c>
       <c r="J214" s="4" t="s">
-        <v>1960</v>
+        <v>1977</v>
       </c>
       <c r="K214" s="4" t="s">
-        <v>2423</v>
+        <v>2416</v>
       </c>
       <c r="L214" s="4" t="s">
-        <v>216</v>
+        <v>1255</v>
       </c>
       <c r="M214" s="4" t="s">
-        <v>973</v>
+        <v>1256</v>
       </c>
       <c r="N214" s="4" t="s">
-        <v>254</v>
+        <v>1257</v>
       </c>
       <c r="O214" s="4" t="s">
-        <v>299</v>
+        <v>1267</v>
       </c>
       <c r="P214" s="4" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>2413</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G215" s="4" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I215" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J215" s="4" t="s">
+        <v>1978</v>
+      </c>
+      <c r="K215" s="4" t="s">
+        <v>2417</v>
+      </c>
+      <c r="L215" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="M215" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="N215" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="O215" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="P215" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
     <row r="216" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>2414</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>1975</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I216" s="4" t="s">
+        <v>1249</v>
+      </c>
+      <c r="J216" s="4" t="s">
+        <v>1979</v>
+      </c>
+      <c r="K216" s="4" t="s">
+        <v>2418</v>
+      </c>
+      <c r="L216" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="M216" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="N216" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="O216" s="4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="P216" s="4" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>2419</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G218" s="4" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I218" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J218" s="4" t="s">
+        <v>1958</v>
+      </c>
+      <c r="K218" s="4" t="s">
+        <v>2421</v>
+      </c>
+      <c r="L218" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="M218" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="N218" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="O218" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="P218" s="4" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>2420</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G219" s="4" t="s">
+        <v>1957</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I219" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J219" s="4" t="s">
+        <v>1959</v>
+      </c>
+      <c r="K219" s="4" t="s">
+        <v>2422</v>
+      </c>
+      <c r="L219" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="M219" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="N219" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O219" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="P219" s="4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>2424</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I220" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="J220" s="4" t="s">
+        <v>1960</v>
+      </c>
+      <c r="K220" s="4" t="s">
+        <v>2423</v>
+      </c>
+      <c r="L220" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="M220" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="N220" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="O220" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="P220" s="4" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B222" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C222" s="4" t="s">
         <v>1691</v>
       </c>
-      <c r="D216" s="4" t="s">
+      <c r="D222" s="4" t="s">
         <v>1963</v>
       </c>
-      <c r="E216" s="4" t="s">
+      <c r="E222" s="4" t="s">
         <v>2425</v>
       </c>
-      <c r="F216" s="4" t="s">
+      <c r="F222" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G216" s="4" t="s">
+      <c r="G222" s="4" t="s">
         <v>1849</v>
       </c>
-      <c r="H216" s="4" t="s">
+      <c r="H222" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I216" s="4" t="s">
+      <c r="I222" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J216" s="4" t="s">
+      <c r="J222" s="4" t="s">
         <v>1964</v>
       </c>
-      <c r="K216" s="4" t="s">
+      <c r="K222" s="4" t="s">
         <v>2428</v>
       </c>
-      <c r="L216" s="4" t="s">
+      <c r="L222" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="M216" s="4" t="s">
+      <c r="M222" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="N216" s="4" t="s">
+      <c r="N222" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="O216" s="4" t="s">
+      <c r="O222" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="P216" s="4" t="s">
+      <c r="P222" s="4" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="217" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+    <row r="223" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B223" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C223" s="4" t="s">
         <v>1692</v>
       </c>
-      <c r="D217" s="4" t="s">
+      <c r="D223" s="4" t="s">
         <v>1965</v>
       </c>
-      <c r="E217" s="4" t="s">
+      <c r="E223" s="4" t="s">
         <v>2426</v>
       </c>
-      <c r="F217" s="4" t="s">
+      <c r="F223" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G217" s="4" t="s">
+      <c r="G223" s="4" t="s">
         <v>1966</v>
       </c>
-      <c r="H217" s="4" t="s">
+      <c r="H223" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I217" s="4" t="s">
+      <c r="I223" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J217" s="4" t="s">
+      <c r="J223" s="4" t="s">
         <v>1967</v>
       </c>
-      <c r="K217" s="4" t="s">
+      <c r="K223" s="4" t="s">
         <v>2427</v>
       </c>
-      <c r="L217" s="4" t="s">
+      <c r="L223" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M217" s="4" t="s">
+      <c r="M223" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="N217" s="4" t="s">
+      <c r="N223" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="O217" s="4" t="s">
+      <c r="O223" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="P217" s="4" t="s">
+      <c r="P223" s="4" t="s">
         <v>1039</v>
       </c>
     </row>

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II_Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8B3C71-BB04-4F46-BD19-CC4CDC2E1C71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A1CFED-35BF-4F45-8CEE-4B2A1447DF78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="2593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6302" uniqueCount="2609">
   <si>
     <t>Temperature</t>
   </si>
@@ -7804,6 +7804,54 @@
   </si>
   <si>
     <t>Pressão abdominal</t>
+  </si>
+  <si>
+    <t>DEFIB:Charged</t>
+  </si>
+  <si>
+    <t>Charged</t>
+  </si>
+  <si>
+    <t>सक्रिय</t>
+  </si>
+  <si>
+    <t>通电</t>
+  </si>
+  <si>
+    <t>ኃይል</t>
+  </si>
+  <si>
+    <t>تنشيط</t>
+  </si>
+  <si>
+    <t>Energetisiert</t>
+  </si>
+  <si>
+    <t>انرژی</t>
+  </si>
+  <si>
+    <t>Energizada</t>
+  </si>
+  <si>
+    <t>אנרגטית</t>
+  </si>
+  <si>
+    <t>Energie prête</t>
+  </si>
+  <si>
+    <t>Energia pronta</t>
+  </si>
+  <si>
+    <t>에너지 준비</t>
+  </si>
+  <si>
+    <t>энергия готова</t>
+  </si>
+  <si>
+    <t>Nishati tayari</t>
+  </si>
+  <si>
+    <t>Automatic Mode</t>
   </si>
 </sst>
 </file>
@@ -8175,11 +8223,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P223"/>
+  <dimension ref="A1:P224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12444,7 +12492,7 @@
         <v>1343</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>1342</v>
+        <v>2608</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>1653</v>
@@ -12841,5189 +12889,5239 @@
     </row>
     <row r="112" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>1362</v>
+        <v>2593</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>1363</v>
+        <v>2594</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1656</v>
+        <v>2597</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>1992</v>
+        <v>2598</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>2316</v>
+        <v>2596</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>1385</v>
+        <v>2599</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>2007</v>
+        <v>2600</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>1408</v>
+        <v>2601</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>1445</v>
+        <v>2603</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>2023</v>
+        <v>2602</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>2332</v>
+        <v>2595</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>1467</v>
+        <v>2604</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>1488</v>
+        <v>2605</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>1520</v>
+        <v>2604</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>1543</v>
+        <v>2606</v>
       </c>
       <c r="P112" s="4" t="s">
-        <v>1562</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>1375</v>
+        <v>1362</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>2320</v>
+        <v>2316</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>1389</v>
+        <v>1408</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>1389</v>
+        <v>1445</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>2028</v>
+        <v>2023</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>2337</v>
+        <v>2332</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>1389</v>
+        <v>1467</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>1533</v>
+        <v>1543</v>
       </c>
       <c r="P113" s="4" t="s">
-        <v>1389</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>1661</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>2035</v>
+        <v>1996</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>2321</v>
+        <v>2320</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>1389</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>2034</v>
+        <v>2012</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>1389</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>2036</v>
+        <v>2028</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="P114" s="4" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="115" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>1367</v>
+        <v>1376</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>1997</v>
+        <v>2035</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>2322</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>1392</v>
+        <v>2321</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>2013</v>
-      </c>
-      <c r="H115" s="4" t="s">
-        <v>1412</v>
-      </c>
-      <c r="I115" s="4" t="s">
-        <v>1448</v>
+        <v>2034</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>2029</v>
+        <v>2036</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>1470</v>
+        <v>1388</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>1512</v>
+        <v>1517</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>1566</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="116" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>1990</v>
+        <v>1997</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>2314</v>
+        <v>2322</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>1383</v>
+        <v>1392</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="P116" s="4" t="s">
-        <v>1561</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="117" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>1998</v>
+        <v>1990</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>2323</v>
+        <v>2314</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>1393</v>
+        <v>1383</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="P117" s="4" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="N118" s="4" t="s">
-        <v>1514</v>
+        <v>1519</v>
       </c>
       <c r="O118" s="4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="P118" s="4" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>1999</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>2324</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>2015</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>2342</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="M119" s="4" t="s">
+        <v>1494</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>1514</v>
+      </c>
+      <c r="O119" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="P119" s="4" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>1373</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B120" s="4" t="s">
         <v>1374</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>1666</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D120" s="4" t="s">
         <v>2000</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E120" s="4" t="s">
         <v>2325</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F120" s="4" t="s">
         <v>1395</v>
       </c>
-      <c r="G119" s="4" t="s">
+      <c r="G120" s="4" t="s">
         <v>2016</v>
       </c>
-      <c r="H119" s="4" t="s">
+      <c r="H120" s="4" t="s">
         <v>1416</v>
       </c>
-      <c r="I119" s="4" t="s">
+      <c r="I120" s="4" t="s">
         <v>1452</v>
       </c>
-      <c r="J119" s="4" t="s">
+      <c r="J120" s="4" t="s">
         <v>2033</v>
       </c>
-      <c r="K119" s="4" t="s">
+      <c r="K120" s="4" t="s">
         <v>2343</v>
       </c>
-      <c r="L119" s="4" t="s">
+      <c r="L120" s="4" t="s">
         <v>1474</v>
       </c>
-      <c r="M119" s="4" t="s">
+      <c r="M120" s="4" t="s">
         <v>1495</v>
       </c>
-      <c r="N119" s="4" t="s">
+      <c r="N120" s="4" t="s">
         <v>1515</v>
       </c>
-      <c r="O119" s="4" t="s">
+      <c r="O120" s="4" t="s">
         <v>1532</v>
       </c>
-      <c r="P119" s="4" t="s">
+      <c r="P120" s="4" t="s">
         <v>1560</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>1719</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>1980</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>2344</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>1390</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>2051</v>
-      </c>
-      <c r="H121" s="4" t="s">
-        <v>1417</v>
-      </c>
-      <c r="I121" s="4" t="s">
-        <v>1430</v>
-      </c>
-      <c r="J121" s="4" t="s">
-        <v>2067</v>
-      </c>
-      <c r="K121" s="4" t="s">
-        <v>2354</v>
-      </c>
-      <c r="L121" s="4" t="s">
-        <v>1417</v>
-      </c>
-      <c r="M121" s="4" t="s">
-        <v>1477</v>
-      </c>
-      <c r="N121" s="4" t="s">
-        <v>1417</v>
-      </c>
-      <c r="O121" s="4" t="s">
-        <v>1547</v>
-      </c>
-      <c r="P121" s="4" t="s">
-        <v>1567</v>
-      </c>
-    </row>
+    <row r="121" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>1169</v>
+        <v>1324</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>1170</v>
+        <v>1327</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>2037</v>
+        <v>1980</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>1304</v>
+        <v>1390</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>1296</v>
+        <v>1417</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>1297</v>
+        <v>1430</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>1299</v>
+        <v>1417</v>
       </c>
       <c r="M122" s="4" t="s">
-        <v>1300</v>
+        <v>1477</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>1301</v>
+        <v>1417</v>
       </c>
       <c r="O122" s="4" t="s">
-        <v>1302</v>
+        <v>1547</v>
       </c>
       <c r="P122" s="4" t="s">
-        <v>1303</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="123" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="M123" s="4" t="s">
-        <v>1309</v>
+        <v>1300</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>1310</v>
+        <v>1301</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>1311</v>
+        <v>1302</v>
       </c>
       <c r="P123" s="4" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="124" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>1325</v>
+        <v>1175</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>1328</v>
+        <v>1176</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>1328</v>
+        <v>1305</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>1418</v>
+        <v>1306</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>1431</v>
+        <v>1307</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>1453</v>
+        <v>1308</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>1496</v>
+        <v>1309</v>
       </c>
       <c r="N124" s="4" t="s">
-        <v>1431</v>
+        <v>1310</v>
       </c>
       <c r="O124" s="4" t="s">
-        <v>1548</v>
+        <v>1311</v>
       </c>
       <c r="P124" s="4" t="s">
-        <v>1569</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>1154</v>
+        <v>1328</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>1391</v>
+        <v>1328</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="N125" s="4" t="s">
-        <v>1521</v>
+        <v>1431</v>
       </c>
       <c r="O125" s="4" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="P125" s="4" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="126" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>1330</v>
+        <v>1154</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>1330</v>
+        <v>1391</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="O126" s="4" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="P126" s="4" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="127" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>1177</v>
+        <v>1331</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>1179</v>
+        <v>1330</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>2009</v>
+        <v>2041</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>1197</v>
+        <v>1330</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>1203</v>
+        <v>1420</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>1204</v>
+        <v>1433</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>1205</v>
+        <v>1455</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>1206</v>
+        <v>1498</v>
       </c>
       <c r="N127" s="4" t="s">
-        <v>1202</v>
+        <v>1522</v>
       </c>
       <c r="O127" s="4" t="s">
-        <v>1200</v>
+        <v>1550</v>
       </c>
       <c r="P127" s="4" t="s">
-        <v>1198</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="128" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>2042</v>
+        <v>2009</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>1195</v>
+        <v>1203</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="M128" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="N128" s="4" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="O128" s="4" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="P128" s="4" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="129" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>1272</v>
+        <v>1196</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1268</v>
+        <v>1195</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>1271</v>
+        <v>1209</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>1279</v>
+        <v>1208</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>1278</v>
+        <v>1207</v>
       </c>
       <c r="N129" s="4" t="s">
-        <v>1277</v>
+        <v>1201</v>
       </c>
       <c r="O129" s="4" t="s">
-        <v>1280</v>
+        <v>1199</v>
       </c>
       <c r="P129" s="4" t="s">
-        <v>1281</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="130" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>1315</v>
+        <v>1182</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1314</v>
+        <v>1181</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>1274</v>
+        <v>1279</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="N130" s="4" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="O130" s="4" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="P130" s="4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="131" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>1151</v>
+        <v>1315</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1153</v>
+        <v>1314</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>1681</v>
+        <v>1728</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>1868</v>
+        <v>2044</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>2214</v>
+        <v>2353</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>646</v>
+        <v>1273</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>1877</v>
+        <v>2060</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>649</v>
+        <v>1269</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>668</v>
+        <v>1270</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>2077</v>
-      </c>
-      <c r="K131" s="5" t="s">
-        <v>2223</v>
+        <v>2076</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>2363</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>695</v>
+        <v>1274</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>949</v>
+        <v>1275</v>
       </c>
       <c r="N131" s="4" t="s">
-        <v>653</v>
+        <v>1276</v>
       </c>
       <c r="O131" s="4" t="s">
-        <v>698</v>
+        <v>1283</v>
       </c>
       <c r="P131" s="4" t="s">
-        <v>452</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="132" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>1723</v>
+        <v>1681</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>2040</v>
+        <v>1868</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>2348</v>
+        <v>2214</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>322</v>
+        <v>646</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>2055</v>
+        <v>1877</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>106</v>
+        <v>649</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>1313</v>
+        <v>668</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>2071</v>
-      </c>
-      <c r="K132" s="4" t="s">
-        <v>2358</v>
+        <v>2077</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>2223</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>198</v>
+        <v>695</v>
       </c>
       <c r="M132" s="4" t="s">
-        <v>921</v>
+        <v>949</v>
       </c>
       <c r="N132" s="4" t="s">
-        <v>234</v>
+        <v>653</v>
       </c>
       <c r="O132" s="4" t="s">
-        <v>279</v>
+        <v>698</v>
       </c>
       <c r="P132" s="4" t="s">
-        <v>1011</v>
+        <v>452</v>
       </c>
     </row>
     <row r="133" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>2045</v>
+        <v>2040</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>2369</v>
+        <v>2348</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>1218</v>
+        <v>322</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>2061</v>
+        <v>2055</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>1219</v>
+        <v>106</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>1210</v>
+        <v>1313</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>2078</v>
+        <v>2071</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>2370</v>
+        <v>2358</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>1214</v>
+        <v>198</v>
       </c>
       <c r="M133" s="4" t="s">
-        <v>1211</v>
+        <v>921</v>
       </c>
       <c r="N133" s="4" t="s">
-        <v>1219</v>
+        <v>234</v>
       </c>
       <c r="O133" s="4" t="s">
-        <v>1222</v>
+        <v>279</v>
       </c>
       <c r="P133" s="4" t="s">
-        <v>1223</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="134" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>2364</v>
+        <v>2369</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="N134" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O134" s="4" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="P134" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="135" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>1238</v>
+        <v>1217</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>1239</v>
+        <v>1216</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>1234</v>
+        <v>1213</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>1233</v>
+        <v>1215</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>1232</v>
+        <v>1212</v>
       </c>
       <c r="N135" s="4" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="O135" s="4" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="P135" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="136" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>1658</v>
+        <v>1731</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>1994</v>
+        <v>2047</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>2318</v>
+        <v>2365</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>2009</v>
+        <v>2063</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>2025</v>
+        <v>2080</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>2334</v>
+        <v>2372</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>1236</v>
-      </c>
-      <c r="M136" s="6" t="s">
-        <v>1231</v>
+        <v>1233</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>1232</v>
       </c>
       <c r="N136" s="4" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="O136" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="P136" s="4" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="137" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1183</v>
+        <v>1164</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>1732</v>
+        <v>1658</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>2048</v>
+        <v>1994</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>2366</v>
+        <v>2318</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>1186</v>
+        <v>1237</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>2064</v>
+        <v>2009</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>1187</v>
+        <v>1240</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>1188</v>
+        <v>1235</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>2081</v>
+        <v>2025</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>2373</v>
+        <v>2334</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="M137" s="4" t="s">
-        <v>1190</v>
+        <v>1236</v>
+      </c>
+      <c r="M137" s="6" t="s">
+        <v>1231</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>1191</v>
+        <v>1229</v>
       </c>
       <c r="O137" s="4" t="s">
-        <v>1192</v>
+        <v>1228</v>
       </c>
       <c r="P137" s="4" t="s">
-        <v>1193</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="138" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>1321</v>
+        <v>1162</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1322</v>
+        <v>1183</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>1396</v>
+        <v>1186</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>1421</v>
+        <v>1187</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>1434</v>
+        <v>1188</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>1458</v>
+        <v>1189</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>1499</v>
+        <v>1190</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>1523</v>
+        <v>1191</v>
       </c>
       <c r="O138" s="4" t="s">
-        <v>1527</v>
+        <v>1192</v>
+      </c>
+      <c r="P138" s="4" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="139" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>1993</v>
+        <v>2049</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>2317</v>
+        <v>2367</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>2008</v>
+        <v>2065</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>2024</v>
+        <v>2082</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>2333</v>
+        <v>2374</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="N139" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="O139" s="4" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="140" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>1184</v>
+        <v>1320</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1185</v>
+        <v>1323</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>2050</v>
+        <v>1993</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>2368</v>
+        <v>2317</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>1291</v>
+        <v>1397</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>2066</v>
+        <v>2008</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>1290</v>
+        <v>1422</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>1289</v>
+        <v>1435</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>2083</v>
+        <v>2024</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>2375</v>
+        <v>2333</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>1292</v>
+        <v>1459</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>1278</v>
+        <v>1500</v>
       </c>
       <c r="N140" s="4" t="s">
-        <v>1293</v>
+        <v>1524</v>
       </c>
       <c r="O140" s="4" t="s">
-        <v>1294</v>
-      </c>
-      <c r="P140" s="4" t="s">
-        <v>1295</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="141" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>1318</v>
+        <v>1184</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>1316</v>
+        <v>1185</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>1648</v>
+        <v>1735</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>1980</v>
+        <v>2050</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>2306</v>
+        <v>2368</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>1378</v>
+        <v>1291</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>1982</v>
+        <v>2066</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>1400</v>
+        <v>1290</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>1436</v>
+        <v>1289</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>1984</v>
+        <v>2083</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>2308</v>
+        <v>2375</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>1456</v>
+        <v>1292</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>1477</v>
+        <v>1278</v>
       </c>
       <c r="N141" s="4" t="s">
-        <v>1505</v>
+        <v>1293</v>
       </c>
       <c r="O141" s="4" t="s">
-        <v>1528</v>
+        <v>1294</v>
+      </c>
+      <c r="P141" s="4" t="s">
+        <v>1295</v>
       </c>
     </row>
     <row r="142" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>2306</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>1378</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>1982</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="I142" s="4" t="s">
+        <v>1436</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>1984</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>2308</v>
+      </c>
+      <c r="L142" s="4" t="s">
+        <v>1456</v>
+      </c>
+      <c r="M142" s="4" t="s">
+        <v>1477</v>
+      </c>
+      <c r="N142" s="4" t="s">
+        <v>1505</v>
+      </c>
+      <c r="O142" s="4" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
         <v>1319</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B143" s="4" t="s">
         <v>1317</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C143" s="4" t="s">
         <v>1649</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D143" s="4" t="s">
         <v>1981</v>
       </c>
-      <c r="E142" s="4" t="s">
+      <c r="E143" s="4" t="s">
         <v>2307</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F143" s="4" t="s">
         <v>1379</v>
       </c>
-      <c r="G142" s="4" t="s">
+      <c r="G143" s="4" t="s">
         <v>1983</v>
       </c>
-      <c r="H142" s="4" t="s">
+      <c r="H143" s="4" t="s">
         <v>1401</v>
       </c>
-      <c r="I142" s="4" t="s">
+      <c r="I143" s="4" t="s">
         <v>1437</v>
       </c>
-      <c r="J142" s="4" t="s">
+      <c r="J143" s="4" t="s">
         <v>1985</v>
       </c>
-      <c r="K142" s="4" t="s">
+      <c r="K143" s="4" t="s">
         <v>2309</v>
       </c>
-      <c r="L142" s="4" t="s">
+      <c r="L143" s="4" t="s">
         <v>1457</v>
       </c>
-      <c r="M142" s="4" t="s">
+      <c r="M143" s="4" t="s">
         <v>1476</v>
       </c>
-      <c r="N142" s="4" t="s">
+      <c r="N143" s="4" t="s">
         <v>1401</v>
       </c>
-      <c r="O142" s="4" t="s">
+      <c r="O143" s="4" t="s">
         <v>1529</v>
       </c>
     </row>
-    <row r="143" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>2084</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>2376</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>2098</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>2112</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>2390</v>
-      </c>
-      <c r="L144" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="M144" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="N144" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="O144" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="P144" s="4" t="s">
-        <v>1021</v>
-      </c>
-    </row>
+    <row r="144" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="145" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="N145" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O145" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="P145" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="146" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>378</v>
+        <v>76</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>627</v>
+        <v>336</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>628</v>
+        <v>175</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>629</v>
+        <v>161</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>631</v>
+        <v>209</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="N146" s="4" t="s">
-        <v>632</v>
+        <v>248</v>
       </c>
       <c r="O146" s="4" t="s">
-        <v>633</v>
+        <v>292</v>
       </c>
       <c r="P146" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="147" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>710</v>
+        <v>378</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>1677</v>
+        <v>1669</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>2094</v>
+        <v>2086</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>2386</v>
+        <v>2378</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>849</v>
+        <v>627</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>2108</v>
+        <v>2100</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>843</v>
+        <v>628</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>844</v>
+        <v>629</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>2122</v>
+        <v>2114</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>2400</v>
+        <v>2392</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>845</v>
+        <v>631</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="N147" s="4" t="s">
-        <v>846</v>
+        <v>632</v>
       </c>
       <c r="O147" s="4" t="s">
-        <v>848</v>
+        <v>633</v>
       </c>
       <c r="P147" s="4" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="148" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>377</v>
+        <v>710</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>1670</v>
+        <v>1677</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>2087</v>
+        <v>2094</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>2379</v>
+        <v>2386</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>626</v>
+        <v>849</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>2101</v>
+        <v>2108</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>625</v>
+        <v>843</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>624</v>
+        <v>844</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>2115</v>
+        <v>2122</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>2393</v>
+        <v>2400</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>623</v>
+        <v>845</v>
       </c>
       <c r="M148" s="4" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="N148" s="4" t="s">
-        <v>622</v>
+        <v>846</v>
       </c>
       <c r="O148" s="4" t="s">
-        <v>621</v>
+        <v>848</v>
       </c>
       <c r="P148" s="4" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="149" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>2379</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="I149" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>2115</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="M149" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="N149" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="O149" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="P149" s="4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B150" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C150" s="4" t="s">
         <v>1678</v>
       </c>
-      <c r="D149" s="4" t="s">
+      <c r="D150" s="4" t="s">
         <v>2095</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="E150" s="4" t="s">
         <v>2387</v>
       </c>
-      <c r="F149" s="4" t="s">
+      <c r="F150" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="G149" s="4" t="s">
+      <c r="G150" s="4" t="s">
         <v>2109</v>
       </c>
-      <c r="H149" s="4" t="s">
+      <c r="H150" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="I149" s="4" t="s">
+      <c r="I150" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="J149" s="4" t="s">
+      <c r="J150" s="4" t="s">
         <v>2123</v>
       </c>
-      <c r="K149" s="4" t="s">
+      <c r="K150" s="4" t="s">
         <v>2401</v>
       </c>
-      <c r="L149" s="4" t="s">
+      <c r="L150" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="M149" s="4" t="s">
+      <c r="M150" s="4" t="s">
         <v>946</v>
       </c>
-      <c r="N149" s="4" t="s">
+      <c r="N150" s="4" t="s">
         <v>852</v>
       </c>
-      <c r="O149" s="4" t="s">
+      <c r="O150" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="P149" s="4" t="s">
+      <c r="P150" s="4" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
         <v>2555</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B151" s="4" t="s">
         <v>2531</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>1673</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D151" s="4" t="s">
         <v>2534</v>
       </c>
-      <c r="E150" s="4" t="s">
+      <c r="E151" s="4" t="s">
         <v>2536</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>2538</v>
       </c>
-      <c r="G150" s="4" t="s">
+      <c r="G151" s="4" t="s">
         <v>2539</v>
       </c>
-      <c r="H150" s="2" t="s">
+      <c r="H151" s="2" t="s">
         <v>2541</v>
       </c>
-      <c r="I150" s="2" t="s">
+      <c r="I151" s="2" t="s">
         <v>2542</v>
       </c>
-      <c r="J150" s="4" t="s">
+      <c r="J151" s="4" t="s">
         <v>2118</v>
       </c>
-      <c r="K150" s="4" t="s">
+      <c r="K151" s="4" t="s">
         <v>2544</v>
       </c>
-      <c r="L150" s="2" t="s">
+      <c r="L151" s="2" t="s">
         <v>2546</v>
       </c>
-      <c r="M150" s="2" t="s">
+      <c r="M151" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="N150" s="2" t="s">
+      <c r="N151" s="2" t="s">
         <v>2549</v>
       </c>
-      <c r="O150" s="2" t="s">
+      <c r="O151" s="2" t="s">
         <v>2551</v>
       </c>
-      <c r="P150" s="2" t="s">
+      <c r="P151" s="2" t="s">
         <v>2553</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>2556</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>2532</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>2533</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>2535</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>2537</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>1379</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>2103</v>
-      </c>
-      <c r="H151" s="4" t="s">
-        <v>2540</v>
-      </c>
-      <c r="I151" s="4" t="s">
-        <v>2543</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>2117</v>
-      </c>
-      <c r="K151" s="5" t="s">
-        <v>2545</v>
-      </c>
-      <c r="L151" s="4" t="s">
-        <v>2547</v>
-      </c>
-      <c r="M151" s="4" t="s">
-        <v>2548</v>
-      </c>
-      <c r="N151" s="4" t="s">
-        <v>2550</v>
-      </c>
-      <c r="O151" s="4" t="s">
-        <v>2552</v>
-      </c>
-      <c r="P151" s="4" t="s">
-        <v>2554</v>
       </c>
     </row>
     <row r="152" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>1139</v>
+        <v>2556</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>77</v>
+        <v>2532</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>1671</v>
+        <v>2533</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>2088</v>
+        <v>2535</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>2380</v>
+        <v>2537</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>337</v>
+        <v>1379</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>118</v>
+        <v>2540</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>162</v>
+        <v>2543</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>2116</v>
-      </c>
-      <c r="K152" s="4" t="s">
-        <v>2394</v>
+        <v>2117</v>
+      </c>
+      <c r="K152" s="5" t="s">
+        <v>2545</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>210</v>
+        <v>2547</v>
       </c>
       <c r="M152" s="4" t="s">
-        <v>939</v>
+        <v>2548</v>
       </c>
       <c r="N152" s="4" t="s">
-        <v>249</v>
+        <v>2550</v>
       </c>
       <c r="O152" s="4" t="s">
-        <v>293</v>
+        <v>2552</v>
       </c>
       <c r="P152" s="4" t="s">
-        <v>1025</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="153" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>644</v>
+        <v>337</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>641</v>
+        <v>118</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>640</v>
+        <v>162</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>642</v>
+        <v>210</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="N153" s="4" t="s">
-        <v>643</v>
+        <v>249</v>
       </c>
       <c r="O153" s="4" t="s">
-        <v>634</v>
+        <v>293</v>
       </c>
       <c r="P153" s="4" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="154" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="M154" s="4" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="N154" s="4" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="O154" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P154" s="4" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="155" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>78</v>
+        <v>375</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>338</v>
+        <v>645</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>119</v>
+        <v>638</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>163</v>
+        <v>639</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>211</v>
+        <v>637</v>
       </c>
       <c r="M155" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="N155" s="4" t="s">
-        <v>250</v>
+        <v>636</v>
       </c>
       <c r="O155" s="4" t="s">
-        <v>294</v>
+        <v>635</v>
       </c>
       <c r="P155" s="4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="156" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M156" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="N156" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O156" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P156" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="157" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="N157" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O157" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P157" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="158" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>1611</v>
+        <v>1676</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>1838</v>
+        <v>2093</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>2295</v>
+        <v>2385</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1847</v>
+        <v>2107</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>359</v>
+        <v>177</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>360</v>
+        <v>165</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>1856</v>
+        <v>2121</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>2302</v>
+        <v>2399</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>361</v>
+        <v>213</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>903</v>
+        <v>944</v>
       </c>
       <c r="N158" s="4" t="s">
-        <v>847</v>
+        <v>252</v>
       </c>
       <c r="O158" s="4" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="P158" s="4" t="s">
-        <v>995</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="159" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>712</v>
+        <v>47</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>1679</v>
+        <v>1611</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>2096</v>
+        <v>1838</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>2388</v>
+        <v>2295</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>861</v>
+        <v>358</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>2110</v>
+        <v>1847</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>856</v>
+        <v>359</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>857</v>
+        <v>360</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>2124</v>
+        <v>1856</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>2402</v>
+        <v>2302</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>858</v>
+        <v>361</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>947</v>
+        <v>903</v>
       </c>
       <c r="N159" s="4" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="O159" s="4" t="s">
-        <v>860</v>
+        <v>263</v>
       </c>
       <c r="P159" s="4" t="s">
-        <v>1033</v>
+        <v>995</v>
       </c>
     </row>
     <row r="160" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="H160" s="4" t="s">
+        <v>856</v>
+      </c>
+      <c r="I160" s="4" t="s">
+        <v>857</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>2124</v>
+      </c>
+      <c r="K160" s="4" t="s">
+        <v>2402</v>
+      </c>
+      <c r="L160" s="4" t="s">
+        <v>858</v>
+      </c>
+      <c r="M160" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="N160" s="4" t="s">
+        <v>859</v>
+      </c>
+      <c r="O160" s="4" t="s">
+        <v>860</v>
+      </c>
+      <c r="P160" s="4" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B161" s="4" t="s">
         <v>1166</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C161" s="4" t="s">
         <v>1680</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D161" s="4" t="s">
         <v>2097</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="E161" s="4" t="s">
         <v>2389</v>
       </c>
-      <c r="F160" s="4" t="s">
+      <c r="F161" s="4" t="s">
         <v>1186</v>
       </c>
-      <c r="G160" s="4" t="s">
+      <c r="G161" s="4" t="s">
         <v>2111</v>
       </c>
-      <c r="H160" s="4" t="s">
+      <c r="H161" s="4" t="s">
         <v>1187</v>
       </c>
-      <c r="I160" s="4" t="s">
+      <c r="I161" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="J160" s="4" t="s">
+      <c r="J161" s="4" t="s">
         <v>2125</v>
       </c>
-      <c r="K160" s="4" t="s">
+      <c r="K161" s="4" t="s">
         <v>2403</v>
       </c>
-      <c r="L160" s="4" t="s">
+      <c r="L161" s="4" t="s">
         <v>1189</v>
       </c>
-      <c r="M160" s="4" t="s">
+      <c r="M161" s="4" t="s">
         <v>1190</v>
       </c>
-      <c r="N160" s="4" t="s">
+      <c r="N161" s="4" t="s">
         <v>1191</v>
       </c>
-      <c r="O160" s="4" t="s">
+      <c r="O161" s="4" t="s">
         <v>1192</v>
       </c>
-      <c r="P160" s="4" t="s">
+      <c r="P161" s="4" t="s">
         <v>1193</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>1681</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>1868</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>2214</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>1877</v>
-      </c>
-      <c r="H162" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="I162" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="J162" s="4" t="s">
-        <v>2077</v>
-      </c>
-      <c r="K162" s="5" t="s">
-        <v>2223</v>
-      </c>
-      <c r="L162" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="M162" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="N162" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="O162" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="P162" s="4" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="163" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>1629</v>
+        <v>1681</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>1894</v>
+        <v>1868</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>2233</v>
+        <v>2214</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>320</v>
+        <v>646</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>1910</v>
+        <v>1877</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>105</v>
+        <v>649</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>146</v>
+        <v>668</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>1934</v>
-      </c>
-      <c r="K163" s="4" t="s">
-        <v>2250</v>
+        <v>2077</v>
+      </c>
+      <c r="K163" s="5" t="s">
+        <v>2223</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>105</v>
+        <v>695</v>
       </c>
       <c r="M163" s="4" t="s">
-        <v>920</v>
+        <v>949</v>
       </c>
       <c r="N163" s="4" t="s">
-        <v>105</v>
+        <v>653</v>
       </c>
       <c r="O163" s="4" t="s">
-        <v>278</v>
+        <v>698</v>
       </c>
       <c r="P163" s="4" t="s">
-        <v>1010</v>
+        <v>452</v>
       </c>
     </row>
     <row r="164" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="M164" s="4" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="N164" s="4" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="O164" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P164" s="4" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="165" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>453</v>
+        <v>52</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>1682</v>
+        <v>1627</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>2126</v>
+        <v>1893</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>647</v>
+        <v>318</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>2130</v>
+        <v>1909</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>650</v>
+        <v>103</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>669</v>
+        <v>144</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>2133</v>
+        <v>1932</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>683</v>
+        <v>196</v>
       </c>
       <c r="M165" s="4" t="s">
-        <v>950</v>
+        <v>918</v>
       </c>
       <c r="N165" s="4" t="s">
-        <v>654</v>
+        <v>232</v>
       </c>
       <c r="O165" s="4" t="s">
-        <v>620</v>
+        <v>276</v>
       </c>
       <c r="P165" s="4" t="s">
-        <v>1034</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="166" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>53</v>
+        <v>453</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>1628</v>
+        <v>1682</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>1928</v>
+        <v>2126</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>319</v>
+        <v>647</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>1929</v>
+        <v>2130</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>104</v>
+        <v>650</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>145</v>
+        <v>669</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>1933</v>
+        <v>2133</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>197</v>
+        <v>683</v>
       </c>
       <c r="M166" s="4" t="s">
-        <v>919</v>
+        <v>950</v>
       </c>
       <c r="N166" s="4" t="s">
-        <v>233</v>
+        <v>654</v>
       </c>
       <c r="O166" s="4" t="s">
-        <v>277</v>
+        <v>620</v>
       </c>
       <c r="P166" s="4" t="s">
-        <v>1009</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="167" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>454</v>
+        <v>53</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>1683</v>
+        <v>1628</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>2127</v>
+        <v>1928</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>2404</v>
+        <v>2232</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>648</v>
+        <v>319</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>2131</v>
+        <v>1929</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>651</v>
+        <v>104</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>670</v>
+        <v>145</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>2134</v>
+        <v>1933</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>2407</v>
+        <v>2249</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>684</v>
+        <v>197</v>
       </c>
       <c r="M167" s="4" t="s">
-        <v>951</v>
+        <v>919</v>
       </c>
       <c r="N167" s="4" t="s">
-        <v>655</v>
+        <v>233</v>
       </c>
       <c r="O167" s="4" t="s">
-        <v>699</v>
+        <v>277</v>
       </c>
       <c r="P167" s="4" t="s">
-        <v>1035</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="168" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>55</v>
+        <v>454</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>1631</v>
+        <v>1683</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>1896</v>
+        <v>2127</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>2235</v>
+        <v>2404</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>322</v>
+        <v>648</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>1908</v>
+        <v>2131</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>106</v>
+        <v>651</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>148</v>
+        <v>670</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>1936</v>
+        <v>2134</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>2252</v>
+        <v>2407</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>198</v>
+        <v>684</v>
       </c>
       <c r="M168" s="4" t="s">
-        <v>921</v>
+        <v>951</v>
       </c>
       <c r="N168" s="4" t="s">
-        <v>234</v>
+        <v>655</v>
       </c>
       <c r="O168" s="4" t="s">
-        <v>279</v>
+        <v>699</v>
       </c>
       <c r="P168" s="4" t="s">
-        <v>1011</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="169" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>2253</v>
+        <v>2252</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M169" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="N169" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O169" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P169" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="170" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>713</v>
+        <v>462</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>2254</v>
+        <v>2253</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M170" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N170" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O170" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P170" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="171" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>2558</v>
+        <v>713</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>2560</v>
+        <v>57</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>2565</v>
+        <v>1633</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>2561</v>
+        <v>1898</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>2566</v>
+        <v>2237</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>2567</v>
+        <v>324</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>2564</v>
+        <v>1913</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>2562</v>
+        <v>108</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>2563</v>
+        <v>150</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>2568</v>
+        <v>1938</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>2569</v>
+        <v>2254</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>2570</v>
+        <v>200</v>
       </c>
       <c r="M171" s="4" t="s">
-        <v>2571</v>
+        <v>923</v>
       </c>
       <c r="N171" s="4" t="s">
-        <v>2572</v>
+        <v>236</v>
       </c>
       <c r="O171" s="4" t="s">
-        <v>2573</v>
+        <v>281</v>
       </c>
       <c r="P171" s="4" t="s">
-        <v>2574</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="172" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>2578</v>
+        <v>2558</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>2576</v>
+        <v>2560</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>2581</v>
+        <v>2565</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>2583</v>
+        <v>2566</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>2584</v>
+        <v>2567</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>2585</v>
+        <v>2564</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>2586</v>
+        <v>2562</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>2587</v>
+        <v>2563</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>2588</v>
+        <v>2568</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>2589</v>
+        <v>2569</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>2590</v>
+        <v>2570</v>
       </c>
       <c r="M172" s="4" t="s">
-        <v>2591</v>
+        <v>2571</v>
       </c>
       <c r="N172" s="4" t="s">
-        <v>2592</v>
+        <v>2572</v>
       </c>
       <c r="O172" s="4" t="s">
-        <v>2580</v>
+        <v>2573</v>
       </c>
       <c r="P172" s="4" t="s">
-        <v>2579</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="173" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>1329</v>
+        <v>2578</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>1176</v>
+        <v>2576</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>1684</v>
+        <v>2581</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>2038</v>
+        <v>2582</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>2405</v>
+        <v>2583</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>1305</v>
+        <v>2584</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>2053</v>
+        <v>2585</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>1306</v>
+        <v>2586</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>1307</v>
+        <v>2587</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>2069</v>
+        <v>2588</v>
       </c>
       <c r="K173" s="4" t="s">
-        <v>2408</v>
+        <v>2589</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>1308</v>
+        <v>2590</v>
       </c>
       <c r="M173" s="4" t="s">
-        <v>1309</v>
+        <v>2591</v>
       </c>
       <c r="N173" s="4" t="s">
-        <v>1310</v>
+        <v>2592</v>
       </c>
       <c r="O173" s="4" t="s">
-        <v>1311</v>
+        <v>2580</v>
       </c>
       <c r="P173" s="4" t="s">
-        <v>1312</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="174" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>1356</v>
+        <v>1329</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>1355</v>
+        <v>1176</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>2128</v>
+        <v>2038</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>1398</v>
+        <v>1305</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>2132</v>
+        <v>2053</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>1423</v>
+        <v>1306</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>1424</v>
+        <v>1307</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>2135</v>
+        <v>2069</v>
       </c>
       <c r="K174" s="4" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>1425</v>
+        <v>1308</v>
       </c>
       <c r="M174" s="4" t="s">
-        <v>1426</v>
+        <v>1309</v>
       </c>
       <c r="N174" s="4" t="s">
-        <v>1427</v>
+        <v>1310</v>
       </c>
       <c r="O174" s="4" t="s">
-        <v>1428</v>
+        <v>1311</v>
       </c>
       <c r="P174" s="4" t="s">
-        <v>1429</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="175" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>2406</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G175" s="4" t="s">
+        <v>2132</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I175" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="J175" s="4" t="s">
+        <v>2135</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>2409</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>1425</v>
+      </c>
+      <c r="M175" s="4" t="s">
+        <v>1426</v>
+      </c>
+      <c r="N175" s="4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="O175" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="P175" s="4" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
         <v>1168</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B176" s="4" t="s">
         <v>1166</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C176" s="4" t="s">
         <v>1680</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="D176" s="4" t="s">
         <v>2129</v>
       </c>
-      <c r="E175" s="4" t="s">
+      <c r="E176" s="4" t="s">
         <v>2389</v>
       </c>
-      <c r="F175" s="4" t="s">
+      <c r="F176" s="4" t="s">
         <v>1186</v>
       </c>
-      <c r="G175" s="4" t="s">
+      <c r="G176" s="4" t="s">
         <v>2111</v>
       </c>
-      <c r="H175" s="4" t="s">
+      <c r="H176" s="4" t="s">
         <v>1187</v>
       </c>
-      <c r="I175" s="4" t="s">
+      <c r="I176" s="4" t="s">
         <v>1188</v>
       </c>
-      <c r="J175" s="4" t="s">
+      <c r="J176" s="4" t="s">
         <v>2136</v>
       </c>
-      <c r="K175" s="4" t="s">
+      <c r="K176" s="4" t="s">
         <v>2403</v>
       </c>
-      <c r="L175" s="4" t="s">
+      <c r="L176" s="4" t="s">
         <v>1189</v>
       </c>
-      <c r="M175" s="4" t="s">
+      <c r="M176" s="4" t="s">
         <v>1190</v>
       </c>
-      <c r="N175" s="4" t="s">
+      <c r="N176" s="4" t="s">
         <v>1191</v>
       </c>
-      <c r="O175" s="4" t="s">
+      <c r="O176" s="4" t="s">
         <v>1192</v>
       </c>
-      <c r="P175" s="4" t="s">
+      <c r="P176" s="4" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="176" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+    <row r="177" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B178" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C178" s="4" t="s">
         <v>1681</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="D178" s="4" t="s">
         <v>1868</v>
       </c>
-      <c r="E177" s="4" t="s">
+      <c r="E178" s="4" t="s">
         <v>2214</v>
       </c>
-      <c r="F177" s="4" t="s">
+      <c r="F178" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G177" s="4" t="s">
+      <c r="G178" s="4" t="s">
         <v>1877</v>
       </c>
-      <c r="H177" s="4" t="s">
+      <c r="H178" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="I177" s="4" t="s">
+      <c r="I178" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="J177" s="4" t="s">
+      <c r="J178" s="4" t="s">
         <v>2077</v>
       </c>
-      <c r="K177" s="5" t="s">
+      <c r="K178" s="5" t="s">
         <v>2223</v>
       </c>
-      <c r="L177" s="4" t="s">
+      <c r="L178" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="M177" s="4" t="s">
+      <c r="M178" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="N177" s="4" t="s">
+      <c r="N178" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="O177" s="4" t="s">
+      <c r="O178" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="P177" s="4" t="s">
+      <c r="P178" s="4" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="178" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K178" s="5"/>
-    </row>
     <row r="179" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>1628</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>1928</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>2232</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="G179" s="4" t="s">
-        <v>1929</v>
-      </c>
-      <c r="H179" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I179" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J179" s="4" t="s">
-        <v>1933</v>
-      </c>
-      <c r="K179" s="4" t="s">
-        <v>2249</v>
-      </c>
-      <c r="L179" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="M179" s="4" t="s">
-        <v>919</v>
-      </c>
-      <c r="N179" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="O179" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="P179" s="4" t="s">
-        <v>1054</v>
-      </c>
+      <c r="K179" s="5"/>
     </row>
     <row r="180" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>1897</v>
+        <v>1928</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>2236</v>
+        <v>2232</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>1912</v>
+        <v>1929</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>2253</v>
+        <v>2249</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="N180" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O180" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="P180" s="4" t="s">
-        <v>1012</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="181" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>1908</v>
+        <v>1912</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M181" s="4" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="N181" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O181" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P181" s="4" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="182" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="K182" s="4" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M182" s="4" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="N182" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O182" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P182" s="4" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="183" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>2559</v>
+        <v>492</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>2560</v>
+        <v>57</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>2565</v>
+        <v>1633</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>2561</v>
+        <v>1898</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>2566</v>
+        <v>2237</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>2567</v>
+        <v>324</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>2564</v>
+        <v>1913</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>2562</v>
+        <v>108</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>2563</v>
+        <v>150</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>2568</v>
+        <v>1938</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>2569</v>
+        <v>2254</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>2570</v>
+        <v>200</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>2571</v>
+        <v>923</v>
       </c>
       <c r="N183" s="4" t="s">
-        <v>2572</v>
+        <v>236</v>
       </c>
       <c r="O183" s="4" t="s">
-        <v>2573</v>
+        <v>281</v>
       </c>
       <c r="P183" s="4" t="s">
-        <v>2574</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="184" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>2577</v>
+        <v>2559</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>2576</v>
+        <v>2560</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>2581</v>
+        <v>2565</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>2582</v>
+        <v>2561</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>2583</v>
+        <v>2566</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>2584</v>
+        <v>2567</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>2585</v>
+        <v>2564</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>2586</v>
+        <v>2562</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>2587</v>
+        <v>2563</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>2588</v>
+        <v>2568</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>2589</v>
+        <v>2569</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>2590</v>
+        <v>2570</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>2591</v>
+        <v>2571</v>
       </c>
       <c r="N184" s="4" t="s">
-        <v>2592</v>
+        <v>2572</v>
       </c>
       <c r="O184" s="4" t="s">
-        <v>2580</v>
+        <v>2573</v>
       </c>
       <c r="P184" s="4" t="s">
-        <v>2579</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="185" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>1158</v>
+        <v>2577</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>1159</v>
+        <v>2576</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>1686</v>
+        <v>2581</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>1871</v>
+        <v>2582</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>2217</v>
+        <v>2583</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>313</v>
+        <v>2584</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>1880</v>
+        <v>2585</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>98</v>
+        <v>2586</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>139</v>
+        <v>2587</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>1864</v>
+        <v>2588</v>
       </c>
       <c r="K185" s="4" t="s">
-        <v>2410</v>
+        <v>2589</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>191</v>
+        <v>2590</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>913</v>
+        <v>2591</v>
       </c>
       <c r="N185" s="4" t="s">
-        <v>228</v>
+        <v>2592</v>
       </c>
       <c r="O185" s="4" t="s">
-        <v>271</v>
+        <v>2580</v>
       </c>
       <c r="P185" s="4" t="s">
-        <v>1003</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="186" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>478</v>
+        <v>1158</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>52</v>
+        <v>1159</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>1627</v>
+        <v>1686</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>1893</v>
+        <v>1871</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>2231</v>
+        <v>2217</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>1909</v>
+        <v>1880</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>1932</v>
+        <v>1864</v>
       </c>
       <c r="K186" s="4" t="s">
-        <v>2248</v>
+        <v>2410</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="N186" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O186" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P186" s="4" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="187" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>453</v>
+        <v>52</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>1682</v>
+        <v>1627</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>2126</v>
+        <v>1893</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>647</v>
+        <v>318</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>2130</v>
+        <v>1909</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>652</v>
+        <v>103</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>669</v>
+        <v>144</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>2133</v>
+        <v>1932</v>
       </c>
       <c r="K187" s="4" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>683</v>
+        <v>196</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>952</v>
+        <v>918</v>
       </c>
       <c r="N187" s="4" t="s">
-        <v>654</v>
+        <v>232</v>
       </c>
       <c r="O187" s="4" t="s">
-        <v>620</v>
+        <v>276</v>
       </c>
       <c r="P187" s="4" t="s">
-        <v>1053</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="188" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>1707</v>
+        <v>1682</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>2173</v>
+        <v>2126</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>2495</v>
+        <v>2234</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>744</v>
+        <v>647</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>2185</v>
+        <v>2130</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>768</v>
+        <v>652</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>2197</v>
+        <v>2133</v>
       </c>
       <c r="K188" s="4" t="s">
-        <v>2507</v>
+        <v>2251</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="N188" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="O188" s="4" t="s">
-        <v>840</v>
+        <v>620</v>
       </c>
       <c r="P188" s="4" t="s">
-        <v>1079</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="189" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="N189" s="4" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="O189" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="P189" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="190" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N190" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O190" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="P190" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="M191" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="N191" s="4" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="O191" s="4" t="s">
-        <v>700</v>
+        <v>842</v>
       </c>
       <c r="P191" s="4" t="s">
-        <v>1070</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="192" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>1090</v>
+        <v>956</v>
       </c>
       <c r="N192" s="4" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="O192" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="P192" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="193" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="N193" s="4" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="O193" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="P193" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>957</v>
+        <v>1091</v>
       </c>
       <c r="N194" s="4" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="O194" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="P194" s="4" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="195" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="M195" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="N195" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="O195" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P195" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="N196" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O196" s="4" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="P196" s="4" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="K197" s="4" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M197" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="N197" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O197" s="4" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="P197" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="198" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="K198" s="4" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N198" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="O198" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="P198" s="4" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="199" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="K199" s="4" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="N199" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O199" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="P199" s="4" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="200" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>720</v>
+        <v>491</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>732</v>
+        <v>474</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>1695</v>
+        <v>1718</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>2137</v>
+        <v>2184</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>2483</v>
+        <v>2506</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>747</v>
+        <v>758</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>2138</v>
+        <v>2196</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>792</v>
+        <v>679</v>
       </c>
       <c r="J200" s="4" t="s">
-        <v>2139</v>
+        <v>2208</v>
       </c>
       <c r="K200" s="4" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="L200" s="4" t="s">
-        <v>804</v>
+        <v>694</v>
       </c>
       <c r="M200" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="N200" s="4" t="s">
-        <v>816</v>
+        <v>667</v>
       </c>
       <c r="O200" s="4" t="s">
-        <v>828</v>
+        <v>708</v>
       </c>
       <c r="P200" s="4" t="s">
-        <v>1058</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="201" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>2151</v>
+        <v>2138</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J201" s="4" t="s">
-        <v>2162</v>
+        <v>2139</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N201" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O201" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="P201" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J202" s="4" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="N202" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O202" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="P202" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="L203" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>1093</v>
+        <v>965</v>
       </c>
       <c r="N203" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="O203" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="P203" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="J204" s="4" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="L204" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="N204" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="O204" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P204" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="205" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J205" s="4" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="L205" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="N205" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O205" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="P205" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="206" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="J206" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="K206" s="4" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="L206" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="M206" s="4" t="s">
-        <v>966</v>
+        <v>1094</v>
       </c>
       <c r="N206" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O206" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="P206" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="207" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="K207" s="4" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="L207" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="M207" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="N207" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="O207" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="P207" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="208" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="K208" s="4" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="L208" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="M208" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="N208" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="O208" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="P208" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="209" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J209" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="K209" s="4" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="L209" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="M209" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="N209" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="O209" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="P209" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="210" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J210" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="K210" s="4" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="L210" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="N210" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O210" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="P210" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="211" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>2493</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="G211" s="4" t="s">
+        <v>2160</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="I211" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="J211" s="4" t="s">
+        <v>2171</v>
+      </c>
+      <c r="K211" s="4" t="s">
+        <v>2529</v>
+      </c>
+      <c r="L211" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="M211" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="N211" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="O211" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="P211" s="4" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B212" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="C211" s="4" t="s">
+      <c r="C212" s="4" t="s">
         <v>1706</v>
       </c>
-      <c r="D211" s="4" t="s">
+      <c r="D212" s="4" t="s">
         <v>2150</v>
       </c>
-      <c r="E211" s="4" t="s">
+      <c r="E212" s="4" t="s">
         <v>2494</v>
       </c>
-      <c r="F211" s="4" t="s">
+      <c r="F212" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="G211" s="4" t="s">
+      <c r="G212" s="4" t="s">
         <v>2161</v>
       </c>
-      <c r="H211" s="4" t="s">
+      <c r="H212" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="I211" s="4" t="s">
+      <c r="I212" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="J211" s="4" t="s">
+      <c r="J212" s="4" t="s">
         <v>2172</v>
       </c>
-      <c r="K211" s="4" t="s">
+      <c r="K212" s="4" t="s">
         <v>2530</v>
       </c>
-      <c r="L211" s="4" t="s">
+      <c r="L212" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="M211" s="4" t="s">
+      <c r="M212" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="N211" s="4" t="s">
+      <c r="N212" s="4" t="s">
         <v>827</v>
       </c>
-      <c r="O211" s="4" t="s">
+      <c r="O212" s="4" t="s">
         <v>839</v>
       </c>
-      <c r="P211" s="4" t="s">
+      <c r="P212" s="4" t="s">
         <v>1069</v>
       </c>
     </row>
-    <row r="212" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>1687</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>1968</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>2411</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>1242</v>
-      </c>
-      <c r="G213" s="4" t="s">
-        <v>1972</v>
-      </c>
-      <c r="H213" s="4" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I213" s="4" t="s">
-        <v>1121</v>
-      </c>
-      <c r="J213" s="4" t="s">
-        <v>1976</v>
-      </c>
-      <c r="K213" s="4" t="s">
-        <v>2415</v>
-      </c>
-      <c r="L213" s="4" t="s">
-        <v>1259</v>
-      </c>
-      <c r="M213" s="4" t="s">
-        <v>1258</v>
-      </c>
-      <c r="N213" s="4" t="s">
-        <v>1241</v>
-      </c>
-      <c r="O213" s="4" t="s">
-        <v>1260</v>
-      </c>
-      <c r="P213" s="4" t="s">
-        <v>1261</v>
-      </c>
-    </row>
+    <row r="213" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="214" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>1243</v>
+        <v>1121</v>
       </c>
       <c r="J214" s="4" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="K214" s="4" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="L214" s="4" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
       <c r="M214" s="4" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="N214" s="4" t="s">
-        <v>1257</v>
+        <v>1241</v>
       </c>
       <c r="O214" s="4" t="s">
-        <v>1267</v>
+        <v>1260</v>
       </c>
       <c r="P214" s="4" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="215" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="J215" s="4" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="L215" s="4" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="N215" s="4" t="s">
-        <v>1246</v>
+        <v>1257</v>
       </c>
       <c r="O215" s="4" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="P215" s="4" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="216" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>2413</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G216" s="4" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I216" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="J216" s="4" t="s">
+        <v>1978</v>
+      </c>
+      <c r="K216" s="4" t="s">
+        <v>2417</v>
+      </c>
+      <c r="L216" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="M216" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="N216" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="O216" s="4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="P216" s="4" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
         <v>1120</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B217" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C217" s="4" t="s">
         <v>1690</v>
       </c>
-      <c r="D216" s="4" t="s">
+      <c r="D217" s="4" t="s">
         <v>1971</v>
       </c>
-      <c r="E216" s="4" t="s">
+      <c r="E217" s="4" t="s">
         <v>2414</v>
       </c>
-      <c r="F216" s="4" t="s">
+      <c r="F217" s="4" t="s">
         <v>1251</v>
       </c>
-      <c r="G216" s="4" t="s">
+      <c r="G217" s="4" t="s">
         <v>1975</v>
       </c>
-      <c r="H216" s="4" t="s">
+      <c r="H217" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="I216" s="4" t="s">
+      <c r="I217" s="4" t="s">
         <v>1249</v>
       </c>
-      <c r="J216" s="4" t="s">
+      <c r="J217" s="4" t="s">
         <v>1979</v>
       </c>
-      <c r="K216" s="4" t="s">
+      <c r="K217" s="4" t="s">
         <v>2418</v>
       </c>
-      <c r="L216" s="4" t="s">
+      <c r="L217" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="M216" s="4" t="s">
+      <c r="M217" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="N216" s="4" t="s">
+      <c r="N217" s="4" t="s">
         <v>1250</v>
       </c>
-      <c r="O216" s="4" t="s">
+      <c r="O217" s="4" t="s">
         <v>1263</v>
       </c>
-      <c r="P216" s="4" t="s">
+      <c r="P217" s="4" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="217" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>1842</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>2419</v>
-      </c>
-      <c r="F218" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G218" s="4" t="s">
-        <v>1851</v>
-      </c>
-      <c r="H218" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I218" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J218" s="4" t="s">
-        <v>1958</v>
-      </c>
-      <c r="K218" s="4" t="s">
-        <v>2421</v>
-      </c>
-      <c r="L218" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="M218" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="N218" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="O218" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="P218" s="4" t="s">
-        <v>999</v>
-      </c>
-    </row>
+    <row r="218" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="219" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>1693</v>
+        <v>1615</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1956</v>
+        <v>1842</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>84</v>
+        <v>309</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>1957</v>
+        <v>1851</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="K219" s="4" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="L219" s="4" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>972</v>
+        <v>907</v>
       </c>
       <c r="N219" s="4" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="O219" s="4" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="P219" s="4" t="s">
-        <v>1036</v>
+        <v>999</v>
       </c>
     </row>
     <row r="220" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>2420</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>1957</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I220" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J220" s="4" t="s">
+        <v>1959</v>
+      </c>
+      <c r="K220" s="4" t="s">
+        <v>2422</v>
+      </c>
+      <c r="L220" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="M220" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="N220" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="O220" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="P220" s="4" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B220" s="4" t="s">
+      <c r="B221" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C221" s="4" t="s">
         <v>1694</v>
       </c>
-      <c r="D220" s="4" t="s">
+      <c r="D221" s="4" t="s">
         <v>1961</v>
       </c>
-      <c r="E220" s="4" t="s">
+      <c r="E221" s="4" t="s">
         <v>2424</v>
       </c>
-      <c r="F220" s="4" t="s">
+      <c r="F221" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="G220" s="4" t="s">
+      <c r="G221" s="4" t="s">
         <v>1962</v>
       </c>
-      <c r="H220" s="4" t="s">
+      <c r="H221" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I220" s="4" t="s">
+      <c r="I221" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="J220" s="4" t="s">
+      <c r="J221" s="4" t="s">
         <v>1960</v>
       </c>
-      <c r="K220" s="4" t="s">
+      <c r="K221" s="4" t="s">
         <v>2423</v>
       </c>
-      <c r="L220" s="4" t="s">
+      <c r="L221" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="M220" s="4" t="s">
+      <c r="M221" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="N220" s="4" t="s">
+      <c r="N221" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="O220" s="4" t="s">
+      <c r="O221" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="P220" s="4" t="s">
+      <c r="P221" s="4" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="221" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>1691</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>1963</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>2425</v>
-      </c>
-      <c r="F222" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="G222" s="4" t="s">
-        <v>1849</v>
-      </c>
-      <c r="H222" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I222" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J222" s="4" t="s">
-        <v>1964</v>
-      </c>
-      <c r="K222" s="4" t="s">
-        <v>2428</v>
-      </c>
-      <c r="L222" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="M222" s="4" t="s">
-        <v>974</v>
-      </c>
-      <c r="N222" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="O222" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="P222" s="4" t="s">
-        <v>1038</v>
-      </c>
-    </row>
+    <row r="222" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="223" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>1849</v>
+      </c>
+      <c r="H223" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="I223" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J223" s="4" t="s">
+        <v>1964</v>
+      </c>
+      <c r="K223" s="4" t="s">
+        <v>2428</v>
+      </c>
+      <c r="L223" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="M223" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="N223" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="O223" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="P223" s="4" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B224" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C224" s="4" t="s">
         <v>1692</v>
       </c>
-      <c r="D223" s="4" t="s">
+      <c r="D224" s="4" t="s">
         <v>1965</v>
       </c>
-      <c r="E223" s="4" t="s">
+      <c r="E224" s="4" t="s">
         <v>2426</v>
       </c>
-      <c r="F223" s="4" t="s">
+      <c r="F224" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G223" s="4" t="s">
+      <c r="G224" s="4" t="s">
         <v>1966</v>
       </c>
-      <c r="H223" s="4" t="s">
+      <c r="H224" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I223" s="4" t="s">
+      <c r="I224" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J223" s="4" t="s">
+      <c r="J224" s="4" t="s">
         <v>1967</v>
       </c>
-      <c r="K223" s="4" t="s">
+      <c r="K224" s="4" t="s">
         <v>2427</v>
       </c>
-      <c r="L223" s="4" t="s">
+      <c r="L224" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="M223" s="4" t="s">
+      <c r="M224" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="N223" s="4" t="s">
+      <c r="N224" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="O223" s="4" t="s">
+      <c r="O224" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="P223" s="4" t="s">
+      <c r="P224" s="4" t="s">
         <v>1039</v>
       </c>
     </row>

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II_Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117E5617-AF8A-4CB5-9DE8-C914E20D1946}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02EB216-2E2E-4EC4-A589-2EC516E51B1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6750" uniqueCount="2625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="2641">
   <si>
     <t>Temperature</t>
   </si>
@@ -7900,6 +7900,54 @@
   </si>
   <si>
     <t>Sélectionnez la langue et les conditions d'utilisation</t>
+  </si>
+  <si>
+    <t>STATUS:UpdateAvailable</t>
+  </si>
+  <si>
+    <t>Infirmary Integrated needs updating. Click here for version {0}</t>
+  </si>
+  <si>
+    <t>Le programme doit être mis à jour. Cliquez ici pour la version {0}</t>
+  </si>
+  <si>
+    <t>El programa necesita ser actualizado. Haga clic aquí para la versión {0}</t>
+  </si>
+  <si>
+    <t>برنامه باید به روز شود. اینجا کلیک کنید برای نسخه {0}</t>
+  </si>
+  <si>
+    <t>Das Programm muss aktualisiert werden. Klicken Sie hier für Version {0}</t>
+  </si>
+  <si>
+    <t>该程序需要更新。 单击此处查看版本{0}</t>
+  </si>
+  <si>
+    <t>يحتاج البرنامج إلى التحديث. انقر هنا للحصول على الإصدار {0}</t>
+  </si>
+  <si>
+    <t>ፕሮግራሙ መዘመን ያስፈልገዋል. ለዚህ እትም {0} ጠቅ ያድርጉ</t>
+  </si>
+  <si>
+    <t>יש לעדכן את התוכנית. לחץ כאן לגרסה {0}</t>
+  </si>
+  <si>
+    <t>कार्यक्रम को अद्यतन करने की आवश्यकता है। संस्करण {0} के लिए यहां क्लिक करें</t>
+  </si>
+  <si>
+    <t>Il programma deve essere aggiornato. Clicca qui per la versione {0}</t>
+  </si>
+  <si>
+    <t>프로그램을 업데이트해야합니다. 버전 {0}을 보려면 여기를 클릭하십시오.</t>
+  </si>
+  <si>
+    <t>O programa precisa ser atualizado. Clique aqui para a versão {0}</t>
+  </si>
+  <si>
+    <t>Программа должна быть обновлена. Нажмите здесь для версии {0}</t>
+  </si>
+  <si>
+    <t>Mpango huo unahitaji kubadilishwa. Bofya hapa kwa toleo {0}</t>
   </si>
 </sst>
 </file>
@@ -8271,11 +8319,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P225"/>
+  <dimension ref="A1:P227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B222" sqref="B222"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A219" sqref="A219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17924,302 +17972,353 @@
     <row r="218" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="219" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>40</v>
+        <v>2625</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>80</v>
+        <v>2626</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>1603</v>
+        <v>2633</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>1829</v>
+        <v>2632</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>2404</v>
+        <v>2631</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>301</v>
+        <v>2630</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>1838</v>
+        <v>2629</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>117</v>
+        <v>2628</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>129</v>
+        <v>2627</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>1945</v>
+        <v>2634</v>
       </c>
       <c r="K219" s="4" t="s">
-        <v>2406</v>
+        <v>2635</v>
       </c>
       <c r="L219" s="4" t="s">
-        <v>180</v>
+        <v>2636</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>898</v>
+        <v>2637</v>
       </c>
       <c r="N219" s="4" t="s">
-        <v>220</v>
+        <v>2638</v>
       </c>
       <c r="O219" s="4" t="s">
-        <v>258</v>
+        <v>2639</v>
       </c>
       <c r="P219" s="4" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>1943</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>2405</v>
-      </c>
-      <c r="F220" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G220" s="4" t="s">
-        <v>1944</v>
-      </c>
-      <c r="H220" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I220" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J220" s="4" t="s">
-        <v>1946</v>
-      </c>
-      <c r="K220" s="4" t="s">
-        <v>2407</v>
-      </c>
-      <c r="L220" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="M220" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="N220" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="O220" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="P220" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="221" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>1681</v>
+        <v>1603</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1948</v>
+        <v>1829</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>2409</v>
+        <v>2404</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>1949</v>
+        <v>1838</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="K221" s="4" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="L221" s="4" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>964</v>
+        <v>898</v>
       </c>
       <c r="N221" s="4" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="O221" s="4" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="P221" s="4" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>989</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G222" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H222" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I222" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J222" s="4" t="s">
+        <v>1946</v>
+      </c>
+      <c r="K222" s="4" t="s">
+        <v>2407</v>
+      </c>
+      <c r="L222" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="M222" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="N222" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="O222" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="P222" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
     <row r="223" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>2593</v>
+        <v>39</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>2595</v>
+        <v>83</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>2597</v>
+        <v>1681</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>2619</v>
+        <v>1948</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>2620</v>
+        <v>2409</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>2621</v>
+        <v>334</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>2622</v>
+        <v>1949</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>2623</v>
+        <v>120</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>2624</v>
+        <v>163</v>
       </c>
       <c r="J223" s="4" t="s">
-        <v>2618</v>
+        <v>1947</v>
       </c>
       <c r="K223" s="4" t="s">
-        <v>2617</v>
+        <v>2408</v>
       </c>
       <c r="L223" s="4" t="s">
-        <v>2616</v>
+        <v>211</v>
       </c>
       <c r="M223" s="4" t="s">
-        <v>2615</v>
+        <v>964</v>
       </c>
       <c r="N223" s="4" t="s">
-        <v>2614</v>
+        <v>248</v>
       </c>
       <c r="O223" s="4" t="s">
-        <v>2613</v>
+        <v>292</v>
       </c>
       <c r="P223" s="4" t="s">
-        <v>2612</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
-        <v>2592</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>2410</v>
-      </c>
-      <c r="F224" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G224" s="4" t="s">
-        <v>1951</v>
-      </c>
-      <c r="H224" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I224" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J224" s="4" t="s">
-        <v>1952</v>
-      </c>
-      <c r="K224" s="4" t="s">
-        <v>2411</v>
-      </c>
-      <c r="L224" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="M224" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="N224" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="O224" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="P224" s="4" t="s">
-        <v>1028</v>
-      </c>
-    </row>
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="225" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>2620</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>2621</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H225" s="4" t="s">
+        <v>2623</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>2624</v>
+      </c>
+      <c r="J225" s="4" t="s">
+        <v>2618</v>
+      </c>
+      <c r="K225" s="4" t="s">
+        <v>2617</v>
+      </c>
+      <c r="L225" s="4" t="s">
+        <v>2616</v>
+      </c>
+      <c r="M225" s="4" t="s">
+        <v>2615</v>
+      </c>
+      <c r="N225" s="4" t="s">
+        <v>2614</v>
+      </c>
+      <c r="O225" s="4" t="s">
+        <v>2613</v>
+      </c>
+      <c r="P225" s="4" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D226" s="4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>2410</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G226" s="4" t="s">
+        <v>1951</v>
+      </c>
+      <c r="H226" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I226" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J226" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="K226" s="4" t="s">
+        <v>2411</v>
+      </c>
+      <c r="L226" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="M226" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="N226" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="O226" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="P226" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
         <v>2594</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B227" s="4" t="s">
         <v>2596</v>
       </c>
-      <c r="C225" s="4" t="s">
+      <c r="C227" s="4" t="s">
         <v>2598</v>
       </c>
-      <c r="D225" s="4" t="s">
+      <c r="D227" s="4" t="s">
         <v>2599</v>
       </c>
-      <c r="E225" s="4" t="s">
+      <c r="E227" s="4" t="s">
         <v>2600</v>
       </c>
-      <c r="F225" s="4" t="s">
+      <c r="F227" s="4" t="s">
         <v>2601</v>
       </c>
-      <c r="G225" s="4" t="s">
+      <c r="G227" s="4" t="s">
         <v>2602</v>
       </c>
-      <c r="H225" s="5" t="s">
+      <c r="H227" s="5" t="s">
         <v>2603</v>
       </c>
-      <c r="I225" s="4" t="s">
+      <c r="I227" s="4" t="s">
         <v>2604</v>
       </c>
-      <c r="J225" s="4" t="s">
+      <c r="J227" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="K225" s="4" t="s">
+      <c r="K227" s="4" t="s">
         <v>2606</v>
       </c>
-      <c r="L225" s="4" t="s">
+      <c r="L227" s="4" t="s">
         <v>2607</v>
       </c>
-      <c r="M225" s="4" t="s">
+      <c r="M227" s="4" t="s">
         <v>2608</v>
       </c>
-      <c r="N225" s="4" t="s">
+      <c r="N227" s="4" t="s">
         <v>2609</v>
       </c>
-      <c r="O225" s="4" t="s">
+      <c r="O227" s="4" t="s">
         <v>2610</v>
       </c>
-      <c r="P225" s="4" t="s">
+      <c r="P227" s="4" t="s">
         <v>2611</v>
       </c>
     </row>

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II_Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02EB216-2E2E-4EC4-A589-2EC516E51B1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08D509-BF59-4283-A5FD-B0EC14D26B4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="2641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6398" uniqueCount="2657">
   <si>
     <t>Temperature</t>
   </si>
@@ -7948,6 +7948,54 @@
   </si>
   <si>
     <t>Mpango huo unahitaji kubadilishwa. Bofya hapa kwa toleo {0}</t>
+  </si>
+  <si>
+    <t>PE:PacemakerCaptureThreshold</t>
+  </si>
+  <si>
+    <t>Pacemaker Capture Threshold</t>
+  </si>
+  <si>
+    <t>Kiasi cha nishati kwa pacemaker</t>
+  </si>
+  <si>
+    <t>количество энергии для кардиостимулятора</t>
+  </si>
+  <si>
+    <t>Quantidade de energia para o marcapasso</t>
+  </si>
+  <si>
+    <t>맥박 조정기의 에너지 양</t>
+  </si>
+  <si>
+    <t>Quantità di energia per il pacemaker</t>
+  </si>
+  <si>
+    <t>पेसमेकर के लिए ऊर्जा की मात्रा</t>
+  </si>
+  <si>
+    <t>כמות האנרגיה לקוצב לב</t>
+  </si>
+  <si>
+    <t>Quantité d'énergie pour le stimulateur cardiaque</t>
+  </si>
+  <si>
+    <t>Cantidad de energía para marcapasos.</t>
+  </si>
+  <si>
+    <t>مقدار انرژی برای ضربان ساز</t>
+  </si>
+  <si>
+    <t>Energiemenge für Schrittmacher</t>
+  </si>
+  <si>
+    <t>起搏器的能量</t>
+  </si>
+  <si>
+    <t>كمية الطاقة لجهاز تنظيم ضربات القلب</t>
+  </si>
+  <si>
+    <t>የፔነስ ሜከር እንዲሰራ የሚያስፈልገውን የኃይል መጠን</t>
   </si>
 </sst>
 </file>
@@ -8319,11 +8367,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P227"/>
+  <dimension ref="A1:P228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A219" sqref="A219"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12129,6196 +12177,6246 @@
     </row>
     <row r="88" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>28</v>
+        <v>2641</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>64</v>
+        <v>2642</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>1630</v>
+        <v>2656</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>1913</v>
+        <v>2655</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>2230</v>
+        <v>2654</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>325</v>
+        <v>2653</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>1911</v>
+        <v>2652</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>113</v>
+        <v>2651</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>154</v>
+        <v>2650</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>1909</v>
+        <v>2649</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>2248</v>
+        <v>2648</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>202</v>
+        <v>2647</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>923</v>
+        <v>2646</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>239</v>
+        <v>2645</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>283</v>
+        <v>2644</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>1073</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>2230</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>1909</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>2248</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M89" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O89" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B90" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>1631</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D90" s="4" t="s">
         <v>1914</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E90" s="4" t="s">
         <v>2231</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F90" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G90" s="4" t="s">
         <v>1912</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H90" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I90" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J89" s="4" t="s">
+      <c r="J90" s="4" t="s">
         <v>1910</v>
       </c>
-      <c r="K89" s="4" t="s">
+      <c r="K90" s="4" t="s">
         <v>2249</v>
       </c>
-      <c r="L89" s="4" t="s">
+      <c r="L90" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M89" s="4" t="s">
+      <c r="M90" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="N89" s="4" t="s">
+      <c r="N90" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="O89" s="4" t="s">
+      <c r="O90" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="P89" s="4" t="s">
+      <c r="P90" s="4" t="s">
         <v>1074</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="91" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>1123</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="95" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>1103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>1856</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>2200</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>1865</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>1873</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>2275</v>
-      </c>
-      <c r="L98" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="M98" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="N98" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="O98" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="P98" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>1336</v>
+        <v>1365</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>1332</v>
+        <v>4</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>1636</v>
+        <v>1606</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>1965</v>
+        <v>1856</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>2291</v>
+        <v>2200</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>1366</v>
+        <v>4</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>1967</v>
+        <v>1865</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>1388</v>
+        <v>93</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>1424</v>
+        <v>133</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>1969</v>
+        <v>1873</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>2293</v>
+        <v>2275</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>1444</v>
+        <v>184</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>1465</v>
+        <v>902</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>1493</v>
+        <v>93</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>1516</v>
+        <v>262</v>
       </c>
       <c r="P99" s="4" t="s">
-        <v>1541</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>1389</v>
+        <v>1493</v>
       </c>
       <c r="O100" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="P100" s="4" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="101" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>1986</v>
+        <v>1968</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>2002</v>
+        <v>1970</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>2311</v>
+        <v>2294</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>1494</v>
+        <v>1389</v>
       </c>
       <c r="O101" s="4" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
       <c r="P101" s="4" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="102" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>1323</v>
+        <v>1334</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>1327</v>
+        <v>1335</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="O102" s="4" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="P102" s="4" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="103" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>1331</v>
+        <v>1324</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>2591</v>
+        <v>1328</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>1207</v>
+        <v>1370</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="O104" s="4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="P104" s="4" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="105" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>1329</v>
+        <v>2591</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>1371</v>
+        <v>1207</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="O105" s="4" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="P105" s="4" t="s">
-        <v>1540</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="106" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>2300</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>1372</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>1991</v>
+        <v>2299</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>1990</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>1395</v>
+        <v>1498</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="P106" s="4" t="s">
-        <v>1553</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="107" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>1338</v>
+        <v>1326</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>1341</v>
+        <v>1330</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>2301</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>1373</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>1992</v>
+        <v>2300</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>1991</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>1508</v>
+        <v>1395</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="P107" s="4" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="108" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>2302</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G108" s="5" t="s">
-        <v>1993</v>
+        <v>2301</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>1992</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>1423</v>
+        <v>1433</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>1397</v>
+        <v>1455</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>1397</v>
+        <v>1508</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="109" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>1153</v>
+        <v>1342</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>2303</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>1226</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>1994</v>
+        <v>2302</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>1993</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>1229</v>
+        <v>1397</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>1224</v>
+        <v>1423</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>1229</v>
+        <v>1397</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>1229</v>
+        <v>1397</v>
       </c>
       <c r="O109" s="4" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="P109" s="4" t="s">
-        <v>1219</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="110" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>1347</v>
+        <v>1153</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>1347</v>
+        <v>1226</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>1398</v>
+        <v>1229</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>1434</v>
+        <v>1224</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>1456</v>
+        <v>1229</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>902</v>
+        <v>1474</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>1499</v>
+        <v>1229</v>
       </c>
       <c r="O110" s="4" t="s">
-        <v>262</v>
+        <v>1533</v>
       </c>
       <c r="P110" s="4" t="s">
-        <v>4</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="111" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>2300</v>
+        <v>2304</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>1375</v>
+        <v>1347</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>1475</v>
+        <v>902</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="O111" s="4" t="s">
-        <v>1534</v>
+        <v>262</v>
       </c>
       <c r="P111" s="4" t="s">
-        <v>1552</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>2576</v>
+        <v>1346</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>2577</v>
+        <v>1348</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>2580</v>
+        <v>1648</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>2581</v>
+        <v>1976</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>2579</v>
+        <v>2300</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>2582</v>
+        <v>1375</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>2583</v>
+        <v>1996</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>2584</v>
+        <v>1399</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>2586</v>
+        <v>1435</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>2585</v>
+        <v>2012</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>2578</v>
+        <v>2321</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>2587</v>
+        <v>1457</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>2588</v>
+        <v>1475</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>2587</v>
+        <v>1504</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>2589</v>
+        <v>1534</v>
       </c>
       <c r="P112" s="4" t="s">
-        <v>2590</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="113" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>1350</v>
+        <v>2576</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>1351</v>
+        <v>2577</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1644</v>
+        <v>2580</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>1977</v>
+        <v>2581</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>2301</v>
+        <v>2579</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>1373</v>
+        <v>2582</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>1992</v>
+        <v>2583</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>1396</v>
+        <v>2584</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>1433</v>
+        <v>2586</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>2008</v>
+        <v>2585</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>2317</v>
+        <v>2578</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>1455</v>
+        <v>2587</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>1476</v>
+        <v>2588</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>1508</v>
+        <v>2587</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>1531</v>
+        <v>2589</v>
       </c>
       <c r="P113" s="4" t="s">
-        <v>1550</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="114" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>1363</v>
+        <v>1350</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>2305</v>
+        <v>2301</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>1997</v>
+        <v>1992</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>1377</v>
+        <v>1396</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>1377</v>
+        <v>1433</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>2322</v>
+        <v>2317</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>1377</v>
+        <v>1455</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>1521</v>
+        <v>1531</v>
       </c>
       <c r="P114" s="4" t="s">
-        <v>1377</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="115" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>1649</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>2020</v>
+        <v>1981</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>2306</v>
+        <v>2305</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>1377</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>2019</v>
+        <v>1997</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>1377</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="116" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>1355</v>
+        <v>1364</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>1982</v>
+        <v>2020</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>2307</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>1380</v>
+        <v>2306</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>1998</v>
-      </c>
-      <c r="H116" s="4" t="s">
-        <v>1400</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>1436</v>
+        <v>2019</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>1458</v>
+        <v>1376</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="P116" s="4" t="s">
-        <v>1554</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="117" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>1975</v>
+        <v>1982</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>2299</v>
+        <v>2307</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>1371</v>
+        <v>1380</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>1990</v>
+        <v>1998</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="P117" s="4" t="s">
-        <v>1549</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>1983</v>
+        <v>1975</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>2308</v>
+        <v>2299</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="N118" s="4" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="O118" s="4" t="s">
-        <v>1518</v>
+        <v>1524</v>
       </c>
       <c r="P118" s="4" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="N119" s="4" t="s">
-        <v>1502</v>
+        <v>1507</v>
       </c>
       <c r="O119" s="4" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="P119" s="4" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="120" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>2309</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>1403</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>1439</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>2017</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>2327</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>1461</v>
+      </c>
+      <c r="M120" s="4" t="s">
+        <v>1482</v>
+      </c>
+      <c r="N120" s="4" t="s">
+        <v>1502</v>
+      </c>
+      <c r="O120" s="4" t="s">
+        <v>1519</v>
+      </c>
+      <c r="P120" s="4" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
         <v>1361</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B121" s="4" t="s">
         <v>1362</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>1654</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D121" s="4" t="s">
         <v>1985</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E121" s="4" t="s">
         <v>2310</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F121" s="4" t="s">
         <v>1383</v>
       </c>
-      <c r="G120" s="4" t="s">
+      <c r="G121" s="4" t="s">
         <v>2001</v>
       </c>
-      <c r="H120" s="4" t="s">
+      <c r="H121" s="4" t="s">
         <v>1404</v>
       </c>
-      <c r="I120" s="4" t="s">
+      <c r="I121" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="J120" s="4" t="s">
+      <c r="J121" s="4" t="s">
         <v>2018</v>
       </c>
-      <c r="K120" s="4" t="s">
+      <c r="K121" s="4" t="s">
         <v>2328</v>
       </c>
-      <c r="L120" s="4" t="s">
+      <c r="L121" s="4" t="s">
         <v>1462</v>
       </c>
-      <c r="M120" s="4" t="s">
+      <c r="M121" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="N120" s="4" t="s">
+      <c r="N121" s="4" t="s">
         <v>1503</v>
       </c>
-      <c r="O120" s="4" t="s">
+      <c r="O121" s="4" t="s">
         <v>1520</v>
       </c>
-      <c r="P120" s="4" t="s">
+      <c r="P121" s="4" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>1706</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>1965</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>2329</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>1378</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>2036</v>
-      </c>
-      <c r="H122" s="4" t="s">
-        <v>1405</v>
-      </c>
-      <c r="I122" s="4" t="s">
-        <v>1418</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>2052</v>
-      </c>
-      <c r="K122" s="4" t="s">
-        <v>2339</v>
-      </c>
-      <c r="L122" s="4" t="s">
-        <v>1405</v>
-      </c>
-      <c r="M122" s="4" t="s">
-        <v>1465</v>
-      </c>
-      <c r="N122" s="4" t="s">
-        <v>1405</v>
-      </c>
-      <c r="O122" s="4" t="s">
-        <v>1535</v>
-      </c>
-      <c r="P122" s="4" t="s">
-        <v>1555</v>
-      </c>
-    </row>
+    <row r="122" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="123" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>1158</v>
+        <v>1313</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>1159</v>
+        <v>1316</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>2022</v>
+        <v>1965</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>1293</v>
+        <v>1378</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>1285</v>
+        <v>1405</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>1286</v>
+        <v>1418</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>1288</v>
+        <v>1405</v>
       </c>
       <c r="M123" s="4" t="s">
-        <v>1289</v>
+        <v>1465</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>1290</v>
+        <v>1405</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>1291</v>
+        <v>1535</v>
       </c>
       <c r="P123" s="4" t="s">
-        <v>1292</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="124" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>1297</v>
+        <v>1288</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>1298</v>
+        <v>1289</v>
       </c>
       <c r="N124" s="4" t="s">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="O124" s="4" t="s">
-        <v>1300</v>
+        <v>1291</v>
       </c>
       <c r="P124" s="4" t="s">
-        <v>1301</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>1314</v>
+        <v>1164</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>1317</v>
+        <v>1165</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>1317</v>
+        <v>1294</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>1406</v>
+        <v>1295</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>1419</v>
+        <v>1296</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>1441</v>
+        <v>1297</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>1484</v>
+        <v>1298</v>
       </c>
       <c r="N125" s="4" t="s">
-        <v>1419</v>
+        <v>1299</v>
       </c>
       <c r="O125" s="4" t="s">
-        <v>1536</v>
+        <v>1300</v>
       </c>
       <c r="P125" s="4" t="s">
-        <v>1557</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="126" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>1143</v>
+        <v>1317</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>1379</v>
+        <v>1317</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>1509</v>
+        <v>1419</v>
       </c>
       <c r="O126" s="4" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="P126" s="4" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="127" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>1319</v>
+        <v>1143</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>1319</v>
+        <v>1379</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="N127" s="4" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="O127" s="4" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="P127" s="4" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="128" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>1166</v>
+        <v>1320</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>1168</v>
+        <v>1319</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>1994</v>
+        <v>2026</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>1186</v>
+        <v>1319</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>1192</v>
+        <v>1408</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>1193</v>
+        <v>1421</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>1194</v>
+        <v>1443</v>
       </c>
       <c r="M128" s="4" t="s">
-        <v>1195</v>
+        <v>1486</v>
       </c>
       <c r="N128" s="4" t="s">
-        <v>1191</v>
+        <v>1510</v>
       </c>
       <c r="O128" s="4" t="s">
-        <v>1189</v>
+        <v>1538</v>
       </c>
       <c r="P128" s="4" t="s">
-        <v>1187</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="129" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>2027</v>
+        <v>1994</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1184</v>
+        <v>1192</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="N129" s="4" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="O129" s="4" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="P129" s="4" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="130" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>1261</v>
+        <v>1185</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>1257</v>
+        <v>1184</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>1260</v>
+        <v>1198</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>1268</v>
+        <v>1197</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>1267</v>
+        <v>1196</v>
       </c>
       <c r="N130" s="4" t="s">
-        <v>1266</v>
+        <v>1190</v>
       </c>
       <c r="O130" s="4" t="s">
-        <v>1269</v>
+        <v>1188</v>
       </c>
       <c r="P130" s="4" t="s">
-        <v>1270</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="131" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>1304</v>
+        <v>1171</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1303</v>
+        <v>1170</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>1263</v>
+        <v>1268</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="N131" s="4" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="O131" s="4" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="P131" s="4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="132" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>1140</v>
+        <v>1304</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>1142</v>
+        <v>1303</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>1669</v>
+        <v>1715</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>1855</v>
+        <v>2029</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>2199</v>
+        <v>2338</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>637</v>
+        <v>1262</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>1864</v>
+        <v>2045</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>640</v>
+        <v>1258</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>659</v>
+        <v>1259</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>2062</v>
-      </c>
-      <c r="K132" s="5" t="s">
-        <v>2208</v>
+        <v>2061</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>2348</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>686</v>
+        <v>1263</v>
       </c>
       <c r="M132" s="4" t="s">
-        <v>940</v>
+        <v>1264</v>
       </c>
       <c r="N132" s="4" t="s">
-        <v>644</v>
+        <v>1265</v>
       </c>
       <c r="O132" s="4" t="s">
-        <v>689</v>
+        <v>1272</v>
       </c>
       <c r="P132" s="4" t="s">
-        <v>443</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="133" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>1710</v>
+        <v>1669</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>2025</v>
+        <v>1855</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>2333</v>
+        <v>2199</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>314</v>
+        <v>637</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>2040</v>
+        <v>1864</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>103</v>
+        <v>640</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>1302</v>
+        <v>659</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>2056</v>
-      </c>
-      <c r="K133" s="4" t="s">
-        <v>2343</v>
+        <v>2062</v>
+      </c>
+      <c r="K133" s="5" t="s">
+        <v>2208</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>193</v>
+        <v>686</v>
       </c>
       <c r="M133" s="4" t="s">
-        <v>912</v>
+        <v>940</v>
       </c>
       <c r="N133" s="4" t="s">
-        <v>228</v>
+        <v>644</v>
       </c>
       <c r="O133" s="4" t="s">
-        <v>272</v>
+        <v>689</v>
       </c>
       <c r="P133" s="4" t="s">
-        <v>1001</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>2354</v>
+        <v>2333</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>1207</v>
+        <v>314</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>1208</v>
+        <v>103</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>1199</v>
+        <v>1302</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>2063</v>
+        <v>2056</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>2355</v>
+        <v>2343</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>1203</v>
+        <v>193</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>1200</v>
+        <v>912</v>
       </c>
       <c r="N134" s="4" t="s">
-        <v>1208</v>
+        <v>228</v>
       </c>
       <c r="O134" s="4" t="s">
-        <v>1211</v>
+        <v>272</v>
       </c>
       <c r="P134" s="4" t="s">
-        <v>1212</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="135" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>2349</v>
+        <v>2354</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="N135" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="O135" s="4" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="P135" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="136" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>1227</v>
+        <v>1206</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>1228</v>
+        <v>1205</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>1223</v>
+        <v>1202</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>1222</v>
+        <v>1204</v>
       </c>
       <c r="M136" s="4" t="s">
-        <v>1221</v>
+        <v>1201</v>
       </c>
       <c r="N136" s="4" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="O136" s="4" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="P136" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="137" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>1646</v>
+        <v>1718</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>1979</v>
+        <v>2032</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>2303</v>
+        <v>2350</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>1994</v>
+        <v>2048</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>2010</v>
+        <v>2065</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>2319</v>
+        <v>2357</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>1225</v>
-      </c>
-      <c r="M137" s="6" t="s">
-        <v>1220</v>
+        <v>1222</v>
+      </c>
+      <c r="M137" s="4" t="s">
+        <v>1221</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="O137" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="P137" s="4" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="138" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1172</v>
+        <v>1153</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>1719</v>
+        <v>1646</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>2033</v>
+        <v>1979</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>2351</v>
+        <v>2303</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>1175</v>
+        <v>1226</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>2049</v>
+        <v>1994</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>1176</v>
+        <v>1229</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>1177</v>
+        <v>1224</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>2066</v>
+        <v>2010</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>2358</v>
+        <v>2319</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>1178</v>
-      </c>
-      <c r="M138" s="4" t="s">
-        <v>1179</v>
+        <v>1225</v>
+      </c>
+      <c r="M138" s="6" t="s">
+        <v>1220</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>1180</v>
+        <v>1218</v>
       </c>
       <c r="O138" s="4" t="s">
-        <v>1181</v>
+        <v>1217</v>
       </c>
       <c r="P138" s="4" t="s">
-        <v>1182</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="139" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>1310</v>
+        <v>1151</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1311</v>
+        <v>1172</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>1384</v>
+        <v>1175</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>1409</v>
+        <v>1176</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>1422</v>
+        <v>1177</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>1446</v>
+        <v>1178</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>1487</v>
+        <v>1179</v>
       </c>
       <c r="N139" s="4" t="s">
-        <v>1511</v>
+        <v>1180</v>
       </c>
       <c r="O139" s="4" t="s">
-        <v>1515</v>
+        <v>1181</v>
+      </c>
+      <c r="P139" s="4" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="140" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>1978</v>
+        <v>2034</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>2302</v>
+        <v>2352</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>1993</v>
+        <v>2050</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>2009</v>
+        <v>2067</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>2318</v>
+        <v>2359</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="N140" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="O140" s="4" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="141" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>1173</v>
+        <v>1309</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>1174</v>
+        <v>1312</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>2035</v>
+        <v>1978</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>2353</v>
+        <v>2302</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>1280</v>
+        <v>1385</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>2051</v>
+        <v>1993</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>1279</v>
+        <v>1410</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>1278</v>
+        <v>1423</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>2068</v>
+        <v>2009</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>2360</v>
+        <v>2318</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>1281</v>
+        <v>1447</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>1267</v>
+        <v>1488</v>
       </c>
       <c r="N141" s="4" t="s">
-        <v>1282</v>
+        <v>1512</v>
       </c>
       <c r="O141" s="4" t="s">
-        <v>1283</v>
-      </c>
-      <c r="P141" s="4" t="s">
-        <v>1284</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="142" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>1307</v>
+        <v>1173</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>1305</v>
+        <v>1174</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>1636</v>
+        <v>1722</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>1965</v>
+        <v>2035</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>2291</v>
+        <v>2353</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>1366</v>
+        <v>1280</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>1967</v>
+        <v>2051</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>1388</v>
+        <v>1279</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>1424</v>
+        <v>1278</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>1969</v>
+        <v>2068</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>2293</v>
+        <v>2360</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>1444</v>
+        <v>1281</v>
       </c>
       <c r="M142" s="4" t="s">
-        <v>1465</v>
+        <v>1267</v>
       </c>
       <c r="N142" s="4" t="s">
-        <v>1493</v>
+        <v>1282</v>
       </c>
       <c r="O142" s="4" t="s">
-        <v>1516</v>
+        <v>1283</v>
+      </c>
+      <c r="P142" s="4" t="s">
+        <v>1284</v>
       </c>
     </row>
     <row r="143" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>2291</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>1967</v>
+      </c>
+      <c r="H143" s="4" t="s">
+        <v>1388</v>
+      </c>
+      <c r="I143" s="4" t="s">
+        <v>1424</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>1969</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>2293</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>1444</v>
+      </c>
+      <c r="M143" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="N143" s="4" t="s">
+        <v>1493</v>
+      </c>
+      <c r="O143" s="4" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
         <v>1308</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B144" s="4" t="s">
         <v>1306</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>1637</v>
       </c>
-      <c r="D143" s="4" t="s">
+      <c r="D144" s="4" t="s">
         <v>1966</v>
       </c>
-      <c r="E143" s="4" t="s">
+      <c r="E144" s="4" t="s">
         <v>2292</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F144" s="4" t="s">
         <v>1367</v>
       </c>
-      <c r="G143" s="4" t="s">
+      <c r="G144" s="4" t="s">
         <v>1968</v>
       </c>
-      <c r="H143" s="4" t="s">
+      <c r="H144" s="4" t="s">
         <v>1389</v>
       </c>
-      <c r="I143" s="4" t="s">
+      <c r="I144" s="4" t="s">
         <v>1425</v>
       </c>
-      <c r="J143" s="4" t="s">
+      <c r="J144" s="4" t="s">
         <v>1970</v>
       </c>
-      <c r="K143" s="4" t="s">
+      <c r="K144" s="4" t="s">
         <v>2294</v>
       </c>
-      <c r="L143" s="4" t="s">
+      <c r="L144" s="4" t="s">
         <v>1445</v>
       </c>
-      <c r="M143" s="4" t="s">
+      <c r="M144" s="4" t="s">
         <v>1464</v>
       </c>
-      <c r="N143" s="4" t="s">
+      <c r="N144" s="4" t="s">
         <v>1389</v>
       </c>
-      <c r="O143" s="4" t="s">
+      <c r="O144" s="4" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="144" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>1655</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>2069</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>2361</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>2083</v>
-      </c>
-      <c r="H145" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="I145" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J145" s="4" t="s">
-        <v>2097</v>
-      </c>
-      <c r="K145" s="4" t="s">
-        <v>2375</v>
-      </c>
-      <c r="L145" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="M145" s="4" t="s">
-        <v>926</v>
-      </c>
-      <c r="N145" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="O145" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="P145" s="4" t="s">
-        <v>1011</v>
-      </c>
-    </row>
+    <row r="145" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="146" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N146" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O146" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P146" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="147" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>369</v>
+        <v>74</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>618</v>
+        <v>328</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>619</v>
+        <v>170</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>620</v>
+        <v>157</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>622</v>
+        <v>204</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N147" s="4" t="s">
-        <v>623</v>
+        <v>242</v>
       </c>
       <c r="O147" s="4" t="s">
-        <v>624</v>
+        <v>285</v>
       </c>
       <c r="P147" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="148" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>701</v>
+        <v>369</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>1665</v>
+        <v>1657</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>2079</v>
+        <v>2071</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>2371</v>
+        <v>2363</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>840</v>
+        <v>618</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>2093</v>
+        <v>2085</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>834</v>
+        <v>619</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>835</v>
+        <v>620</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>2107</v>
+        <v>2099</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>2385</v>
+        <v>2377</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>836</v>
+        <v>622</v>
       </c>
       <c r="M148" s="4" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="N148" s="4" t="s">
-        <v>837</v>
+        <v>623</v>
       </c>
       <c r="O148" s="4" t="s">
-        <v>839</v>
+        <v>624</v>
       </c>
       <c r="P148" s="4" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="149" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>368</v>
+        <v>701</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>1658</v>
+        <v>1665</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>2072</v>
+        <v>2079</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>2364</v>
+        <v>2371</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>617</v>
+        <v>840</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>2086</v>
+        <v>2093</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>616</v>
+        <v>834</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>615</v>
+        <v>835</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>2100</v>
+        <v>2107</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>2378</v>
+        <v>2385</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>614</v>
+        <v>836</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="N149" s="4" t="s">
-        <v>613</v>
+        <v>837</v>
       </c>
       <c r="O149" s="4" t="s">
-        <v>612</v>
+        <v>839</v>
       </c>
       <c r="P149" s="4" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="150" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>2086</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="I150" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>2100</v>
+      </c>
+      <c r="K150" s="4" t="s">
+        <v>2378</v>
+      </c>
+      <c r="L150" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="M150" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="N150" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="O150" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="P150" s="4" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
         <v>1136</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B151" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>1666</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D151" s="4" t="s">
         <v>2080</v>
       </c>
-      <c r="E150" s="4" t="s">
+      <c r="E151" s="4" t="s">
         <v>2372</v>
       </c>
-      <c r="F150" s="4" t="s">
+      <c r="F151" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="G150" s="4" t="s">
+      <c r="G151" s="4" t="s">
         <v>2094</v>
       </c>
-      <c r="H150" s="4" t="s">
+      <c r="H151" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="I150" s="4" t="s">
+      <c r="I151" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="J150" s="4" t="s">
+      <c r="J151" s="4" t="s">
         <v>2108</v>
       </c>
-      <c r="K150" s="4" t="s">
+      <c r="K151" s="4" t="s">
         <v>2386</v>
       </c>
-      <c r="L150" s="4" t="s">
+      <c r="L151" s="4" t="s">
         <v>844</v>
       </c>
-      <c r="M150" s="4" t="s">
+      <c r="M151" s="4" t="s">
         <v>937</v>
       </c>
-      <c r="N150" s="4" t="s">
+      <c r="N151" s="4" t="s">
         <v>843</v>
       </c>
-      <c r="O150" s="4" t="s">
+      <c r="O151" s="4" t="s">
         <v>842</v>
       </c>
-      <c r="P150" s="4" t="s">
+      <c r="P151" s="4" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
         <v>2538</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B152" s="4" t="s">
         <v>2514</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C152" s="4" t="s">
         <v>1661</v>
       </c>
-      <c r="D151" s="4" t="s">
+      <c r="D152" s="4" t="s">
         <v>2517</v>
       </c>
-      <c r="E151" s="4" t="s">
+      <c r="E152" s="4" t="s">
         <v>2519</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>2521</v>
       </c>
-      <c r="G151" s="4" t="s">
+      <c r="G152" s="4" t="s">
         <v>2522</v>
       </c>
-      <c r="H151" s="2" t="s">
+      <c r="H152" s="2" t="s">
         <v>2524</v>
       </c>
-      <c r="I151" s="2" t="s">
+      <c r="I152" s="2" t="s">
         <v>2525</v>
       </c>
-      <c r="J151" s="4" t="s">
+      <c r="J152" s="4" t="s">
         <v>2103</v>
       </c>
-      <c r="K151" s="4" t="s">
+      <c r="K152" s="4" t="s">
         <v>2527</v>
       </c>
-      <c r="L151" s="2" t="s">
+      <c r="L152" s="2" t="s">
         <v>2529</v>
       </c>
-      <c r="M151" s="2" t="s">
+      <c r="M152" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="N151" s="2" t="s">
+      <c r="N152" s="2" t="s">
         <v>2532</v>
       </c>
-      <c r="O151" s="2" t="s">
+      <c r="O152" s="2" t="s">
         <v>2534</v>
       </c>
-      <c r="P151" s="2" t="s">
+      <c r="P152" s="2" t="s">
         <v>2536</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>2539</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>2515</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>2516</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>2518</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>2520</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>1367</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>2088</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>2523</v>
-      </c>
-      <c r="I152" s="4" t="s">
-        <v>2526</v>
-      </c>
-      <c r="J152" s="4" t="s">
-        <v>2102</v>
-      </c>
-      <c r="K152" s="5" t="s">
-        <v>2528</v>
-      </c>
-      <c r="L152" s="4" t="s">
-        <v>2530</v>
-      </c>
-      <c r="M152" s="4" t="s">
-        <v>2531</v>
-      </c>
-      <c r="N152" s="4" t="s">
-        <v>2533</v>
-      </c>
-      <c r="O152" s="4" t="s">
-        <v>2535</v>
-      </c>
-      <c r="P152" s="4" t="s">
-        <v>2537</v>
       </c>
     </row>
     <row r="153" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>1128</v>
+        <v>2539</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>75</v>
+        <v>2515</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>1659</v>
+        <v>2516</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>2073</v>
+        <v>2518</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>2365</v>
+        <v>2520</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>329</v>
+        <v>1367</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>115</v>
+        <v>2523</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>158</v>
+        <v>2526</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>2101</v>
-      </c>
-      <c r="K153" s="4" t="s">
-        <v>2379</v>
+        <v>2102</v>
+      </c>
+      <c r="K153" s="5" t="s">
+        <v>2528</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>205</v>
+        <v>2530</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>930</v>
+        <v>2531</v>
       </c>
       <c r="N153" s="4" t="s">
-        <v>243</v>
+        <v>2533</v>
       </c>
       <c r="O153" s="4" t="s">
-        <v>286</v>
+        <v>2535</v>
       </c>
       <c r="P153" s="4" t="s">
-        <v>1015</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="154" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>635</v>
+        <v>329</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>632</v>
+        <v>115</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>631</v>
+        <v>158</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>633</v>
+        <v>205</v>
       </c>
       <c r="M154" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="N154" s="4" t="s">
-        <v>634</v>
+        <v>243</v>
       </c>
       <c r="O154" s="4" t="s">
-        <v>625</v>
+        <v>286</v>
       </c>
       <c r="P154" s="4" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="155" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="M155" s="4" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="N155" s="4" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="O155" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P155" s="4" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="156" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>330</v>
+        <v>636</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>116</v>
+        <v>629</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>159</v>
+        <v>630</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>206</v>
+        <v>628</v>
       </c>
       <c r="M156" s="4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="N156" s="4" t="s">
-        <v>244</v>
+        <v>627</v>
       </c>
       <c r="O156" s="4" t="s">
-        <v>287</v>
+        <v>626</v>
       </c>
       <c r="P156" s="4" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="157" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="N157" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O157" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="P157" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="158" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="N158" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O158" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P158" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="159" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>1599</v>
+        <v>1664</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>1825</v>
+        <v>2078</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>2280</v>
+        <v>2370</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>1834</v>
+        <v>2092</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>350</v>
+        <v>172</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>351</v>
+        <v>161</v>
       </c>
       <c r="J159" s="4" t="s">
-        <v>1843</v>
+        <v>2106</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>2287</v>
+        <v>2384</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>352</v>
+        <v>208</v>
       </c>
       <c r="M159" s="4" t="s">
-        <v>894</v>
+        <v>935</v>
       </c>
       <c r="N159" s="4" t="s">
-        <v>838</v>
+        <v>246</v>
       </c>
       <c r="O159" s="4" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="P159" s="4" t="s">
-        <v>985</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="160" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>703</v>
+        <v>45</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>1667</v>
+        <v>1599</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>2081</v>
+        <v>1825</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>2373</v>
+        <v>2280</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>852</v>
+        <v>349</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>2095</v>
+        <v>1834</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>847</v>
+        <v>350</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>848</v>
+        <v>351</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>2109</v>
+        <v>1843</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>2387</v>
+        <v>2287</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>849</v>
+        <v>352</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>938</v>
+        <v>894</v>
       </c>
       <c r="N160" s="4" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="O160" s="4" t="s">
-        <v>851</v>
+        <v>256</v>
       </c>
       <c r="P160" s="4" t="s">
-        <v>1023</v>
+        <v>985</v>
       </c>
     </row>
     <row r="161" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>2081</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="I161" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>2109</v>
+      </c>
+      <c r="K161" s="4" t="s">
+        <v>2387</v>
+      </c>
+      <c r="L161" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="M161" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="N161" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="O161" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="P161" s="4" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
         <v>1156</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B162" s="4" t="s">
         <v>1155</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C162" s="4" t="s">
         <v>1668</v>
       </c>
-      <c r="D161" s="4" t="s">
+      <c r="D162" s="4" t="s">
         <v>2082</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="E162" s="4" t="s">
         <v>2374</v>
       </c>
-      <c r="F161" s="4" t="s">
+      <c r="F162" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="G161" s="4" t="s">
+      <c r="G162" s="4" t="s">
         <v>2096</v>
       </c>
-      <c r="H161" s="4" t="s">
+      <c r="H162" s="4" t="s">
         <v>1176</v>
       </c>
-      <c r="I161" s="4" t="s">
+      <c r="I162" s="4" t="s">
         <v>1177</v>
       </c>
-      <c r="J161" s="4" t="s">
+      <c r="J162" s="4" t="s">
         <v>2110</v>
       </c>
-      <c r="K161" s="4" t="s">
+      <c r="K162" s="4" t="s">
         <v>2388</v>
       </c>
-      <c r="L161" s="4" t="s">
+      <c r="L162" s="4" t="s">
         <v>1178</v>
       </c>
-      <c r="M161" s="4" t="s">
+      <c r="M162" s="4" t="s">
         <v>1179</v>
       </c>
-      <c r="N161" s="4" t="s">
+      <c r="N162" s="4" t="s">
         <v>1180</v>
       </c>
-      <c r="O161" s="4" t="s">
+      <c r="O162" s="4" t="s">
         <v>1181</v>
       </c>
-      <c r="P161" s="4" t="s">
+      <c r="P162" s="4" t="s">
         <v>1182</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>1855</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>2199</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>1864</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="I163" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="J163" s="4" t="s">
-        <v>2062</v>
-      </c>
-      <c r="K163" s="5" t="s">
-        <v>2208</v>
-      </c>
-      <c r="L163" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="M163" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="N163" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="O163" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="P163" s="4" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="164" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>1617</v>
+        <v>1669</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>1881</v>
+        <v>1855</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>2218</v>
+        <v>2199</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>312</v>
+        <v>637</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>1897</v>
+        <v>1864</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>102</v>
+        <v>640</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>142</v>
+        <v>659</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>1921</v>
-      </c>
-      <c r="K164" s="4" t="s">
-        <v>2235</v>
+        <v>2062</v>
+      </c>
+      <c r="K164" s="5" t="s">
+        <v>2208</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>102</v>
+        <v>686</v>
       </c>
       <c r="M164" s="4" t="s">
-        <v>911</v>
+        <v>940</v>
       </c>
       <c r="N164" s="4" t="s">
-        <v>102</v>
+        <v>644</v>
       </c>
       <c r="O164" s="4" t="s">
-        <v>271</v>
+        <v>689</v>
       </c>
       <c r="P164" s="4" t="s">
-        <v>1000</v>
+        <v>443</v>
       </c>
     </row>
     <row r="165" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>1919</v>
+        <v>1921</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="M165" s="4" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="N165" s="4" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="O165" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P165" s="4" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="166" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>444</v>
+        <v>50</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>1670</v>
+        <v>1615</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>2111</v>
+        <v>1880</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>638</v>
+        <v>310</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>2115</v>
+        <v>1896</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>641</v>
+        <v>100</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>660</v>
+        <v>140</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>2118</v>
+        <v>1919</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="L166" s="4" t="s">
-        <v>674</v>
+        <v>191</v>
       </c>
       <c r="M166" s="4" t="s">
-        <v>941</v>
+        <v>909</v>
       </c>
       <c r="N166" s="4" t="s">
-        <v>645</v>
+        <v>226</v>
       </c>
       <c r="O166" s="4" t="s">
-        <v>611</v>
+        <v>269</v>
       </c>
       <c r="P166" s="4" t="s">
-        <v>1024</v>
+        <v>998</v>
       </c>
     </row>
     <row r="167" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>51</v>
+        <v>444</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>1616</v>
+        <v>1670</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>1915</v>
+        <v>2111</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>311</v>
+        <v>638</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>1916</v>
+        <v>2115</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>101</v>
+        <v>641</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>141</v>
+        <v>660</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>1920</v>
+        <v>2118</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="L167" s="4" t="s">
-        <v>192</v>
+        <v>674</v>
       </c>
       <c r="M167" s="4" t="s">
-        <v>910</v>
+        <v>941</v>
       </c>
       <c r="N167" s="4" t="s">
-        <v>227</v>
+        <v>645</v>
       </c>
       <c r="O167" s="4" t="s">
-        <v>270</v>
+        <v>611</v>
       </c>
       <c r="P167" s="4" t="s">
-        <v>999</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="168" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>445</v>
+        <v>51</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>1671</v>
+        <v>1616</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>2112</v>
+        <v>1915</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>2389</v>
+        <v>2217</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>639</v>
+        <v>311</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>2116</v>
+        <v>1916</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>642</v>
+        <v>101</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>661</v>
+        <v>141</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>2119</v>
+        <v>1920</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>2392</v>
+        <v>2234</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>675</v>
+        <v>192</v>
       </c>
       <c r="M168" s="4" t="s">
-        <v>942</v>
+        <v>910</v>
       </c>
       <c r="N168" s="4" t="s">
-        <v>646</v>
+        <v>227</v>
       </c>
       <c r="O168" s="4" t="s">
-        <v>690</v>
+        <v>270</v>
       </c>
       <c r="P168" s="4" t="s">
-        <v>1025</v>
+        <v>999</v>
       </c>
     </row>
     <row r="169" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>53</v>
+        <v>445</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>1619</v>
+        <v>1671</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>1883</v>
+        <v>2112</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>2220</v>
+        <v>2389</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>314</v>
+        <v>639</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>1895</v>
+        <v>2116</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>103</v>
+        <v>642</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>144</v>
+        <v>661</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>1923</v>
+        <v>2119</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>2237</v>
+        <v>2392</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>193</v>
+        <v>675</v>
       </c>
       <c r="M169" s="4" t="s">
-        <v>912</v>
+        <v>942</v>
       </c>
       <c r="N169" s="4" t="s">
-        <v>228</v>
+        <v>646</v>
       </c>
       <c r="O169" s="4" t="s">
-        <v>272</v>
+        <v>690</v>
       </c>
       <c r="P169" s="4" t="s">
-        <v>1001</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="170" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M170" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N170" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O170" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P170" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="171" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>704</v>
+        <v>453</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M171" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="N171" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O171" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P171" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="172" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>2541</v>
+        <v>704</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>2543</v>
+        <v>55</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>2548</v>
+        <v>1621</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>2544</v>
+        <v>1885</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>2549</v>
+        <v>2222</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>2550</v>
+        <v>316</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>2547</v>
+        <v>1900</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>2545</v>
+        <v>105</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>2546</v>
+        <v>146</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>2551</v>
+        <v>1925</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>2552</v>
+        <v>2239</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>2553</v>
+        <v>195</v>
       </c>
       <c r="M172" s="4" t="s">
-        <v>2554</v>
+        <v>914</v>
       </c>
       <c r="N172" s="4" t="s">
-        <v>2555</v>
+        <v>230</v>
       </c>
       <c r="O172" s="4" t="s">
-        <v>2556</v>
+        <v>274</v>
       </c>
       <c r="P172" s="4" t="s">
-        <v>2557</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="173" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>2561</v>
+        <v>2541</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>2559</v>
+        <v>2543</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>2564</v>
+        <v>2548</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>2565</v>
+        <v>2544</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>2566</v>
+        <v>2549</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>2567</v>
+        <v>2550</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>2568</v>
+        <v>2547</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>2569</v>
+        <v>2545</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>2570</v>
+        <v>2546</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>2571</v>
+        <v>2551</v>
       </c>
       <c r="K173" s="4" t="s">
-        <v>2572</v>
+        <v>2552</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>2573</v>
+        <v>2553</v>
       </c>
       <c r="M173" s="4" t="s">
-        <v>2574</v>
+        <v>2554</v>
       </c>
       <c r="N173" s="4" t="s">
-        <v>2575</v>
+        <v>2555</v>
       </c>
       <c r="O173" s="4" t="s">
-        <v>2563</v>
+        <v>2556</v>
       </c>
       <c r="P173" s="4" t="s">
-        <v>2562</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="174" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>1318</v>
+        <v>2561</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>1165</v>
+        <v>2559</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>1672</v>
+        <v>2564</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>2023</v>
+        <v>2565</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>2390</v>
+        <v>2566</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>1294</v>
+        <v>2567</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>2038</v>
+        <v>2568</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>1295</v>
+        <v>2569</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>1296</v>
+        <v>2570</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>2054</v>
+        <v>2571</v>
       </c>
       <c r="K174" s="4" t="s">
-        <v>2393</v>
+        <v>2572</v>
       </c>
       <c r="L174" s="4" t="s">
-        <v>1297</v>
+        <v>2573</v>
       </c>
       <c r="M174" s="4" t="s">
-        <v>1298</v>
+        <v>2574</v>
       </c>
       <c r="N174" s="4" t="s">
-        <v>1299</v>
+        <v>2575</v>
       </c>
       <c r="O174" s="4" t="s">
-        <v>1300</v>
+        <v>2563</v>
       </c>
       <c r="P174" s="4" t="s">
-        <v>1301</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="175" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>1344</v>
+        <v>1318</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>1343</v>
+        <v>1165</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>2113</v>
+        <v>2023</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>1386</v>
+        <v>1294</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>2117</v>
+        <v>2038</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>1411</v>
+        <v>1295</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>1412</v>
+        <v>1296</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>2120</v>
+        <v>2054</v>
       </c>
       <c r="K175" s="4" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>1413</v>
+        <v>1297</v>
       </c>
       <c r="M175" s="4" t="s">
-        <v>1414</v>
+        <v>1298</v>
       </c>
       <c r="N175" s="4" t="s">
-        <v>1415</v>
+        <v>1299</v>
       </c>
       <c r="O175" s="4" t="s">
-        <v>1416</v>
+        <v>1300</v>
       </c>
       <c r="P175" s="4" t="s">
-        <v>1417</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="176" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>2391</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G176" s="4" t="s">
+        <v>2117</v>
+      </c>
+      <c r="H176" s="4" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I176" s="4" t="s">
+        <v>1412</v>
+      </c>
+      <c r="J176" s="4" t="s">
+        <v>2120</v>
+      </c>
+      <c r="K176" s="4" t="s">
+        <v>2394</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>1413</v>
+      </c>
+      <c r="M176" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="N176" s="4" t="s">
+        <v>1415</v>
+      </c>
+      <c r="O176" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="P176" s="4" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
         <v>1157</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B177" s="4" t="s">
         <v>1155</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C177" s="4" t="s">
         <v>1668</v>
       </c>
-      <c r="D176" s="4" t="s">
+      <c r="D177" s="4" t="s">
         <v>2114</v>
       </c>
-      <c r="E176" s="4" t="s">
+      <c r="E177" s="4" t="s">
         <v>2374</v>
       </c>
-      <c r="F176" s="4" t="s">
+      <c r="F177" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="G176" s="4" t="s">
+      <c r="G177" s="4" t="s">
         <v>2096</v>
       </c>
-      <c r="H176" s="4" t="s">
+      <c r="H177" s="4" t="s">
         <v>1176</v>
       </c>
-      <c r="I176" s="4" t="s">
+      <c r="I177" s="4" t="s">
         <v>1177</v>
       </c>
-      <c r="J176" s="4" t="s">
+      <c r="J177" s="4" t="s">
         <v>2121</v>
       </c>
-      <c r="K176" s="4" t="s">
+      <c r="K177" s="4" t="s">
         <v>2388</v>
       </c>
-      <c r="L176" s="4" t="s">
+      <c r="L177" s="4" t="s">
         <v>1178</v>
       </c>
-      <c r="M176" s="4" t="s">
+      <c r="M177" s="4" t="s">
         <v>1179</v>
       </c>
-      <c r="N176" s="4" t="s">
+      <c r="N177" s="4" t="s">
         <v>1180</v>
       </c>
-      <c r="O176" s="4" t="s">
+      <c r="O177" s="4" t="s">
         <v>1181</v>
       </c>
-      <c r="P176" s="4" t="s">
+      <c r="P177" s="4" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="177" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
+    <row r="178" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B179" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C178" s="4" t="s">
+      <c r="C179" s="4" t="s">
         <v>1669</v>
       </c>
-      <c r="D178" s="4" t="s">
+      <c r="D179" s="4" t="s">
         <v>1855</v>
       </c>
-      <c r="E178" s="4" t="s">
+      <c r="E179" s="4" t="s">
         <v>2199</v>
       </c>
-      <c r="F178" s="4" t="s">
+      <c r="F179" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="G178" s="4" t="s">
+      <c r="G179" s="4" t="s">
         <v>1864</v>
       </c>
-      <c r="H178" s="4" t="s">
+      <c r="H179" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="I178" s="4" t="s">
+      <c r="I179" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="J178" s="4" t="s">
+      <c r="J179" s="4" t="s">
         <v>2062</v>
       </c>
-      <c r="K178" s="5" t="s">
+      <c r="K179" s="5" t="s">
         <v>2208</v>
       </c>
-      <c r="L178" s="4" t="s">
+      <c r="L179" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="M178" s="4" t="s">
+      <c r="M179" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="N178" s="4" t="s">
+      <c r="N179" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="O178" s="4" t="s">
+      <c r="O179" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="P178" s="4" t="s">
+      <c r="P179" s="4" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="179" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K179" s="5"/>
-    </row>
     <row r="180" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>1616</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>1915</v>
-      </c>
-      <c r="E180" s="4" t="s">
-        <v>2217</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G180" s="4" t="s">
-        <v>1916</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I180" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J180" s="4" t="s">
-        <v>1920</v>
-      </c>
-      <c r="K180" s="4" t="s">
-        <v>2234</v>
-      </c>
-      <c r="L180" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="M180" s="4" t="s">
-        <v>910</v>
-      </c>
-      <c r="N180" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="O180" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="P180" s="4" t="s">
-        <v>1043</v>
-      </c>
+      <c r="K180" s="5"/>
     </row>
     <row r="181" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>1884</v>
+        <v>1915</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>1899</v>
+        <v>1916</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>2238</v>
+        <v>2234</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M181" s="4" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="N181" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O181" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="P181" s="4" t="s">
-        <v>1002</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="182" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>1895</v>
+        <v>1899</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="K182" s="4" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M182" s="4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="N182" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O182" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P182" s="4" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="183" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>1900</v>
+        <v>1895</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="N183" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="O183" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P183" s="4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="184" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>2542</v>
+        <v>483</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>2543</v>
+        <v>55</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>2548</v>
+        <v>1621</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>2544</v>
+        <v>1885</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>2549</v>
+        <v>2222</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>2550</v>
+        <v>316</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>2547</v>
+        <v>1900</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>2545</v>
+        <v>105</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>2546</v>
+        <v>146</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>2551</v>
+        <v>1925</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>2552</v>
+        <v>2239</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>2553</v>
+        <v>195</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>2554</v>
+        <v>914</v>
       </c>
       <c r="N184" s="4" t="s">
-        <v>2555</v>
+        <v>230</v>
       </c>
       <c r="O184" s="4" t="s">
-        <v>2556</v>
+        <v>274</v>
       </c>
       <c r="P184" s="4" t="s">
-        <v>2557</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="185" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>2560</v>
+        <v>2542</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>2559</v>
+        <v>2543</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>2564</v>
+        <v>2548</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>2565</v>
+        <v>2544</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>2566</v>
+        <v>2549</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>2567</v>
+        <v>2550</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>2568</v>
+        <v>2547</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>2569</v>
+        <v>2545</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>2570</v>
+        <v>2546</v>
       </c>
       <c r="J185" s="4" t="s">
-        <v>2571</v>
+        <v>2551</v>
       </c>
       <c r="K185" s="4" t="s">
-        <v>2572</v>
+        <v>2552</v>
       </c>
       <c r="L185" s="4" t="s">
-        <v>2573</v>
+        <v>2553</v>
       </c>
       <c r="M185" s="4" t="s">
-        <v>2574</v>
+        <v>2554</v>
       </c>
       <c r="N185" s="4" t="s">
-        <v>2575</v>
+        <v>2555</v>
       </c>
       <c r="O185" s="4" t="s">
-        <v>2563</v>
+        <v>2556</v>
       </c>
       <c r="P185" s="4" t="s">
-        <v>2562</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="186" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>1147</v>
+        <v>2560</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>1148</v>
+        <v>2559</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>1674</v>
+        <v>2564</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>1858</v>
+        <v>2565</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>2202</v>
+        <v>2566</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>305</v>
+        <v>2567</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>1867</v>
+        <v>2568</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>95</v>
+        <v>2569</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>135</v>
+        <v>2570</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>1851</v>
+        <v>2571</v>
       </c>
       <c r="K186" s="4" t="s">
-        <v>2395</v>
+        <v>2572</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>186</v>
+        <v>2573</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>904</v>
+        <v>2574</v>
       </c>
       <c r="N186" s="4" t="s">
-        <v>222</v>
+        <v>2575</v>
       </c>
       <c r="O186" s="4" t="s">
-        <v>264</v>
+        <v>2563</v>
       </c>
       <c r="P186" s="4" t="s">
-        <v>993</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="187" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>469</v>
+        <v>1147</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>50</v>
+        <v>1148</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>1615</v>
+        <v>1674</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>1880</v>
+        <v>1858</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>2216</v>
+        <v>2202</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>1896</v>
+        <v>1867</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>1919</v>
+        <v>1851</v>
       </c>
       <c r="K187" s="4" t="s">
-        <v>2233</v>
+        <v>2395</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="N187" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="O187" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P187" s="4" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="188" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>444</v>
+        <v>50</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>1670</v>
+        <v>1615</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>2111</v>
+        <v>1880</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>638</v>
+        <v>310</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>2115</v>
+        <v>1896</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>643</v>
+        <v>100</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>660</v>
+        <v>140</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>2118</v>
+        <v>1919</v>
       </c>
       <c r="K188" s="4" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>674</v>
+        <v>191</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>943</v>
+        <v>909</v>
       </c>
       <c r="N188" s="4" t="s">
-        <v>645</v>
+        <v>226</v>
       </c>
       <c r="O188" s="4" t="s">
-        <v>611</v>
+        <v>269</v>
       </c>
       <c r="P188" s="4" t="s">
-        <v>1042</v>
+        <v>998</v>
       </c>
     </row>
     <row r="189" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1694</v>
+        <v>1670</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>2158</v>
+        <v>2111</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>2478</v>
+        <v>2219</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>735</v>
+        <v>638</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>2170</v>
+        <v>2115</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>759</v>
+        <v>643</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>2182</v>
+        <v>2118</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>2490</v>
+        <v>2236</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="N189" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="O189" s="4" t="s">
-        <v>831</v>
+        <v>611</v>
       </c>
       <c r="P189" s="4" t="s">
-        <v>1068</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="190" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="N190" s="4" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="O190" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="P190" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="M191" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="N191" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="O191" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="P191" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="192" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="L192" s="4" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="M192" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="N192" s="4" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="O192" s="4" t="s">
-        <v>691</v>
+        <v>833</v>
       </c>
       <c r="P192" s="4" t="s">
-        <v>1059</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="193" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>1079</v>
+        <v>947</v>
       </c>
       <c r="N193" s="4" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="O193" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="P193" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="L194" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M194" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="N194" s="4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="O194" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="P194" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="195" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>2176</v>
+        <v>2175</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="M195" s="4" t="s">
-        <v>948</v>
+        <v>1080</v>
       </c>
       <c r="N195" s="4" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="O195" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="P195" s="4" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="N196" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="O196" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="P196" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="K197" s="4" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M197" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="N197" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O197" s="4" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="P197" s="4" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="198" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="K198" s="4" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="N198" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="O198" s="4" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="P198" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="199" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="K199" s="4" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="N199" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O199" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="P199" s="4" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="200" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="E200" s="4" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J200" s="4" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="K200" s="4" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="L200" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="M200" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="N200" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="O200" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="P200" s="4" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="201" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>711</v>
+        <v>482</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>723</v>
+        <v>465</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>1682</v>
+        <v>1705</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>2122</v>
+        <v>2169</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>2466</v>
+        <v>2489</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>2123</v>
+        <v>2181</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>783</v>
+        <v>670</v>
       </c>
       <c r="J201" s="4" t="s">
-        <v>2124</v>
+        <v>2193</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>795</v>
+        <v>685</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="N201" s="4" t="s">
-        <v>807</v>
+        <v>658</v>
       </c>
       <c r="O201" s="4" t="s">
-        <v>819</v>
+        <v>699</v>
       </c>
       <c r="P201" s="4" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>2136</v>
+        <v>2123</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J202" s="4" t="s">
-        <v>2147</v>
+        <v>2124</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M202" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="N202" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="O202" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="P202" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="203" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="L203" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="N203" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="O203" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="P203" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J204" s="4" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="L204" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>1082</v>
+        <v>956</v>
       </c>
       <c r="N204" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="O204" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="P204" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="205" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>2139</v>
+        <v>2138</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J205" s="4" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="L205" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="N205" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="O205" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="P205" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="206" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J206" s="4" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="K206" s="4" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="L206" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M206" s="4" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="N206" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="O206" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="P206" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="207" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="K207" s="4" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="L207" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M207" s="4" t="s">
-        <v>957</v>
+        <v>1083</v>
       </c>
       <c r="N207" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O207" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="P207" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="208" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="K208" s="4" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="L208" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M208" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="N208" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O208" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="P208" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="209" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J209" s="4" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="K209" s="4" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="L209" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M209" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="N209" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="O209" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="P209" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="210" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J210" s="4" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="K210" s="4" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="L210" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="N210" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O210" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="P210" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="211" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J211" s="4" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="K211" s="4" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="L211" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="N211" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O211" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="P211" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="212" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="G212" s="4" t="s">
+        <v>2145</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="I212" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="J212" s="4" t="s">
+        <v>2156</v>
+      </c>
+      <c r="K212" s="4" t="s">
+        <v>2512</v>
+      </c>
+      <c r="L212" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="M212" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="N212" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="O212" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="P212" s="4" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B213" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="C212" s="4" t="s">
+      <c r="C213" s="4" t="s">
         <v>1693</v>
       </c>
-      <c r="D212" s="4" t="s">
+      <c r="D213" s="4" t="s">
         <v>2135</v>
       </c>
-      <c r="E212" s="4" t="s">
+      <c r="E213" s="4" t="s">
         <v>2477</v>
       </c>
-      <c r="F212" s="4" t="s">
+      <c r="F213" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="G212" s="4" t="s">
+      <c r="G213" s="4" t="s">
         <v>2146</v>
       </c>
-      <c r="H212" s="4" t="s">
+      <c r="H213" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="I212" s="4" t="s">
+      <c r="I213" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="J212" s="4" t="s">
+      <c r="J213" s="4" t="s">
         <v>2157</v>
       </c>
-      <c r="K212" s="4" t="s">
+      <c r="K213" s="4" t="s">
         <v>2513</v>
       </c>
-      <c r="L212" s="4" t="s">
+      <c r="L213" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="M212" s="4" t="s">
+      <c r="M213" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="N212" s="4" t="s">
+      <c r="N213" s="4" t="s">
         <v>818</v>
       </c>
-      <c r="O212" s="4" t="s">
+      <c r="O213" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="P212" s="4" t="s">
+      <c r="P213" s="4" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="213" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>1675</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>1953</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>2396</v>
-      </c>
-      <c r="F214" s="4" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G214" s="4" t="s">
-        <v>1957</v>
-      </c>
-      <c r="H214" s="4" t="s">
-        <v>1230</v>
-      </c>
-      <c r="I214" s="4" t="s">
-        <v>1110</v>
-      </c>
-      <c r="J214" s="4" t="s">
-        <v>1961</v>
-      </c>
-      <c r="K214" s="4" t="s">
-        <v>2400</v>
-      </c>
-      <c r="L214" s="4" t="s">
-        <v>1248</v>
-      </c>
-      <c r="M214" s="4" t="s">
-        <v>1247</v>
-      </c>
-      <c r="N214" s="4" t="s">
-        <v>1230</v>
-      </c>
-      <c r="O214" s="4" t="s">
-        <v>1249</v>
-      </c>
-      <c r="P214" s="4" t="s">
-        <v>1250</v>
-      </c>
-    </row>
+    <row r="214" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="215" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>1232</v>
+        <v>1110</v>
       </c>
       <c r="J215" s="4" t="s">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="L215" s="4" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="N215" s="4" t="s">
-        <v>1246</v>
+        <v>1230</v>
       </c>
       <c r="O215" s="4" t="s">
-        <v>1256</v>
+        <v>1249</v>
       </c>
       <c r="P215" s="4" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="216" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I216" s="4" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="J216" s="4" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="K216" s="4" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="L216" s="4" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="M216" s="4" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="N216" s="4" t="s">
-        <v>1235</v>
+        <v>1246</v>
       </c>
       <c r="O216" s="4" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="P216" s="4" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="217" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G217" s="4" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I217" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J217" s="4" t="s">
+        <v>1963</v>
+      </c>
+      <c r="K217" s="4" t="s">
+        <v>2402</v>
+      </c>
+      <c r="L217" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="M217" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N217" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O217" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="P217" s="4" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="B217" s="4" t="s">
+      <c r="B218" s="4" t="s">
         <v>1113</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C218" s="4" t="s">
         <v>1678</v>
       </c>
-      <c r="D217" s="4" t="s">
+      <c r="D218" s="4" t="s">
         <v>1956</v>
       </c>
-      <c r="E217" s="4" t="s">
+      <c r="E218" s="4" t="s">
         <v>2399</v>
       </c>
-      <c r="F217" s="4" t="s">
+      <c r="F218" s="4" t="s">
         <v>1240</v>
       </c>
-      <c r="G217" s="4" t="s">
+      <c r="G218" s="4" t="s">
         <v>1960</v>
       </c>
-      <c r="H217" s="4" t="s">
+      <c r="H218" s="4" t="s">
         <v>1239</v>
       </c>
-      <c r="I217" s="4" t="s">
+      <c r="I218" s="4" t="s">
         <v>1238</v>
       </c>
-      <c r="J217" s="4" t="s">
+      <c r="J218" s="4" t="s">
         <v>1964</v>
       </c>
-      <c r="K217" s="4" t="s">
+      <c r="K218" s="4" t="s">
         <v>2403</v>
       </c>
-      <c r="L217" s="4" t="s">
+      <c r="L218" s="4" t="s">
         <v>1239</v>
       </c>
-      <c r="M217" s="4" t="s">
+      <c r="M218" s="4" t="s">
         <v>1241</v>
       </c>
-      <c r="N217" s="4" t="s">
+      <c r="N218" s="4" t="s">
         <v>1239</v>
       </c>
-      <c r="O217" s="4" t="s">
+      <c r="O218" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="P217" s="4" t="s">
+      <c r="P218" s="4" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="218" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
+    <row r="219" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
         <v>2625</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B220" s="4" t="s">
         <v>2626</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C220" s="4" t="s">
         <v>2633</v>
       </c>
-      <c r="D219" s="4" t="s">
+      <c r="D220" s="4" t="s">
         <v>2632</v>
       </c>
-      <c r="E219" s="4" t="s">
+      <c r="E220" s="4" t="s">
         <v>2631</v>
       </c>
-      <c r="F219" s="4" t="s">
+      <c r="F220" s="4" t="s">
         <v>2630</v>
       </c>
-      <c r="G219" s="4" t="s">
+      <c r="G220" s="4" t="s">
         <v>2629</v>
       </c>
-      <c r="H219" s="4" t="s">
+      <c r="H220" s="4" t="s">
         <v>2628</v>
       </c>
-      <c r="I219" s="4" t="s">
+      <c r="I220" s="4" t="s">
         <v>2627</v>
       </c>
-      <c r="J219" s="4" t="s">
+      <c r="J220" s="4" t="s">
         <v>2634</v>
       </c>
-      <c r="K219" s="4" t="s">
+      <c r="K220" s="4" t="s">
         <v>2635</v>
       </c>
-      <c r="L219" s="4" t="s">
+      <c r="L220" s="4" t="s">
         <v>2636</v>
       </c>
-      <c r="M219" s="4" t="s">
+      <c r="M220" s="4" t="s">
         <v>2637</v>
       </c>
-      <c r="N219" s="4" t="s">
+      <c r="N220" s="4" t="s">
         <v>2638</v>
       </c>
-      <c r="O219" s="4" t="s">
+      <c r="O220" s="4" t="s">
         <v>2639</v>
       </c>
-      <c r="P219" s="4" t="s">
+      <c r="P220" s="4" t="s">
         <v>2640</v>
       </c>
     </row>
-    <row r="220" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>1829</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>2404</v>
-      </c>
-      <c r="F221" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G221" s="4" t="s">
-        <v>1838</v>
-      </c>
-      <c r="H221" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I221" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J221" s="4" t="s">
-        <v>1945</v>
-      </c>
-      <c r="K221" s="4" t="s">
-        <v>2406</v>
-      </c>
-      <c r="L221" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="M221" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="N221" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="O221" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="P221" s="4" t="s">
-        <v>989</v>
-      </c>
-    </row>
+    <row r="221" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="222" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>1680</v>
+        <v>1603</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1943</v>
+        <v>1829</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>82</v>
+        <v>301</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>1944</v>
+        <v>1838</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="J222" s="4" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="K222" s="4" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="L222" s="4" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="M222" s="4" t="s">
-        <v>963</v>
+        <v>898</v>
       </c>
       <c r="N222" s="4" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="O222" s="4" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="P222" s="4" t="s">
-        <v>1026</v>
+        <v>989</v>
       </c>
     </row>
     <row r="223" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G223" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H223" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I223" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J223" s="4" t="s">
+        <v>1946</v>
+      </c>
+      <c r="K223" s="4" t="s">
+        <v>2407</v>
+      </c>
+      <c r="L223" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="M223" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="N223" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="O223" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="P223" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B224" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C223" s="4" t="s">
+      <c r="C224" s="4" t="s">
         <v>1681</v>
       </c>
-      <c r="D223" s="4" t="s">
+      <c r="D224" s="4" t="s">
         <v>1948</v>
       </c>
-      <c r="E223" s="4" t="s">
+      <c r="E224" s="4" t="s">
         <v>2409</v>
       </c>
-      <c r="F223" s="4" t="s">
+      <c r="F224" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G223" s="4" t="s">
+      <c r="G224" s="4" t="s">
         <v>1949</v>
       </c>
-      <c r="H223" s="4" t="s">
+      <c r="H224" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I223" s="4" t="s">
+      <c r="I224" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="J223" s="4" t="s">
+      <c r="J224" s="4" t="s">
         <v>1947</v>
       </c>
-      <c r="K223" s="4" t="s">
+      <c r="K224" s="4" t="s">
         <v>2408</v>
       </c>
-      <c r="L223" s="4" t="s">
+      <c r="L224" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="M223" s="4" t="s">
+      <c r="M224" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="N223" s="4" t="s">
+      <c r="N224" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="O223" s="4" t="s">
+      <c r="O224" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="P223" s="4" t="s">
+      <c r="P224" s="4" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="224" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
-        <v>2593</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>2595</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>2597</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>2619</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>2620</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>2621</v>
-      </c>
-      <c r="G225" s="4" t="s">
-        <v>2622</v>
-      </c>
-      <c r="H225" s="4" t="s">
-        <v>2623</v>
-      </c>
-      <c r="I225" s="4" t="s">
-        <v>2624</v>
-      </c>
-      <c r="J225" s="4" t="s">
-        <v>2618</v>
-      </c>
-      <c r="K225" s="4" t="s">
-        <v>2617</v>
-      </c>
-      <c r="L225" s="4" t="s">
-        <v>2616</v>
-      </c>
-      <c r="M225" s="4" t="s">
-        <v>2615</v>
-      </c>
-      <c r="N225" s="4" t="s">
-        <v>2614</v>
-      </c>
-      <c r="O225" s="4" t="s">
-        <v>2613</v>
-      </c>
-      <c r="P225" s="4" t="s">
-        <v>2612</v>
-      </c>
-    </row>
+    <row r="225" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="226" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>84</v>
+        <v>2595</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>1679</v>
+        <v>2597</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1950</v>
+        <v>2619</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>2410</v>
+        <v>2620</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>335</v>
+        <v>2621</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>1951</v>
+        <v>2622</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>121</v>
+        <v>2623</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>164</v>
+        <v>2624</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>1952</v>
+        <v>2618</v>
       </c>
       <c r="K226" s="4" t="s">
-        <v>2411</v>
+        <v>2617</v>
       </c>
       <c r="L226" s="4" t="s">
-        <v>212</v>
+        <v>2616</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>965</v>
+        <v>2615</v>
       </c>
       <c r="N226" s="4" t="s">
-        <v>249</v>
+        <v>2614</v>
       </c>
       <c r="O226" s="4" t="s">
-        <v>293</v>
+        <v>2613</v>
       </c>
       <c r="P226" s="4" t="s">
-        <v>1028</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="227" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>2410</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>1951</v>
+      </c>
+      <c r="H227" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J227" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="K227" s="4" t="s">
+        <v>2411</v>
+      </c>
+      <c r="L227" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="M227" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="N227" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="O227" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="P227" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
         <v>2594</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B228" s="4" t="s">
         <v>2596</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="C228" s="4" t="s">
         <v>2598</v>
       </c>
-      <c r="D227" s="4" t="s">
+      <c r="D228" s="4" t="s">
         <v>2599</v>
       </c>
-      <c r="E227" s="4" t="s">
+      <c r="E228" s="4" t="s">
         <v>2600</v>
       </c>
-      <c r="F227" s="4" t="s">
+      <c r="F228" s="4" t="s">
         <v>2601</v>
       </c>
-      <c r="G227" s="4" t="s">
+      <c r="G228" s="4" t="s">
         <v>2602</v>
       </c>
-      <c r="H227" s="5" t="s">
+      <c r="H228" s="5" t="s">
         <v>2603</v>
       </c>
-      <c r="I227" s="4" t="s">
+      <c r="I228" s="4" t="s">
         <v>2604</v>
       </c>
-      <c r="J227" s="4" t="s">
+      <c r="J228" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="K227" s="4" t="s">
+      <c r="K228" s="4" t="s">
         <v>2606</v>
       </c>
-      <c r="L227" s="4" t="s">
+      <c r="L228" s="4" t="s">
         <v>2607</v>
       </c>
-      <c r="M227" s="4" t="s">
+      <c r="M228" s="4" t="s">
         <v>2608</v>
       </c>
-      <c r="N227" s="4" t="s">
+      <c r="N228" s="4" t="s">
         <v>2609</v>
       </c>
-      <c r="O227" s="4" t="s">
+      <c r="O228" s="4" t="s">
         <v>2610</v>
       </c>
-      <c r="P227" s="4" t="s">
+      <c r="P228" s="4" t="s">
         <v>2611</v>
       </c>
     </row>

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II_Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB38BE38-D714-40F7-9964-90B45BD6A4B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C104556F-03A2-4283-83C8-C7CCC93DD095}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3225" uniqueCount="2683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6814" uniqueCount="2851">
   <si>
     <t>Temperature</t>
   </si>
@@ -8074,6 +8074,510 @@
   </si>
   <si>
     <t>Patient Parameters Reset</t>
+  </si>
+  <si>
+    <t>Spiegel Patientendaten</t>
+  </si>
+  <si>
+    <t>Klient</t>
+  </si>
+  <si>
+    <t>Zugangsschlüssel</t>
+  </si>
+  <si>
+    <t>Zugangspasswort</t>
+  </si>
+  <si>
+    <t>Administrator-Passwort</t>
+  </si>
+  <si>
+    <t>Spiegelungsfunktion aktiviert</t>
+  </si>
+  <si>
+    <t>Patientenparameter aktualisiert</t>
+  </si>
+  <si>
+    <t>Reflektierte Patientenparameter aktualisiert</t>
+  </si>
+  <si>
+    <t>Patientenparameter zurücksetzen</t>
+  </si>
+  <si>
+    <t>Spiegelungsfunktion Behinderte</t>
+  </si>
+  <si>
+    <t>Datos del Paciente espejo</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Servidor</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Llave de acceso</t>
+  </si>
+  <si>
+    <t>Contraseña de acceso</t>
+  </si>
+  <si>
+    <t>La duplicación se Activado</t>
+  </si>
+  <si>
+    <t>Duplicación de movilidad reducida</t>
+  </si>
+  <si>
+    <t>Actualizado parámetros del paciente</t>
+  </si>
+  <si>
+    <t>Restablecer los parámetros del paciente</t>
+  </si>
+  <si>
+    <t>Reflejo de los parámetros del paciente actualizado</t>
+  </si>
+  <si>
+    <t>Réflexion données patient</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Serveur</t>
+  </si>
+  <si>
+    <t>Clé d'accès</t>
+  </si>
+  <si>
+    <t>Mot de passe pour l'accès</t>
+  </si>
+  <si>
+    <t>Mot de passe administrateur</t>
+  </si>
+  <si>
+    <t>Mise à jour des paramètres du patient</t>
+  </si>
+  <si>
+    <t>Paramètres du patient réinitialiser</t>
+  </si>
+  <si>
+    <t>Mise à jour des patients paramètres miroir</t>
+  </si>
+  <si>
+    <t>Réflexion désactivé</t>
+  </si>
+  <si>
+    <t>Réflexion activé</t>
+  </si>
+  <si>
+    <t>Riflessione dati paziente</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>Non attivo</t>
+  </si>
+  <si>
+    <t>Chiave di accesso</t>
+  </si>
+  <si>
+    <t>Password per l'accesso</t>
+  </si>
+  <si>
+    <t>Password dell'amministratore</t>
+  </si>
+  <si>
+    <t>Resettare i parametri del paziente</t>
+  </si>
+  <si>
+    <t>I parametri del paziente aggiornato</t>
+  </si>
+  <si>
+    <t>Mirroring parametri del paziente aggiornato</t>
+  </si>
+  <si>
+    <t>Riflessione disattivato</t>
+  </si>
+  <si>
+    <t>Riflessione attivato</t>
+  </si>
+  <si>
+    <t>Chave de acesso</t>
+  </si>
+  <si>
+    <t>Senha de acesso</t>
+  </si>
+  <si>
+    <t>Senha do administrador</t>
+  </si>
+  <si>
+    <t>Reflexão activado</t>
+  </si>
+  <si>
+    <t>Reflexão desativada</t>
+  </si>
+  <si>
+    <t>Parâmetros paciente atualizado</t>
+  </si>
+  <si>
+    <t>Espelhando os parâmetros do paciente atualizado</t>
+  </si>
+  <si>
+    <t>Parâmetros paciente repor</t>
+  </si>
+  <si>
+    <t>Dados do paciente reflexão</t>
+  </si>
+  <si>
+    <t>Отражение данных пациента</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>сервер</t>
+  </si>
+  <si>
+    <t>клиент</t>
+  </si>
+  <si>
+    <t>Ключ доступа</t>
+  </si>
+  <si>
+    <t>Пароль для доступа</t>
+  </si>
+  <si>
+    <t>Пароль администратора</t>
+  </si>
+  <si>
+    <t>Отражение активирован</t>
+  </si>
+  <si>
+    <t>Отражение отключена</t>
+  </si>
+  <si>
+    <t>Параметры пациента Обновлено</t>
+  </si>
+  <si>
+    <t>Зеркальные параметры пациента Обновлены</t>
+  </si>
+  <si>
+    <t>Параметры пациента Сброс</t>
+  </si>
+  <si>
+    <t>Tafakari Mgonjwa Data</t>
+  </si>
+  <si>
+    <t>Hali</t>
+  </si>
+  <si>
+    <t>Isiyotumika</t>
+  </si>
+  <si>
+    <t>Kupata muhimu</t>
+  </si>
+  <si>
+    <t>Mteja</t>
+  </si>
+  <si>
+    <t>Tafakari ulioamilishwa</t>
+  </si>
+  <si>
+    <t>Tafakari walemavu</t>
+  </si>
+  <si>
+    <t>Vigezo mgonjwa rudisha</t>
+  </si>
+  <si>
+    <t>Vipengele vya mgonjwa kusasishwa</t>
+  </si>
+  <si>
+    <t>Kuzingatia vigezo vya mgonjwa kusasishwa</t>
+  </si>
+  <si>
+    <t>Nenosiri la kupata</t>
+  </si>
+  <si>
+    <t>Nenosiri la msimamizi</t>
+  </si>
+  <si>
+    <t>Contraseña de administrador</t>
+  </si>
+  <si>
+    <t>Seva</t>
+  </si>
+  <si>
+    <t>반사 환자 데이터</t>
+  </si>
+  <si>
+    <t>지위</t>
+  </si>
+  <si>
+    <t>숙주</t>
+  </si>
+  <si>
+    <t>고객</t>
+  </si>
+  <si>
+    <t>액세스 키</t>
+  </si>
+  <si>
+    <t>액세스를위한 비밀번호</t>
+  </si>
+  <si>
+    <t>관리자 비밀번호</t>
+  </si>
+  <si>
+    <t>반사 활성화</t>
+  </si>
+  <si>
+    <t>반사 비활성화</t>
+  </si>
+  <si>
+    <t>환자 매개 변수 업데이트</t>
+  </si>
+  <si>
+    <t>업데이트 환자 매개 변수를 미러링</t>
+  </si>
+  <si>
+    <t>환자 매개 변수 재설정</t>
+  </si>
+  <si>
+    <t>डाटा रोगी के परावर्तन</t>
+  </si>
+  <si>
+    <t>वर्तमान स्थिति</t>
+  </si>
+  <si>
+    <t>निष्क्रिय</t>
+  </si>
+  <si>
+    <t>मेज़बान</t>
+  </si>
+  <si>
+    <t>ग्राहक</t>
+  </si>
+  <si>
+    <t>आगमन चाबी</t>
+  </si>
+  <si>
+    <t>उपयोग करने के लिए पासवर्ड</t>
+  </si>
+  <si>
+    <t>व्यवस्थापक का पारण शब्द</t>
+  </si>
+  <si>
+    <t>प्रतिबिंब सक्रिय</t>
+  </si>
+  <si>
+    <t>प्रतिबिंब अक्षम</t>
+  </si>
+  <si>
+    <t>रोगी पैरामीटर अपडेट किया गया</t>
+  </si>
+  <si>
+    <t>रोगी पैरामीटर अपडेट किया गया मिररिंग</t>
+  </si>
+  <si>
+    <t>रोगी पैरामीटर रीसेट</t>
+  </si>
+  <si>
+    <t>השתקפות של חולה נתונים</t>
+  </si>
+  <si>
+    <t>מצב</t>
+  </si>
+  <si>
+    <t>לא פעיל</t>
+  </si>
+  <si>
+    <t>מארח</t>
+  </si>
+  <si>
+    <t>לקוח</t>
+  </si>
+  <si>
+    <t>מפתח גישה</t>
+  </si>
+  <si>
+    <t>סיסמה עבור גישה</t>
+  </si>
+  <si>
+    <t>סיסמת מנהל</t>
+  </si>
+  <si>
+    <t>השתקפות מופעלת</t>
+  </si>
+  <si>
+    <t>השתקפות מושבת</t>
+  </si>
+  <si>
+    <t>עודכנו פרמטרים חולים</t>
+  </si>
+  <si>
+    <t>שיקוף פרמטרים חולים עודכנו</t>
+  </si>
+  <si>
+    <t>פרמטרים חולים איפוס</t>
+  </si>
+  <si>
+    <t>بازتاب بیمار داده</t>
+  </si>
+  <si>
+    <t>وضعیت</t>
+  </si>
+  <si>
+    <t>غیر فعال</t>
+  </si>
+  <si>
+    <t>میزبان</t>
+  </si>
+  <si>
+    <t>مشتری</t>
+  </si>
+  <si>
+    <t>کلید دسترسی</t>
+  </si>
+  <si>
+    <t>رمز عبور برای دسترسی</t>
+  </si>
+  <si>
+    <t>رمز عبور</t>
+  </si>
+  <si>
+    <t>بازتاب فعال</t>
+  </si>
+  <si>
+    <t>بازتاب غیر فعال</t>
+  </si>
+  <si>
+    <t>پارامترهای بیمار به روز رسانی</t>
+  </si>
+  <si>
+    <t>معکوس پارامترهای بیمار به روز رسانی</t>
+  </si>
+  <si>
+    <t>پارامترهای بیمار تنظیم مجدد</t>
+  </si>
+  <si>
+    <t>الحالة</t>
+  </si>
+  <si>
+    <t>غير نشط</t>
+  </si>
+  <si>
+    <t>مضيف</t>
+  </si>
+  <si>
+    <t>عميل</t>
+  </si>
+  <si>
+    <t>مفتاح الوصول</t>
+  </si>
+  <si>
+    <t>كلمة مرور للوصول</t>
+  </si>
+  <si>
+    <t>كلمة مرور المسؤول</t>
+  </si>
+  <si>
+    <t>انعكاس تفعيلها</t>
+  </si>
+  <si>
+    <t>انعكاس تعطيل</t>
+  </si>
+  <si>
+    <t>معلمات المريض التحديث</t>
+  </si>
+  <si>
+    <t>يعكس معلمات المرضى تحديث</t>
+  </si>
+  <si>
+    <t>معلمات المريض إعادة تعيين</t>
+  </si>
+  <si>
+    <t>انعكاس المريض البيانات</t>
+  </si>
+  <si>
+    <t>የውሂብ ሕመምተኞች መካከል ነጸብራቅ</t>
+  </si>
+  <si>
+    <t>ሁናቴ</t>
+  </si>
+  <si>
+    <t>የማይሠራ</t>
+  </si>
+  <si>
+    <t>አስተናጋጅ</t>
+  </si>
+  <si>
+    <t>ደምበኛ</t>
+  </si>
+  <si>
+    <t>የመዳረሻ ቁልፍ</t>
+  </si>
+  <si>
+    <t>መዳረሻ ለ የይለፍ ቃል</t>
+  </si>
+  <si>
+    <t>አስተዳዳሪ የይለፍ ቃል</t>
+  </si>
+  <si>
+    <t>ነፀብራቅ ገብሯል</t>
+  </si>
+  <si>
+    <t>ነፀብራቅ ተሰናክሏል</t>
+  </si>
+  <si>
+    <t>የታካሚ ግቤቶች ተሻሽለዋል</t>
+  </si>
+  <si>
+    <t>የታካሚ የታካሚ መለኪያዎች ተሻሽለዋል</t>
+  </si>
+  <si>
+    <t>የታካሚ መለኪያዎች ዳግም ማስጀመር</t>
+  </si>
+  <si>
+    <t>数据病人的反思</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>待用</t>
+  </si>
+  <si>
+    <t>主办</t>
+  </si>
+  <si>
+    <t>客户</t>
+  </si>
+  <si>
+    <t>访问键</t>
+  </si>
+  <si>
+    <t>密码访问</t>
+  </si>
+  <si>
+    <t>管理员密码</t>
+  </si>
+  <si>
+    <t>激活的反思</t>
+  </si>
+  <si>
+    <t>禁用的反思</t>
+  </si>
+  <si>
+    <t>患者参数更新</t>
+  </si>
+  <si>
+    <t>镜像更新患者参数</t>
+  </si>
+  <si>
+    <t>患者参数复位</t>
   </si>
 </sst>
 </file>
@@ -8448,8 +8952,8 @@
   <dimension ref="A1:P242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11303,108 +11807,654 @@
       </c>
     </row>
     <row r="68" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>2657</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>2660</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
+      <c r="C69" s="4" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>2824</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>2683</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>2799</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>2693</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>2704</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>2786</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>2773</v>
+      </c>
+      <c r="L69" s="4" t="s">
+        <v>2715</v>
+      </c>
+      <c r="M69" s="4" t="s">
+        <v>2761</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>2734</v>
+      </c>
+      <c r="O69" s="4" t="s">
+        <v>2735</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>2663</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>2666</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="C70" s="4" t="s">
+        <v>2826</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>2812</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>2666</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>2800</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>2694</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>2705</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>2787</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>2774</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>2716</v>
+      </c>
+      <c r="M70" s="4" t="s">
+        <v>2762</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>2694</v>
+      </c>
+      <c r="O70" s="4" t="s">
+        <v>2736</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>2664</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>2665</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="C71" s="4" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>2813</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>2801</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>1193</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>2788</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>2775</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>2717</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>1195</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>1191</v>
+      </c>
+      <c r="O71" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>2658</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>2661</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="C72" s="4" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>2661</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>2802</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>2695</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>2706</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>2789</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>2776</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>2661</v>
+      </c>
+      <c r="M72" s="4" t="s">
+        <v>2763</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>2695</v>
+      </c>
+      <c r="O72" s="4" t="s">
+        <v>2737</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>2659</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>2662</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="C73" s="4" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>2815</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>2842</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>2684</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>2803</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>2696</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>2662</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>2790</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>2777</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>2696</v>
+      </c>
+      <c r="M73" s="4" t="s">
+        <v>2764</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>2696</v>
+      </c>
+      <c r="O73" s="4" t="s">
+        <v>2738</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>2667</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>2670</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="C74" s="4" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>2816</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>2843</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>2804</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>2697</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>2707</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>2791</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>2778</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>2718</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>2765</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>2726</v>
+      </c>
+      <c r="O74" s="4" t="s">
+        <v>2739</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>2668</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="4" t="s">
         <v>2671</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="C75" s="4" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>2817</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>2844</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>2686</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>2805</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>2698</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>2708</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>2792</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>2779</v>
+      </c>
+      <c r="L75" s="4" t="s">
+        <v>2719</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>2766</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>2727</v>
+      </c>
+      <c r="O75" s="4" t="s">
+        <v>2740</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>2669</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="4" t="s">
         <v>2672</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="C76" s="4" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>2845</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>2687</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>2806</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>2759</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>2709</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>2793</v>
+      </c>
+      <c r="K76" s="4" t="s">
+        <v>2780</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>2720</v>
+      </c>
+      <c r="M76" s="4" t="s">
+        <v>2767</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>2728</v>
+      </c>
+      <c r="O76" s="4" t="s">
+        <v>2741</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>2673</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="4" t="s">
         <v>2674</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="C77" s="4" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>2819</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>2846</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>2688</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>2807</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>2699</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>2714</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>2794</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>2781</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>2725</v>
+      </c>
+      <c r="M77" s="4" t="s">
+        <v>2768</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>2729</v>
+      </c>
+      <c r="O77" s="4" t="s">
+        <v>2742</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>2675</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
         <v>2676</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="C78" s="4" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>2820</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>2847</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>2692</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>2808</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>2700</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>2713</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>2795</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>2782</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>2724</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>2769</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>2730</v>
+      </c>
+      <c r="O78" s="4" t="s">
+        <v>2743</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>2677</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="4" t="s">
         <v>2679</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="C79" s="4" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>2821</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>2689</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>2809</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>2701</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>2710</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>2796</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>2783</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>2722</v>
+      </c>
+      <c r="M79" s="4" t="s">
+        <v>2770</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>2731</v>
+      </c>
+      <c r="O79" s="4" t="s">
+        <v>2744</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>2678</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="4" t="s">
         <v>2680</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="C80" s="4" t="s">
+        <v>2836</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>2690</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>2810</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>2703</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>2712</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>2797</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>2784</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>2723</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>2771</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>2732</v>
+      </c>
+      <c r="O80" s="4" t="s">
+        <v>2745</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>2681</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="4" t="s">
         <v>2682</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>2691</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>2811</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>2702</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>2711</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>2798</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>2785</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>2721</v>
+      </c>
+      <c r="M81" s="4" t="s">
+        <v>2772</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>2733</v>
+      </c>
+      <c r="O81" s="4" t="s">
+        <v>2746</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>2754</v>
       </c>
     </row>
     <row r="82" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/II_Core/Localization Strings.xlsx
+++ b/II_Core/Localization Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II_Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C104556F-03A2-4283-83C8-C7CCC93DD095}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04441B8-791E-4A56-A40F-D0028057C97A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6814" uniqueCount="2851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3519" uniqueCount="2957">
   <si>
     <t>Temperature</t>
   </si>
@@ -8578,6 +8578,324 @@
   </si>
   <si>
     <t>患者参数复位</t>
+  </si>
+  <si>
+    <t>CARDIAC_AXIS:Normal</t>
+  </si>
+  <si>
+    <t>CARDIAC_AXIS:Left_Physiologic</t>
+  </si>
+  <si>
+    <t>CARDIAC_AXIS:Left_Pathologic</t>
+  </si>
+  <si>
+    <t>CARDIAC_AXIS:Right</t>
+  </si>
+  <si>
+    <t>CARDIAC_AXIS:Extreme</t>
+  </si>
+  <si>
+    <t>CARDIAC_AXIS:Indeterminate</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Extreme</t>
+  </si>
+  <si>
+    <t>Indeterminate</t>
+  </si>
+  <si>
+    <t>Left (Physiologic)</t>
+  </si>
+  <si>
+    <t>Left (Pathologic)</t>
+  </si>
+  <si>
+    <t>PE:CardiacAxis</t>
+  </si>
+  <si>
+    <t>Cardiac Axis</t>
+  </si>
+  <si>
+    <t>መምታቱን ዘንግ</t>
+  </si>
+  <si>
+    <t>የተለመደ</t>
+  </si>
+  <si>
+    <t>የግራ, ጥቃቅን</t>
+  </si>
+  <si>
+    <t>የግራ, ዋና</t>
+  </si>
+  <si>
+    <t>ቀኝ</t>
+  </si>
+  <si>
+    <t>የከረረ</t>
+  </si>
+  <si>
+    <t>ያልታወቀ</t>
+  </si>
+  <si>
+    <t>الميل القلبي</t>
+  </si>
+  <si>
+    <t>عادي</t>
+  </si>
+  <si>
+    <t>اليسار، قاصر</t>
+  </si>
+  <si>
+    <t>اليسار، كبرى</t>
+  </si>
+  <si>
+    <t>حق</t>
+  </si>
+  <si>
+    <t>أقصى</t>
+  </si>
+  <si>
+    <t>غير معروف</t>
+  </si>
+  <si>
+    <t>心电轴</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>左，次要</t>
+  </si>
+  <si>
+    <t>左，主要</t>
+  </si>
+  <si>
+    <t>右边</t>
+  </si>
+  <si>
+    <t>极端</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>Links. Haupt.</t>
+  </si>
+  <si>
+    <t>Links. Geringer</t>
+  </si>
+  <si>
+    <t>Rechte Seite</t>
+  </si>
+  <si>
+    <t>Extrem</t>
+  </si>
+  <si>
+    <t>Unbekannte</t>
+  </si>
+  <si>
+    <t>Herz Achse</t>
+  </si>
+  <si>
+    <t>Izquierda. Mayor.</t>
+  </si>
+  <si>
+    <t>Izquierda. Menor</t>
+  </si>
+  <si>
+    <t>Lado derecho</t>
+  </si>
+  <si>
+    <t>Extremo</t>
+  </si>
+  <si>
+    <t>Desconocido</t>
+  </si>
+  <si>
+    <t>Eje cardiaca</t>
+  </si>
+  <si>
+    <t>شیب قلبی</t>
+  </si>
+  <si>
+    <t>طبیعی</t>
+  </si>
+  <si>
+    <t>ترک کرد. عمده.</t>
+  </si>
+  <si>
+    <t>ترک کرد. جزئی</t>
+  </si>
+  <si>
+    <t>سمت راست</t>
+  </si>
+  <si>
+    <t>مفرط</t>
+  </si>
+  <si>
+    <t>ناشناس</t>
+  </si>
+  <si>
+    <t>Axe cardiaque</t>
+  </si>
+  <si>
+    <t>La gauche. Majeur.</t>
+  </si>
+  <si>
+    <t>La gauche. Mineur</t>
+  </si>
+  <si>
+    <t>Côté droit</t>
+  </si>
+  <si>
+    <t>Extrême</t>
+  </si>
+  <si>
+    <t>Inconnu</t>
+  </si>
+  <si>
+    <t>ציר לב</t>
+  </si>
+  <si>
+    <t>צד ימין</t>
+  </si>
+  <si>
+    <t>אקסטרים</t>
+  </si>
+  <si>
+    <t>לא ידוע</t>
+  </si>
+  <si>
+    <t>שמאלי, מרכזי</t>
+  </si>
+  <si>
+    <t>שמאל, קטין</t>
+  </si>
+  <si>
+    <t>हृदय संबंधी अक्ष</t>
+  </si>
+  <si>
+    <t>साधारण</t>
+  </si>
+  <si>
+    <t>वाम, प्रमुख</t>
+  </si>
+  <si>
+    <t>वाम, नाबालिग</t>
+  </si>
+  <si>
+    <t>दाईं ओर</t>
+  </si>
+  <si>
+    <t>चरम</t>
+  </si>
+  <si>
+    <t>अनजान</t>
+  </si>
+  <si>
+    <t>Asse cardiaco</t>
+  </si>
+  <si>
+    <t>Normale</t>
+  </si>
+  <si>
+    <t>A sinistra, maggiore</t>
+  </si>
+  <si>
+    <t>A sinistra, minore</t>
+  </si>
+  <si>
+    <t>Lato destro</t>
+  </si>
+  <si>
+    <t>Estremo</t>
+  </si>
+  <si>
+    <t>Sconosciuto</t>
+  </si>
+  <si>
+    <t>심장 축</t>
+  </si>
+  <si>
+    <t>표준</t>
+  </si>
+  <si>
+    <t>왼쪽, 주요</t>
+  </si>
+  <si>
+    <t>왼쪽, 작은</t>
+  </si>
+  <si>
+    <t>오른쪽</t>
+  </si>
+  <si>
+    <t>극단</t>
+  </si>
+  <si>
+    <t>알 수 없는</t>
+  </si>
+  <si>
+    <t>Eixo cardíaco</t>
+  </si>
+  <si>
+    <t>À esquerda, grande</t>
+  </si>
+  <si>
+    <t>À esquerda, menor</t>
+  </si>
+  <si>
+    <t>Lado direito</t>
+  </si>
+  <si>
+    <t>Desconhecido</t>
+  </si>
+  <si>
+    <t>анатомическая ось сердца</t>
+  </si>
+  <si>
+    <t>Нормальный</t>
+  </si>
+  <si>
+    <t>Слева, майор</t>
+  </si>
+  <si>
+    <t>Слева, минорный</t>
+  </si>
+  <si>
+    <t>Правая сторона</t>
+  </si>
+  <si>
+    <t>крайность</t>
+  </si>
+  <si>
+    <t>неизвестный</t>
+  </si>
+  <si>
+    <t>Moyo mhimili</t>
+  </si>
+  <si>
+    <t>Kawaida</t>
+  </si>
+  <si>
+    <t>Kushoto, kubwa</t>
+  </si>
+  <si>
+    <t>Kushoto, madogo</t>
+  </si>
+  <si>
+    <t>Upande wa kulia</t>
+  </si>
+  <si>
+    <t>Uliokithiri</t>
+  </si>
+  <si>
+    <t>Haijulikani</t>
   </si>
 </sst>
 </file>
@@ -8949,11 +9267,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P242"/>
+  <dimension ref="A1:P250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69:XFD81"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13460,6196 +13778,6547 @@
     </row>
     <row r="103" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>28</v>
+        <v>2863</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>64</v>
+        <v>2864</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>1630</v>
+        <v>2865</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>1913</v>
+        <v>2872</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>2230</v>
+        <v>2879</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>325</v>
+        <v>2891</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>1911</v>
+        <v>2898</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>113</v>
+        <v>2897</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>154</v>
+        <v>2905</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>1909</v>
+        <v>2911</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>2248</v>
+        <v>2917</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>202</v>
+        <v>2924</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>923</v>
+        <v>2931</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>239</v>
+        <v>2938</v>
       </c>
       <c r="O103" s="4" t="s">
-        <v>283</v>
+        <v>2943</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>1073</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>2230</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>1911</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>1909</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>2248</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O104" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="P104" s="4" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B105" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>1631</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="D105" s="4" t="s">
         <v>1914</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E105" s="4" t="s">
         <v>2231</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F105" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="G104" s="4" t="s">
+      <c r="G105" s="4" t="s">
         <v>1912</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="H105" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I104" s="4" t="s">
+      <c r="I105" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J104" s="4" t="s">
+      <c r="J105" s="4" t="s">
         <v>1910</v>
       </c>
-      <c r="K104" s="4" t="s">
+      <c r="K105" s="4" t="s">
         <v>2249</v>
       </c>
-      <c r="L104" s="4" t="s">
+      <c r="L105" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M104" s="4" t="s">
+      <c r="M105" s="4" t="s">
         <v>924</v>
       </c>
-      <c r="N104" s="4" t="s">
+      <c r="N105" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="O104" s="4" t="s">
+      <c r="O105" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="P104" s="4" t="s">
+      <c r="P105" s="4" t="s">
         <v>1074</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="106" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="107" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="108" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="109" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>1123</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="110" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="111" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B112" s="4" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>1606</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>1856</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>2200</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>1865</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>1873</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>2275</v>
-      </c>
-      <c r="L113" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="M113" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="N113" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="O113" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="P113" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="113" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>1336</v>
+        <v>2851</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>1332</v>
+        <v>2857</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1636</v>
+        <v>2866</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>1965</v>
+        <v>2873</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>2291</v>
+        <v>2880</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>1366</v>
+        <v>2857</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>1967</v>
+        <v>2899</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>1388</v>
+        <v>2857</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>1424</v>
+        <v>537</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>1969</v>
+        <v>1808</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>2293</v>
+        <v>2918</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>1444</v>
+        <v>2925</v>
       </c>
       <c r="M114" s="4" t="s">
-        <v>1465</v>
+        <v>2932</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>1493</v>
+        <v>2857</v>
       </c>
       <c r="O114" s="4" t="s">
-        <v>1516</v>
+        <v>2944</v>
       </c>
       <c r="P114" s="4" t="s">
-        <v>1541</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="115" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>1337</v>
+        <v>2852</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>1333</v>
+        <v>2861</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1637</v>
+        <v>2867</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>1966</v>
+        <v>2874</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>2292</v>
+        <v>2881</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>1367</v>
+        <v>2886</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>1968</v>
+        <v>2900</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>1389</v>
+        <v>2892</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>1425</v>
+        <v>2906</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>1970</v>
+        <v>2915</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>2294</v>
+        <v>2919</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>1445</v>
+        <v>2926</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>1464</v>
+        <v>2933</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>1389</v>
+        <v>2939</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>1517</v>
+        <v>2945</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>1542</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="116" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>1334</v>
+        <v>2853</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>1335</v>
+        <v>2862</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>1638</v>
+        <v>2868</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>1971</v>
+        <v>2875</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>2295</v>
+        <v>2882</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>1368</v>
+        <v>2887</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>1986</v>
+        <v>2901</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>1390</v>
+        <v>2893</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>1427</v>
+        <v>2907</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>2002</v>
+        <v>2916</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>2311</v>
+        <v>2920</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>1449</v>
+        <v>2927</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>1466</v>
+        <v>2934</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>1494</v>
+        <v>2940</v>
       </c>
       <c r="O116" s="4" t="s">
-        <v>1525</v>
+        <v>2946</v>
       </c>
       <c r="P116" s="4" t="s">
-        <v>1539</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="117" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>1323</v>
+        <v>2854</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>1327</v>
+        <v>2858</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>1639</v>
+        <v>2869</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>1972</v>
+        <v>2876</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>2296</v>
+        <v>2883</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>1369</v>
+        <v>2888</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>1987</v>
+        <v>2902</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>1391</v>
+        <v>2894</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>1428</v>
+        <v>2908</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>2003</v>
+        <v>2912</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>2312</v>
+        <v>2921</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>1450</v>
+        <v>2928</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>1467</v>
+        <v>2935</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>1495</v>
+        <v>2941</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>1526</v>
+        <v>2947</v>
       </c>
       <c r="P117" s="4" t="s">
-        <v>1543</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>1324</v>
+        <v>2855</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>1328</v>
+        <v>2859</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>1640</v>
+        <v>2870</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>1973</v>
+        <v>2877</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>2297</v>
+        <v>2884</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>1370</v>
+        <v>2889</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>1988</v>
+        <v>2903</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>1392</v>
+        <v>2895</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>1429</v>
+        <v>2909</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>2004</v>
+        <v>2913</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>2313</v>
+        <v>2922</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>1451</v>
+        <v>2929</v>
       </c>
       <c r="M118" s="4" t="s">
-        <v>1468</v>
+        <v>2936</v>
       </c>
       <c r="N118" s="4" t="s">
-        <v>1496</v>
+        <v>2895</v>
       </c>
       <c r="O118" s="4" t="s">
-        <v>1527</v>
+        <v>2948</v>
       </c>
       <c r="P118" s="4" t="s">
-        <v>1544</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="119" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>1331</v>
+        <v>2856</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>2591</v>
+        <v>2860</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>1641</v>
+        <v>2871</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>1974</v>
+        <v>2878</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>2298</v>
+        <v>2885</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>1207</v>
+        <v>2890</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>1989</v>
+        <v>2904</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>1393</v>
+        <v>2896</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>1430</v>
+        <v>2910</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>2005</v>
+        <v>2914</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>2314</v>
+        <v>2923</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>1452</v>
+        <v>2930</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>1469</v>
+        <v>2937</v>
       </c>
       <c r="N119" s="4" t="s">
-        <v>1497</v>
+        <v>2942</v>
       </c>
       <c r="O119" s="4" t="s">
-        <v>1528</v>
+        <v>2949</v>
       </c>
       <c r="P119" s="4" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
-        <v>1325</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>1329</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>1642</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>1975</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>2299</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>1371</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>1990</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>1394</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>1431</v>
-      </c>
-      <c r="J120" s="4" t="s">
-        <v>2006</v>
-      </c>
-      <c r="K120" s="4" t="s">
-        <v>2315</v>
-      </c>
-      <c r="L120" s="4" t="s">
-        <v>1453</v>
-      </c>
-      <c r="M120" s="4" t="s">
-        <v>1470</v>
-      </c>
-      <c r="N120" s="4" t="s">
-        <v>1498</v>
-      </c>
-      <c r="O120" s="4" t="s">
-        <v>1529</v>
-      </c>
-      <c r="P120" s="4" t="s">
-        <v>1540</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="121" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>1326</v>
+        <v>1365</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>1330</v>
+        <v>4</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>1643</v>
+        <v>1606</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>1976</v>
+        <v>1856</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>2300</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>1372</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>1991</v>
+        <v>2200</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>1865</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>1395</v>
+        <v>93</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>1432</v>
+        <v>133</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>2007</v>
+        <v>1873</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>2316</v>
+        <v>2275</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>1454</v>
+        <v>184</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>1471</v>
+        <v>902</v>
       </c>
       <c r="N121" s="4" t="s">
-        <v>1395</v>
+        <v>93</v>
       </c>
       <c r="O121" s="4" t="s">
-        <v>1530</v>
+        <v>262</v>
       </c>
       <c r="P121" s="4" t="s">
-        <v>1553</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>1644</v>
+        <v>1636</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>1977</v>
+        <v>1965</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>2301</v>
+        <v>2291</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>1992</v>
+        <v>1967</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>1396</v>
+        <v>1388</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>2008</v>
+        <v>1969</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>2317</v>
+        <v>2293</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>1455</v>
+        <v>1444</v>
       </c>
       <c r="M122" s="4" t="s">
-        <v>1472</v>
+        <v>1465</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>1508</v>
+        <v>1493</v>
       </c>
       <c r="O122" s="4" t="s">
-        <v>1531</v>
+        <v>1516</v>
       </c>
       <c r="P122" s="4" t="s">
-        <v>1550</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="123" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>1645</v>
+        <v>1637</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>1978</v>
+        <v>1966</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>2302</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>1374</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>1993</v>
+        <v>2292</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>1968</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>2009</v>
+        <v>1970</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>2318</v>
+        <v>2294</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>1397</v>
+        <v>1445</v>
       </c>
       <c r="M123" s="4" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>1532</v>
+        <v>1517</v>
       </c>
       <c r="P123" s="4" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="124" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>1153</v>
+        <v>1335</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1646</v>
+        <v>1638</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>2303</v>
+        <v>2295</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>1226</v>
+        <v>1368</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>1994</v>
+        <v>1986</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>1229</v>
+        <v>1390</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>1224</v>
+        <v>1427</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>2319</v>
+        <v>2311</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>1229</v>
+        <v>1449</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>1474</v>
+        <v>1466</v>
       </c>
       <c r="N124" s="4" t="s">
-        <v>1229</v>
+        <v>1494</v>
       </c>
       <c r="O124" s="4" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
       <c r="P124" s="4" t="s">
-        <v>1219</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>1345</v>
+        <v>1323</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>1347</v>
+        <v>1327</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1647</v>
+        <v>1639</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>1980</v>
+        <v>1972</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>2304</v>
+        <v>2296</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>1347</v>
+        <v>1369</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>1995</v>
+        <v>1987</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>2320</v>
+        <v>2312</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>902</v>
+        <v>1467</v>
       </c>
       <c r="N125" s="4" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="O125" s="4" t="s">
-        <v>262</v>
+        <v>1526</v>
       </c>
       <c r="P125" s="4" t="s">
-        <v>4</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="126" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>1346</v>
+        <v>1324</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>1348</v>
+        <v>1328</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>1648</v>
+        <v>1640</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>2300</v>
+        <v>2297</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>1996</v>
+        <v>1988</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>1399</v>
+        <v>1392</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>2321</v>
+        <v>2313</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>1504</v>
+        <v>1496</v>
       </c>
       <c r="O126" s="4" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="P126" s="4" t="s">
-        <v>1552</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="127" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>2576</v>
+        <v>1331</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>2577</v>
+        <v>2591</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>2580</v>
+        <v>1641</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>2581</v>
+        <v>1974</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>2579</v>
+        <v>2298</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>2582</v>
+        <v>1207</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>2583</v>
+        <v>1989</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>2584</v>
+        <v>1393</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>2586</v>
+        <v>1430</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>2585</v>
+        <v>2005</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>2578</v>
+        <v>2314</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>2587</v>
+        <v>1452</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>2588</v>
+        <v>1469</v>
       </c>
       <c r="N127" s="4" t="s">
-        <v>2587</v>
+        <v>1497</v>
       </c>
       <c r="O127" s="4" t="s">
-        <v>2589</v>
+        <v>1528</v>
       </c>
       <c r="P127" s="4" t="s">
-        <v>2590</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="128" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>1350</v>
+        <v>1325</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>1351</v>
+        <v>1329</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="M128" s="4" t="s">
-        <v>1476</v>
+        <v>1470</v>
       </c>
       <c r="N128" s="4" t="s">
-        <v>1508</v>
+        <v>1498</v>
       </c>
       <c r="O128" s="4" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="P128" s="4" t="s">
-        <v>1550</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="129" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>1363</v>
+        <v>1326</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>1349</v>
+        <v>1330</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1649</v>
+        <v>1643</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>1981</v>
+        <v>1976</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>2305</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>1377</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>1997</v>
+        <v>2300</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>1991</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>1377</v>
+        <v>1395</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>1377</v>
+        <v>1432</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>2322</v>
+        <v>2316</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>1377</v>
+        <v>1454</v>
       </c>
       <c r="M129" s="4" t="s">
-        <v>1477</v>
+        <v>1471</v>
       </c>
       <c r="N129" s="4" t="s">
-        <v>1506</v>
+        <v>1395</v>
       </c>
       <c r="O129" s="4" t="s">
-        <v>1521</v>
+        <v>1530</v>
       </c>
       <c r="P129" s="4" t="s">
-        <v>1377</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="130" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>1364</v>
+        <v>1338</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>1352</v>
+        <v>1341</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>2020</v>
+        <v>1977</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>2306</v>
+        <v>2301</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>1373</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>2019</v>
+        <v>1992</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>1433</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>2021</v>
+        <v>2008</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>2323</v>
+        <v>2317</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>1376</v>
+        <v>1455</v>
       </c>
       <c r="M130" s="4" t="s">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="N130" s="4" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="O130" s="4" t="s">
-        <v>1522</v>
+        <v>1531</v>
       </c>
       <c r="P130" s="4" t="s">
-        <v>1376</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="131" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>1355</v>
+        <v>1339</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>1357</v>
+        <v>1342</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>2307</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>1380</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>1998</v>
+        <v>2302</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>1993</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>1436</v>
+        <v>1423</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>2324</v>
+        <v>2318</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>1458</v>
+        <v>1397</v>
       </c>
       <c r="M131" s="4" t="s">
-        <v>1479</v>
+        <v>1473</v>
       </c>
       <c r="N131" s="4" t="s">
-        <v>1500</v>
+        <v>1397</v>
       </c>
       <c r="O131" s="4" t="s">
-        <v>1523</v>
+        <v>1532</v>
       </c>
       <c r="P131" s="4" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="132" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>1356</v>
+        <v>1340</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>1359</v>
+        <v>1153</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>2299</v>
+        <v>2303</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>1371</v>
+        <v>1226</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>1401</v>
+        <v>1229</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>1437</v>
+        <v>1224</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>2325</v>
+        <v>2319</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>1459</v>
+        <v>1229</v>
       </c>
       <c r="M132" s="4" t="s">
-        <v>1480</v>
+        <v>1474</v>
       </c>
       <c r="N132" s="4" t="s">
-        <v>1501</v>
+        <v>1229</v>
       </c>
       <c r="O132" s="4" t="s">
-        <v>1524</v>
+        <v>1533</v>
       </c>
       <c r="P132" s="4" t="s">
-        <v>1549</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="133" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>1353</v>
+        <v>1345</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>1358</v>
+        <v>1347</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>2308</v>
+        <v>2304</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>1381</v>
+        <v>1347</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>2326</v>
+        <v>2320</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="M133" s="4" t="s">
-        <v>1481</v>
+        <v>902</v>
       </c>
       <c r="N133" s="4" t="s">
-        <v>1507</v>
+        <v>1499</v>
       </c>
       <c r="O133" s="4" t="s">
-        <v>1518</v>
+        <v>262</v>
       </c>
       <c r="P133" s="4" t="s">
-        <v>1547</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>1354</v>
+        <v>1346</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>1360</v>
+        <v>1348</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>1984</v>
+        <v>1976</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>2309</v>
+        <v>2300</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>2327</v>
+        <v>2321</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>1482</v>
+        <v>1475</v>
       </c>
       <c r="N134" s="4" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="O134" s="4" t="s">
-        <v>1519</v>
+        <v>1534</v>
       </c>
       <c r="P134" s="4" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="135" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>1361</v>
+        <v>2576</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>1362</v>
+        <v>2577</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>1654</v>
+        <v>2580</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>1985</v>
+        <v>2581</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>2310</v>
+        <v>2579</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>1383</v>
+        <v>2582</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>2001</v>
+        <v>2583</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>1404</v>
+        <v>2584</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>1440</v>
+        <v>2586</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>2018</v>
+        <v>2585</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>2328</v>
+        <v>2578</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>1462</v>
+        <v>2587</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>1483</v>
+        <v>2588</v>
       </c>
       <c r="N135" s="4" t="s">
-        <v>1503</v>
+        <v>2587</v>
       </c>
       <c r="O135" s="4" t="s">
-        <v>1520</v>
+        <v>2589</v>
       </c>
       <c r="P135" s="4" t="s">
-        <v>1548</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>1992</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>1396</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>2008</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>2317</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>1455</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>1476</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>1508</v>
+      </c>
+      <c r="O136" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="P136" s="4" t="s">
+        <v>1550</v>
+      </c>
+    </row>
     <row r="137" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>1313</v>
+        <v>1363</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>1316</v>
+        <v>1349</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>1706</v>
+        <v>1649</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>1965</v>
+        <v>1981</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>2329</v>
+        <v>2305</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>2036</v>
+        <v>1997</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>1405</v>
+        <v>1377</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>1418</v>
+        <v>1377</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>2052</v>
+        <v>2013</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>2339</v>
+        <v>2322</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>1405</v>
+        <v>1377</v>
       </c>
       <c r="M137" s="4" t="s">
-        <v>1465</v>
+        <v>1477</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>1405</v>
+        <v>1506</v>
       </c>
       <c r="O137" s="4" t="s">
-        <v>1535</v>
+        <v>1521</v>
       </c>
       <c r="P137" s="4" t="s">
-        <v>1555</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="138" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>1158</v>
+        <v>1364</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>1159</v>
+        <v>1352</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>1707</v>
+        <v>1649</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>2330</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>1293</v>
+        <v>2306</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>2037</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>1285</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>1286</v>
+        <v>2019</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>2053</v>
+        <v>2021</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>2340</v>
+        <v>2323</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>1288</v>
+        <v>1376</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>1289</v>
+        <v>1478</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>1290</v>
+        <v>1505</v>
       </c>
       <c r="O138" s="4" t="s">
-        <v>1291</v>
+        <v>1522</v>
       </c>
       <c r="P138" s="4" t="s">
-        <v>1292</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="139" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>1164</v>
+        <v>1355</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>1165</v>
+        <v>1357</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>1708</v>
+        <v>1650</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>2023</v>
+        <v>1982</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>2331</v>
+        <v>2307</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>1294</v>
+        <v>1380</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>2038</v>
+        <v>1998</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>1295</v>
+        <v>1400</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>1296</v>
+        <v>1436</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>2054</v>
+        <v>2014</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>2341</v>
+        <v>2324</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>1297</v>
+        <v>1458</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>1298</v>
+        <v>1479</v>
       </c>
       <c r="N139" s="4" t="s">
-        <v>1299</v>
+        <v>1500</v>
       </c>
       <c r="O139" s="4" t="s">
-        <v>1300</v>
+        <v>1523</v>
       </c>
       <c r="P139" s="4" t="s">
-        <v>1301</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="140" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>1314</v>
+        <v>1356</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>1317</v>
+        <v>1359</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>1709</v>
+        <v>1651</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>2024</v>
+        <v>1975</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>2332</v>
+        <v>2299</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>1317</v>
+        <v>1371</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>2039</v>
+        <v>1990</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>1419</v>
+        <v>1437</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>2055</v>
+        <v>2015</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>2342</v>
+        <v>2325</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>1441</v>
+        <v>1459</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="N140" s="4" t="s">
-        <v>1419</v>
+        <v>1501</v>
       </c>
       <c r="O140" s="4" t="s">
-        <v>1536</v>
+        <v>1524</v>
       </c>
       <c r="P140" s="4" t="s">
-        <v>1557</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="141" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>1315</v>
+        <v>1353</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>1143</v>
+        <v>1358</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>1710</v>
+        <v>1652</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>2025</v>
+        <v>1983</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>2333</v>
+        <v>2308</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>2040</v>
+        <v>1999</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>1420</v>
+        <v>1438</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>2056</v>
+        <v>2016</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>2343</v>
+        <v>2326</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>1442</v>
+        <v>1460</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="N141" s="4" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="O141" s="4" t="s">
-        <v>1537</v>
+        <v>1518</v>
       </c>
       <c r="P141" s="4" t="s">
-        <v>1556</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="142" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>1320</v>
+        <v>1354</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>1319</v>
+        <v>1360</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>1711</v>
+        <v>1653</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>2026</v>
+        <v>1984</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>2334</v>
+        <v>2309</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>1319</v>
+        <v>1382</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>2041</v>
+        <v>2000</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>1421</v>
+        <v>1439</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>2057</v>
+        <v>2017</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>2344</v>
+        <v>2327</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>1443</v>
+        <v>1461</v>
       </c>
       <c r="M142" s="4" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="N142" s="4" t="s">
-        <v>1510</v>
+        <v>1502</v>
       </c>
       <c r="O142" s="4" t="s">
-        <v>1538</v>
+        <v>1519</v>
       </c>
       <c r="P142" s="4" t="s">
-        <v>1558</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="143" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>1166</v>
+        <v>1361</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>1168</v>
+        <v>1362</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>1712</v>
+        <v>1654</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>1994</v>
+        <v>1985</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>2335</v>
+        <v>2310</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>1186</v>
+        <v>1383</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>2042</v>
+        <v>2001</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>1192</v>
+        <v>1404</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>1193</v>
+        <v>1440</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>2058</v>
+        <v>2018</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>2345</v>
+        <v>2328</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>1194</v>
+        <v>1462</v>
       </c>
       <c r="M143" s="4" t="s">
-        <v>1195</v>
+        <v>1483</v>
       </c>
       <c r="N143" s="4" t="s">
-        <v>1191</v>
+        <v>1503</v>
       </c>
       <c r="O143" s="4" t="s">
-        <v>1189</v>
+        <v>1520</v>
       </c>
       <c r="P143" s="4" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>1713</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>2027</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>2336</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>2043</v>
-      </c>
-      <c r="H144" s="4" t="s">
-        <v>1184</v>
-      </c>
-      <c r="I144" s="4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>2059</v>
-      </c>
-      <c r="K144" s="4" t="s">
-        <v>2346</v>
-      </c>
-      <c r="L144" s="4" t="s">
-        <v>1197</v>
-      </c>
-      <c r="M144" s="4" t="s">
-        <v>1196</v>
-      </c>
-      <c r="N144" s="4" t="s">
-        <v>1190</v>
-      </c>
-      <c r="O144" s="4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="P144" s="4" t="s">
-        <v>1183</v>
-      </c>
-    </row>
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="145" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>1171</v>
+        <v>1313</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>1170</v>
+        <v>1316</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>1714</v>
+        <v>1706</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>2028</v>
+        <v>1965</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>2337</v>
+        <v>2329</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>1261</v>
+        <v>1378</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>2044</v>
+        <v>2036</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>1257</v>
+        <v>1405</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>1260</v>
+        <v>1418</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>2060</v>
+        <v>2052</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>2347</v>
+        <v>2339</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>1268</v>
+        <v>1405</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>1267</v>
+        <v>1465</v>
       </c>
       <c r="N145" s="4" t="s">
-        <v>1266</v>
+        <v>1405</v>
       </c>
       <c r="O145" s="4" t="s">
-        <v>1269</v>
+        <v>1535</v>
       </c>
       <c r="P145" s="4" t="s">
-        <v>1270</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="146" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>1304</v>
+        <v>1158</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>1303</v>
+        <v>1159</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>1715</v>
+        <v>1707</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>2029</v>
+        <v>2022</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>2338</v>
+        <v>2330</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>1262</v>
+        <v>1293</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>2045</v>
+        <v>2037</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>1258</v>
+        <v>1285</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>1259</v>
+        <v>1286</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>2061</v>
+        <v>2053</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>2348</v>
+        <v>2340</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>1263</v>
+        <v>1288</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>1264</v>
+        <v>1289</v>
       </c>
       <c r="N146" s="4" t="s">
-        <v>1265</v>
+        <v>1290</v>
       </c>
       <c r="O146" s="4" t="s">
-        <v>1272</v>
+        <v>1291</v>
       </c>
       <c r="P146" s="4" t="s">
-        <v>1271</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="147" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>1140</v>
+        <v>1164</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>1142</v>
+        <v>1165</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>1669</v>
+        <v>1708</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>1855</v>
+        <v>2023</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>2199</v>
+        <v>2331</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>637</v>
+        <v>1294</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>1864</v>
+        <v>2038</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>640</v>
+        <v>1295</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>659</v>
+        <v>1296</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>2062</v>
-      </c>
-      <c r="K147" s="5" t="s">
-        <v>2208</v>
+        <v>2054</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>2341</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>686</v>
+        <v>1297</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>940</v>
+        <v>1298</v>
       </c>
       <c r="N147" s="4" t="s">
-        <v>644</v>
+        <v>1299</v>
       </c>
       <c r="O147" s="4" t="s">
-        <v>689</v>
+        <v>1300</v>
       </c>
       <c r="P147" s="4" t="s">
-        <v>443</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="148" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>1141</v>
+        <v>1314</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>1143</v>
+        <v>1317</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>314</v>
+        <v>1317</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>103</v>
+        <v>1406</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>1302</v>
+        <v>1419</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>193</v>
+        <v>1441</v>
       </c>
       <c r="M148" s="4" t="s">
-        <v>912</v>
+        <v>1484</v>
       </c>
       <c r="N148" s="4" t="s">
-        <v>228</v>
+        <v>1419</v>
       </c>
       <c r="O148" s="4" t="s">
-        <v>272</v>
+        <v>1536</v>
       </c>
       <c r="P148" s="4" t="s">
-        <v>1001</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="149" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>1144</v>
+        <v>1315</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>2030</v>
+        <v>2025</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>2354</v>
+        <v>2333</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>1207</v>
+        <v>1379</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>2046</v>
+        <v>2040</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>1208</v>
+        <v>1407</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>1199</v>
+        <v>1420</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>2063</v>
+        <v>2056</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>2355</v>
+        <v>2343</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>1203</v>
+        <v>1442</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>1200</v>
+        <v>1485</v>
       </c>
       <c r="N149" s="4" t="s">
-        <v>1208</v>
+        <v>1509</v>
       </c>
       <c r="O149" s="4" t="s">
-        <v>1211</v>
+        <v>1537</v>
       </c>
       <c r="P149" s="4" t="s">
-        <v>1212</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="150" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>1145</v>
+        <v>1320</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>1154</v>
+        <v>1319</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>2031</v>
+        <v>2026</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>2349</v>
+        <v>2334</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>1206</v>
+        <v>1319</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>2047</v>
+        <v>2041</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>1205</v>
+        <v>1408</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>1202</v>
+        <v>1421</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>2064</v>
+        <v>2057</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>2356</v>
+        <v>2344</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>1204</v>
+        <v>1443</v>
       </c>
       <c r="M150" s="4" t="s">
-        <v>1201</v>
+        <v>1486</v>
       </c>
       <c r="N150" s="4" t="s">
-        <v>1209</v>
+        <v>1510</v>
       </c>
       <c r="O150" s="4" t="s">
-        <v>1210</v>
+        <v>1538</v>
       </c>
       <c r="P150" s="4" t="s">
-        <v>1213</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="151" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>1149</v>
+        <v>1166</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>1152</v>
+        <v>1168</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>2032</v>
+        <v>1994</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>2350</v>
+        <v>2335</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>1227</v>
+        <v>1186</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>2048</v>
+        <v>2042</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>1228</v>
+        <v>1192</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>1223</v>
+        <v>1193</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>2065</v>
+        <v>2058</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>2357</v>
+        <v>2345</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>1222</v>
+        <v>1194</v>
       </c>
       <c r="M151" s="4" t="s">
-        <v>1221</v>
+        <v>1195</v>
       </c>
       <c r="N151" s="4" t="s">
-        <v>1215</v>
+        <v>1191</v>
       </c>
       <c r="O151" s="4" t="s">
-        <v>1216</v>
+        <v>1189</v>
       </c>
       <c r="P151" s="4" t="s">
-        <v>1214</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="152" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>1150</v>
+        <v>1167</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>1153</v>
+        <v>1169</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>1646</v>
+        <v>1713</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>1979</v>
+        <v>2027</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>2303</v>
+        <v>2336</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>1226</v>
+        <v>1185</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>1994</v>
+        <v>2043</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>1229</v>
+        <v>1184</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>1224</v>
+        <v>1198</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>2010</v>
+        <v>2059</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>2319</v>
+        <v>2346</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>1225</v>
-      </c>
-      <c r="M152" s="6" t="s">
-        <v>1220</v>
+        <v>1197</v>
+      </c>
+      <c r="M152" s="4" t="s">
+        <v>1196</v>
       </c>
       <c r="N152" s="4" t="s">
-        <v>1218</v>
+        <v>1190</v>
       </c>
       <c r="O152" s="4" t="s">
-        <v>1217</v>
+        <v>1188</v>
       </c>
       <c r="P152" s="4" t="s">
-        <v>1219</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="153" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>1151</v>
+        <v>1171</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>2033</v>
+        <v>2028</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>2351</v>
+        <v>2337</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>1175</v>
+        <v>1261</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>2049</v>
+        <v>2044</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>1176</v>
+        <v>1257</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>1177</v>
+        <v>1260</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>2066</v>
+        <v>2060</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>2358</v>
+        <v>2347</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>1178</v>
+        <v>1268</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>1179</v>
+        <v>1267</v>
       </c>
       <c r="N153" s="4" t="s">
-        <v>1180</v>
+        <v>1266</v>
       </c>
       <c r="O153" s="4" t="s">
-        <v>1181</v>
+        <v>1269</v>
       </c>
       <c r="P153" s="4" t="s">
-        <v>1182</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="154" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>2034</v>
+        <v>2029</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>2352</v>
+        <v>2338</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>1384</v>
+        <v>1262</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>2050</v>
+        <v>2045</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>1409</v>
+        <v>1258</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>1422</v>
+        <v>1259</v>
       </c>
       <c r="J154" s="4" t="s">
-        <v>2067</v>
+        <v>2061</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>2359</v>
+        <v>2348</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>1446</v>
+        <v>1263</v>
       </c>
       <c r="M154" s="4" t="s">
-        <v>1487</v>
+        <v>1264</v>
       </c>
       <c r="N154" s="4" t="s">
-        <v>1511</v>
+        <v>1265</v>
       </c>
       <c r="O154" s="4" t="s">
-        <v>1515</v>
+        <v>1272</v>
+      </c>
+      <c r="P154" s="4" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="155" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>1309</v>
+        <v>1140</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>1312</v>
+        <v>1142</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>1721</v>
+        <v>1669</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>1978</v>
+        <v>1855</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>2302</v>
+        <v>2199</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>1385</v>
+        <v>637</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>1993</v>
+        <v>1864</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>1410</v>
+        <v>640</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>1423</v>
+        <v>659</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>2009</v>
-      </c>
-      <c r="K155" s="4" t="s">
-        <v>2318</v>
+        <v>2062</v>
+      </c>
+      <c r="K155" s="5" t="s">
+        <v>2208</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>1447</v>
+        <v>686</v>
       </c>
       <c r="M155" s="4" t="s">
-        <v>1488</v>
+        <v>940</v>
       </c>
       <c r="N155" s="4" t="s">
-        <v>1512</v>
+        <v>644</v>
       </c>
       <c r="O155" s="4" t="s">
-        <v>1514</v>
+        <v>689</v>
+      </c>
+      <c r="P155" s="4" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="156" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>1173</v>
+        <v>1141</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>1174</v>
+        <v>1143</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>1722</v>
+        <v>1710</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>2035</v>
+        <v>2025</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>2353</v>
+        <v>2333</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>1280</v>
+        <v>314</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>2051</v>
+        <v>2040</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>1279</v>
+        <v>103</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>1278</v>
+        <v>1302</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>2068</v>
+        <v>2056</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>2360</v>
+        <v>2343</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>1281</v>
+        <v>193</v>
       </c>
       <c r="M156" s="4" t="s">
-        <v>1267</v>
+        <v>912</v>
       </c>
       <c r="N156" s="4" t="s">
-        <v>1282</v>
+        <v>228</v>
       </c>
       <c r="O156" s="4" t="s">
-        <v>1283</v>
+        <v>272</v>
       </c>
       <c r="P156" s="4" t="s">
-        <v>1284</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="157" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>1307</v>
+        <v>1144</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>1305</v>
+        <v>1146</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>1636</v>
+        <v>1716</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>1965</v>
+        <v>2030</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>2291</v>
+        <v>2354</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>1366</v>
+        <v>1207</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>1967</v>
+        <v>2046</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>1388</v>
+        <v>1208</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>1424</v>
+        <v>1199</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>1969</v>
+        <v>2063</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>2293</v>
+        <v>2355</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>1444</v>
+        <v>1203</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>1465</v>
+        <v>1200</v>
       </c>
       <c r="N157" s="4" t="s">
-        <v>1493</v>
+        <v>1208</v>
       </c>
       <c r="O157" s="4" t="s">
-        <v>1516</v>
+        <v>1211</v>
+      </c>
+      <c r="P157" s="4" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="158" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>1308</v>
+        <v>1145</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>1306</v>
+        <v>1154</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>1637</v>
+        <v>1717</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>1966</v>
+        <v>2031</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>2292</v>
+        <v>2349</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>1367</v>
+        <v>1206</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>1968</v>
+        <v>2047</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>1389</v>
+        <v>1205</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>1425</v>
+        <v>1202</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>1970</v>
+        <v>2064</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>2294</v>
+        <v>2356</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>1445</v>
+        <v>1204</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>1464</v>
+        <v>1201</v>
       </c>
       <c r="N158" s="4" t="s">
-        <v>1389</v>
+        <v>1209</v>
       </c>
       <c r="O158" s="4" t="s">
-        <v>1517</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1210</v>
+      </c>
+      <c r="P158" s="4" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>2032</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>2350</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>2048</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="I159" s="4" t="s">
+        <v>1223</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>2065</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>2357</v>
+      </c>
+      <c r="L159" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="M159" s="4" t="s">
+        <v>1221</v>
+      </c>
+      <c r="N159" s="4" t="s">
+        <v>1215</v>
+      </c>
+      <c r="O159" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="P159" s="4" t="s">
+        <v>1214</v>
+      </c>
+    </row>
     <row r="160" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>1124</v>
+        <v>1150</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>73</v>
+        <v>1153</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>1655</v>
+        <v>1646</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>2069</v>
+        <v>1979</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>2361</v>
+        <v>2303</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>327</v>
+        <v>1226</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>2083</v>
+        <v>1994</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>169</v>
+        <v>1229</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>156</v>
+        <v>1224</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>2097</v>
+        <v>2010</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>2375</v>
+        <v>2319</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="M160" s="4" t="s">
-        <v>926</v>
+        <v>1225</v>
+      </c>
+      <c r="M160" s="6" t="s">
+        <v>1220</v>
       </c>
       <c r="N160" s="4" t="s">
-        <v>241</v>
+        <v>1218</v>
       </c>
       <c r="O160" s="4" t="s">
-        <v>284</v>
+        <v>1217</v>
       </c>
       <c r="P160" s="4" t="s">
-        <v>1011</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="161" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>1125</v>
+        <v>1151</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>74</v>
+        <v>1172</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>1656</v>
+        <v>1719</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>2070</v>
+        <v>2033</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>2362</v>
+        <v>2351</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>328</v>
+        <v>1175</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>2084</v>
+        <v>2049</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>170</v>
+        <v>1176</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>157</v>
+        <v>1177</v>
       </c>
       <c r="J161" s="4" t="s">
-        <v>2098</v>
+        <v>2066</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>2376</v>
+        <v>2358</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>204</v>
+        <v>1178</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>927</v>
+        <v>1179</v>
       </c>
       <c r="N161" s="4" t="s">
-        <v>242</v>
+        <v>1180</v>
       </c>
       <c r="O161" s="4" t="s">
-        <v>285</v>
+        <v>1181</v>
       </c>
       <c r="P161" s="4" t="s">
-        <v>1012</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="162" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>1126</v>
+        <v>1310</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>369</v>
+        <v>1311</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>1657</v>
+        <v>1720</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>2071</v>
+        <v>2034</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>2363</v>
+        <v>2352</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>618</v>
+        <v>1384</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>2085</v>
+        <v>2050</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>619</v>
+        <v>1409</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>620</v>
+        <v>1422</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>2099</v>
+        <v>2067</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>2377</v>
+        <v>2359</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>622</v>
+        <v>1446</v>
       </c>
       <c r="M162" s="4" t="s">
-        <v>928</v>
+        <v>1487</v>
       </c>
       <c r="N162" s="4" t="s">
-        <v>623</v>
+        <v>1511</v>
       </c>
       <c r="O162" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="P162" s="4" t="s">
-        <v>1013</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="163" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>1135</v>
+        <v>1309</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>701</v>
+        <v>1312</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>1665</v>
+        <v>1721</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>2079</v>
+        <v>1978</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>2371</v>
+        <v>2302</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>840</v>
+        <v>1385</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>2093</v>
+        <v>1993</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>834</v>
+        <v>1410</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>835</v>
+        <v>1423</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>2107</v>
+        <v>2009</v>
       </c>
       <c r="K163" s="4" t="s">
-        <v>2385</v>
+        <v>2318</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>836</v>
+        <v>1447</v>
       </c>
       <c r="M163" s="4" t="s">
-        <v>936</v>
+        <v>1488</v>
       </c>
       <c r="N163" s="4" t="s">
-        <v>837</v>
+        <v>1512</v>
       </c>
       <c r="O163" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="P163" s="4" t="s">
-        <v>1021</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="164" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>1127</v>
+        <v>1173</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>368</v>
+        <v>1174</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>1658</v>
+        <v>1722</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>2072</v>
+        <v>2035</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>2364</v>
+        <v>2353</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>617</v>
+        <v>1280</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>2086</v>
+        <v>2051</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>616</v>
+        <v>1279</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>615</v>
+        <v>1278</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>2100</v>
+        <v>2068</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>2378</v>
+        <v>2360</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>614</v>
+        <v>1281</v>
       </c>
       <c r="M164" s="4" t="s">
-        <v>929</v>
+        <v>1267</v>
       </c>
       <c r="N164" s="4" t="s">
-        <v>613</v>
+        <v>1282</v>
       </c>
       <c r="O164" s="4" t="s">
-        <v>612</v>
+        <v>1283</v>
       </c>
       <c r="P164" s="4" t="s">
-        <v>1014</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="165" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>1136</v>
+        <v>1307</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>702</v>
+        <v>1305</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>1666</v>
+        <v>1636</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>2080</v>
+        <v>1965</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>2372</v>
+        <v>2291</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>841</v>
+        <v>1366</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>2094</v>
+        <v>1967</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>846</v>
+        <v>1388</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>845</v>
+        <v>1424</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>2108</v>
+        <v>1969</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>2386</v>
+        <v>2293</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>844</v>
+        <v>1444</v>
       </c>
       <c r="M165" s="4" t="s">
-        <v>937</v>
+        <v>1465</v>
       </c>
       <c r="N165" s="4" t="s">
-        <v>843</v>
+        <v>1493</v>
       </c>
       <c r="O165" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="P165" s="4" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>2538</v>
+        <v>1308</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>2514</v>
+        <v>1306</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>1661</v>
+        <v>1637</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>2517</v>
+        <v>1966</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>2519</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>2521</v>
+        <v>2292</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>1367</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>2522</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>2524</v>
-      </c>
-      <c r="I166" s="2" t="s">
-        <v>2525</v>
+        <v>1968</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>1425</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>2103</v>
+        <v>1970</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>2527</v>
-      </c>
-      <c r="L166" s="2" t="s">
-        <v>2529</v>
-      </c>
-      <c r="M166" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="N166" s="2" t="s">
-        <v>2532</v>
-      </c>
-      <c r="O166" s="2" t="s">
-        <v>2534</v>
-      </c>
-      <c r="P166" s="2" t="s">
-        <v>2536</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>2539</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>2515</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>2516</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>2518</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>2520</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>1367</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>2088</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>2523</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>2526</v>
-      </c>
-      <c r="J167" s="4" t="s">
-        <v>2102</v>
-      </c>
-      <c r="K167" s="5" t="s">
-        <v>2528</v>
-      </c>
-      <c r="L167" s="4" t="s">
-        <v>2530</v>
-      </c>
-      <c r="M167" s="4" t="s">
-        <v>2531</v>
-      </c>
-      <c r="N167" s="4" t="s">
-        <v>2533</v>
-      </c>
-      <c r="O167" s="4" t="s">
-        <v>2535</v>
-      </c>
-      <c r="P167" s="4" t="s">
-        <v>2537</v>
-      </c>
-    </row>
+        <v>2294</v>
+      </c>
+      <c r="L166" s="4" t="s">
+        <v>1445</v>
+      </c>
+      <c r="M166" s="4" t="s">
+        <v>1464</v>
+      </c>
+      <c r="N166" s="4" t="s">
+        <v>1389</v>
+      </c>
+      <c r="O166" s="4" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="168" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>2365</v>
+        <v>2361</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>2379</v>
+        <v>2375</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M168" s="4" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="N168" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O168" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P168" s="4" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="169" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>367</v>
+        <v>74</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>2075</v>
+        <v>2070</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>2367</v>
+        <v>2362</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>635</v>
+        <v>328</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>2089</v>
+        <v>2084</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>632</v>
+        <v>170</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>631</v>
+        <v>157</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>2381</v>
+        <v>2376</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>633</v>
+        <v>204</v>
       </c>
       <c r="M169" s="4" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="N169" s="4" t="s">
-        <v>634</v>
+        <v>242</v>
       </c>
       <c r="O169" s="4" t="s">
-        <v>625</v>
+        <v>285</v>
       </c>
       <c r="P169" s="4" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="170" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>2366</v>
+        <v>2363</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="J170" s="4" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>2380</v>
+        <v>2377</v>
       </c>
       <c r="L170" s="4" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="M170" s="4" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="N170" s="4" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="O170" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P170" s="4" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="171" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>76</v>
+        <v>701</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>2368</v>
+        <v>2371</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>330</v>
+        <v>840</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>116</v>
+        <v>834</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>159</v>
+        <v>835</v>
       </c>
       <c r="J171" s="4" t="s">
-        <v>2104</v>
+        <v>2107</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="L171" s="4" t="s">
-        <v>206</v>
+        <v>836</v>
       </c>
       <c r="M171" s="4" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="N171" s="4" t="s">
-        <v>244</v>
+        <v>837</v>
       </c>
       <c r="O171" s="4" t="s">
-        <v>287</v>
+        <v>839</v>
       </c>
       <c r="P171" s="4" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="172" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>2369</v>
+        <v>2364</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>331</v>
+        <v>617</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>2091</v>
+        <v>2086</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>171</v>
+        <v>616</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>160</v>
+        <v>615</v>
       </c>
       <c r="J172" s="4" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>2383</v>
+        <v>2378</v>
       </c>
       <c r="L172" s="4" t="s">
-        <v>207</v>
+        <v>614</v>
       </c>
       <c r="M172" s="4" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="N172" s="4" t="s">
-        <v>245</v>
+        <v>613</v>
       </c>
       <c r="O172" s="4" t="s">
-        <v>288</v>
+        <v>612</v>
       </c>
       <c r="P172" s="4" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="173" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>78</v>
+        <v>702</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>2078</v>
+        <v>2080</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>2370</v>
+        <v>2372</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>332</v>
+        <v>841</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>2092</v>
+        <v>2094</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>172</v>
+        <v>846</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>161</v>
+        <v>845</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="K173" s="4" t="s">
-        <v>2384</v>
+        <v>2386</v>
       </c>
       <c r="L173" s="4" t="s">
-        <v>208</v>
+        <v>844</v>
       </c>
       <c r="M173" s="4" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="N173" s="4" t="s">
-        <v>246</v>
+        <v>843</v>
       </c>
       <c r="O173" s="4" t="s">
-        <v>289</v>
+        <v>842</v>
       </c>
       <c r="P173" s="4" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>1134</v>
+        <v>2538</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>45</v>
+        <v>2514</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>1599</v>
+        <v>1661</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>1825</v>
+        <v>2517</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>2280</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>349</v>
+        <v>2519</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>2521</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>1834</v>
-      </c>
-      <c r="H174" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="I174" s="4" t="s">
-        <v>351</v>
+        <v>2522</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>2524</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>2525</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>1843</v>
+        <v>2103</v>
       </c>
       <c r="K174" s="4" t="s">
-        <v>2287</v>
-      </c>
-      <c r="L174" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="M174" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="N174" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="O174" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P174" s="4" t="s">
-        <v>985</v>
+        <v>2527</v>
+      </c>
+      <c r="L174" s="2" t="s">
+        <v>2529</v>
+      </c>
+      <c r="M174" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="N174" s="2" t="s">
+        <v>2532</v>
+      </c>
+      <c r="O174" s="2" t="s">
+        <v>2534</v>
+      </c>
+      <c r="P174" s="2" t="s">
+        <v>2536</v>
       </c>
     </row>
     <row r="175" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>1137</v>
+        <v>2539</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>703</v>
+        <v>2515</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>1667</v>
+        <v>2516</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>2081</v>
+        <v>2518</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>2373</v>
+        <v>2520</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>852</v>
+        <v>1367</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>2095</v>
+        <v>2088</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>847</v>
+        <v>2523</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>848</v>
+        <v>2526</v>
       </c>
       <c r="J175" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="K175" s="4" t="s">
-        <v>2387</v>
+        <v>2102</v>
+      </c>
+      <c r="K175" s="5" t="s">
+        <v>2528</v>
       </c>
       <c r="L175" s="4" t="s">
-        <v>849</v>
+        <v>2530</v>
       </c>
       <c r="M175" s="4" t="s">
-        <v>938</v>
+        <v>2531</v>
       </c>
       <c r="N175" s="4" t="s">
-        <v>850</v>
+        <v>2533</v>
       </c>
       <c r="O175" s="4" t="s">
-        <v>851</v>
+        <v>2535</v>
       </c>
       <c r="P175" s="4" t="s">
-        <v>1023</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="176" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>1156</v>
+        <v>1128</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>1155</v>
+        <v>75</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>1668</v>
+        <v>1659</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>2082</v>
+        <v>2073</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>2374</v>
+        <v>2365</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>1175</v>
+        <v>329</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>2096</v>
+        <v>2087</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>1176</v>
+        <v>115</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>1177</v>
+        <v>158</v>
       </c>
       <c r="J176" s="4" t="s">
-        <v>2110</v>
+        <v>2101</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>2388</v>
+        <v>2379</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>1178</v>
+        <v>205</v>
       </c>
       <c r="M176" s="4" t="s">
-        <v>1179</v>
+        <v>930</v>
       </c>
       <c r="N176" s="4" t="s">
-        <v>1180</v>
+        <v>243</v>
       </c>
       <c r="O176" s="4" t="s">
-        <v>1181</v>
+        <v>286</v>
       </c>
       <c r="P176" s="4" t="s">
-        <v>1182</v>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>2075</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>2367</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="G177" s="4" t="s">
+        <v>2089</v>
+      </c>
+      <c r="H177" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="I177" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>2103</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>2381</v>
+      </c>
+      <c r="L177" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="M177" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="N177" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="O177" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="P177" s="4" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="178" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>446</v>
+        <v>1129</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>443</v>
+        <v>366</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>1669</v>
+        <v>1660</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>1855</v>
+        <v>2074</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>2199</v>
+        <v>2366</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>1864</v>
+        <v>2088</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>659</v>
+        <v>630</v>
       </c>
       <c r="J178" s="4" t="s">
-        <v>2062</v>
-      </c>
-      <c r="K178" s="5" t="s">
-        <v>2208</v>
+        <v>2102</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>2380</v>
       </c>
       <c r="L178" s="4" t="s">
-        <v>686</v>
+        <v>628</v>
       </c>
       <c r="M178" s="4" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="N178" s="4" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="O178" s="4" t="s">
-        <v>689</v>
+        <v>626</v>
       </c>
       <c r="P178" s="4" t="s">
-        <v>443</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="179" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>447</v>
+        <v>1131</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>1617</v>
+        <v>1662</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>1881</v>
+        <v>2076</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>2218</v>
+        <v>2368</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>1897</v>
+        <v>2090</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>1921</v>
+        <v>2104</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>2235</v>
+        <v>2382</v>
       </c>
       <c r="L179" s="4" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
       <c r="M179" s="4" t="s">
-        <v>911</v>
+        <v>933</v>
       </c>
       <c r="N179" s="4" t="s">
-        <v>102</v>
+        <v>244</v>
       </c>
       <c r="O179" s="4" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="P179" s="4" t="s">
-        <v>1000</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="180" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>448</v>
+        <v>1132</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>1615</v>
+        <v>1663</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>1880</v>
+        <v>2077</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>2216</v>
+        <v>2369</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>1896</v>
+        <v>2091</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>100</v>
+        <v>171</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="J180" s="4" t="s">
-        <v>1919</v>
+        <v>2105</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>2233</v>
+        <v>2383</v>
       </c>
       <c r="L180" s="4" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="M180" s="4" t="s">
-        <v>909</v>
+        <v>934</v>
       </c>
       <c r="N180" s="4" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="O180" s="4" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="P180" s="4" t="s">
-        <v>998</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="181" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>449</v>
+        <v>1133</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>444</v>
+        <v>78</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>2111</v>
+        <v>2078</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>2219</v>
+        <v>2370</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>638</v>
+        <v>332</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>2115</v>
+        <v>2092</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>641</v>
+        <v>172</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>660</v>
+        <v>161</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>2118</v>
+        <v>2106</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>2236</v>
+        <v>2384</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>674</v>
+        <v>208</v>
       </c>
       <c r="M181" s="4" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="N181" s="4" t="s">
-        <v>645</v>
+        <v>246</v>
       </c>
       <c r="O181" s="4" t="s">
-        <v>611</v>
+        <v>289</v>
       </c>
       <c r="P181" s="4" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="182" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>450</v>
+        <v>1134</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>1616</v>
+        <v>1599</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>1915</v>
+        <v>1825</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>2217</v>
+        <v>2280</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>1916</v>
+        <v>1834</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>141</v>
+        <v>351</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>1920</v>
+        <v>1843</v>
       </c>
       <c r="K182" s="4" t="s">
-        <v>2234</v>
+        <v>2287</v>
       </c>
       <c r="L182" s="4" t="s">
-        <v>192</v>
+        <v>352</v>
       </c>
       <c r="M182" s="4" t="s">
-        <v>910</v>
+        <v>894</v>
       </c>
       <c r="N182" s="4" t="s">
-        <v>227</v>
+        <v>838</v>
       </c>
       <c r="O182" s="4" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="P182" s="4" t="s">
-        <v>999</v>
+        <v>985</v>
       </c>
     </row>
     <row r="183" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>451</v>
+        <v>1137</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>445</v>
+        <v>703</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>2112</v>
+        <v>2081</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>2389</v>
+        <v>2373</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>639</v>
+        <v>852</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>2116</v>
+        <v>2095</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>642</v>
+        <v>847</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>661</v>
+        <v>848</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>2119</v>
+        <v>2109</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>2392</v>
+        <v>2387</v>
       </c>
       <c r="L183" s="4" t="s">
-        <v>675</v>
+        <v>849</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="N183" s="4" t="s">
-        <v>646</v>
+        <v>850</v>
       </c>
       <c r="O183" s="4" t="s">
-        <v>690</v>
+        <v>851</v>
       </c>
       <c r="P183" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="184" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>452</v>
+        <v>1156</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>53</v>
+        <v>1155</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>1619</v>
+        <v>1668</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>1883</v>
+        <v>2082</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>2220</v>
+        <v>2374</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>314</v>
+        <v>1175</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>1895</v>
+        <v>2096</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>103</v>
+        <v>1176</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>144</v>
+        <v>1177</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>1923</v>
+        <v>2110</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>2237</v>
+        <v>2388</v>
       </c>
       <c r="L184" s="4" t="s">
-        <v>193</v>
+        <v>1178</v>
       </c>
       <c r="M184" s="4" t="s">
-        <v>912</v>
+        <v>1179</v>
       </c>
       <c r="N184" s="4" t="s">
-        <v>228</v>
+        <v>1180</v>
       </c>
       <c r="O184" s="4" t="s">
-        <v>272</v>
+        <v>1181</v>
       </c>
       <c r="P184" s="4" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>1620</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>1884</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>2221</v>
-      </c>
-      <c r="F185" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G185" s="4" t="s">
-        <v>1899</v>
-      </c>
-      <c r="H185" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I185" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="J185" s="4" t="s">
-        <v>1924</v>
-      </c>
-      <c r="K185" s="4" t="s">
-        <v>2238</v>
-      </c>
-      <c r="L185" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="M185" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="N185" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="O185" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="P185" s="4" t="s">
-        <v>1002</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="186" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>704</v>
+        <v>446</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>55</v>
+        <v>443</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>1621</v>
+        <v>1669</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>1885</v>
+        <v>1855</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>2222</v>
+        <v>2199</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>316</v>
+        <v>637</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>1900</v>
+        <v>1864</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>105</v>
+        <v>640</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>146</v>
+        <v>659</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>1925</v>
-      </c>
-      <c r="K186" s="4" t="s">
-        <v>2239</v>
+        <v>2062</v>
+      </c>
+      <c r="K186" s="5" t="s">
+        <v>2208</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>195</v>
+        <v>686</v>
       </c>
       <c r="M186" s="4" t="s">
-        <v>914</v>
+        <v>940</v>
       </c>
       <c r="N186" s="4" t="s">
-        <v>230</v>
+        <v>644</v>
       </c>
       <c r="O186" s="4" t="s">
-        <v>274</v>
+        <v>689</v>
       </c>
       <c r="P186" s="4" t="s">
-        <v>1003</v>
+        <v>443</v>
       </c>
     </row>
     <row r="187" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>2541</v>
+        <v>447</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>2543</v>
+        <v>0</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>2548</v>
+        <v>1617</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>2544</v>
+        <v>1881</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>2549</v>
+        <v>2218</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>2550</v>
+        <v>312</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>2547</v>
+        <v>1897</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>2545</v>
+        <v>102</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>2546</v>
+        <v>142</v>
       </c>
       <c r="J187" s="4" t="s">
-        <v>2551</v>
+        <v>1921</v>
       </c>
       <c r="K187" s="4" t="s">
-        <v>2552</v>
+        <v>2235</v>
       </c>
       <c r="L187" s="4" t="s">
-        <v>2553</v>
+        <v>102</v>
       </c>
       <c r="M187" s="4" t="s">
-        <v>2554</v>
+        <v>911</v>
       </c>
       <c r="N187" s="4" t="s">
-        <v>2555</v>
+        <v>102</v>
       </c>
       <c r="O187" s="4" t="s">
-        <v>2556</v>
+        <v>271</v>
       </c>
       <c r="P187" s="4" t="s">
-        <v>2557</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="188" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>2561</v>
+        <v>448</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>2559</v>
+        <v>50</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>2564</v>
+        <v>1615</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>2565</v>
+        <v>1880</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>2566</v>
+        <v>2216</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>2567</v>
+        <v>310</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>2568</v>
+        <v>1896</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>2569</v>
+        <v>100</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>2570</v>
+        <v>140</v>
       </c>
       <c r="J188" s="4" t="s">
-        <v>2571</v>
+        <v>1919</v>
       </c>
       <c r="K188" s="4" t="s">
-        <v>2572</v>
+        <v>2233</v>
       </c>
       <c r="L188" s="4" t="s">
-        <v>2573</v>
+        <v>191</v>
       </c>
       <c r="M188" s="4" t="s">
-        <v>2574</v>
+        <v>909</v>
       </c>
       <c r="N188" s="4" t="s">
-        <v>2575</v>
+        <v>226</v>
       </c>
       <c r="O188" s="4" t="s">
-        <v>2563</v>
+        <v>269</v>
       </c>
       <c r="P188" s="4" t="s">
-        <v>2562</v>
+        <v>998</v>
       </c>
     </row>
     <row r="189" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>1318</v>
+        <v>449</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>1165</v>
+        <v>444</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>2023</v>
+        <v>2111</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>2390</v>
+        <v>2219</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>1294</v>
+        <v>638</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>2038</v>
+        <v>2115</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>1295</v>
+        <v>641</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>1296</v>
+        <v>660</v>
       </c>
       <c r="J189" s="4" t="s">
-        <v>2054</v>
+        <v>2118</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>2393</v>
+        <v>2236</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>1297</v>
+        <v>674</v>
       </c>
       <c r="M189" s="4" t="s">
-        <v>1298</v>
+        <v>941</v>
       </c>
       <c r="N189" s="4" t="s">
-        <v>1299</v>
+        <v>645</v>
       </c>
       <c r="O189" s="4" t="s">
-        <v>1300</v>
+        <v>611</v>
       </c>
       <c r="P189" s="4" t="s">
-        <v>1301</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="190" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>1344</v>
+        <v>450</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>1343</v>
+        <v>51</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>1673</v>
+        <v>1616</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>2113</v>
+        <v>1915</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>2391</v>
+        <v>2217</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>1386</v>
+        <v>311</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>2117</v>
+        <v>1916</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>1411</v>
+        <v>101</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>1412</v>
+        <v>141</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>2120</v>
+        <v>1920</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>2394</v>
+        <v>2234</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>1413</v>
+        <v>192</v>
       </c>
       <c r="M190" s="4" t="s">
-        <v>1414</v>
+        <v>910</v>
       </c>
       <c r="N190" s="4" t="s">
-        <v>1415</v>
+        <v>227</v>
       </c>
       <c r="O190" s="4" t="s">
-        <v>1416</v>
+        <v>270</v>
       </c>
       <c r="P190" s="4" t="s">
-        <v>1417</v>
+        <v>999</v>
       </c>
     </row>
     <row r="191" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>1157</v>
+        <v>451</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>1155</v>
+        <v>445</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>2374</v>
+        <v>2389</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>1175</v>
+        <v>639</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>2096</v>
+        <v>2116</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>1176</v>
+        <v>642</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>1177</v>
+        <v>661</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>2388</v>
+        <v>2392</v>
       </c>
       <c r="L191" s="4" t="s">
-        <v>1178</v>
+        <v>675</v>
       </c>
       <c r="M191" s="4" t="s">
-        <v>1179</v>
+        <v>942</v>
       </c>
       <c r="N191" s="4" t="s">
-        <v>1180</v>
+        <v>646</v>
       </c>
       <c r="O191" s="4" t="s">
-        <v>1181</v>
+        <v>690</v>
       </c>
       <c r="P191" s="4" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>2220</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G192" s="4" t="s">
+        <v>1895</v>
+      </c>
+      <c r="H192" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I192" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>1923</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>2237</v>
+      </c>
+      <c r="L192" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="M192" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="N192" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="O192" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="P192" s="4" t="s">
+        <v>1001</v>
+      </c>
+    </row>
     <row r="193" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>700</v>
+        <v>453</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>443</v>
+        <v>54</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>1669</v>
+        <v>1620</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>1855</v>
+        <v>1884</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>2199</v>
+        <v>2221</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>637</v>
+        <v>315</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>1864</v>
+        <v>1899</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>640</v>
+        <v>104</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>659</v>
+        <v>145</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>2062</v>
-      </c>
-      <c r="K193" s="5" t="s">
-        <v>2208</v>
+        <v>1924</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>2238</v>
       </c>
       <c r="L193" s="4" t="s">
-        <v>686</v>
+        <v>194</v>
       </c>
       <c r="M193" s="4" t="s">
-        <v>940</v>
+        <v>913</v>
       </c>
       <c r="N193" s="4" t="s">
-        <v>644</v>
+        <v>229</v>
       </c>
       <c r="O193" s="4" t="s">
-        <v>689</v>
+        <v>273</v>
       </c>
       <c r="P193" s="4" t="s">
-        <v>443</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="194" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K194" s="5"/>
+      <c r="A194" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>1900</v>
+      </c>
+      <c r="H194" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I194" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>1925</v>
+      </c>
+      <c r="K194" s="4" t="s">
+        <v>2239</v>
+      </c>
+      <c r="L194" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="M194" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="N194" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="O194" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="P194" s="4" t="s">
+        <v>1003</v>
+      </c>
     </row>
     <row r="195" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>466</v>
+        <v>2541</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>51</v>
+        <v>2543</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>1616</v>
+        <v>2548</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>1915</v>
+        <v>2544</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>2217</v>
+        <v>2549</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>311</v>
+        <v>2550</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>1916</v>
+        <v>2547</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>101</v>
+        <v>2545</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>141</v>
+        <v>2546</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>1920</v>
+        <v>2551</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>2234</v>
+        <v>2552</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>192</v>
+        <v>2553</v>
       </c>
       <c r="M195" s="4" t="s">
-        <v>910</v>
+        <v>2554</v>
       </c>
       <c r="N195" s="4" t="s">
-        <v>227</v>
+        <v>2555</v>
       </c>
       <c r="O195" s="4" t="s">
-        <v>270</v>
+        <v>2556</v>
       </c>
       <c r="P195" s="4" t="s">
-        <v>1043</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="196" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>467</v>
+        <v>2561</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>54</v>
+        <v>2559</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>1620</v>
+        <v>2564</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>1884</v>
+        <v>2565</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>2221</v>
+        <v>2566</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>315</v>
+        <v>2567</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>1899</v>
+        <v>2568</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>104</v>
+        <v>2569</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>145</v>
+        <v>2570</v>
       </c>
       <c r="J196" s="4" t="s">
-        <v>1924</v>
+        <v>2571</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>2238</v>
+        <v>2572</v>
       </c>
       <c r="L196" s="4" t="s">
-        <v>194</v>
+        <v>2573</v>
       </c>
       <c r="M196" s="4" t="s">
-        <v>913</v>
+        <v>2574</v>
       </c>
       <c r="N196" s="4" t="s">
-        <v>229</v>
+        <v>2575</v>
       </c>
       <c r="O196" s="4" t="s">
-        <v>273</v>
+        <v>2563</v>
       </c>
       <c r="P196" s="4" t="s">
-        <v>1002</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="197" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>468</v>
+        <v>1318</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>53</v>
+        <v>1165</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>1619</v>
+        <v>1672</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>1883</v>
+        <v>2023</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>2220</v>
+        <v>2390</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>314</v>
+        <v>1294</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>1895</v>
+        <v>2038</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>103</v>
+        <v>1295</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>144</v>
+        <v>1296</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>1923</v>
+        <v>2054</v>
       </c>
       <c r="K197" s="4" t="s">
-        <v>2237</v>
+        <v>2393</v>
       </c>
       <c r="L197" s="4" t="s">
-        <v>193</v>
+        <v>1297</v>
       </c>
       <c r="M197" s="4" t="s">
-        <v>912</v>
+        <v>1298</v>
       </c>
       <c r="N197" s="4" t="s">
-        <v>228</v>
+        <v>1299</v>
       </c>
       <c r="O197" s="4" t="s">
-        <v>272</v>
+        <v>1300</v>
       </c>
       <c r="P197" s="4" t="s">
-        <v>1001</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="198" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>483</v>
+        <v>1344</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>55</v>
+        <v>1343</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>1621</v>
+        <v>1673</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>1885</v>
+        <v>2113</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>2222</v>
+        <v>2391</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>316</v>
+        <v>1386</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>1900</v>
+        <v>2117</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>105</v>
+        <v>1411</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>146</v>
+        <v>1412</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>1925</v>
+        <v>2120</v>
       </c>
       <c r="K198" s="4" t="s">
-        <v>2239</v>
+        <v>2394</v>
       </c>
       <c r="L198" s="4" t="s">
-        <v>195</v>
+        <v>1413</v>
       </c>
       <c r="M198" s="4" t="s">
-        <v>914</v>
+        <v>1414</v>
       </c>
       <c r="N198" s="4" t="s">
-        <v>230</v>
+        <v>1415</v>
       </c>
       <c r="O198" s="4" t="s">
-        <v>274</v>
+        <v>1416</v>
       </c>
       <c r="P198" s="4" t="s">
-        <v>1003</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="199" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>2542</v>
+        <v>1157</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>2543</v>
+        <v>1155</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>2548</v>
+        <v>1668</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>2544</v>
+        <v>2114</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>2549</v>
+        <v>2374</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>2550</v>
+        <v>1175</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>2547</v>
+        <v>2096</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>2545</v>
+        <v>1176</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>2546</v>
+        <v>1177</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>2551</v>
+        <v>2121</v>
       </c>
       <c r="K199" s="4" t="s">
-        <v>2552</v>
+        <v>2388</v>
       </c>
       <c r="L199" s="4" t="s">
-        <v>2553</v>
+        <v>1178</v>
       </c>
       <c r="M199" s="4" t="s">
-        <v>2554</v>
+        <v>1179</v>
       </c>
       <c r="N199" s="4" t="s">
-        <v>2555</v>
+        <v>1180</v>
       </c>
       <c r="O199" s="4" t="s">
-        <v>2556</v>
+        <v>1181</v>
       </c>
       <c r="P199" s="4" t="s">
-        <v>2557</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
-        <v>2560</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>2559</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>2564</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>2565</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>2566</v>
-      </c>
-      <c r="F200" s="4" t="s">
-        <v>2567</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>2568</v>
-      </c>
-      <c r="H200" s="4" t="s">
-        <v>2569</v>
-      </c>
-      <c r="I200" s="4" t="s">
-        <v>2570</v>
-      </c>
-      <c r="J200" s="4" t="s">
-        <v>2571</v>
-      </c>
-      <c r="K200" s="4" t="s">
-        <v>2572</v>
-      </c>
-      <c r="L200" s="4" t="s">
-        <v>2573</v>
-      </c>
-      <c r="M200" s="4" t="s">
-        <v>2574</v>
-      </c>
-      <c r="N200" s="4" t="s">
-        <v>2575</v>
-      </c>
-      <c r="O200" s="4" t="s">
-        <v>2563</v>
-      </c>
-      <c r="P200" s="4" t="s">
-        <v>2562</v>
-      </c>
-    </row>
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="201" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>1147</v>
+        <v>700</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>1148</v>
+        <v>443</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>305</v>
+        <v>637</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>95</v>
+        <v>640</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>135</v>
+        <v>659</v>
       </c>
       <c r="J201" s="4" t="s">
-        <v>1851</v>
-      </c>
-      <c r="K201" s="4" t="s">
-        <v>2395</v>
+        <v>2062</v>
+      </c>
+      <c r="K201" s="5" t="s">
+        <v>2208</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>186</v>
+        <v>686</v>
       </c>
       <c r="M201" s="4" t="s">
-        <v>904</v>
+        <v>940</v>
       </c>
       <c r="N201" s="4" t="s">
-        <v>222</v>
+        <v>644</v>
       </c>
       <c r="O201" s="4" t="s">
-        <v>264</v>
+        <v>689</v>
       </c>
       <c r="P201" s="4" t="s">
-        <v>993</v>
+        <v>443</v>
       </c>
     </row>
     <row r="202" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>1880</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>2216</v>
-      </c>
-      <c r="F202" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="G202" s="4" t="s">
-        <v>1896</v>
-      </c>
-      <c r="H202" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I202" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J202" s="4" t="s">
-        <v>1919</v>
-      </c>
-      <c r="K202" s="4" t="s">
-        <v>2233</v>
-      </c>
-      <c r="L202" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="M202" s="4" t="s">
-        <v>909</v>
-      </c>
-      <c r="N202" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="O202" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="P202" s="4" t="s">
-        <v>998</v>
-      </c>
+      <c r="K202" s="5"/>
     </row>
     <row r="203" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>444</v>
+        <v>51</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>1670</v>
+        <v>1616</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>2111</v>
+        <v>1915</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>638</v>
+        <v>311</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>2115</v>
+        <v>1916</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>643</v>
+        <v>101</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>660</v>
+        <v>141</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>2118</v>
+        <v>1920</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="L203" s="4" t="s">
-        <v>674</v>
+        <v>192</v>
       </c>
       <c r="M203" s="4" t="s">
-        <v>943</v>
+        <v>910</v>
       </c>
       <c r="N203" s="4" t="s">
-        <v>645</v>
+        <v>227</v>
       </c>
       <c r="O203" s="4" t="s">
-        <v>611</v>
+        <v>270</v>
       </c>
       <c r="P203" s="4" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="204" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>454</v>
+        <v>54</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>1694</v>
+        <v>1620</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>2158</v>
+        <v>1884</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>2478</v>
+        <v>2221</v>
       </c>
       <c r="F204" s="4" t="s">
-        <v>735</v>
+        <v>315</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>2170</v>
+        <v>1899</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>759</v>
+        <v>104</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>673</v>
+        <v>145</v>
       </c>
       <c r="J204" s="4" t="s">
-        <v>2182</v>
+        <v>1924</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>2490</v>
+        <v>2238</v>
       </c>
       <c r="L204" s="4" t="s">
-        <v>676</v>
+        <v>194</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>944</v>
+        <v>913</v>
       </c>
       <c r="N204" s="4" t="s">
-        <v>647</v>
+        <v>229</v>
       </c>
       <c r="O204" s="4" t="s">
-        <v>831</v>
+        <v>273</v>
       </c>
       <c r="P204" s="4" t="s">
-        <v>1068</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="205" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>455</v>
+        <v>53</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>1695</v>
+        <v>1619</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>2159</v>
+        <v>1883</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>2479</v>
+        <v>2220</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>741</v>
+        <v>314</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>2171</v>
+        <v>1895</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>760</v>
+        <v>103</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>672</v>
+        <v>144</v>
       </c>
       <c r="J205" s="4" t="s">
-        <v>2183</v>
+        <v>1923</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>2491</v>
+        <v>2237</v>
       </c>
       <c r="L205" s="4" t="s">
-        <v>687</v>
+        <v>193</v>
       </c>
       <c r="M205" s="4" t="s">
-        <v>945</v>
+        <v>912</v>
       </c>
       <c r="N205" s="4" t="s">
-        <v>651</v>
+        <v>228</v>
       </c>
       <c r="O205" s="4" t="s">
-        <v>832</v>
+        <v>272</v>
       </c>
       <c r="P205" s="4" t="s">
-        <v>1069</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="206" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>456</v>
+        <v>55</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>1696</v>
+        <v>1621</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>2160</v>
+        <v>1885</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>2480</v>
+        <v>2222</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>742</v>
+        <v>316</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>2172</v>
+        <v>1900</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>761</v>
+        <v>105</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>671</v>
+        <v>146</v>
       </c>
       <c r="J206" s="4" t="s">
-        <v>2184</v>
+        <v>1925</v>
       </c>
       <c r="K206" s="4" t="s">
-        <v>2492</v>
+        <v>2239</v>
       </c>
       <c r="L206" s="4" t="s">
-        <v>688</v>
+        <v>195</v>
       </c>
       <c r="M206" s="4" t="s">
-        <v>946</v>
+        <v>914</v>
       </c>
       <c r="N206" s="4" t="s">
-        <v>650</v>
+        <v>230</v>
       </c>
       <c r="O206" s="4" t="s">
-        <v>833</v>
+        <v>274</v>
       </c>
       <c r="P206" s="4" t="s">
-        <v>1070</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="207" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>474</v>
+        <v>2542</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>457</v>
+        <v>2543</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>1697</v>
+        <v>2548</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>2161</v>
+        <v>2544</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>2481</v>
+        <v>2549</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>743</v>
+        <v>2550</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>2173</v>
+        <v>2547</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>770</v>
+        <v>2545</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>662</v>
+        <v>2546</v>
       </c>
       <c r="J207" s="4" t="s">
-        <v>2185</v>
+        <v>2551</v>
       </c>
       <c r="K207" s="4" t="s">
-        <v>2493</v>
+        <v>2552</v>
       </c>
       <c r="L207" s="4" t="s">
-        <v>677</v>
+        <v>2553</v>
       </c>
       <c r="M207" s="4" t="s">
-        <v>947</v>
+        <v>2554</v>
       </c>
       <c r="N207" s="4" t="s">
-        <v>648</v>
+        <v>2555</v>
       </c>
       <c r="O207" s="4" t="s">
-        <v>691</v>
+        <v>2556</v>
       </c>
       <c r="P207" s="4" t="s">
-        <v>1059</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="208" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>475</v>
+        <v>2560</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>458</v>
+        <v>2559</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>1698</v>
+        <v>2564</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>2162</v>
+        <v>2565</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>2482</v>
+        <v>2566</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>744</v>
+        <v>2567</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>2174</v>
+        <v>2568</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>762</v>
+        <v>2569</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>663</v>
+        <v>2570</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>2186</v>
+        <v>2571</v>
       </c>
       <c r="K208" s="4" t="s">
-        <v>2494</v>
+        <v>2572</v>
       </c>
       <c r="L208" s="4" t="s">
-        <v>678</v>
+        <v>2573</v>
       </c>
       <c r="M208" s="4" t="s">
-        <v>1079</v>
+        <v>2574</v>
       </c>
       <c r="N208" s="4" t="s">
-        <v>652</v>
+        <v>2575</v>
       </c>
       <c r="O208" s="4" t="s">
-        <v>692</v>
+        <v>2563</v>
       </c>
       <c r="P208" s="4" t="s">
-        <v>1060</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="209" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>476</v>
+        <v>1147</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>459</v>
+        <v>1148</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>1699</v>
+        <v>1674</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>2163</v>
+        <v>1858</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>2483</v>
+        <v>2202</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>736</v>
+        <v>305</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>2175</v>
+        <v>1867</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>763</v>
+        <v>95</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>664</v>
+        <v>135</v>
       </c>
       <c r="J209" s="4" t="s">
-        <v>2187</v>
+        <v>1851</v>
       </c>
       <c r="K209" s="4" t="s">
-        <v>2495</v>
+        <v>2395</v>
       </c>
       <c r="L209" s="4" t="s">
-        <v>679</v>
+        <v>186</v>
       </c>
       <c r="M209" s="4" t="s">
-        <v>1080</v>
+        <v>904</v>
       </c>
       <c r="N209" s="4" t="s">
-        <v>649</v>
+        <v>222</v>
       </c>
       <c r="O209" s="4" t="s">
-        <v>693</v>
+        <v>264</v>
       </c>
       <c r="P209" s="4" t="s">
-        <v>1061</v>
+        <v>993</v>
       </c>
     </row>
     <row r="210" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>460</v>
+        <v>50</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>1700</v>
+        <v>1615</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>2164</v>
+        <v>1880</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>2484</v>
+        <v>2216</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>745</v>
+        <v>310</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>2176</v>
+        <v>1896</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>764</v>
+        <v>100</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>665</v>
+        <v>140</v>
       </c>
       <c r="J210" s="4" t="s">
-        <v>2188</v>
+        <v>1919</v>
       </c>
       <c r="K210" s="4" t="s">
-        <v>2496</v>
+        <v>2233</v>
       </c>
       <c r="L210" s="4" t="s">
-        <v>680</v>
+        <v>191</v>
       </c>
       <c r="M210" s="4" t="s">
-        <v>948</v>
+        <v>909</v>
       </c>
       <c r="N210" s="4" t="s">
-        <v>653</v>
+        <v>226</v>
       </c>
       <c r="O210" s="4" t="s">
-        <v>695</v>
+        <v>269</v>
       </c>
       <c r="P210" s="4" t="s">
-        <v>1065</v>
+        <v>998</v>
       </c>
     </row>
     <row r="211" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>1701</v>
+        <v>1670</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>2165</v>
+        <v>2111</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>2485</v>
+        <v>2219</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>737</v>
+        <v>638</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>2177</v>
+        <v>2115</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>765</v>
+        <v>643</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="J211" s="4" t="s">
-        <v>2189</v>
+        <v>2118</v>
       </c>
       <c r="K211" s="4" t="s">
-        <v>2497</v>
+        <v>2236</v>
       </c>
       <c r="L211" s="4" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="M211" s="4" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="N211" s="4" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="O211" s="4" t="s">
-        <v>696</v>
+        <v>611</v>
       </c>
       <c r="P211" s="4" t="s">
-        <v>1066</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="212" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>1702</v>
+        <v>1694</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>2166</v>
+        <v>2158</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>2486</v>
+        <v>2478</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>2178</v>
+        <v>2170</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="J212" s="4" t="s">
-        <v>2190</v>
+        <v>2182</v>
       </c>
       <c r="K212" s="4" t="s">
-        <v>2498</v>
+        <v>2490</v>
       </c>
       <c r="L212" s="4" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="M212" s="4" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="N212" s="4" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="O212" s="4" t="s">
-        <v>694</v>
+        <v>831</v>
       </c>
       <c r="P212" s="4" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="213" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>1703</v>
+        <v>1695</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>2167</v>
+        <v>2159</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>2487</v>
+        <v>2479</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>2179</v>
+        <v>2171</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="J213" s="4" t="s">
-        <v>2191</v>
+        <v>2183</v>
       </c>
       <c r="K213" s="4" t="s">
-        <v>2499</v>
+        <v>2491</v>
       </c>
       <c r="L213" s="4" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="M213" s="4" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="N213" s="4" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="O213" s="4" t="s">
-        <v>697</v>
+        <v>832</v>
       </c>
       <c r="P213" s="4" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="214" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>1704</v>
+        <v>1696</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>2168</v>
+        <v>2160</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>2488</v>
+        <v>2480</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>2180</v>
+        <v>2172</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="J214" s="4" t="s">
-        <v>2192</v>
+        <v>2184</v>
       </c>
       <c r="K214" s="4" t="s">
-        <v>2500</v>
+        <v>2492</v>
       </c>
       <c r="L214" s="4" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="M214" s="4" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="N214" s="4" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="O214" s="4" t="s">
-        <v>698</v>
+        <v>833</v>
       </c>
       <c r="P214" s="4" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="215" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>1705</v>
+        <v>1697</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>2169</v>
+        <v>2161</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>2489</v>
+        <v>2481</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>2181</v>
+        <v>2173</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="J215" s="4" t="s">
-        <v>2193</v>
+        <v>2185</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>2501</v>
+        <v>2493</v>
       </c>
       <c r="L215" s="4" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="N215" s="4" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="O215" s="4" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="P215" s="4" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="216" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>711</v>
+        <v>475</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>723</v>
+        <v>458</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>1682</v>
+        <v>1698</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>2122</v>
+        <v>2162</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>2466</v>
+        <v>2482</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>2123</v>
+        <v>2174</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="I216" s="4" t="s">
-        <v>783</v>
+        <v>663</v>
       </c>
       <c r="J216" s="4" t="s">
-        <v>2124</v>
+        <v>2186</v>
       </c>
       <c r="K216" s="4" t="s">
-        <v>2502</v>
+        <v>2494</v>
       </c>
       <c r="L216" s="4" t="s">
-        <v>795</v>
+        <v>678</v>
       </c>
       <c r="M216" s="4" t="s">
-        <v>954</v>
+        <v>1079</v>
       </c>
       <c r="N216" s="4" t="s">
-        <v>807</v>
+        <v>652</v>
       </c>
       <c r="O216" s="4" t="s">
-        <v>819</v>
+        <v>692</v>
       </c>
       <c r="P216" s="4" t="s">
-        <v>1047</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="217" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>712</v>
+        <v>476</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>724</v>
+        <v>459</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>1683</v>
+        <v>1699</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>2125</v>
+        <v>2163</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>2467</v>
+        <v>2483</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>2136</v>
+        <v>2175</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="I217" s="4" t="s">
-        <v>784</v>
+        <v>664</v>
       </c>
       <c r="J217" s="4" t="s">
-        <v>2147</v>
+        <v>2187</v>
       </c>
       <c r="K217" s="4" t="s">
-        <v>2503</v>
+        <v>2495</v>
       </c>
       <c r="L217" s="4" t="s">
-        <v>796</v>
+        <v>679</v>
       </c>
       <c r="M217" s="4" t="s">
-        <v>955</v>
+        <v>1080</v>
       </c>
       <c r="N217" s="4" t="s">
-        <v>808</v>
+        <v>649</v>
       </c>
       <c r="O217" s="4" t="s">
-        <v>820</v>
+        <v>693</v>
       </c>
       <c r="P217" s="4" t="s">
-        <v>1048</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="218" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>713</v>
+        <v>477</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>725</v>
+        <v>460</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>1684</v>
+        <v>1700</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>2126</v>
+        <v>2164</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>2468</v>
+        <v>2484</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>2137</v>
+        <v>2176</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>785</v>
+        <v>665</v>
       </c>
       <c r="J218" s="4" t="s">
-        <v>2148</v>
+        <v>2188</v>
       </c>
       <c r="K218" s="4" t="s">
-        <v>2504</v>
+        <v>2496</v>
       </c>
       <c r="L218" s="4" t="s">
-        <v>797</v>
+        <v>680</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="N218" s="4" t="s">
-        <v>809</v>
+        <v>653</v>
       </c>
       <c r="O218" s="4" t="s">
-        <v>821</v>
+        <v>695</v>
       </c>
       <c r="P218" s="4" t="s">
-        <v>1049</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="219" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>714</v>
+        <v>478</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>726</v>
+        <v>461</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>1685</v>
+        <v>1701</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>2127</v>
+        <v>2165</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>2469</v>
+        <v>2485</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>2138</v>
+        <v>2177</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>782</v>
+        <v>765</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>786</v>
+        <v>666</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>2149</v>
+        <v>2189</v>
       </c>
       <c r="K219" s="4" t="s">
-        <v>2505</v>
+        <v>2497</v>
       </c>
       <c r="L219" s="4" t="s">
-        <v>798</v>
+        <v>681</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>1082</v>
+        <v>949</v>
       </c>
       <c r="N219" s="4" t="s">
-        <v>810</v>
+        <v>654</v>
       </c>
       <c r="O219" s="4" t="s">
-        <v>822</v>
+        <v>696</v>
       </c>
       <c r="P219" s="4" t="s">
-        <v>1050</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="220" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>715</v>
+        <v>479</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>727</v>
+        <v>462</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>1686</v>
+        <v>1702</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>2128</v>
+        <v>2166</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>2470</v>
+        <v>2486</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>2139</v>
+        <v>2178</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>787</v>
+        <v>667</v>
       </c>
       <c r="J220" s="4" t="s">
-        <v>2150</v>
+        <v>2190</v>
       </c>
       <c r="K220" s="4" t="s">
-        <v>2506</v>
+        <v>2498</v>
       </c>
       <c r="L220" s="4" t="s">
-        <v>799</v>
+        <v>682</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>1081</v>
+        <v>950</v>
       </c>
       <c r="N220" s="4" t="s">
-        <v>811</v>
+        <v>655</v>
       </c>
       <c r="O220" s="4" t="s">
-        <v>823</v>
+        <v>694</v>
       </c>
       <c r="P220" s="4" t="s">
-        <v>1051</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="221" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>716</v>
+        <v>480</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>728</v>
+        <v>463</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>1687</v>
+        <v>1703</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>2129</v>
+        <v>2167</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>2471</v>
+        <v>2487</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>2140</v>
+        <v>2179</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>788</v>
+        <v>668</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>2151</v>
+        <v>2191</v>
       </c>
       <c r="K221" s="4" t="s">
-        <v>2507</v>
+        <v>2499</v>
       </c>
       <c r="L221" s="4" t="s">
-        <v>800</v>
+        <v>683</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>1083</v>
+        <v>951</v>
       </c>
       <c r="N221" s="4" t="s">
-        <v>812</v>
+        <v>656</v>
       </c>
       <c r="O221" s="4" t="s">
-        <v>824</v>
+        <v>697</v>
       </c>
       <c r="P221" s="4" t="s">
-        <v>1052</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="222" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>717</v>
+        <v>481</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>729</v>
+        <v>464</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>1688</v>
+        <v>1704</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>2130</v>
+        <v>2168</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>2472</v>
+        <v>2488</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>2141</v>
+        <v>2180</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>789</v>
+        <v>669</v>
       </c>
       <c r="J222" s="4" t="s">
-        <v>2152</v>
+        <v>2192</v>
       </c>
       <c r="K222" s="4" t="s">
-        <v>2508</v>
+        <v>2500</v>
       </c>
       <c r="L222" s="4" t="s">
-        <v>801</v>
+        <v>684</v>
       </c>
       <c r="M222" s="4" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="N222" s="4" t="s">
-        <v>813</v>
+        <v>657</v>
       </c>
       <c r="O222" s="4" t="s">
-        <v>825</v>
+        <v>698</v>
       </c>
       <c r="P222" s="4" t="s">
-        <v>1053</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="223" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>718</v>
+        <v>482</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>730</v>
+        <v>465</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>1689</v>
+        <v>1705</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>2131</v>
+        <v>2169</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>2473</v>
+        <v>2489</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>2142</v>
+        <v>2181</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>790</v>
+        <v>670</v>
       </c>
       <c r="J223" s="4" t="s">
-        <v>2153</v>
+        <v>2193</v>
       </c>
       <c r="K223" s="4" t="s">
-        <v>2509</v>
+        <v>2501</v>
       </c>
       <c r="L223" s="4" t="s">
-        <v>802</v>
+        <v>685</v>
       </c>
       <c r="M223" s="4" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="N223" s="4" t="s">
-        <v>814</v>
+        <v>658</v>
       </c>
       <c r="O223" s="4" t="s">
-        <v>826</v>
+        <v>699</v>
       </c>
       <c r="P223" s="4" t="s">
-        <v>1054</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="224" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>1690</v>
+        <v>1682</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>2132</v>
+        <v>2122</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>2474</v>
+        <v>2466</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>2143</v>
+        <v>2123</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>2154</v>
+        <v>2124</v>
       </c>
       <c r="K224" s="4" t="s">
-        <v>2510</v>
+        <v>2502</v>
       </c>
       <c r="L224" s="4" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="M224" s="4" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="N224" s="4" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="O224" s="4" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="P224" s="4" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="225" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>1691</v>
+        <v>1683</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>2133</v>
+        <v>2125</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>2475</v>
+        <v>2467</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>2144</v>
+        <v>2136</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="J225" s="4" t="s">
-        <v>2155</v>
+        <v>2147</v>
       </c>
       <c r="K225" s="4" t="s">
-        <v>2511</v>
+        <v>2503</v>
       </c>
       <c r="L225" s="4" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="M225" s="4" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="N225" s="4" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="O225" s="4" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="P225" s="4" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="226" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>1692</v>
+        <v>1684</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>2134</v>
+        <v>2126</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>2476</v>
+        <v>2468</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>2145</v>
+        <v>2137</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>2156</v>
+        <v>2148</v>
       </c>
       <c r="K226" s="4" t="s">
-        <v>2512</v>
+        <v>2504</v>
       </c>
       <c r="L226" s="4" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="N226" s="4" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="O226" s="4" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="P226" s="4" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="227" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>1693</v>
+        <v>1685</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>2135</v>
+        <v>2127</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>2477</v>
+        <v>2469</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>2146</v>
+        <v>2138</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="I227" s="4" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="J227" s="4" t="s">
-        <v>2157</v>
+        <v>2149</v>
       </c>
       <c r="K227" s="4" t="s">
-        <v>2513</v>
+        <v>2505</v>
       </c>
       <c r="L227" s="4" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="M227" s="4" t="s">
-        <v>962</v>
+        <v>1082</v>
       </c>
       <c r="N227" s="4" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="O227" s="4" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="P227" s="4" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>2470</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>2139</v>
+      </c>
+      <c r="H228" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="J228" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="K228" s="4" t="s">
+        <v>2506</v>
+      </c>
+      <c r="L228" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="M228" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="N228" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="O228" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="P228" s="4" t="s">
+        <v>1051</v>
+      </c>
+    </row>
     <row r="229" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>1106</v>
+        <v>716</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>1110</v>
+        <v>728</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>1675</v>
+        <v>1687</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1953</v>
+        <v>2129</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>2396</v>
+        <v>2471</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>1231</v>
+        <v>739</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>1957</v>
+        <v>2140</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>1230</v>
+        <v>775</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>1110</v>
+        <v>788</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>1961</v>
+        <v>2151</v>
       </c>
       <c r="K229" s="4" t="s">
-        <v>2400</v>
+        <v>2507</v>
       </c>
       <c r="L229" s="4" t="s">
-        <v>1248</v>
+        <v>800</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>1247</v>
+        <v>1083</v>
       </c>
       <c r="N229" s="4" t="s">
-        <v>1230</v>
+        <v>812</v>
       </c>
       <c r="O229" s="4" t="s">
-        <v>1249</v>
+        <v>824</v>
       </c>
       <c r="P229" s="4" t="s">
-        <v>1250</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="230" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>1107</v>
+        <v>717</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>1111</v>
+        <v>729</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>1676</v>
+        <v>1688</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>1954</v>
+        <v>2130</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>2397</v>
+        <v>2472</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>1233</v>
+        <v>754</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>1958</v>
+        <v>2141</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>1234</v>
+        <v>776</v>
       </c>
       <c r="I230" s="4" t="s">
-        <v>1232</v>
+        <v>789</v>
       </c>
       <c r="J230" s="4" t="s">
-        <v>1962</v>
+        <v>2152</v>
       </c>
       <c r="K230" s="4" t="s">
-        <v>2401</v>
+        <v>2508</v>
       </c>
       <c r="L230" s="4" t="s">
-        <v>1244</v>
+        <v>801</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>1245</v>
+        <v>957</v>
       </c>
       <c r="N230" s="4" t="s">
-        <v>1246</v>
+        <v>813</v>
       </c>
       <c r="O230" s="4" t="s">
-        <v>1256</v>
+        <v>825</v>
       </c>
       <c r="P230" s="4" t="s">
-        <v>1255</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="231" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>1108</v>
+        <v>718</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>1112</v>
+        <v>730</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>1677</v>
+        <v>1689</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>1955</v>
+        <v>2131</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>2398</v>
+        <v>2473</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>1236</v>
+        <v>740</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>1959</v>
+        <v>2142</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>1235</v>
+        <v>777</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>1237</v>
+        <v>790</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>1963</v>
+        <v>2153</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>2402</v>
+        <v>2509</v>
       </c>
       <c r="L231" s="4" t="s">
-        <v>1242</v>
+        <v>802</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>1243</v>
+        <v>958</v>
       </c>
       <c r="N231" s="4" t="s">
-        <v>1235</v>
+        <v>814</v>
       </c>
       <c r="O231" s="4" t="s">
-        <v>1253</v>
+        <v>826</v>
       </c>
       <c r="P231" s="4" t="s">
-        <v>1254</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="232" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>1109</v>
+        <v>719</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>1113</v>
+        <v>731</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>1678</v>
+        <v>1690</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>1956</v>
+        <v>2132</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>2399</v>
+        <v>2474</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>1240</v>
+        <v>755</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>1960</v>
+        <v>2143</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>1239</v>
+        <v>778</v>
       </c>
       <c r="I232" s="4" t="s">
-        <v>1238</v>
+        <v>791</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>1964</v>
+        <v>2154</v>
       </c>
       <c r="K232" s="4" t="s">
-        <v>2403</v>
+        <v>2510</v>
       </c>
       <c r="L232" s="4" t="s">
-        <v>1239</v>
+        <v>803</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>1241</v>
+        <v>959</v>
       </c>
       <c r="N232" s="4" t="s">
-        <v>1239</v>
+        <v>815</v>
       </c>
       <c r="O232" s="4" t="s">
-        <v>1252</v>
+        <v>827</v>
       </c>
       <c r="P232" s="4" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>732</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>2133</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>2475</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H233" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="I233" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="J233" s="4" t="s">
+        <v>2155</v>
+      </c>
+      <c r="K233" s="4" t="s">
+        <v>2511</v>
+      </c>
+      <c r="L233" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="M233" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="N233" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="O233" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="P233" s="4" t="s">
+        <v>1056</v>
+      </c>
+    </row>
     <row r="234" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>2625</v>
+        <v>721</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>2626</v>
+        <v>733</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>2633</v>
+        <v>1692</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>2632</v>
+        <v>2134</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>2631</v>
+        <v>2476</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>2630</v>
+        <v>757</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>2629</v>
+        <v>2145</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>2628</v>
+        <v>780</v>
       </c>
       <c r="I234" s="4" t="s">
-        <v>2627</v>
+        <v>793</v>
       </c>
       <c r="J234" s="4" t="s">
-        <v>2634</v>
+        <v>2156</v>
       </c>
       <c r="K234" s="4" t="s">
-        <v>2635</v>
+        <v>2512</v>
       </c>
       <c r="L234" s="4" t="s">
-        <v>2636</v>
+        <v>805</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>2637</v>
+        <v>961</v>
       </c>
       <c r="N234" s="4" t="s">
-        <v>2638</v>
+        <v>817</v>
       </c>
       <c r="O234" s="4" t="s">
-        <v>2639</v>
+        <v>829</v>
       </c>
       <c r="P234" s="4" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>1829</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>2404</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G236" s="4" t="s">
-        <v>1838</v>
-      </c>
-      <c r="H236" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I236" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J236" s="4" t="s">
-        <v>1945</v>
-      </c>
-      <c r="K236" s="4" t="s">
-        <v>2406</v>
-      </c>
-      <c r="L236" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="M236" s="4" t="s">
-        <v>898</v>
-      </c>
-      <c r="N236" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="O236" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="P236" s="4" t="s">
-        <v>989</v>
-      </c>
-    </row>
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>2477</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>2146</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="I235" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="J235" s="4" t="s">
+        <v>2157</v>
+      </c>
+      <c r="K235" s="4" t="s">
+        <v>2513</v>
+      </c>
+      <c r="L235" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="M235" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="N235" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="O235" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="P235" s="4" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="237" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>38</v>
+        <v>1106</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>82</v>
+        <v>1110</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1943</v>
+        <v>1953</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>2405</v>
+        <v>2396</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>82</v>
+        <v>1231</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>1944</v>
+        <v>1957</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>119</v>
+        <v>1230</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>82</v>
+        <v>1110</v>
       </c>
       <c r="J237" s="4" t="s">
-        <v>1946</v>
+        <v>1961</v>
       </c>
       <c r="K237" s="4" t="s">
-        <v>2407</v>
+        <v>2400</v>
       </c>
       <c r="L237" s="4" t="s">
-        <v>210</v>
+        <v>1248</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>963</v>
+        <v>1247</v>
       </c>
       <c r="N237" s="4" t="s">
-        <v>247</v>
+        <v>1230</v>
       </c>
       <c r="O237" s="4" t="s">
-        <v>291</v>
+        <v>1249</v>
       </c>
       <c r="P237" s="4" t="s">
-        <v>1026</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="238" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>39</v>
+        <v>1107</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>83</v>
+        <v>1111</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1948</v>
+        <v>1954</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>2409</v>
+        <v>2397</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>334</v>
+        <v>1233</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>1949</v>
+        <v>1958</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>120</v>
+        <v>1234</v>
       </c>
       <c r="I238" s="4" t="s">
-        <v>163</v>
+        <v>1232</v>
       </c>
       <c r="J238" s="4" t="s">
-        <v>1947</v>
+        <v>1962</v>
       </c>
       <c r="K238" s="4" t="s">
-        <v>2408</v>
+        <v>2401</v>
       </c>
       <c r="L238" s="4" t="s">
-        <v>211</v>
+        <v>1244</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>964</v>
+        <v>1245</v>
       </c>
       <c r="N238" s="4" t="s">
-        <v>248</v>
+        <v>1246</v>
       </c>
       <c r="O238" s="4" t="s">
-        <v>292</v>
+        <v>1256</v>
       </c>
       <c r="P238" s="4" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>2398</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H239" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I239" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>1963</v>
+      </c>
+      <c r="K239" s="4" t="s">
+        <v>2402</v>
+      </c>
+      <c r="L239" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="M239" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="N239" s="4" t="s">
+        <v>1235</v>
+      </c>
+      <c r="O239" s="4" t="s">
+        <v>1253</v>
+      </c>
+      <c r="P239" s="4" t="s">
+        <v>1254</v>
+      </c>
+    </row>
     <row r="240" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>2593</v>
+        <v>1109</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>2595</v>
+        <v>1113</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>2597</v>
+        <v>1678</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>2619</v>
+        <v>1956</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>2620</v>
+        <v>2399</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>2621</v>
+        <v>1240</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>2622</v>
+        <v>1960</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>2623</v>
+        <v>1239</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>2624</v>
+        <v>1238</v>
       </c>
       <c r="J240" s="4" t="s">
-        <v>2618</v>
+        <v>1964</v>
       </c>
       <c r="K240" s="4" t="s">
-        <v>2617</v>
+        <v>2403</v>
       </c>
       <c r="L240" s="4" t="s">
-        <v>2616</v>
+        <v>1239</v>
       </c>
       <c r="M240" s="4" t="s">
-        <v>2615</v>
+        <v>1241</v>
       </c>
       <c r="N240" s="4" t="s">
-        <v>2614</v>
+        <v>1239</v>
       </c>
       <c r="O240" s="4" t="s">
-        <v>2613</v>
+        <v>1252</v>
       </c>
       <c r="P240" s="4" t="s">
-        <v>2612</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
-        <v>2592</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>1679</v>
-      </c>
-      <c r="D241" s="4" t="s">
-        <v>1950</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>2410</v>
-      </c>
-      <c r="F241" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G241" s="4" t="s">
-        <v>1951</v>
-      </c>
-      <c r="H241" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I241" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J241" s="4" t="s">
-        <v>1952</v>
-      </c>
-      <c r="K241" s="4" t="s">
-        <v>2411</v>
-      </c>
-      <c r="L241" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="M241" s="4" t="s">
-        <v>965</v>
-      </c>
-      <c r="N241" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="O241" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="P241" s="4" t="s">
-        <v>1028</v>
-      </c>
-    </row>
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="242" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>2633</v>
+      </c>
+      <c r="D242" s="4" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>2630</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>2629</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>2628</v>
+      </c>
+      <c r="I242" s="4" t="s">
+        <v>2627</v>
+      </c>
+      <c r="J242" s="4" t="s">
+        <v>2634</v>
+      </c>
+      <c r="K242" s="4" t="s">
+        <v>2635</v>
+      </c>
+      <c r="L242" s="4" t="s">
+        <v>2636</v>
+      </c>
+      <c r="M242" s="4" t="s">
+        <v>2637</v>
+      </c>
+      <c r="N242" s="4" t="s">
+        <v>2638</v>
+      </c>
+      <c r="O242" s="4" t="s">
+        <v>2639</v>
+      </c>
+      <c r="P242" s="4" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>2404</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>1838</v>
+      </c>
+      <c r="H244" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I244" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J244" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="K244" s="4" t="s">
+        <v>2406</v>
+      </c>
+      <c r="L244" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="M244" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="N244" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="O244" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="P244" s="4" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D245" s="4" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E245" s="4" t="s">
+        <v>2405</v>
+      </c>
+      <c r="F245" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G245" s="4" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H245" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I245" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J245" s="4" t="s">
+        <v>1946</v>
+      </c>
+      <c r="K245" s="4" t="s">
+        <v>2407</v>
+      </c>
+      <c r="L245" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="M245" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="N245" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="O245" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="P245" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D246" s="4" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>2409</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>1949</v>
+      </c>
+      <c r="H246" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I246" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J246" s="4" t="s">
+        <v>1947</v>
+      </c>
+      <c r="K246" s="4" t="s">
+        <v>2408</v>
+      </c>
+      <c r="L246" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="M246" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="N246" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="O246" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="P246" s="4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>2593</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D248" s="4" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E248" s="4" t="s">
+        <v>2620</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>2621</v>
+      </c>
+      <c r="G248" s="4" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H248" s="4" t="s">
+        <v>2623</v>
+      </c>
+      <c r="I248" s="4" t="s">
+        <v>2624</v>
+      </c>
+      <c r="J248" s="4" t="s">
+        <v>2618</v>
+      </c>
+      <c r="K248" s="4" t="s">
+        <v>2617</v>
+      </c>
+      <c r="L248" s="4" t="s">
+        <v>2616</v>
+      </c>
+      <c r="M248" s="4" t="s">
+        <v>2615</v>
+      </c>
+      <c r="N248" s="4" t="s">
+        <v>2614</v>
+      </c>
+      <c r="O248" s="4" t="s">
+        <v>2613</v>
+      </c>
+      <c r="P248" s="4" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>2592</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>2410</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>1951</v>
+      </c>
+      <c r="H249" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I249" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J249" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="K249" s="4" t="s">
+        <v>2411</v>
+      </c>
+      <c r="L249" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="M249" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="N249" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="O249" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="P249" s="4" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
         <v>2594</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B250" s="4" t="s">
         <v>2596</v>
       </c>
-      <c r="C242" s="4" t="s">
+      <c r="C250" s="4" t="s">
         <v>2598</v>
       </c>
-      <c r="D242" s="4" t="s">
+      <c r="D250" s="4" t="s">
         <v>2599</v>
       </c>
-      <c r="E242" s="4" t="s">
+      <c r="E250" s="4" t="s">
         <v>2600</v>
       </c>
-      <c r="F242" s="4" t="s">
+      <c r="F250" s="4" t="s">
         <v>2601</v>
       </c>
-      <c r="G242" s="4" t="s">
+      <c r="G250" s="4" t="s">
         <v>2602</v>
       </c>
-      <c r="H242" s="5" t="s">
+      <c r="H250" s="5" t="s">
         <v>2603</v>
       </c>
-      <c r="I242" s="4" t="s">
+      <c r="I250" s="4" t="s">
         <v>2604</v>
       </c>
-      <c r="J242" s="4" t="s">
+      <c r="J250" s="4" t="s">
         <v>2605</v>
       </c>
-      <c r="K242" s="4" t="s">
+      <c r="K250" s="4" t="s">
         <v>2606</v>
       </c>
-      <c r="L242" s="4" t="s">
+      <c r="L250" s="4" t="s">
         <v>2607</v>
       </c>
-      <c r="M242" s="4" t="s">
+      <c r="M250" s="4" t="s">
         <v>2608</v>
       </c>
-      <c r="N242" s="4" t="s">
+      <c r="N250" s="4" t="s">
         <v>2609</v>
       </c>
-      <c r="O242" s="4" t="s">
+      <c r="O250" s="4" t="s">
         <v>2610</v>
       </c>
-      <c r="P242" s="4" t="s">
+      <c r="P250" s="4" t="s">
         <v>2611</v>
       </c>
     </row>
